--- a/src/test/resources/unittesting/artifact/script/unitTest_LocalDb.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_LocalDb.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10812"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ml093043/projects/nexial/nexial-core/src/test/resources/unittesting/artifact/script/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B8495C4-68D0-0741-8638-B68AA60C6239}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr documentId="13_ncr:1_{8B8495C4-68D0-0741-8638-B68AA60C6239}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="10980" windowWidth="51200" windowHeight="21020" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView activeTab="1" firstSheet="1" tabRatio="500" windowHeight="21020" windowWidth="51200" xWindow="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="10980"/>
   </bookViews>
   <sheets>
-    <sheet name="#system" sheetId="4" state="hidden" r:id="rId1"/>
-    <sheet name="ImportCSV" sheetId="2" r:id="rId2"/>
+    <sheet name="#system" r:id="rId1" sheetId="4" state="hidden"/>
+    <sheet name="ImportCSV" r:id="rId2" sheetId="2"/>
   </sheets>
   <definedNames>
     <definedName name="aws.s3">'#system'!$B$2:$B$9</definedName>
@@ -47,7 +47,7 @@
     <definedName name="step">'#system'!$X$2:$X$4</definedName>
     <definedName name="target">'#system'!$A$2:$A$30</definedName>
     <definedName name="text">'#system'!$Y$2:$Y$2</definedName>
-    <definedName name="web">'#system'!$Y$2:$Y$129</definedName>
+    <definedName name="web">'#system'!$Y$2:$Y$133</definedName>
     <definedName name="webalert">'#system'!$Z$2:$Z$8</definedName>
     <definedName name="webcookie">'#system'!$AA$2:$AA$8</definedName>
     <definedName name="ws">'#system'!$AB$2:$AB$17</definedName>
@@ -67,7 +67,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="632" uniqueCount="567">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3403" uniqueCount="571">
   <si>
     <t>description</t>
   </si>
@@ -1782,12 +1782,25 @@
       OR "Address 1" = ''
 ;</t>
   </si>
+  <si>
+    <t>assertMultiSelect(locator)</t>
+  </si>
+  <si>
+    <t>assertSingleSelect(locator)</t>
+  </si>
+  <si>
+    <t>updateAttribute(locator,attrName,value)</t>
+  </si>
+  <si>
+    <t>saveISTDivsAsCsv(config,file)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11" x14ac:knownFonts="1">
+  <numFmts count="0"/>
+  <fonts count="91" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1864,8 +1877,513 @@
       <name val="Tahoma"/>
       <family val="2"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="139">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1884,8 +2402,773 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="163">
     <border>
       <left/>
       <right/>
@@ -1923,148 +3206,2018 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+  <cellXfs count="117">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="8" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="6" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyBorder="1" applyFont="1" borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="6" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="5" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="10" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="6" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="5" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="6" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="6" numFmtId="49" xfId="0">
       <alignment horizontal="right" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="5" numFmtId="49" xfId="0">
       <alignment horizontal="right" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="5" numFmtId="49" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="6" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="6" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="6" numFmtId="49" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="6" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="5" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="5" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="5" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="2" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="3" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="2" fillId="3" fontId="9" numFmtId="49" xfId="2">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="2" fillId="3" fontId="6" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="2" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" borderId="2" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="3" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="2" fillId="3" fontId="6" numFmtId="49" xfId="2">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="2" fillId="0" fontId="1" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="2" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" borderId="2" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="2" fillId="3" fontId="5" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" borderId="2" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="10" fillId="6" fontId="11" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="12" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="14" fillId="9" fontId="13" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="18" fillId="12" fontId="14" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="22" fillId="15" fontId="15" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="16" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="18" fontId="17" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="18" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="26" fillId="21" fontId="19" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="30" fillId="12" fontId="20" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="34" fillId="24" fontId="21" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="34" fillId="24" fontId="22" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="15" fontId="23" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="27" fontId="24" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="15" fontId="25" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="30" fontId="26" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="42" fillId="33" fontId="27" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="28" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="46" fillId="36" fontId="29" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="50" fillId="39" fontId="30" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="54" fillId="42" fontId="31" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="32" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="45" fontId="33" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="34" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="58" fillId="48" fontId="35" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="62" fillId="39" fontId="36" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="66" fillId="51" fontId="37" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="66" fillId="51" fontId="38" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="42" fontId="39" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="54" fontId="40" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="42" fontId="41" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="57" fontId="42" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="74" fillId="60" fontId="43" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="44" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="78" fillId="63" fontId="45" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="82" fillId="66" fontId="46" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="86" fillId="69" fontId="47" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="48" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="72" fontId="49" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="50" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="90" fillId="75" fontId="51" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="94" fillId="66" fontId="52" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="98" fillId="78" fontId="53" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="98" fillId="78" fontId="54" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="69" fontId="55" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="81" fontId="56" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="69" fontId="57" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="84" fontId="58" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="106" fillId="87" fontId="59" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="60" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="110" fillId="90" fontId="61" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="114" fillId="93" fontId="62" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="118" fillId="96" fontId="63" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="64" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="99" fontId="65" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="66" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="122" fillId="102" fontId="67" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="126" fillId="93" fontId="68" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="130" fillId="105" fontId="69" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="130" fillId="105" fontId="70" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="96" fontId="71" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="108" fontId="72" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="96" fontId="73" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="111" fontId="74" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="75" fillId="114" borderId="138" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="76" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="77" fillId="117" borderId="142" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="78" fillId="120" borderId="146" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="79" fillId="123" borderId="150" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="80" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="81" fillId="126" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="82" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="83" fillId="129" borderId="154" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="84" fillId="120" borderId="158" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="85" fillId="132" borderId="162" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="86" fillId="132" borderId="162" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="87" fillId="123" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="88" fillId="135" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="89" fillId="123" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="90" fillId="138" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
-    <cellStyle name="Followed Hyperlink" xfId="1" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="9" hidden="1" name="Followed Hyperlink" xfId="1"/>
+    <cellStyle builtinId="9" hidden="1" name="Followed Hyperlink" xfId="3"/>
+    <cellStyle builtinId="8" name="Hyperlink" xfId="2"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
   <dxfs count="6">
     <dxf>
@@ -2128,7 +5281,7 @@
       </fill>
     </dxf>
   </dxfs>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleMedium7" defaultTableStyle="TableStyleMedium9"/>
   <colors>
     <mruColors>
       <color rgb="FFF8F7F9"/>
@@ -2153,10 +5306,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -2191,7 +5344,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin panose="020F0302020204030204" typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic Light"/>
@@ -2226,7 +5379,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic"/>
@@ -2320,21 +5473,21 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="6350">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="12700">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="19050">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -2351,7 +5504,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw algn="ctr" blurRad="57150" dir="5400000" dist="19050" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="63000"/>
               </a:srgbClr>
@@ -2403,26 +5556,26 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" name="Office Theme" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AD129"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:AE133"/>
   <sheetViews>
-    <sheetView zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+    <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="18" width="8.33203125" customWidth="1" collapsed="1"/>
+    <col min="1" max="18" customWidth="true" width="8.33203125" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="1">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -2514,7 +5667,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="2" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="2">
       <c r="A2" t="s">
         <v>366</v>
       </c>
@@ -2606,7 +5759,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="3" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="3">
       <c r="A3" t="s">
         <v>450</v>
       </c>
@@ -2692,7 +5845,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="4" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="4">
       <c r="A4" t="s">
         <v>471</v>
       </c>
@@ -2775,7 +5928,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="5">
       <c r="A5" t="s">
         <v>13</v>
       </c>
@@ -2849,7 +6002,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="6">
       <c r="A6" t="s">
         <v>49</v>
       </c>
@@ -2917,7 +6070,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="7">
       <c r="A7" t="s">
         <v>21</v>
       </c>
@@ -2979,7 +6132,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="8">
       <c r="A8" t="s">
         <v>22</v>
       </c>
@@ -3035,7 +6188,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="9">
       <c r="A9" t="s">
         <v>23</v>
       </c>
@@ -3082,7 +6235,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="10">
       <c r="A10" t="s">
         <v>343</v>
       </c>
@@ -3123,7 +6276,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="11">
       <c r="A11" t="s">
         <v>14</v>
       </c>
@@ -3161,7 +6314,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="12">
       <c r="A12" t="s">
         <v>329</v>
       </c>
@@ -3199,7 +6352,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="13">
       <c r="A13" t="s">
         <v>24</v>
       </c>
@@ -3234,7 +6387,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="14">
       <c r="A14" t="s">
         <v>502</v>
       </c>
@@ -3269,7 +6422,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="15">
       <c r="A15" t="s">
         <v>472</v>
       </c>
@@ -3301,7 +6454,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="16">
       <c r="A16" t="s">
         <v>192</v>
       </c>
@@ -3333,7 +6486,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="17" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="17">
       <c r="A17" t="s">
         <v>50</v>
       </c>
@@ -3359,7 +6512,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="18" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="18">
       <c r="A18" t="s">
         <v>235</v>
       </c>
@@ -3382,7 +6535,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="19" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="19">
       <c r="A19" t="s">
         <v>51</v>
       </c>
@@ -3402,7 +6555,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="20" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="20">
       <c r="A20" t="s">
         <v>391</v>
       </c>
@@ -3422,7 +6575,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="21" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="21">
       <c r="A21" t="s">
         <v>407</v>
       </c>
@@ -3442,7 +6595,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="22" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="22">
       <c r="A22" t="s">
         <v>408</v>
       </c>
@@ -3462,7 +6615,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="23" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="23">
       <c r="A23" t="s">
         <v>352</v>
       </c>
@@ -3482,7 +6635,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="24" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="24">
       <c r="A24" t="s">
         <v>392</v>
       </c>
@@ -3496,13 +6649,13 @@
         <v>387</v>
       </c>
       <c r="Y24" t="s">
-        <v>107</v>
+        <v>567</v>
       </c>
       <c r="AD24" t="s">
         <v>528</v>
       </c>
     </row>
-    <row r="25" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="25">
       <c r="A25" t="s">
         <v>52</v>
       </c>
@@ -3516,13 +6669,13 @@
         <v>519</v>
       </c>
       <c r="Y25" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="AD25" t="s">
         <v>529</v>
       </c>
     </row>
-    <row r="26" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="26">
       <c r="A26" t="s">
         <v>53</v>
       </c>
@@ -3536,13 +6689,13 @@
         <v>83</v>
       </c>
       <c r="Y26" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="AD26" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="27" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="27">
       <c r="A27" t="s">
         <v>54</v>
       </c>
@@ -3556,13 +6709,13 @@
         <v>429</v>
       </c>
       <c r="Y27" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="AD27" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="28" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="28">
       <c r="A28" t="s">
         <v>55</v>
       </c>
@@ -3576,10 +6729,10 @@
         <v>44</v>
       </c>
       <c r="Y28" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="29" spans="1:30" x14ac:dyDescent="0.2">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="29">
       <c r="A29" t="s">
         <v>409</v>
       </c>
@@ -3593,10 +6746,10 @@
         <v>45</v>
       </c>
       <c r="Y29" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="30" spans="1:30" x14ac:dyDescent="0.2">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="30">
       <c r="A30" t="s">
         <v>223</v>
       </c>
@@ -3607,10 +6760,10 @@
         <v>212</v>
       </c>
       <c r="Y30" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="31" spans="1:30" x14ac:dyDescent="0.2">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="31">
       <c r="E31" t="s">
         <v>411</v>
       </c>
@@ -3618,10 +6771,10 @@
         <v>271</v>
       </c>
       <c r="Y31" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="32" spans="1:30" x14ac:dyDescent="0.2">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="32">
       <c r="E32" t="s">
         <v>62</v>
       </c>
@@ -3629,10 +6782,10 @@
         <v>281</v>
       </c>
       <c r="Y32" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="33" spans="5:25" x14ac:dyDescent="0.2">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="33">
       <c r="E33" t="s">
         <v>63</v>
       </c>
@@ -3640,10 +6793,10 @@
         <v>504</v>
       </c>
       <c r="Y33" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="34" spans="5:25" x14ac:dyDescent="0.2">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="34">
       <c r="E34" t="s">
         <v>64</v>
       </c>
@@ -3651,10 +6804,10 @@
         <v>256</v>
       </c>
       <c r="Y34" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="35" spans="5:25" x14ac:dyDescent="0.2">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="35">
       <c r="E35" t="s">
         <v>65</v>
       </c>
@@ -3662,10 +6815,10 @@
         <v>326</v>
       </c>
       <c r="Y35" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="36" spans="5:25" x14ac:dyDescent="0.2">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="36">
       <c r="E36" t="s">
         <v>66</v>
       </c>
@@ -3673,10 +6826,10 @@
         <v>303</v>
       </c>
       <c r="Y36" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="37" spans="5:25" x14ac:dyDescent="0.2">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="37">
       <c r="E37" t="s">
         <v>67</v>
       </c>
@@ -3684,10 +6837,10 @@
         <v>257</v>
       </c>
       <c r="Y37" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="38" spans="5:25" x14ac:dyDescent="0.2">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="38">
       <c r="E38" t="s">
         <v>68</v>
       </c>
@@ -3695,10 +6848,10 @@
         <v>304</v>
       </c>
       <c r="Y38" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="39" spans="5:25" x14ac:dyDescent="0.2">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="39">
       <c r="E39" t="s">
         <v>69</v>
       </c>
@@ -3706,666 +6859,686 @@
         <v>263</v>
       </c>
       <c r="Y39" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="40" spans="5:25" x14ac:dyDescent="0.2">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="40">
       <c r="G40" t="s">
         <v>76</v>
       </c>
       <c r="Y40" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="41" spans="5:25" x14ac:dyDescent="0.2">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="41">
       <c r="G41" t="s">
         <v>208</v>
       </c>
       <c r="Y41" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="42" spans="5:25" x14ac:dyDescent="0.2">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="42">
       <c r="G42" t="s">
         <v>534</v>
       </c>
       <c r="Y42" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="43" spans="5:25" x14ac:dyDescent="0.2">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="43">
       <c r="G43" t="s">
         <v>285</v>
       </c>
       <c r="Y43" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="44" spans="5:25" x14ac:dyDescent="0.2">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="44">
       <c r="G44" t="s">
         <v>296</v>
       </c>
       <c r="Y44" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="45" spans="5:25" x14ac:dyDescent="0.2">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="45">
       <c r="G45" t="s">
         <v>297</v>
       </c>
       <c r="Y45" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="46" spans="5:25" x14ac:dyDescent="0.2">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="46">
       <c r="G46" t="s">
         <v>339</v>
       </c>
       <c r="Y46" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="47" spans="5:25" x14ac:dyDescent="0.2">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="47">
       <c r="G47" t="s">
         <v>338</v>
       </c>
       <c r="Y47" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="48" spans="5:25" x14ac:dyDescent="0.2">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="48">
       <c r="G48" t="s">
         <v>207</v>
       </c>
       <c r="Y48" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="49" spans="7:25" x14ac:dyDescent="0.2">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="49">
       <c r="G49" t="s">
         <v>316</v>
       </c>
       <c r="Y49" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="50" spans="7:25" x14ac:dyDescent="0.2">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="50">
       <c r="G50" t="s">
         <v>335</v>
       </c>
       <c r="Y50" t="s">
-        <v>531</v>
-      </c>
-    </row>
-    <row r="51" spans="7:25" x14ac:dyDescent="0.2">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="51">
       <c r="G51" t="s">
         <v>363</v>
       </c>
       <c r="Y51" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="52" spans="7:25" x14ac:dyDescent="0.2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="52">
       <c r="G52" t="s">
         <v>298</v>
       </c>
       <c r="Y52" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="53" spans="7:25" x14ac:dyDescent="0.2">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="53">
       <c r="G53" t="s">
         <v>351</v>
       </c>
       <c r="Y53" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="54" spans="7:25" x14ac:dyDescent="0.2">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="54">
       <c r="G54" t="s">
         <v>327</v>
       </c>
       <c r="Y54" t="s">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="55" spans="7:25" x14ac:dyDescent="0.2">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="55">
       <c r="G55" t="s">
         <v>264</v>
       </c>
       <c r="Y55" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="56" spans="7:25" x14ac:dyDescent="0.2">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="56">
       <c r="G56" t="s">
         <v>288</v>
       </c>
       <c r="Y56" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="57" spans="7:25" x14ac:dyDescent="0.2">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="57">
       <c r="G57" t="s">
         <v>289</v>
       </c>
       <c r="Y57" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="58" spans="7:25" x14ac:dyDescent="0.2">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="58">
       <c r="G58" t="s">
         <v>535</v>
       </c>
       <c r="Y58" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="59" spans="7:25" x14ac:dyDescent="0.2">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="59">
       <c r="G59" t="s">
         <v>290</v>
       </c>
       <c r="Y59" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="60" spans="7:25" x14ac:dyDescent="0.2">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="60">
       <c r="G60" t="s">
         <v>299</v>
       </c>
       <c r="Y60" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="61" spans="7:25" x14ac:dyDescent="0.2">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="61">
       <c r="G61" t="s">
         <v>308</v>
       </c>
       <c r="Y61" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="62" spans="7:25" x14ac:dyDescent="0.2">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="62">
       <c r="G62" t="s">
         <v>333</v>
       </c>
       <c r="Y62" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="63" spans="7:25" x14ac:dyDescent="0.2">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="63">
       <c r="G63" t="s">
         <v>305</v>
       </c>
       <c r="Y63" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="64" spans="7:25" x14ac:dyDescent="0.2">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="64">
       <c r="G64" t="s">
         <v>306</v>
       </c>
       <c r="Y64" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="65" spans="7:25" x14ac:dyDescent="0.2">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="65">
       <c r="G65" t="s">
         <v>364</v>
       </c>
       <c r="Y65" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="66" spans="7:25" x14ac:dyDescent="0.2">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="66">
       <c r="G66" t="s">
         <v>365</v>
       </c>
       <c r="Y66" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="67" spans="7:25" x14ac:dyDescent="0.2">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="67">
       <c r="G67" t="s">
         <v>341</v>
       </c>
       <c r="Y67" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="68" spans="7:25" x14ac:dyDescent="0.2">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="68">
       <c r="G68" t="s">
         <v>309</v>
       </c>
       <c r="Y68" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="69" spans="7:25" x14ac:dyDescent="0.2">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="69">
       <c r="G69" t="s">
         <v>265</v>
       </c>
       <c r="Y69" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="70" spans="7:25" x14ac:dyDescent="0.2">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="70">
       <c r="G70" t="s">
         <v>520</v>
       </c>
       <c r="Y70" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="71" spans="7:25" x14ac:dyDescent="0.2">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="71">
       <c r="G71" t="s">
         <v>310</v>
       </c>
       <c r="Y71" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="72" spans="7:25" x14ac:dyDescent="0.2">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="72">
       <c r="G72" t="s">
         <v>405</v>
       </c>
       <c r="Y72" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="73" spans="7:25" x14ac:dyDescent="0.2">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="73">
       <c r="G73" t="s">
         <v>300</v>
       </c>
       <c r="Y73" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="74" spans="7:25" x14ac:dyDescent="0.2">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="74">
       <c r="G74" t="s">
         <v>406</v>
       </c>
       <c r="Y74" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="75" spans="7:25" x14ac:dyDescent="0.2">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="75">
       <c r="G75" t="s">
         <v>258</v>
       </c>
       <c r="Y75" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="76" spans="7:25" x14ac:dyDescent="0.2">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="76">
       <c r="G76" t="s">
         <v>505</v>
       </c>
       <c r="Y76" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="77" spans="7:25" x14ac:dyDescent="0.2">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="77">
       <c r="G77" t="s">
         <v>340</v>
       </c>
       <c r="Y77" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="78" spans="7:25" x14ac:dyDescent="0.2">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="78">
       <c r="G78" t="s">
         <v>276</v>
       </c>
       <c r="Y78" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="79" spans="7:25" x14ac:dyDescent="0.2">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="79">
       <c r="G79" t="s">
         <v>282</v>
       </c>
       <c r="Y79" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="80" spans="7:25" x14ac:dyDescent="0.2">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="80">
       <c r="G80" t="s">
         <v>287</v>
       </c>
       <c r="Y80" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="81" spans="7:25" x14ac:dyDescent="0.2">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="81">
       <c r="G81" t="s">
         <v>424</v>
       </c>
       <c r="Y81" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="82" spans="7:25" x14ac:dyDescent="0.2">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="82">
       <c r="G82" t="s">
         <v>328</v>
       </c>
       <c r="Y82" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="83" spans="7:25" x14ac:dyDescent="0.2">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="83">
       <c r="G83" t="s">
         <v>266</v>
       </c>
       <c r="Y83" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="84" spans="7:25" x14ac:dyDescent="0.2">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="84">
       <c r="G84" t="s">
         <v>277</v>
       </c>
       <c r="Y84" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="85" spans="7:25" x14ac:dyDescent="0.2">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="85">
       <c r="G85" t="s">
         <v>283</v>
       </c>
       <c r="Y85" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="86" spans="7:25" x14ac:dyDescent="0.2">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="86">
       <c r="G86" t="s">
         <v>272</v>
       </c>
       <c r="Y86" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="87" spans="7:25" x14ac:dyDescent="0.2">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="87">
       <c r="G87" t="s">
         <v>523</v>
       </c>
       <c r="Y87" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="88" spans="7:25" x14ac:dyDescent="0.2">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="88">
       <c r="G88" t="s">
         <v>267</v>
       </c>
       <c r="Y88" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="89" spans="7:25" x14ac:dyDescent="0.2">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="89">
       <c r="G89" t="s">
         <v>284</v>
       </c>
       <c r="Y89" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="90" spans="7:25" x14ac:dyDescent="0.2">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="90">
       <c r="G90" t="s">
         <v>268</v>
       </c>
       <c r="Y90" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="91" spans="7:25" x14ac:dyDescent="0.2">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="91">
       <c r="G91" t="s">
         <v>269</v>
       </c>
       <c r="Y91" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="92" spans="7:25" x14ac:dyDescent="0.2">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="92">
       <c r="G92" t="s">
         <v>301</v>
       </c>
       <c r="Y92" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="93" spans="7:25" x14ac:dyDescent="0.2">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="93">
       <c r="G93" t="s">
         <v>307</v>
       </c>
       <c r="Y93" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="94" spans="7:25" x14ac:dyDescent="0.2">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="94">
       <c r="G94" t="s">
         <v>291</v>
       </c>
       <c r="Y94" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="95" spans="7:25" x14ac:dyDescent="0.2">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="95">
       <c r="G95" t="s">
         <v>336</v>
       </c>
       <c r="Y95" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="96" spans="7:25" x14ac:dyDescent="0.2">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="96">
       <c r="G96" t="s">
         <v>273</v>
       </c>
       <c r="Y96" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="97" spans="7:25" x14ac:dyDescent="0.2">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="97">
       <c r="G97" t="s">
         <v>274</v>
       </c>
       <c r="Y97" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="Y98" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="Y99" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="Y100" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="98" spans="7:25" x14ac:dyDescent="0.2">
-      <c r="Y98" t="s">
+    <row r="101">
+      <c r="Y101" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="99" spans="7:25" x14ac:dyDescent="0.2">
-      <c r="Y99" t="s">
+    <row r="102">
+      <c r="Y102" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="100" spans="7:25" x14ac:dyDescent="0.2">
-      <c r="Y100" t="s">
+    <row r="103">
+      <c r="Y103" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="101" spans="7:25" x14ac:dyDescent="0.2">
-      <c r="Y101" t="s">
+    <row r="104">
+      <c r="Y104" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="102" spans="7:25" x14ac:dyDescent="0.2">
-      <c r="Y102" t="s">
+    <row r="105">
+      <c r="Y105" t="s">
         <v>493</v>
       </c>
     </row>
-    <row r="103" spans="7:25" x14ac:dyDescent="0.2">
-      <c r="Y103" t="s">
+    <row r="106">
+      <c r="Y106" t="s">
         <v>517</v>
       </c>
     </row>
-    <row r="104" spans="7:25" x14ac:dyDescent="0.2">
-      <c r="Y104" t="s">
+    <row r="107">
+      <c r="Y107" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="105" spans="7:25" x14ac:dyDescent="0.2">
-      <c r="Y105" t="s">
+    <row r="108">
+      <c r="Y108" t="s">
         <v>518</v>
       </c>
     </row>
-    <row r="106" spans="7:25" x14ac:dyDescent="0.2">
-      <c r="Y106" t="s">
+    <row r="109">
+      <c r="Y109" t="s">
         <v>378</v>
       </c>
     </row>
-    <row r="107" spans="7:25" x14ac:dyDescent="0.2">
-      <c r="Y107" t="s">
+    <row r="110">
+      <c r="Y110" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="108" spans="7:25" x14ac:dyDescent="0.2">
-      <c r="Y108" t="s">
+    <row r="111">
+      <c r="Y111" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="109" spans="7:25" x14ac:dyDescent="0.2">
-      <c r="Y109" t="s">
+    <row r="112">
+      <c r="Y112" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="110" spans="7:25" x14ac:dyDescent="0.2">
-      <c r="Y110" t="s">
+    <row r="113">
+      <c r="Y113" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="111" spans="7:25" x14ac:dyDescent="0.2">
-      <c r="Y111" t="s">
+    <row r="114">
+      <c r="Y114" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="112" spans="7:25" x14ac:dyDescent="0.2">
-      <c r="Y112" t="s">
+    <row r="115">
+      <c r="Y115" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="113" spans="25:25" x14ac:dyDescent="0.2">
-      <c r="Y113" t="s">
+    <row r="116">
+      <c r="Y116" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="114" spans="25:25" x14ac:dyDescent="0.2">
-      <c r="Y114" t="s">
+    <row r="117">
+      <c r="Y117" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="115" spans="25:25" x14ac:dyDescent="0.2">
-      <c r="Y115" t="s">
+    <row r="118">
+      <c r="Y118" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="116" spans="25:25" x14ac:dyDescent="0.2">
-      <c r="Y116" t="s">
+    <row r="119">
+      <c r="Y119" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="117" spans="25:25" x14ac:dyDescent="0.2">
-      <c r="Y117" t="s">
+    <row r="120">
+      <c r="Y120" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="118" spans="25:25" x14ac:dyDescent="0.2">
-      <c r="Y118" t="s">
+    <row r="121">
+      <c r="Y121" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="119" spans="25:25" x14ac:dyDescent="0.2">
-      <c r="Y119" t="s">
+    <row r="122">
+      <c r="Y122" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="120" spans="25:25" x14ac:dyDescent="0.2">
-      <c r="Y120" t="s">
+    <row r="123">
+      <c r="Y123" t="s">
         <v>439</v>
       </c>
     </row>
-    <row r="121" spans="25:25" x14ac:dyDescent="0.2">
-      <c r="Y121" t="s">
+    <row r="124">
+      <c r="Y124" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="122" spans="25:25" x14ac:dyDescent="0.2">
-      <c r="Y122" t="s">
+    <row r="125">
+      <c r="Y125" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="Y126" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="123" spans="25:25" x14ac:dyDescent="0.2">
-      <c r="Y123" t="s">
+    <row r="127">
+      <c r="Y127" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="124" spans="25:25" x14ac:dyDescent="0.2">
-      <c r="Y124" t="s">
+    <row r="128">
+      <c r="Y128" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="125" spans="25:25" x14ac:dyDescent="0.2">
-      <c r="Y125" t="s">
+    <row r="129">
+      <c r="Y129" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="126" spans="25:25" x14ac:dyDescent="0.2">
-      <c r="Y126" t="s">
+    <row r="130">
+      <c r="Y130" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="127" spans="25:25" x14ac:dyDescent="0.2">
-      <c r="Y127" t="s">
+    <row r="131">
+      <c r="Y131" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="128" spans="25:25" x14ac:dyDescent="0.2">
-      <c r="Y128" t="s">
+    <row r="132">
+      <c r="Y132" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="129" spans="25:25" x14ac:dyDescent="0.2">
-      <c r="Y129" t="s">
+    <row r="133">
+      <c r="Y133" t="s">
         <v>166</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:O301"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:P301"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F17" sqref="F17"/>
+    <sheetView tabSelected="true" workbookViewId="0" zoomScale="100">
+      <pane activePane="bottomLeft" state="frozen" topLeftCell="A5" ySplit="4"/>
+      <selection activeCell="A5" pane="bottomLeft" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="20" style="28" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="41.6640625" style="9" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="10.83203125" style="14" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="29.6640625" style="10" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="58.6640625" style="10" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="56.5" style="10" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="9" width="20" style="10" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="20" style="23" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="1.6640625" style="11" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="12" style="16" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="12.5" style="17" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="19" style="16" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="49.83203125" style="11" customWidth="1" collapsed="1"/>
-    <col min="16" max="16384" width="10.83203125" style="4" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" style="28" width="20.0" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="9" width="41.6640625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="14" width="10.83203125" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" style="10" width="29.6640625" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" style="10" width="58.6640625" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" style="10" width="56.5" collapsed="true"/>
+    <col min="7" max="9" customWidth="true" style="10" width="20.0" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" style="23" width="20.0" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" style="11" width="1.6640625" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" style="16" width="12.0" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" style="17" width="12.5" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" style="16" width="19.0" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" style="11" width="49.83203125" collapsed="true"/>
+    <col min="16" max="16384" style="4" width="10.83203125" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="23" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23" r="1" spans="1:15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="29" t="s">
         <v>0</v>
       </c>
@@ -4396,7 +7569,7 @@
       <c r="N1" s="33"/>
       <c r="O1" s="34"/>
     </row>
-    <row r="2" spans="1:15" ht="93" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="93" r="2" spans="1:15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="31" t="s">
         <v>537</v>
       </c>
@@ -4417,7 +7590,7 @@
       <c r="N2" s="36"/>
       <c r="O2" s="36"/>
     </row>
-    <row r="3" spans="1:15" ht="10" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="10" r="3" spans="1:15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="27"/>
       <c r="B3" s="5"/>
       <c r="C3" s="12"/>
@@ -4434,7 +7607,7 @@
       <c r="N3" s="15"/>
       <c r="O3" s="3"/>
     </row>
-    <row r="4" spans="1:15" s="6" customFormat="1" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="24" r="4" s="6" spans="1:15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
         <v>217</v>
       </c>
@@ -4479,7 +7652,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="27" t="s">
         <v>539</v>
       </c>
@@ -4506,7 +7679,7 @@
       <c r="N5" s="15"/>
       <c r="O5" s="3"/>
     </row>
-    <row r="6" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A6" s="27"/>
       <c r="B6" s="5"/>
       <c r="C6" s="13" t="s">
@@ -4531,7 +7704,7 @@
       <c r="N6" s="15"/>
       <c r="O6" s="3"/>
     </row>
-    <row r="7" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A7" s="27"/>
       <c r="B7" s="5"/>
       <c r="C7" s="13" t="s">
@@ -4558,7 +7731,7 @@
       <c r="N7" s="15"/>
       <c r="O7" s="3"/>
     </row>
-    <row r="8" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A8" s="27"/>
       <c r="B8" s="5"/>
       <c r="C8" s="13" t="s">
@@ -4581,7 +7754,7 @@
       <c r="N8" s="15"/>
       <c r="O8" s="3"/>
     </row>
-    <row r="9" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A9" s="27"/>
       <c r="B9" s="5" t="s">
         <v>547</v>
@@ -4608,7 +7781,7 @@
       <c r="N9" s="15"/>
       <c r="O9" s="3"/>
     </row>
-    <row r="10" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A10" s="27"/>
       <c r="B10" s="5" t="s">
         <v>548</v>
@@ -4633,7 +7806,7 @@
       <c r="N10" s="15"/>
       <c r="O10" s="3"/>
     </row>
-    <row r="11" spans="1:15" ht="160" x14ac:dyDescent="0.2">
+    <row ht="160" r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A11" s="27" t="s">
         <v>549</v>
       </c>
@@ -4662,7 +7835,7 @@
       <c r="N11" s="15"/>
       <c r="O11" s="3"/>
     </row>
-    <row r="12" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A12" s="27"/>
       <c r="B12" s="5"/>
       <c r="C12" s="13" t="s">
@@ -4687,7 +7860,7 @@
       <c r="N12" s="15"/>
       <c r="O12" s="3"/>
     </row>
-    <row r="13" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A13" s="27"/>
       <c r="B13" s="5" t="s">
         <v>564</v>
@@ -4714,7 +7887,7 @@
       <c r="N13" s="15"/>
       <c r="O13" s="3"/>
     </row>
-    <row r="14" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A14" s="27"/>
       <c r="B14" s="5"/>
       <c r="C14" s="13" t="s">
@@ -4739,7 +7912,7 @@
       <c r="N14" s="15"/>
       <c r="O14" s="3"/>
     </row>
-    <row r="15" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A15" s="27"/>
       <c r="B15" s="5"/>
       <c r="C15" s="13" t="s">
@@ -4764,7 +7937,7 @@
       <c r="N15" s="15"/>
       <c r="O15" s="3"/>
     </row>
-    <row r="16" spans="1:15" ht="96" x14ac:dyDescent="0.2">
+    <row ht="96" r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A16" s="27"/>
       <c r="B16" s="5"/>
       <c r="C16" s="13" t="s">
@@ -4789,7 +7962,7 @@
       <c r="N16" s="15"/>
       <c r="O16" s="3"/>
     </row>
-    <row r="17" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="17" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A17" s="27"/>
       <c r="B17" s="5" t="s">
         <v>565</v>
@@ -4816,7 +7989,7 @@
       <c r="N17" s="15"/>
       <c r="O17" s="3"/>
     </row>
-    <row r="18" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="18" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A18" s="27"/>
       <c r="B18" s="5"/>
       <c r="C18" s="13"/>
@@ -4833,7 +8006,7 @@
       <c r="N18" s="15"/>
       <c r="O18" s="3"/>
     </row>
-    <row r="19" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="19" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A19" s="27"/>
       <c r="B19" s="5"/>
       <c r="C19" s="13"/>
@@ -4850,7 +8023,7 @@
       <c r="N19" s="15"/>
       <c r="O19" s="3"/>
     </row>
-    <row r="20" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="20" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A20" s="27"/>
       <c r="B20" s="5"/>
       <c r="C20" s="13"/>
@@ -4867,7 +8040,7 @@
       <c r="N20" s="15"/>
       <c r="O20" s="3"/>
     </row>
-    <row r="21" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="21" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A21" s="27"/>
       <c r="B21" s="5"/>
       <c r="C21" s="13"/>
@@ -4884,7 +8057,7 @@
       <c r="N21" s="15"/>
       <c r="O21" s="3"/>
     </row>
-    <row r="22" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="22" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A22" s="27"/>
       <c r="B22" s="5"/>
       <c r="C22" s="13"/>
@@ -4901,7 +8074,7 @@
       <c r="N22" s="15"/>
       <c r="O22" s="3"/>
     </row>
-    <row r="23" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="23" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A23" s="27"/>
       <c r="B23" s="5"/>
       <c r="C23" s="13"/>
@@ -4918,7 +8091,7 @@
       <c r="N23" s="15"/>
       <c r="O23" s="3"/>
     </row>
-    <row r="24" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="24" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A24" s="27"/>
       <c r="B24" s="5"/>
       <c r="C24" s="13"/>
@@ -4935,7 +8108,7 @@
       <c r="N24" s="15"/>
       <c r="O24" s="3"/>
     </row>
-    <row r="25" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="25" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A25" s="27"/>
       <c r="B25" s="5"/>
       <c r="C25" s="13"/>
@@ -4952,7 +8125,7 @@
       <c r="N25" s="15"/>
       <c r="O25" s="3"/>
     </row>
-    <row r="26" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="26" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A26" s="27"/>
       <c r="B26" s="5"/>
       <c r="C26" s="13"/>
@@ -4969,7 +8142,7 @@
       <c r="N26" s="15"/>
       <c r="O26" s="3"/>
     </row>
-    <row r="27" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="27" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A27" s="27"/>
       <c r="B27" s="5"/>
       <c r="C27" s="13"/>
@@ -4986,7 +8159,7 @@
       <c r="N27" s="15"/>
       <c r="O27" s="3"/>
     </row>
-    <row r="28" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="28" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A28" s="27"/>
       <c r="B28" s="5"/>
       <c r="C28" s="13"/>
@@ -5003,7 +8176,7 @@
       <c r="N28" s="15"/>
       <c r="O28" s="3"/>
     </row>
-    <row r="29" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="29" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A29" s="27"/>
       <c r="B29" s="8"/>
       <c r="C29" s="13"/>
@@ -5020,7 +8193,7 @@
       <c r="N29" s="15"/>
       <c r="O29" s="3"/>
     </row>
-    <row r="30" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="30" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A30" s="27"/>
       <c r="B30" s="5"/>
       <c r="C30" s="13"/>
@@ -5037,7 +8210,7 @@
       <c r="N30" s="15"/>
       <c r="O30" s="3"/>
     </row>
-    <row r="31" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="31" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A31" s="27"/>
       <c r="B31" s="5"/>
       <c r="C31" s="13"/>
@@ -5054,7 +8227,7 @@
       <c r="N31" s="15"/>
       <c r="O31" s="3"/>
     </row>
-    <row r="32" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="32" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A32" s="27"/>
       <c r="B32" s="5"/>
       <c r="C32" s="13"/>
@@ -5071,7 +8244,7 @@
       <c r="N32" s="15"/>
       <c r="O32" s="3"/>
     </row>
-    <row r="33" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="33" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A33" s="27"/>
       <c r="B33" s="5"/>
       <c r="C33" s="13"/>
@@ -5088,7 +8261,7 @@
       <c r="N33" s="15"/>
       <c r="O33" s="3"/>
     </row>
-    <row r="34" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="34" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A34" s="27"/>
       <c r="B34" s="5"/>
       <c r="C34" s="13"/>
@@ -5105,7 +8278,7 @@
       <c r="N34" s="15"/>
       <c r="O34" s="3"/>
     </row>
-    <row r="35" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="35" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A35" s="27"/>
       <c r="B35" s="5"/>
       <c r="C35" s="13"/>
@@ -5122,7 +8295,7 @@
       <c r="N35" s="15"/>
       <c r="O35" s="3"/>
     </row>
-    <row r="36" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="36" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A36" s="27"/>
       <c r="B36" s="5"/>
       <c r="C36" s="13"/>
@@ -5139,7 +8312,7 @@
       <c r="N36" s="15"/>
       <c r="O36" s="3"/>
     </row>
-    <row r="37" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="37" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A37" s="27"/>
       <c r="B37" s="5"/>
       <c r="C37" s="13"/>
@@ -5156,7 +8329,7 @@
       <c r="N37" s="15"/>
       <c r="O37" s="3"/>
     </row>
-    <row r="38" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="38" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A38" s="27"/>
       <c r="B38" s="5"/>
       <c r="C38" s="13"/>
@@ -5173,7 +8346,7 @@
       <c r="N38" s="15"/>
       <c r="O38" s="3"/>
     </row>
-    <row r="39" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="39" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A39" s="27"/>
       <c r="B39" s="5"/>
       <c r="C39" s="13"/>
@@ -5190,7 +8363,7 @@
       <c r="N39" s="15"/>
       <c r="O39" s="3"/>
     </row>
-    <row r="40" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="40" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A40" s="27"/>
       <c r="B40" s="5"/>
       <c r="C40" s="13"/>
@@ -5207,7 +8380,7 @@
       <c r="N40" s="15"/>
       <c r="O40" s="3"/>
     </row>
-    <row r="41" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="41" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A41" s="27"/>
       <c r="B41" s="5"/>
       <c r="C41" s="13"/>
@@ -5224,7 +8397,7 @@
       <c r="N41" s="15"/>
       <c r="O41" s="3"/>
     </row>
-    <row r="42" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="42" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A42" s="27"/>
       <c r="B42" s="5"/>
       <c r="C42" s="13"/>
@@ -5241,7 +8414,7 @@
       <c r="N42" s="15"/>
       <c r="O42" s="3"/>
     </row>
-    <row r="43" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="43" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A43" s="27"/>
       <c r="B43" s="5"/>
       <c r="C43" s="13"/>
@@ -5258,7 +8431,7 @@
       <c r="N43" s="15"/>
       <c r="O43" s="3"/>
     </row>
-    <row r="44" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="44" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A44" s="27"/>
       <c r="B44" s="5"/>
       <c r="C44" s="13"/>
@@ -5275,7 +8448,7 @@
       <c r="N44" s="15"/>
       <c r="O44" s="3"/>
     </row>
-    <row r="45" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="45" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A45" s="27"/>
       <c r="B45" s="5"/>
       <c r="C45" s="13"/>
@@ -5292,7 +8465,7 @@
       <c r="N45" s="15"/>
       <c r="O45" s="3"/>
     </row>
-    <row r="46" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="46" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A46" s="27"/>
       <c r="B46" s="5"/>
       <c r="C46" s="13"/>
@@ -5309,7 +8482,7 @@
       <c r="N46" s="15"/>
       <c r="O46" s="3"/>
     </row>
-    <row r="47" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="47" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A47" s="27"/>
       <c r="B47" s="5"/>
       <c r="C47" s="13"/>
@@ -5326,7 +8499,7 @@
       <c r="N47" s="15"/>
       <c r="O47" s="3"/>
     </row>
-    <row r="48" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="48" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A48" s="27"/>
       <c r="B48" s="5"/>
       <c r="C48" s="13"/>
@@ -5343,7 +8516,7 @@
       <c r="N48" s="15"/>
       <c r="O48" s="3"/>
     </row>
-    <row r="49" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="49" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A49" s="27"/>
       <c r="B49" s="5"/>
       <c r="C49" s="13"/>
@@ -5360,7 +8533,7 @@
       <c r="N49" s="15"/>
       <c r="O49" s="3"/>
     </row>
-    <row r="50" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="50" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A50" s="27"/>
       <c r="B50" s="5"/>
       <c r="C50" s="13"/>
@@ -5377,7 +8550,7 @@
       <c r="N50" s="15"/>
       <c r="O50" s="3"/>
     </row>
-    <row r="51" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="51" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A51" s="27"/>
       <c r="B51" s="5"/>
       <c r="C51" s="13"/>
@@ -5394,7 +8567,7 @@
       <c r="N51" s="15"/>
       <c r="O51" s="3"/>
     </row>
-    <row r="52" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="52" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A52" s="27"/>
       <c r="B52" s="5"/>
       <c r="C52" s="13"/>
@@ -5411,7 +8584,7 @@
       <c r="N52" s="15"/>
       <c r="O52" s="3"/>
     </row>
-    <row r="53" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="53" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A53" s="27"/>
       <c r="B53" s="5"/>
       <c r="C53" s="13"/>
@@ -5428,7 +8601,7 @@
       <c r="N53" s="15"/>
       <c r="O53" s="3"/>
     </row>
-    <row r="54" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="54" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A54" s="27"/>
       <c r="B54" s="5"/>
       <c r="C54" s="13"/>
@@ -5445,7 +8618,7 @@
       <c r="N54" s="15"/>
       <c r="O54" s="3"/>
     </row>
-    <row r="55" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="55" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A55" s="27"/>
       <c r="B55" s="5"/>
       <c r="C55" s="13"/>
@@ -5462,7 +8635,7 @@
       <c r="N55" s="15"/>
       <c r="O55" s="3"/>
     </row>
-    <row r="56" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="56" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A56" s="27"/>
       <c r="B56" s="5"/>
       <c r="C56" s="13"/>
@@ -5479,7 +8652,7 @@
       <c r="N56" s="15"/>
       <c r="O56" s="3"/>
     </row>
-    <row r="57" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="57" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A57" s="27"/>
       <c r="B57" s="5"/>
       <c r="C57" s="13"/>
@@ -5496,7 +8669,7 @@
       <c r="N57" s="15"/>
       <c r="O57" s="3"/>
     </row>
-    <row r="58" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="58" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A58" s="27"/>
       <c r="B58" s="5"/>
       <c r="C58" s="13"/>
@@ -5513,7 +8686,7 @@
       <c r="N58" s="15"/>
       <c r="O58" s="3"/>
     </row>
-    <row r="59" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="59" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A59" s="27"/>
       <c r="B59" s="5"/>
       <c r="C59" s="13"/>
@@ -5530,7 +8703,7 @@
       <c r="N59" s="15"/>
       <c r="O59" s="3"/>
     </row>
-    <row r="60" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="60" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A60" s="27"/>
       <c r="B60" s="5"/>
       <c r="C60" s="13"/>
@@ -5547,7 +8720,7 @@
       <c r="N60" s="15"/>
       <c r="O60" s="3"/>
     </row>
-    <row r="61" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="61" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A61" s="27"/>
       <c r="B61" s="5"/>
       <c r="C61" s="13"/>
@@ -5564,7 +8737,7 @@
       <c r="N61" s="15"/>
       <c r="O61" s="3"/>
     </row>
-    <row r="62" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="62" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A62" s="27"/>
       <c r="B62" s="5"/>
       <c r="C62" s="13"/>
@@ -5581,7 +8754,7 @@
       <c r="N62" s="15"/>
       <c r="O62" s="3"/>
     </row>
-    <row r="63" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="63" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A63" s="27"/>
       <c r="B63" s="5"/>
       <c r="C63" s="13"/>
@@ -5598,7 +8771,7 @@
       <c r="N63" s="15"/>
       <c r="O63" s="3"/>
     </row>
-    <row r="64" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="64" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A64" s="27"/>
       <c r="B64" s="5"/>
       <c r="C64" s="13"/>
@@ -5615,7 +8788,7 @@
       <c r="N64" s="15"/>
       <c r="O64" s="3"/>
     </row>
-    <row r="65" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="65" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A65" s="27"/>
       <c r="B65" s="5"/>
       <c r="C65" s="13"/>
@@ -5632,7 +8805,7 @@
       <c r="N65" s="15"/>
       <c r="O65" s="3"/>
     </row>
-    <row r="66" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="66" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A66" s="27"/>
       <c r="B66" s="5"/>
       <c r="C66" s="13"/>
@@ -5649,7 +8822,7 @@
       <c r="N66" s="15"/>
       <c r="O66" s="3"/>
     </row>
-    <row r="67" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="67" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A67" s="27"/>
       <c r="B67" s="5"/>
       <c r="C67" s="13"/>
@@ -5666,7 +8839,7 @@
       <c r="N67" s="15"/>
       <c r="O67" s="3"/>
     </row>
-    <row r="68" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="68" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A68" s="27"/>
       <c r="B68" s="5"/>
       <c r="C68" s="13"/>
@@ -5683,7 +8856,7 @@
       <c r="N68" s="15"/>
       <c r="O68" s="3"/>
     </row>
-    <row r="69" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="69" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A69" s="27"/>
       <c r="B69" s="5"/>
       <c r="C69" s="13"/>
@@ -5700,7 +8873,7 @@
       <c r="N69" s="15"/>
       <c r="O69" s="3"/>
     </row>
-    <row r="70" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="70" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A70" s="27"/>
       <c r="B70" s="5"/>
       <c r="C70" s="13"/>
@@ -5717,7 +8890,7 @@
       <c r="N70" s="15"/>
       <c r="O70" s="3"/>
     </row>
-    <row r="71" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="71" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A71" s="27"/>
       <c r="B71" s="5"/>
       <c r="C71" s="13"/>
@@ -5734,7 +8907,7 @@
       <c r="N71" s="15"/>
       <c r="O71" s="3"/>
     </row>
-    <row r="72" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="72" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A72" s="27"/>
       <c r="B72" s="5"/>
       <c r="C72" s="13"/>
@@ -5751,7 +8924,7 @@
       <c r="N72" s="15"/>
       <c r="O72" s="3"/>
     </row>
-    <row r="73" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="73" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A73" s="27"/>
       <c r="B73" s="5"/>
       <c r="C73" s="13"/>
@@ -5768,7 +8941,7 @@
       <c r="N73" s="15"/>
       <c r="O73" s="3"/>
     </row>
-    <row r="74" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="74" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A74" s="27"/>
       <c r="B74" s="5"/>
       <c r="C74" s="13"/>
@@ -5785,7 +8958,7 @@
       <c r="N74" s="15"/>
       <c r="O74" s="3"/>
     </row>
-    <row r="75" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="75" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A75" s="27"/>
       <c r="B75" s="5"/>
       <c r="C75" s="13"/>
@@ -5802,7 +8975,7 @@
       <c r="N75" s="15"/>
       <c r="O75" s="3"/>
     </row>
-    <row r="76" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="76" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A76" s="27"/>
       <c r="B76" s="5"/>
       <c r="C76" s="13"/>
@@ -5819,7 +8992,7 @@
       <c r="N76" s="15"/>
       <c r="O76" s="3"/>
     </row>
-    <row r="77" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="77" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A77" s="27"/>
       <c r="B77" s="5"/>
       <c r="C77" s="13"/>
@@ -5836,7 +9009,7 @@
       <c r="N77" s="15"/>
       <c r="O77" s="3"/>
     </row>
-    <row r="78" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="78" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A78" s="27"/>
       <c r="B78" s="5"/>
       <c r="C78" s="13"/>
@@ -5853,7 +9026,7 @@
       <c r="N78" s="15"/>
       <c r="O78" s="3"/>
     </row>
-    <row r="79" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="79" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A79" s="27"/>
       <c r="B79" s="5"/>
       <c r="C79" s="13"/>
@@ -5870,7 +9043,7 @@
       <c r="N79" s="15"/>
       <c r="O79" s="3"/>
     </row>
-    <row r="80" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="80" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A80" s="27"/>
       <c r="B80" s="5"/>
       <c r="C80" s="13"/>
@@ -5887,7 +9060,7 @@
       <c r="N80" s="15"/>
       <c r="O80" s="3"/>
     </row>
-    <row r="81" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="81" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A81" s="27"/>
       <c r="B81" s="5"/>
       <c r="C81" s="13"/>
@@ -5904,7 +9077,7 @@
       <c r="N81" s="15"/>
       <c r="O81" s="3"/>
     </row>
-    <row r="82" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="82" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A82" s="27"/>
       <c r="B82" s="5"/>
       <c r="C82" s="13"/>
@@ -5921,7 +9094,7 @@
       <c r="N82" s="15"/>
       <c r="O82" s="3"/>
     </row>
-    <row r="83" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="83" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A83" s="27"/>
       <c r="B83" s="5"/>
       <c r="C83" s="13"/>
@@ -5938,7 +9111,7 @@
       <c r="N83" s="15"/>
       <c r="O83" s="3"/>
     </row>
-    <row r="84" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="84" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A84" s="27"/>
       <c r="B84" s="5"/>
       <c r="C84" s="13"/>
@@ -5955,7 +9128,7 @@
       <c r="N84" s="15"/>
       <c r="O84" s="3"/>
     </row>
-    <row r="85" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="85" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A85" s="27"/>
       <c r="B85" s="5"/>
       <c r="C85" s="13"/>
@@ -5972,7 +9145,7 @@
       <c r="N85" s="15"/>
       <c r="O85" s="3"/>
     </row>
-    <row r="86" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="86" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A86" s="27"/>
       <c r="B86" s="5"/>
       <c r="C86" s="13"/>
@@ -5989,7 +9162,7 @@
       <c r="N86" s="15"/>
       <c r="O86" s="3"/>
     </row>
-    <row r="87" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="87" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A87" s="27"/>
       <c r="B87" s="5"/>
       <c r="C87" s="13"/>
@@ -6006,7 +9179,7 @@
       <c r="N87" s="15"/>
       <c r="O87" s="3"/>
     </row>
-    <row r="88" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="88" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A88" s="27"/>
       <c r="B88" s="5"/>
       <c r="C88" s="13"/>
@@ -6023,7 +9196,7 @@
       <c r="N88" s="15"/>
       <c r="O88" s="3"/>
     </row>
-    <row r="89" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="89" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A89" s="27"/>
       <c r="B89" s="5"/>
       <c r="C89" s="13"/>
@@ -6040,7 +9213,7 @@
       <c r="N89" s="15"/>
       <c r="O89" s="3"/>
     </row>
-    <row r="90" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="90" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A90" s="27"/>
       <c r="B90" s="5"/>
       <c r="C90" s="13"/>
@@ -6057,7 +9230,7 @@
       <c r="N90" s="15"/>
       <c r="O90" s="3"/>
     </row>
-    <row r="91" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="91" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A91" s="27"/>
       <c r="B91" s="5"/>
       <c r="C91" s="13"/>
@@ -6074,7 +9247,7 @@
       <c r="N91" s="15"/>
       <c r="O91" s="3"/>
     </row>
-    <row r="92" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="92" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A92" s="27"/>
       <c r="B92" s="5"/>
       <c r="C92" s="13"/>
@@ -6091,7 +9264,7 @@
       <c r="N92" s="15"/>
       <c r="O92" s="3"/>
     </row>
-    <row r="93" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="93" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A93" s="27"/>
       <c r="B93" s="5"/>
       <c r="C93" s="13"/>
@@ -6108,7 +9281,7 @@
       <c r="N93" s="15"/>
       <c r="O93" s="3"/>
     </row>
-    <row r="94" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="94" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A94" s="27"/>
       <c r="B94" s="5"/>
       <c r="C94" s="13"/>
@@ -6125,7 +9298,7 @@
       <c r="N94" s="15"/>
       <c r="O94" s="3"/>
     </row>
-    <row r="95" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="95" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A95" s="27"/>
       <c r="B95" s="5"/>
       <c r="C95" s="13"/>
@@ -6142,7 +9315,7 @@
       <c r="N95" s="15"/>
       <c r="O95" s="3"/>
     </row>
-    <row r="96" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="96" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A96" s="27"/>
       <c r="B96" s="5"/>
       <c r="C96" s="13"/>
@@ -6159,7 +9332,7 @@
       <c r="N96" s="15"/>
       <c r="O96" s="3"/>
     </row>
-    <row r="97" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="97" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A97" s="27"/>
       <c r="B97" s="5"/>
       <c r="C97" s="13"/>
@@ -6176,7 +9349,7 @@
       <c r="N97" s="15"/>
       <c r="O97" s="3"/>
     </row>
-    <row r="98" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="98" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A98" s="27"/>
       <c r="B98" s="5"/>
       <c r="C98" s="13"/>
@@ -6193,7 +9366,7 @@
       <c r="N98" s="15"/>
       <c r="O98" s="3"/>
     </row>
-    <row r="99" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="99" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A99" s="27"/>
       <c r="B99" s="5"/>
       <c r="C99" s="13"/>
@@ -6210,7 +9383,7 @@
       <c r="N99" s="15"/>
       <c r="O99" s="3"/>
     </row>
-    <row r="100" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="100" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A100" s="27"/>
       <c r="B100" s="5"/>
       <c r="C100" s="13"/>
@@ -6227,7 +9400,7 @@
       <c r="N100" s="15"/>
       <c r="O100" s="3"/>
     </row>
-    <row r="101" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="101" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A101" s="27"/>
       <c r="B101" s="5"/>
       <c r="C101" s="13"/>
@@ -6244,7 +9417,7 @@
       <c r="N101" s="15"/>
       <c r="O101" s="3"/>
     </row>
-    <row r="102" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="102" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A102" s="27"/>
       <c r="B102" s="5"/>
       <c r="C102" s="13"/>
@@ -6261,7 +9434,7 @@
       <c r="N102" s="15"/>
       <c r="O102" s="3"/>
     </row>
-    <row r="103" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="103" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A103" s="27"/>
       <c r="B103" s="5"/>
       <c r="C103" s="13"/>
@@ -6278,7 +9451,7 @@
       <c r="N103" s="15"/>
       <c r="O103" s="3"/>
     </row>
-    <row r="104" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="104" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A104" s="27"/>
       <c r="B104" s="5"/>
       <c r="C104" s="13"/>
@@ -6295,7 +9468,7 @@
       <c r="N104" s="15"/>
       <c r="O104" s="3"/>
     </row>
-    <row r="105" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="105" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A105" s="27"/>
       <c r="B105" s="5"/>
       <c r="C105" s="13"/>
@@ -6312,7 +9485,7 @@
       <c r="N105" s="15"/>
       <c r="O105" s="3"/>
     </row>
-    <row r="106" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="106" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A106" s="27"/>
       <c r="B106" s="5"/>
       <c r="C106" s="13"/>
@@ -6329,7 +9502,7 @@
       <c r="N106" s="15"/>
       <c r="O106" s="3"/>
     </row>
-    <row r="107" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="107" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A107" s="27"/>
       <c r="B107" s="5"/>
       <c r="C107" s="13"/>
@@ -6346,7 +9519,7 @@
       <c r="N107" s="15"/>
       <c r="O107" s="3"/>
     </row>
-    <row r="108" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="108" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A108" s="27"/>
       <c r="B108" s="5"/>
       <c r="C108" s="13"/>
@@ -6363,7 +9536,7 @@
       <c r="N108" s="15"/>
       <c r="O108" s="3"/>
     </row>
-    <row r="109" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="109" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A109" s="27"/>
       <c r="B109" s="5"/>
       <c r="C109" s="13"/>
@@ -6380,7 +9553,7 @@
       <c r="N109" s="15"/>
       <c r="O109" s="3"/>
     </row>
-    <row r="110" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="110" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A110" s="27"/>
       <c r="B110" s="5"/>
       <c r="C110" s="13"/>
@@ -6397,7 +9570,7 @@
       <c r="N110" s="15"/>
       <c r="O110" s="3"/>
     </row>
-    <row r="111" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="111" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A111" s="27"/>
       <c r="B111" s="5"/>
       <c r="C111" s="13"/>
@@ -6414,7 +9587,7 @@
       <c r="N111" s="15"/>
       <c r="O111" s="3"/>
     </row>
-    <row r="112" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="112" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A112" s="27"/>
       <c r="B112" s="5"/>
       <c r="C112" s="13"/>
@@ -6431,7 +9604,7 @@
       <c r="N112" s="15"/>
       <c r="O112" s="3"/>
     </row>
-    <row r="113" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="113" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A113" s="27"/>
       <c r="B113" s="5"/>
       <c r="C113" s="13"/>
@@ -6448,7 +9621,7 @@
       <c r="N113" s="15"/>
       <c r="O113" s="3"/>
     </row>
-    <row r="114" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="114" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A114" s="27"/>
       <c r="B114" s="5"/>
       <c r="C114" s="13"/>
@@ -6465,7 +9638,7 @@
       <c r="N114" s="15"/>
       <c r="O114" s="3"/>
     </row>
-    <row r="115" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="115" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A115" s="27"/>
       <c r="B115" s="5"/>
       <c r="C115" s="13"/>
@@ -6482,7 +9655,7 @@
       <c r="N115" s="15"/>
       <c r="O115" s="3"/>
     </row>
-    <row r="116" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="116" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A116" s="27"/>
       <c r="B116" s="5"/>
       <c r="C116" s="13"/>
@@ -6499,7 +9672,7 @@
       <c r="N116" s="15"/>
       <c r="O116" s="3"/>
     </row>
-    <row r="117" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="117" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A117" s="27"/>
       <c r="B117" s="5"/>
       <c r="C117" s="13"/>
@@ -6516,7 +9689,7 @@
       <c r="N117" s="15"/>
       <c r="O117" s="3"/>
     </row>
-    <row r="118" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="118" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A118" s="27"/>
       <c r="B118" s="5"/>
       <c r="C118" s="13"/>
@@ -6533,7 +9706,7 @@
       <c r="N118" s="15"/>
       <c r="O118" s="3"/>
     </row>
-    <row r="119" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="119" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A119" s="27"/>
       <c r="B119" s="5"/>
       <c r="C119" s="13"/>
@@ -6550,7 +9723,7 @@
       <c r="N119" s="15"/>
       <c r="O119" s="3"/>
     </row>
-    <row r="120" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="120" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A120" s="27"/>
       <c r="B120" s="5"/>
       <c r="C120" s="13"/>
@@ -6567,7 +9740,7 @@
       <c r="N120" s="15"/>
       <c r="O120" s="3"/>
     </row>
-    <row r="121" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="121" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A121" s="27"/>
       <c r="B121" s="5"/>
       <c r="C121" s="13"/>
@@ -6584,7 +9757,7 @@
       <c r="N121" s="15"/>
       <c r="O121" s="3"/>
     </row>
-    <row r="122" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="122" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A122" s="27"/>
       <c r="B122" s="5"/>
       <c r="C122" s="13"/>
@@ -6601,7 +9774,7 @@
       <c r="N122" s="15"/>
       <c r="O122" s="3"/>
     </row>
-    <row r="123" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="123" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A123" s="27"/>
       <c r="B123" s="5"/>
       <c r="C123" s="13"/>
@@ -6618,7 +9791,7 @@
       <c r="N123" s="15"/>
       <c r="O123" s="3"/>
     </row>
-    <row r="124" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="124" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A124" s="27"/>
       <c r="B124" s="5"/>
       <c r="C124" s="13"/>
@@ -6635,7 +9808,7 @@
       <c r="N124" s="15"/>
       <c r="O124" s="3"/>
     </row>
-    <row r="125" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="125" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A125" s="27"/>
       <c r="B125" s="5"/>
       <c r="C125" s="13"/>
@@ -6652,7 +9825,7 @@
       <c r="N125" s="15"/>
       <c r="O125" s="3"/>
     </row>
-    <row r="126" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="126" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A126" s="27"/>
       <c r="B126" s="5"/>
       <c r="C126" s="13"/>
@@ -6669,7 +9842,7 @@
       <c r="N126" s="15"/>
       <c r="O126" s="3"/>
     </row>
-    <row r="127" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="127" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A127" s="27"/>
       <c r="B127" s="5"/>
       <c r="C127" s="13"/>
@@ -6686,7 +9859,7 @@
       <c r="N127" s="15"/>
       <c r="O127" s="3"/>
     </row>
-    <row r="128" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="128" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A128" s="27"/>
       <c r="B128" s="5"/>
       <c r="C128" s="13"/>
@@ -6703,7 +9876,7 @@
       <c r="N128" s="15"/>
       <c r="O128" s="3"/>
     </row>
-    <row r="129" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="129" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A129" s="27"/>
       <c r="B129" s="5"/>
       <c r="C129" s="13"/>
@@ -6720,7 +9893,7 @@
       <c r="N129" s="15"/>
       <c r="O129" s="3"/>
     </row>
-    <row r="130" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="130" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A130" s="27"/>
       <c r="B130" s="5"/>
       <c r="C130" s="13"/>
@@ -6737,7 +9910,7 @@
       <c r="N130" s="15"/>
       <c r="O130" s="3"/>
     </row>
-    <row r="131" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="131" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A131" s="27"/>
       <c r="B131" s="5"/>
       <c r="C131" s="13"/>
@@ -6754,7 +9927,7 @@
       <c r="N131" s="15"/>
       <c r="O131" s="3"/>
     </row>
-    <row r="132" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="132" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A132" s="27"/>
       <c r="B132" s="5"/>
       <c r="C132" s="13"/>
@@ -6771,7 +9944,7 @@
       <c r="N132" s="15"/>
       <c r="O132" s="3"/>
     </row>
-    <row r="133" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="133" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A133" s="27"/>
       <c r="B133" s="5"/>
       <c r="C133" s="13"/>
@@ -6788,7 +9961,7 @@
       <c r="N133" s="15"/>
       <c r="O133" s="3"/>
     </row>
-    <row r="134" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="134" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A134" s="27"/>
       <c r="B134" s="5"/>
       <c r="C134" s="13"/>
@@ -6805,7 +9978,7 @@
       <c r="N134" s="15"/>
       <c r="O134" s="3"/>
     </row>
-    <row r="135" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="135" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A135" s="27"/>
       <c r="B135" s="5"/>
       <c r="C135" s="13"/>
@@ -6822,7 +9995,7 @@
       <c r="N135" s="15"/>
       <c r="O135" s="3"/>
     </row>
-    <row r="136" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="136" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A136" s="27"/>
       <c r="B136" s="5"/>
       <c r="C136" s="13"/>
@@ -6839,7 +10012,7 @@
       <c r="N136" s="15"/>
       <c r="O136" s="3"/>
     </row>
-    <row r="137" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="137" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A137" s="27"/>
       <c r="B137" s="5"/>
       <c r="C137" s="13"/>
@@ -6856,7 +10029,7 @@
       <c r="N137" s="15"/>
       <c r="O137" s="3"/>
     </row>
-    <row r="138" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="138" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A138" s="27"/>
       <c r="B138" s="5"/>
       <c r="C138" s="13"/>
@@ -6873,7 +10046,7 @@
       <c r="N138" s="15"/>
       <c r="O138" s="3"/>
     </row>
-    <row r="139" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="139" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A139" s="27"/>
       <c r="B139" s="5"/>
       <c r="C139" s="13"/>
@@ -6890,7 +10063,7 @@
       <c r="N139" s="15"/>
       <c r="O139" s="3"/>
     </row>
-    <row r="140" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="140" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A140" s="27"/>
       <c r="B140" s="5"/>
       <c r="C140" s="13"/>
@@ -6907,7 +10080,7 @@
       <c r="N140" s="15"/>
       <c r="O140" s="3"/>
     </row>
-    <row r="141" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="141" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A141" s="27"/>
       <c r="B141" s="5"/>
       <c r="C141" s="13"/>
@@ -6924,7 +10097,7 @@
       <c r="N141" s="15"/>
       <c r="O141" s="3"/>
     </row>
-    <row r="142" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="142" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A142" s="27"/>
       <c r="B142" s="5"/>
       <c r="C142" s="13"/>
@@ -6941,7 +10114,7 @@
       <c r="N142" s="15"/>
       <c r="O142" s="3"/>
     </row>
-    <row r="143" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="143" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A143" s="27"/>
       <c r="B143" s="5"/>
       <c r="C143" s="13"/>
@@ -6958,7 +10131,7 @@
       <c r="N143" s="15"/>
       <c r="O143" s="3"/>
     </row>
-    <row r="144" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="144" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A144" s="27"/>
       <c r="B144" s="5"/>
       <c r="C144" s="13"/>
@@ -6975,7 +10148,7 @@
       <c r="N144" s="15"/>
       <c r="O144" s="3"/>
     </row>
-    <row r="145" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="145" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A145" s="27"/>
       <c r="B145" s="5"/>
       <c r="C145" s="13"/>
@@ -6992,7 +10165,7 @@
       <c r="N145" s="15"/>
       <c r="O145" s="3"/>
     </row>
-    <row r="146" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="146" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A146" s="27"/>
       <c r="B146" s="5"/>
       <c r="C146" s="13"/>
@@ -7009,7 +10182,7 @@
       <c r="N146" s="15"/>
       <c r="O146" s="3"/>
     </row>
-    <row r="147" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="147" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A147" s="27"/>
       <c r="B147" s="5"/>
       <c r="C147" s="13"/>
@@ -7026,7 +10199,7 @@
       <c r="N147" s="15"/>
       <c r="O147" s="3"/>
     </row>
-    <row r="148" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="148" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A148" s="27"/>
       <c r="B148" s="5"/>
       <c r="C148" s="13"/>
@@ -7043,7 +10216,7 @@
       <c r="N148" s="15"/>
       <c r="O148" s="3"/>
     </row>
-    <row r="149" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="149" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A149" s="27"/>
       <c r="B149" s="5"/>
       <c r="C149" s="13"/>
@@ -7060,7 +10233,7 @@
       <c r="N149" s="15"/>
       <c r="O149" s="3"/>
     </row>
-    <row r="150" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="150" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A150" s="27"/>
       <c r="B150" s="5"/>
       <c r="C150" s="13"/>
@@ -7077,7 +10250,7 @@
       <c r="N150" s="15"/>
       <c r="O150" s="3"/>
     </row>
-    <row r="151" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="151" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A151" s="27"/>
       <c r="B151" s="5"/>
       <c r="C151" s="13"/>
@@ -7094,7 +10267,7 @@
       <c r="N151" s="15"/>
       <c r="O151" s="3"/>
     </row>
-    <row r="152" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="152" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A152" s="27"/>
       <c r="B152" s="5"/>
       <c r="C152" s="13"/>
@@ -7111,7 +10284,7 @@
       <c r="N152" s="15"/>
       <c r="O152" s="3"/>
     </row>
-    <row r="153" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="153" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A153" s="27"/>
       <c r="B153" s="5"/>
       <c r="C153" s="13"/>
@@ -7128,7 +10301,7 @@
       <c r="N153" s="15"/>
       <c r="O153" s="3"/>
     </row>
-    <row r="154" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="154" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A154" s="27"/>
       <c r="B154" s="5"/>
       <c r="C154" s="13"/>
@@ -7145,7 +10318,7 @@
       <c r="N154" s="15"/>
       <c r="O154" s="3"/>
     </row>
-    <row r="155" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="155" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A155" s="27"/>
       <c r="B155" s="5"/>
       <c r="C155" s="13"/>
@@ -7162,7 +10335,7 @@
       <c r="N155" s="15"/>
       <c r="O155" s="3"/>
     </row>
-    <row r="156" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="156" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A156" s="27"/>
       <c r="B156" s="5"/>
       <c r="C156" s="13"/>
@@ -7179,7 +10352,7 @@
       <c r="N156" s="15"/>
       <c r="O156" s="3"/>
     </row>
-    <row r="157" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="157" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A157" s="27"/>
       <c r="B157" s="5"/>
       <c r="C157" s="13"/>
@@ -7196,7 +10369,7 @@
       <c r="N157" s="15"/>
       <c r="O157" s="3"/>
     </row>
-    <row r="158" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="158" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A158" s="27"/>
       <c r="B158" s="5"/>
       <c r="C158" s="13"/>
@@ -7213,7 +10386,7 @@
       <c r="N158" s="15"/>
       <c r="O158" s="3"/>
     </row>
-    <row r="159" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="159" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A159" s="27"/>
       <c r="B159" s="5"/>
       <c r="C159" s="13"/>
@@ -7230,7 +10403,7 @@
       <c r="N159" s="15"/>
       <c r="O159" s="3"/>
     </row>
-    <row r="160" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="160" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A160" s="27"/>
       <c r="B160" s="5"/>
       <c r="C160" s="13"/>
@@ -7247,7 +10420,7 @@
       <c r="N160" s="15"/>
       <c r="O160" s="3"/>
     </row>
-    <row r="161" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="161" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A161" s="27"/>
       <c r="B161" s="5"/>
       <c r="C161" s="13"/>
@@ -7264,7 +10437,7 @@
       <c r="N161" s="15"/>
       <c r="O161" s="3"/>
     </row>
-    <row r="162" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="162" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A162" s="27"/>
       <c r="B162" s="5"/>
       <c r="C162" s="13"/>
@@ -7281,7 +10454,7 @@
       <c r="N162" s="15"/>
       <c r="O162" s="3"/>
     </row>
-    <row r="163" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="163" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A163" s="27"/>
       <c r="B163" s="5"/>
       <c r="C163" s="13"/>
@@ -7298,7 +10471,7 @@
       <c r="N163" s="15"/>
       <c r="O163" s="3"/>
     </row>
-    <row r="164" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="164" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A164" s="27"/>
       <c r="B164" s="5"/>
       <c r="C164" s="13"/>
@@ -7315,7 +10488,7 @@
       <c r="N164" s="15"/>
       <c r="O164" s="3"/>
     </row>
-    <row r="165" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="165" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A165" s="27"/>
       <c r="B165" s="5"/>
       <c r="C165" s="13"/>
@@ -7332,7 +10505,7 @@
       <c r="N165" s="15"/>
       <c r="O165" s="3"/>
     </row>
-    <row r="166" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="166" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A166" s="27"/>
       <c r="B166" s="5"/>
       <c r="C166" s="13"/>
@@ -7349,7 +10522,7 @@
       <c r="N166" s="15"/>
       <c r="O166" s="3"/>
     </row>
-    <row r="167" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="167" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A167" s="27"/>
       <c r="B167" s="5"/>
       <c r="C167" s="13"/>
@@ -7366,7 +10539,7 @@
       <c r="N167" s="15"/>
       <c r="O167" s="3"/>
     </row>
-    <row r="168" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="168" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A168" s="27"/>
       <c r="B168" s="5"/>
       <c r="C168" s="13"/>
@@ -7383,7 +10556,7 @@
       <c r="N168" s="15"/>
       <c r="O168" s="3"/>
     </row>
-    <row r="169" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="169" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A169" s="27"/>
       <c r="B169" s="5"/>
       <c r="C169" s="13"/>
@@ -7400,7 +10573,7 @@
       <c r="N169" s="15"/>
       <c r="O169" s="3"/>
     </row>
-    <row r="170" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="170" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A170" s="27"/>
       <c r="B170" s="5"/>
       <c r="C170" s="13"/>
@@ -7417,7 +10590,7 @@
       <c r="N170" s="15"/>
       <c r="O170" s="3"/>
     </row>
-    <row r="171" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="171" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A171" s="27"/>
       <c r="B171" s="5"/>
       <c r="C171" s="13"/>
@@ -7434,7 +10607,7 @@
       <c r="N171" s="15"/>
       <c r="O171" s="3"/>
     </row>
-    <row r="172" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="172" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A172" s="27"/>
       <c r="B172" s="5"/>
       <c r="C172" s="13"/>
@@ -7451,7 +10624,7 @@
       <c r="N172" s="15"/>
       <c r="O172" s="3"/>
     </row>
-    <row r="173" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="173" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A173" s="27"/>
       <c r="B173" s="5"/>
       <c r="C173" s="13"/>
@@ -7468,7 +10641,7 @@
       <c r="N173" s="15"/>
       <c r="O173" s="3"/>
     </row>
-    <row r="174" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="174" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A174" s="27"/>
       <c r="B174" s="5"/>
       <c r="C174" s="13"/>
@@ -7485,7 +10658,7 @@
       <c r="N174" s="15"/>
       <c r="O174" s="3"/>
     </row>
-    <row r="175" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="175" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A175" s="27"/>
       <c r="B175" s="5"/>
       <c r="C175" s="13"/>
@@ -7502,7 +10675,7 @@
       <c r="N175" s="15"/>
       <c r="O175" s="3"/>
     </row>
-    <row r="176" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="176" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A176" s="27"/>
       <c r="B176" s="5"/>
       <c r="C176" s="13"/>
@@ -7519,7 +10692,7 @@
       <c r="N176" s="15"/>
       <c r="O176" s="3"/>
     </row>
-    <row r="177" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="177" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A177" s="27"/>
       <c r="B177" s="5"/>
       <c r="C177" s="13"/>
@@ -7536,7 +10709,7 @@
       <c r="N177" s="15"/>
       <c r="O177" s="3"/>
     </row>
-    <row r="178" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="178" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A178" s="27"/>
       <c r="B178" s="5"/>
       <c r="C178" s="13"/>
@@ -7553,7 +10726,7 @@
       <c r="N178" s="15"/>
       <c r="O178" s="3"/>
     </row>
-    <row r="179" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="179" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A179" s="27"/>
       <c r="B179" s="5"/>
       <c r="C179" s="13"/>
@@ -7570,7 +10743,7 @@
       <c r="N179" s="15"/>
       <c r="O179" s="3"/>
     </row>
-    <row r="180" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="180" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A180" s="27"/>
       <c r="B180" s="5"/>
       <c r="C180" s="13"/>
@@ -7587,7 +10760,7 @@
       <c r="N180" s="15"/>
       <c r="O180" s="3"/>
     </row>
-    <row r="181" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="181" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A181" s="27"/>
       <c r="B181" s="5"/>
       <c r="C181" s="13"/>
@@ -7604,7 +10777,7 @@
       <c r="N181" s="15"/>
       <c r="O181" s="3"/>
     </row>
-    <row r="182" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="182" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A182" s="27"/>
       <c r="B182" s="5"/>
       <c r="C182" s="13"/>
@@ -7621,7 +10794,7 @@
       <c r="N182" s="15"/>
       <c r="O182" s="3"/>
     </row>
-    <row r="183" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="183" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A183" s="27"/>
       <c r="B183" s="5"/>
       <c r="C183" s="13"/>
@@ -7638,7 +10811,7 @@
       <c r="N183" s="15"/>
       <c r="O183" s="3"/>
     </row>
-    <row r="184" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="184" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A184" s="27"/>
       <c r="B184" s="5"/>
       <c r="C184" s="13"/>
@@ -7655,7 +10828,7 @@
       <c r="N184" s="15"/>
       <c r="O184" s="3"/>
     </row>
-    <row r="185" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="185" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A185" s="27"/>
       <c r="B185" s="5"/>
       <c r="C185" s="13"/>
@@ -7672,7 +10845,7 @@
       <c r="N185" s="15"/>
       <c r="O185" s="3"/>
     </row>
-    <row r="186" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="186" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A186" s="27"/>
       <c r="B186" s="5"/>
       <c r="C186" s="13"/>
@@ -7689,7 +10862,7 @@
       <c r="N186" s="15"/>
       <c r="O186" s="3"/>
     </row>
-    <row r="187" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="187" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A187" s="27"/>
       <c r="B187" s="5"/>
       <c r="C187" s="13"/>
@@ -7706,7 +10879,7 @@
       <c r="N187" s="15"/>
       <c r="O187" s="3"/>
     </row>
-    <row r="188" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="188" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A188" s="27"/>
       <c r="B188" s="5"/>
       <c r="C188" s="13"/>
@@ -7723,7 +10896,7 @@
       <c r="N188" s="15"/>
       <c r="O188" s="3"/>
     </row>
-    <row r="189" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="189" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A189" s="27"/>
       <c r="B189" s="5"/>
       <c r="C189" s="13"/>
@@ -7740,7 +10913,7 @@
       <c r="N189" s="15"/>
       <c r="O189" s="3"/>
     </row>
-    <row r="190" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="190" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A190" s="27"/>
       <c r="B190" s="5"/>
       <c r="C190" s="13"/>
@@ -7757,7 +10930,7 @@
       <c r="N190" s="15"/>
       <c r="O190" s="3"/>
     </row>
-    <row r="191" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="191" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A191" s="27"/>
       <c r="B191" s="5"/>
       <c r="C191" s="13"/>
@@ -7774,7 +10947,7 @@
       <c r="N191" s="15"/>
       <c r="O191" s="3"/>
     </row>
-    <row r="192" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="192" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A192" s="27"/>
       <c r="B192" s="5"/>
       <c r="C192" s="13"/>
@@ -7791,7 +10964,7 @@
       <c r="N192" s="15"/>
       <c r="O192" s="3"/>
     </row>
-    <row r="193" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="193" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A193" s="27"/>
       <c r="B193" s="5"/>
       <c r="C193" s="13"/>
@@ -7808,7 +10981,7 @@
       <c r="N193" s="15"/>
       <c r="O193" s="3"/>
     </row>
-    <row r="194" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="194" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A194" s="27"/>
       <c r="B194" s="5"/>
       <c r="C194" s="13"/>
@@ -7825,7 +10998,7 @@
       <c r="N194" s="15"/>
       <c r="O194" s="3"/>
     </row>
-    <row r="195" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="195" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A195" s="27"/>
       <c r="B195" s="5"/>
       <c r="C195" s="13"/>
@@ -7842,7 +11015,7 @@
       <c r="N195" s="15"/>
       <c r="O195" s="3"/>
     </row>
-    <row r="196" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="196" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A196" s="27"/>
       <c r="B196" s="5"/>
       <c r="C196" s="13"/>
@@ -7859,7 +11032,7 @@
       <c r="N196" s="15"/>
       <c r="O196" s="3"/>
     </row>
-    <row r="197" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="197" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A197" s="27"/>
       <c r="B197" s="5"/>
       <c r="C197" s="13"/>
@@ -7876,7 +11049,7 @@
       <c r="N197" s="15"/>
       <c r="O197" s="3"/>
     </row>
-    <row r="198" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="198" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A198" s="27"/>
       <c r="B198" s="5"/>
       <c r="C198" s="13"/>
@@ -7893,7 +11066,7 @@
       <c r="N198" s="15"/>
       <c r="O198" s="3"/>
     </row>
-    <row r="199" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="199" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A199" s="27"/>
       <c r="B199" s="5"/>
       <c r="C199" s="13"/>
@@ -7910,7 +11083,7 @@
       <c r="N199" s="15"/>
       <c r="O199" s="3"/>
     </row>
-    <row r="200" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="200" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A200" s="27"/>
       <c r="B200" s="5"/>
       <c r="C200" s="13"/>
@@ -7927,7 +11100,7 @@
       <c r="N200" s="15"/>
       <c r="O200" s="3"/>
     </row>
-    <row r="201" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="201" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A201" s="27"/>
       <c r="B201" s="5"/>
       <c r="C201" s="13"/>
@@ -7944,7 +11117,7 @@
       <c r="N201" s="15"/>
       <c r="O201" s="3"/>
     </row>
-    <row r="202" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="202" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A202" s="27"/>
       <c r="B202" s="5"/>
       <c r="C202" s="13"/>
@@ -7961,7 +11134,7 @@
       <c r="N202" s="15"/>
       <c r="O202" s="3"/>
     </row>
-    <row r="203" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="203" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A203" s="27"/>
       <c r="B203" s="5"/>
       <c r="C203" s="13"/>
@@ -7978,7 +11151,7 @@
       <c r="N203" s="15"/>
       <c r="O203" s="3"/>
     </row>
-    <row r="204" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="204" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A204" s="27"/>
       <c r="B204" s="5"/>
       <c r="C204" s="13"/>
@@ -7995,7 +11168,7 @@
       <c r="N204" s="15"/>
       <c r="O204" s="3"/>
     </row>
-    <row r="205" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="205" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A205" s="27"/>
       <c r="B205" s="5"/>
       <c r="C205" s="13"/>
@@ -8012,7 +11185,7 @@
       <c r="N205" s="15"/>
       <c r="O205" s="3"/>
     </row>
-    <row r="206" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="206" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A206" s="27"/>
       <c r="B206" s="5"/>
       <c r="C206" s="13"/>
@@ -8029,7 +11202,7 @@
       <c r="N206" s="15"/>
       <c r="O206" s="3"/>
     </row>
-    <row r="207" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="207" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A207" s="27"/>
       <c r="B207" s="5"/>
       <c r="C207" s="13"/>
@@ -8046,7 +11219,7 @@
       <c r="N207" s="15"/>
       <c r="O207" s="3"/>
     </row>
-    <row r="208" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="208" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A208" s="27"/>
       <c r="B208" s="5"/>
       <c r="C208" s="13"/>
@@ -8063,7 +11236,7 @@
       <c r="N208" s="15"/>
       <c r="O208" s="3"/>
     </row>
-    <row r="209" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="209" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A209" s="27"/>
       <c r="B209" s="5"/>
       <c r="C209" s="13"/>
@@ -8080,7 +11253,7 @@
       <c r="N209" s="15"/>
       <c r="O209" s="3"/>
     </row>
-    <row r="210" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="210" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A210" s="27"/>
       <c r="B210" s="5"/>
       <c r="C210" s="13"/>
@@ -8097,7 +11270,7 @@
       <c r="N210" s="15"/>
       <c r="O210" s="3"/>
     </row>
-    <row r="211" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="211" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A211" s="27"/>
       <c r="B211" s="5"/>
       <c r="C211" s="13"/>
@@ -8114,7 +11287,7 @@
       <c r="N211" s="15"/>
       <c r="O211" s="3"/>
     </row>
-    <row r="212" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="212" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A212" s="27"/>
       <c r="B212" s="5"/>
       <c r="C212" s="13"/>
@@ -8131,7 +11304,7 @@
       <c r="N212" s="15"/>
       <c r="O212" s="3"/>
     </row>
-    <row r="213" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="213" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A213" s="27"/>
       <c r="B213" s="5"/>
       <c r="C213" s="13"/>
@@ -8148,7 +11321,7 @@
       <c r="N213" s="15"/>
       <c r="O213" s="3"/>
     </row>
-    <row r="214" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="214" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A214" s="27"/>
       <c r="B214" s="5"/>
       <c r="C214" s="13"/>
@@ -8165,7 +11338,7 @@
       <c r="N214" s="15"/>
       <c r="O214" s="3"/>
     </row>
-    <row r="215" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="215" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A215" s="27"/>
       <c r="B215" s="5"/>
       <c r="C215" s="13"/>
@@ -8182,7 +11355,7 @@
       <c r="N215" s="15"/>
       <c r="O215" s="3"/>
     </row>
-    <row r="216" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="216" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A216" s="27"/>
       <c r="B216" s="5"/>
       <c r="C216" s="13"/>
@@ -8199,7 +11372,7 @@
       <c r="N216" s="15"/>
       <c r="O216" s="3"/>
     </row>
-    <row r="217" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="217" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A217" s="27"/>
       <c r="B217" s="5"/>
       <c r="C217" s="13"/>
@@ -8216,7 +11389,7 @@
       <c r="N217" s="15"/>
       <c r="O217" s="3"/>
     </row>
-    <row r="218" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="218" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A218" s="27"/>
       <c r="B218" s="5"/>
       <c r="C218" s="13"/>
@@ -8233,7 +11406,7 @@
       <c r="N218" s="15"/>
       <c r="O218" s="3"/>
     </row>
-    <row r="219" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="219" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A219" s="27"/>
       <c r="B219" s="5"/>
       <c r="C219" s="13"/>
@@ -8250,7 +11423,7 @@
       <c r="N219" s="15"/>
       <c r="O219" s="3"/>
     </row>
-    <row r="220" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="220" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A220" s="27"/>
       <c r="B220" s="5"/>
       <c r="C220" s="13"/>
@@ -8267,7 +11440,7 @@
       <c r="N220" s="15"/>
       <c r="O220" s="3"/>
     </row>
-    <row r="221" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="221" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A221" s="27"/>
       <c r="B221" s="5"/>
       <c r="C221" s="13"/>
@@ -8284,7 +11457,7 @@
       <c r="N221" s="15"/>
       <c r="O221" s="3"/>
     </row>
-    <row r="222" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="222" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A222" s="27"/>
       <c r="B222" s="5"/>
       <c r="C222" s="13"/>
@@ -8301,7 +11474,7 @@
       <c r="N222" s="15"/>
       <c r="O222" s="3"/>
     </row>
-    <row r="223" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="223" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A223" s="27"/>
       <c r="B223" s="5"/>
       <c r="C223" s="13"/>
@@ -8318,7 +11491,7 @@
       <c r="N223" s="15"/>
       <c r="O223" s="3"/>
     </row>
-    <row r="224" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="224" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A224" s="27"/>
       <c r="B224" s="5"/>
       <c r="C224" s="13"/>
@@ -8335,7 +11508,7 @@
       <c r="N224" s="15"/>
       <c r="O224" s="3"/>
     </row>
-    <row r="225" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="225" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A225" s="27"/>
       <c r="B225" s="5"/>
       <c r="C225" s="13"/>
@@ -8352,7 +11525,7 @@
       <c r="N225" s="15"/>
       <c r="O225" s="3"/>
     </row>
-    <row r="226" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="226" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A226" s="27"/>
       <c r="B226" s="5"/>
       <c r="C226" s="13"/>
@@ -8369,7 +11542,7 @@
       <c r="N226" s="15"/>
       <c r="O226" s="3"/>
     </row>
-    <row r="227" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="227" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A227" s="27"/>
       <c r="B227" s="5"/>
       <c r="C227" s="13"/>
@@ -8386,7 +11559,7 @@
       <c r="N227" s="15"/>
       <c r="O227" s="3"/>
     </row>
-    <row r="228" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="228" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A228" s="27"/>
       <c r="B228" s="5"/>
       <c r="C228" s="13"/>
@@ -8403,7 +11576,7 @@
       <c r="N228" s="15"/>
       <c r="O228" s="3"/>
     </row>
-    <row r="229" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="229" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A229" s="27"/>
       <c r="B229" s="5"/>
       <c r="C229" s="13"/>
@@ -8420,7 +11593,7 @@
       <c r="N229" s="15"/>
       <c r="O229" s="3"/>
     </row>
-    <row r="230" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="230" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A230" s="27"/>
       <c r="B230" s="5"/>
       <c r="C230" s="13"/>
@@ -8437,7 +11610,7 @@
       <c r="N230" s="15"/>
       <c r="O230" s="3"/>
     </row>
-    <row r="231" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="231" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A231" s="27"/>
       <c r="B231" s="5"/>
       <c r="C231" s="13"/>
@@ -8454,7 +11627,7 @@
       <c r="N231" s="15"/>
       <c r="O231" s="3"/>
     </row>
-    <row r="232" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="232" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A232" s="27"/>
       <c r="B232" s="5"/>
       <c r="C232" s="13"/>
@@ -8471,7 +11644,7 @@
       <c r="N232" s="15"/>
       <c r="O232" s="3"/>
     </row>
-    <row r="233" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="233" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A233" s="27"/>
       <c r="B233" s="5"/>
       <c r="C233" s="13"/>
@@ -8488,7 +11661,7 @@
       <c r="N233" s="15"/>
       <c r="O233" s="3"/>
     </row>
-    <row r="234" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="234" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A234" s="27"/>
       <c r="B234" s="5"/>
       <c r="C234" s="13"/>
@@ -8505,7 +11678,7 @@
       <c r="N234" s="15"/>
       <c r="O234" s="3"/>
     </row>
-    <row r="235" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="235" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A235" s="27"/>
       <c r="B235" s="5"/>
       <c r="C235" s="13"/>
@@ -8522,7 +11695,7 @@
       <c r="N235" s="15"/>
       <c r="O235" s="3"/>
     </row>
-    <row r="236" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="236" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A236" s="27"/>
       <c r="B236" s="5"/>
       <c r="C236" s="13"/>
@@ -8539,7 +11712,7 @@
       <c r="N236" s="15"/>
       <c r="O236" s="3"/>
     </row>
-    <row r="237" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="237" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A237" s="27"/>
       <c r="B237" s="5"/>
       <c r="C237" s="13"/>
@@ -8556,7 +11729,7 @@
       <c r="N237" s="15"/>
       <c r="O237" s="3"/>
     </row>
-    <row r="238" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="238" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A238" s="27"/>
       <c r="B238" s="5"/>
       <c r="C238" s="13"/>
@@ -8573,7 +11746,7 @@
       <c r="N238" s="15"/>
       <c r="O238" s="3"/>
     </row>
-    <row r="239" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="239" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A239" s="27"/>
       <c r="B239" s="5"/>
       <c r="C239" s="13"/>
@@ -8590,7 +11763,7 @@
       <c r="N239" s="15"/>
       <c r="O239" s="3"/>
     </row>
-    <row r="240" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="240" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A240" s="27"/>
       <c r="B240" s="5"/>
       <c r="C240" s="13"/>
@@ -8607,7 +11780,7 @@
       <c r="N240" s="15"/>
       <c r="O240" s="3"/>
     </row>
-    <row r="241" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="241" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A241" s="27"/>
       <c r="B241" s="5"/>
       <c r="C241" s="13"/>
@@ -8624,7 +11797,7 @@
       <c r="N241" s="15"/>
       <c r="O241" s="3"/>
     </row>
-    <row r="242" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="242" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A242" s="27"/>
       <c r="B242" s="5"/>
       <c r="C242" s="13"/>
@@ -8641,7 +11814,7 @@
       <c r="N242" s="15"/>
       <c r="O242" s="3"/>
     </row>
-    <row r="243" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="243" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A243" s="27"/>
       <c r="B243" s="5"/>
       <c r="C243" s="13"/>
@@ -8658,7 +11831,7 @@
       <c r="N243" s="15"/>
       <c r="O243" s="3"/>
     </row>
-    <row r="244" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="244" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A244" s="27"/>
       <c r="B244" s="5"/>
       <c r="C244" s="13"/>
@@ -8675,7 +11848,7 @@
       <c r="N244" s="15"/>
       <c r="O244" s="3"/>
     </row>
-    <row r="245" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="245" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A245" s="27"/>
       <c r="B245" s="5"/>
       <c r="C245" s="13"/>
@@ -8692,7 +11865,7 @@
       <c r="N245" s="15"/>
       <c r="O245" s="3"/>
     </row>
-    <row r="246" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="246" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A246" s="27"/>
       <c r="B246" s="5"/>
       <c r="C246" s="13"/>
@@ -8709,7 +11882,7 @@
       <c r="N246" s="15"/>
       <c r="O246" s="3"/>
     </row>
-    <row r="247" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="247" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A247" s="27"/>
       <c r="B247" s="5"/>
       <c r="C247" s="13"/>
@@ -8726,7 +11899,7 @@
       <c r="N247" s="15"/>
       <c r="O247" s="3"/>
     </row>
-    <row r="248" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="248" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A248" s="27"/>
       <c r="B248" s="5"/>
       <c r="C248" s="13"/>
@@ -8743,7 +11916,7 @@
       <c r="N248" s="15"/>
       <c r="O248" s="3"/>
     </row>
-    <row r="249" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="249" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A249" s="27"/>
       <c r="B249" s="5"/>
       <c r="C249" s="13"/>
@@ -8760,7 +11933,7 @@
       <c r="N249" s="15"/>
       <c r="O249" s="3"/>
     </row>
-    <row r="250" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="250" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A250" s="27"/>
       <c r="B250" s="5"/>
       <c r="C250" s="13"/>
@@ -8777,7 +11950,7 @@
       <c r="N250" s="15"/>
       <c r="O250" s="3"/>
     </row>
-    <row r="251" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="251" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A251" s="27"/>
       <c r="B251" s="5"/>
       <c r="C251" s="13"/>
@@ -8794,7 +11967,7 @@
       <c r="N251" s="15"/>
       <c r="O251" s="3"/>
     </row>
-    <row r="252" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="252" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A252" s="27"/>
       <c r="B252" s="5"/>
       <c r="C252" s="13"/>
@@ -8811,7 +11984,7 @@
       <c r="N252" s="15"/>
       <c r="O252" s="3"/>
     </row>
-    <row r="253" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="253" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A253" s="27"/>
       <c r="B253" s="5"/>
       <c r="C253" s="13"/>
@@ -8828,7 +12001,7 @@
       <c r="N253" s="15"/>
       <c r="O253" s="3"/>
     </row>
-    <row r="254" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="254" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A254" s="27"/>
       <c r="B254" s="5"/>
       <c r="C254" s="13"/>
@@ -8845,7 +12018,7 @@
       <c r="N254" s="15"/>
       <c r="O254" s="3"/>
     </row>
-    <row r="255" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="255" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A255" s="27"/>
       <c r="B255" s="5"/>
       <c r="C255" s="13"/>
@@ -8862,7 +12035,7 @@
       <c r="N255" s="15"/>
       <c r="O255" s="3"/>
     </row>
-    <row r="256" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="256" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A256" s="27"/>
       <c r="B256" s="5"/>
       <c r="C256" s="13"/>
@@ -8879,7 +12052,7 @@
       <c r="N256" s="15"/>
       <c r="O256" s="3"/>
     </row>
-    <row r="257" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="257" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A257" s="27"/>
       <c r="B257" s="5"/>
       <c r="C257" s="13"/>
@@ -8896,7 +12069,7 @@
       <c r="N257" s="15"/>
       <c r="O257" s="3"/>
     </row>
-    <row r="258" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="258" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A258" s="27"/>
       <c r="B258" s="5"/>
       <c r="C258" s="13"/>
@@ -8913,7 +12086,7 @@
       <c r="N258" s="15"/>
       <c r="O258" s="3"/>
     </row>
-    <row r="259" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="259" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A259" s="27"/>
       <c r="B259" s="5"/>
       <c r="C259" s="13"/>
@@ -8930,7 +12103,7 @@
       <c r="N259" s="15"/>
       <c r="O259" s="3"/>
     </row>
-    <row r="260" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="260" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A260" s="27"/>
       <c r="B260" s="5"/>
       <c r="C260" s="13"/>
@@ -8947,7 +12120,7 @@
       <c r="N260" s="15"/>
       <c r="O260" s="3"/>
     </row>
-    <row r="261" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="261" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A261" s="27"/>
       <c r="B261" s="5"/>
       <c r="C261" s="13"/>
@@ -8964,7 +12137,7 @@
       <c r="N261" s="15"/>
       <c r="O261" s="3"/>
     </row>
-    <row r="262" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="262" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A262" s="27"/>
       <c r="B262" s="5"/>
       <c r="C262" s="13"/>
@@ -8981,7 +12154,7 @@
       <c r="N262" s="15"/>
       <c r="O262" s="3"/>
     </row>
-    <row r="263" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="263" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A263" s="27"/>
       <c r="B263" s="5"/>
       <c r="C263" s="13"/>
@@ -8998,7 +12171,7 @@
       <c r="N263" s="15"/>
       <c r="O263" s="3"/>
     </row>
-    <row r="264" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="264" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A264" s="27"/>
       <c r="B264" s="5"/>
       <c r="C264" s="13"/>
@@ -9015,7 +12188,7 @@
       <c r="N264" s="15"/>
       <c r="O264" s="3"/>
     </row>
-    <row r="265" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="265" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A265" s="27"/>
       <c r="B265" s="5"/>
       <c r="C265" s="13"/>
@@ -9032,7 +12205,7 @@
       <c r="N265" s="15"/>
       <c r="O265" s="3"/>
     </row>
-    <row r="266" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="266" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A266" s="27"/>
       <c r="B266" s="5"/>
       <c r="C266" s="13"/>
@@ -9049,7 +12222,7 @@
       <c r="N266" s="15"/>
       <c r="O266" s="3"/>
     </row>
-    <row r="267" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="267" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A267" s="27"/>
       <c r="B267" s="5"/>
       <c r="C267" s="13"/>
@@ -9066,7 +12239,7 @@
       <c r="N267" s="15"/>
       <c r="O267" s="3"/>
     </row>
-    <row r="268" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="268" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A268" s="27"/>
       <c r="B268" s="5"/>
       <c r="C268" s="13"/>
@@ -9083,7 +12256,7 @@
       <c r="N268" s="15"/>
       <c r="O268" s="3"/>
     </row>
-    <row r="269" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="269" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A269" s="27"/>
       <c r="B269" s="5"/>
       <c r="C269" s="13"/>
@@ -9100,7 +12273,7 @@
       <c r="N269" s="15"/>
       <c r="O269" s="3"/>
     </row>
-    <row r="270" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="270" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A270" s="27"/>
       <c r="B270" s="5"/>
       <c r="C270" s="13"/>
@@ -9117,7 +12290,7 @@
       <c r="N270" s="15"/>
       <c r="O270" s="3"/>
     </row>
-    <row r="271" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="271" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A271" s="27"/>
       <c r="B271" s="5"/>
       <c r="C271" s="13"/>
@@ -9134,7 +12307,7 @@
       <c r="N271" s="15"/>
       <c r="O271" s="3"/>
     </row>
-    <row r="272" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="272" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A272" s="27"/>
       <c r="B272" s="5"/>
       <c r="C272" s="13"/>
@@ -9151,7 +12324,7 @@
       <c r="N272" s="15"/>
       <c r="O272" s="3"/>
     </row>
-    <row r="273" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="273" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A273" s="27"/>
       <c r="B273" s="5"/>
       <c r="C273" s="13"/>
@@ -9168,7 +12341,7 @@
       <c r="N273" s="15"/>
       <c r="O273" s="3"/>
     </row>
-    <row r="274" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="274" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A274" s="27"/>
       <c r="B274" s="5"/>
       <c r="C274" s="13"/>
@@ -9185,7 +12358,7 @@
       <c r="N274" s="15"/>
       <c r="O274" s="3"/>
     </row>
-    <row r="275" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="275" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A275" s="27"/>
       <c r="B275" s="5"/>
       <c r="C275" s="13"/>
@@ -9202,7 +12375,7 @@
       <c r="N275" s="15"/>
       <c r="O275" s="3"/>
     </row>
-    <row r="276" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="276" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A276" s="27"/>
       <c r="B276" s="5"/>
       <c r="C276" s="13"/>
@@ -9219,7 +12392,7 @@
       <c r="N276" s="15"/>
       <c r="O276" s="3"/>
     </row>
-    <row r="277" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="277" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A277" s="27"/>
       <c r="B277" s="5"/>
       <c r="C277" s="13"/>
@@ -9236,7 +12409,7 @@
       <c r="N277" s="15"/>
       <c r="O277" s="3"/>
     </row>
-    <row r="278" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="278" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A278" s="27"/>
       <c r="B278" s="5"/>
       <c r="C278" s="13"/>
@@ -9253,7 +12426,7 @@
       <c r="N278" s="15"/>
       <c r="O278" s="3"/>
     </row>
-    <row r="279" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="279" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A279" s="27"/>
       <c r="B279" s="5"/>
       <c r="C279" s="13"/>
@@ -9270,7 +12443,7 @@
       <c r="N279" s="15"/>
       <c r="O279" s="3"/>
     </row>
-    <row r="280" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="280" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A280" s="27"/>
       <c r="B280" s="5"/>
       <c r="C280" s="13"/>
@@ -9287,7 +12460,7 @@
       <c r="N280" s="15"/>
       <c r="O280" s="3"/>
     </row>
-    <row r="281" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="281" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A281" s="27"/>
       <c r="B281" s="5"/>
       <c r="C281" s="13"/>
@@ -9304,7 +12477,7 @@
       <c r="N281" s="15"/>
       <c r="O281" s="3"/>
     </row>
-    <row r="282" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="282" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A282" s="27"/>
       <c r="B282" s="5"/>
       <c r="C282" s="13"/>
@@ -9321,7 +12494,7 @@
       <c r="N282" s="15"/>
       <c r="O282" s="3"/>
     </row>
-    <row r="283" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="283" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A283" s="27"/>
       <c r="B283" s="5"/>
       <c r="C283" s="13"/>
@@ -9338,7 +12511,7 @@
       <c r="N283" s="15"/>
       <c r="O283" s="3"/>
     </row>
-    <row r="284" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="284" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A284" s="27"/>
       <c r="B284" s="5"/>
       <c r="C284" s="13"/>
@@ -9355,7 +12528,7 @@
       <c r="N284" s="15"/>
       <c r="O284" s="3"/>
     </row>
-    <row r="285" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="285" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A285" s="27"/>
       <c r="B285" s="5"/>
       <c r="C285" s="13"/>
@@ -9372,7 +12545,7 @@
       <c r="N285" s="15"/>
       <c r="O285" s="3"/>
     </row>
-    <row r="286" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="286" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A286" s="27"/>
       <c r="B286" s="5"/>
       <c r="C286" s="13"/>
@@ -9389,7 +12562,7 @@
       <c r="N286" s="15"/>
       <c r="O286" s="3"/>
     </row>
-    <row r="287" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="287" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A287" s="27"/>
       <c r="B287" s="5"/>
       <c r="C287" s="13"/>
@@ -9406,7 +12579,7 @@
       <c r="N287" s="15"/>
       <c r="O287" s="3"/>
     </row>
-    <row r="288" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="288" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A288" s="27"/>
       <c r="B288" s="5"/>
       <c r="C288" s="13"/>
@@ -9423,7 +12596,7 @@
       <c r="N288" s="15"/>
       <c r="O288" s="3"/>
     </row>
-    <row r="289" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="289" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A289" s="27"/>
       <c r="B289" s="5"/>
       <c r="C289" s="13"/>
@@ -9440,7 +12613,7 @@
       <c r="N289" s="15"/>
       <c r="O289" s="3"/>
     </row>
-    <row r="290" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="290" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A290" s="27"/>
       <c r="B290" s="5"/>
       <c r="C290" s="13"/>
@@ -9457,7 +12630,7 @@
       <c r="N290" s="15"/>
       <c r="O290" s="3"/>
     </row>
-    <row r="291" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="291" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A291" s="27"/>
       <c r="B291" s="5"/>
       <c r="C291" s="13"/>
@@ -9474,7 +12647,7 @@
       <c r="N291" s="15"/>
       <c r="O291" s="3"/>
     </row>
-    <row r="292" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="292" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A292" s="27"/>
       <c r="B292" s="5"/>
       <c r="C292" s="13"/>
@@ -9491,7 +12664,7 @@
       <c r="N292" s="15"/>
       <c r="O292" s="3"/>
     </row>
-    <row r="293" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="293" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A293" s="27"/>
       <c r="B293" s="5"/>
       <c r="C293" s="13"/>
@@ -9508,7 +12681,7 @@
       <c r="N293" s="15"/>
       <c r="O293" s="3"/>
     </row>
-    <row r="294" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="294" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A294" s="27"/>
       <c r="B294" s="5"/>
       <c r="C294" s="13"/>
@@ -9525,7 +12698,7 @@
       <c r="N294" s="15"/>
       <c r="O294" s="3"/>
     </row>
-    <row r="295" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="295" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A295" s="27"/>
       <c r="B295" s="5"/>
       <c r="C295" s="13"/>
@@ -9542,7 +12715,7 @@
       <c r="N295" s="15"/>
       <c r="O295" s="3"/>
     </row>
-    <row r="296" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="296" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A296" s="27"/>
       <c r="B296" s="5"/>
       <c r="C296" s="13"/>
@@ -9559,7 +12732,7 @@
       <c r="N296" s="15"/>
       <c r="O296" s="3"/>
     </row>
-    <row r="297" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="297" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A297" s="27"/>
       <c r="B297" s="5"/>
       <c r="C297" s="13"/>
@@ -9576,7 +12749,7 @@
       <c r="N297" s="15"/>
       <c r="O297" s="3"/>
     </row>
-    <row r="298" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="298" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A298" s="27"/>
       <c r="B298" s="5"/>
       <c r="C298" s="13"/>
@@ -9593,7 +12766,7 @@
       <c r="N298" s="15"/>
       <c r="O298" s="3"/>
     </row>
-    <row r="299" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="299" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A299" s="27"/>
       <c r="B299" s="5"/>
       <c r="C299" s="13"/>
@@ -9610,7 +12783,7 @@
       <c r="N299" s="15"/>
       <c r="O299" s="3"/>
     </row>
-    <row r="300" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="300" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A300" s="27"/>
       <c r="B300" s="5"/>
       <c r="C300" s="13"/>
@@ -9627,7 +12800,7 @@
       <c r="N300" s="15"/>
       <c r="O300" s="3"/>
     </row>
-    <row r="301" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="301" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A301" s="27"/>
       <c r="B301" s="5"/>
       <c r="C301" s="13"/>
@@ -9645,7 +12818,7 @@
       <c r="O301" s="3"/>
     </row>
   </sheetData>
-  <sheetProtection insertRows="0" insertHyperlinks="0" deleteRows="0"/>
+  <sheetProtection deleteRows="0" insertHyperlinks="0" insertRows="0"/>
   <mergeCells count="4">
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="A2:D2"/>
@@ -9653,36 +12826,36 @@
     <mergeCell ref="L2:O2"/>
   </mergeCells>
   <conditionalFormatting sqref="N1 N3:N101 N302:N1048576">
-    <cfRule type="beginsWith" dxfId="5" priority="4" stopIfTrue="1" operator="beginsWith" text="WARN">
+    <cfRule dxfId="5" operator="beginsWith" priority="4" stopIfTrue="1" text="WARN" type="beginsWith">
       <formula>LEFT(N1,LEN("WARN"))="WARN"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="4" priority="10" stopIfTrue="1" operator="beginsWith" text="FAIL">
+    <cfRule dxfId="4" operator="beginsWith" priority="10" stopIfTrue="1" text="FAIL" type="beginsWith">
       <formula>LEFT(N1,LEN("FAIL"))="FAIL"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="3" priority="12" stopIfTrue="1" operator="beginsWith" text="PASS">
+    <cfRule dxfId="3" operator="beginsWith" priority="12" stopIfTrue="1" text="PASS" type="beginsWith">
       <formula>LEFT(N1,LEN("PASS"))="PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N102:N301">
-    <cfRule type="beginsWith" dxfId="2" priority="1" stopIfTrue="1" operator="beginsWith" text="WARN">
+    <cfRule dxfId="2" operator="beginsWith" priority="1" stopIfTrue="1" text="WARN" type="beginsWith">
       <formula>LEFT(N102,LEN("WARN"))="WARN"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="2" stopIfTrue="1" operator="beginsWith" text="FAIL">
+    <cfRule dxfId="1" operator="beginsWith" priority="2" stopIfTrue="1" text="FAIL" type="beginsWith">
       <formula>LEFT(N102,LEN("FAIL"))="FAIL"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="0" priority="3" stopIfTrue="1" operator="beginsWith" text="PASS">
+    <cfRule dxfId="0" operator="beginsWith" priority="3" stopIfTrue="1" text="PASS" type="beginsWith">
       <formula>LEFT(N102,LEN("PASS"))="PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C5:C301" xr:uid="{00000000-0002-0000-0100-000000000000}">
+    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="C5:C301" type="list" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>target</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D5:D301" xr:uid="{00000000-0002-0000-0100-000001000000}">
+    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="D5:D301" type="list" xr:uid="{00000000-0002-0000-0100-000001000000}">
       <formula1>INDIRECT(C5)</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup horizontalDpi="0" orientation="portrait" verticalDpi="0"/>
 </worksheet>
 </file>
--- a/src/test/resources/unittesting/artifact/script/unitTest_LocalDb.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_LocalDb.xlsx
@@ -24,7 +24,7 @@
     <definedName name="csv">'#system'!$F$2:$F$6</definedName>
     <definedName name="date">'#system'!$C$2:$C$14</definedName>
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
-    <definedName name="desktop">'#system'!$G$2:$G$97</definedName>
+    <definedName name="desktop">'#system'!$G$2:$G$98</definedName>
     <definedName name="excel">'#system'!$H$2:$H$14</definedName>
     <definedName name="external">'#system'!$I$2:$I$5</definedName>
     <definedName name="image">'#system'!$J$2:$J$7</definedName>
@@ -67,7 +67,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3403" uniqueCount="571">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3959" uniqueCount="573">
   <si>
     <t>description</t>
   </si>
@@ -1794,13 +1794,19 @@
   <si>
     <t>saveISTDivsAsCsv(config,file)</t>
   </si>
+  <si>
+    <t>assertElementNotPresent(name)</t>
+  </si>
+  <si>
+    <t>saveInfiniteDivsAsCsv(config,file)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="91" x14ac:knownFonts="1">
+  <fonts count="107" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2382,8 +2388,109 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="139">
+  <fills count="166">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3167,8 +3274,161 @@
         <bgColor rgb="E6E6E6"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="163">
+  <borders count="195">
     <border>
       <left/>
       <right/>
@@ -4836,6 +5096,332 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -4843,7 +5429,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="117">
+  <cellXfs count="133">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -5164,52 +5750,100 @@
     <xf applyFill="true" applyFont="true" borderId="0" fillId="111" fontId="74" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="75" fillId="114" borderId="138" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="138" fillId="114" fontId="75" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="76" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="76" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="77" fillId="117" borderId="142" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="142" fillId="117" fontId="77" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="78" fillId="120" borderId="146" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="146" fillId="120" fontId="78" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="79" fillId="123" borderId="150" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="150" fillId="123" fontId="79" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="80" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="80" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="81" fillId="126" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="126" fontId="81" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="82" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="82" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="83" fillId="129" borderId="154" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="154" fillId="129" fontId="83" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="84" fillId="120" borderId="158" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="158" fillId="120" fontId="84" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="85" fillId="132" borderId="162" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="162" fillId="132" fontId="85" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="86" fillId="132" borderId="162" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="162" fillId="132" fontId="86" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="87" fillId="123" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="123" fontId="87" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="88" fillId="135" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="135" fontId="88" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="89" fillId="123" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="123" fontId="89" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="90" fillId="138" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="138" fontId="90" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="91" fillId="141" borderId="170" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="92" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="93" fillId="144" borderId="174" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="94" fillId="147" borderId="178" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="95" fillId="150" borderId="182" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="96" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="97" fillId="153" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="98" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="99" fillId="156" borderId="186" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="100" fillId="147" borderId="190" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="101" fillId="159" borderId="194" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="102" fillId="159" borderId="194" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="103" fillId="150" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="104" fillId="162" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="105" fillId="150" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="106" fillId="165" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -5945,7 +6579,7 @@
         <v>428</v>
       </c>
       <c r="G5" t="s">
-        <v>332</v>
+        <v>571</v>
       </c>
       <c r="H5" t="s">
         <v>455</v>
@@ -6019,7 +6653,7 @@
         <v>477</v>
       </c>
       <c r="G6" t="s">
-        <v>383</v>
+        <v>332</v>
       </c>
       <c r="H6" t="s">
         <v>443</v>
@@ -6081,7 +6715,7 @@
         <v>220</v>
       </c>
       <c r="G7" t="s">
-        <v>361</v>
+        <v>383</v>
       </c>
       <c r="H7" t="s">
         <v>442</v>
@@ -6143,7 +6777,7 @@
         <v>314</v>
       </c>
       <c r="G8" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="H8" t="s">
         <v>324</v>
@@ -6199,7 +6833,7 @@
         <v>31</v>
       </c>
       <c r="G9" t="s">
-        <v>302</v>
+        <v>362</v>
       </c>
       <c r="H9" t="s">
         <v>325</v>
@@ -6243,7 +6877,7 @@
         <v>311</v>
       </c>
       <c r="G10" t="s">
-        <v>348</v>
+        <v>302</v>
       </c>
       <c r="H10" t="s">
         <v>447</v>
@@ -6284,7 +6918,7 @@
         <v>251</v>
       </c>
       <c r="G11" t="s">
-        <v>270</v>
+        <v>348</v>
       </c>
       <c r="H11" t="s">
         <v>318</v>
@@ -6322,7 +6956,7 @@
         <v>315</v>
       </c>
       <c r="G12" t="s">
-        <v>259</v>
+        <v>270</v>
       </c>
       <c r="H12" t="s">
         <v>319</v>
@@ -6360,7 +6994,7 @@
         <v>337</v>
       </c>
       <c r="G13" t="s">
-        <v>312</v>
+        <v>259</v>
       </c>
       <c r="H13" t="s">
         <v>320</v>
@@ -6395,7 +7029,7 @@
         <v>36</v>
       </c>
       <c r="G14" t="s">
-        <v>260</v>
+        <v>312</v>
       </c>
       <c r="H14" t="s">
         <v>321</v>
@@ -6430,7 +7064,7 @@
         <v>57</v>
       </c>
       <c r="G15" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="K15" t="s">
         <v>482</v>
@@ -6462,7 +7096,7 @@
         <v>380</v>
       </c>
       <c r="G16" t="s">
-        <v>313</v>
+        <v>261</v>
       </c>
       <c r="K16" t="s">
         <v>79</v>
@@ -6494,7 +7128,7 @@
         <v>381</v>
       </c>
       <c r="G17" t="s">
-        <v>87</v>
+        <v>313</v>
       </c>
       <c r="K17" t="s">
         <v>80</v>
@@ -6520,7 +7154,7 @@
         <v>410</v>
       </c>
       <c r="G18" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="K18" t="s">
         <v>458</v>
@@ -6543,7 +7177,7 @@
         <v>58</v>
       </c>
       <c r="G19" t="s">
-        <v>292</v>
+        <v>88</v>
       </c>
       <c r="K19" t="s">
         <v>81</v>
@@ -6563,7 +7197,7 @@
         <v>59</v>
       </c>
       <c r="G20" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="K20" t="s">
         <v>82</v>
@@ -6583,7 +7217,7 @@
         <v>252</v>
       </c>
       <c r="G21" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="K21" t="s">
         <v>375</v>
@@ -6603,7 +7237,7 @@
         <v>533</v>
       </c>
       <c r="G22" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="K22" t="s">
         <v>465</v>
@@ -6623,7 +7257,7 @@
         <v>60</v>
       </c>
       <c r="G23" t="s">
-        <v>286</v>
+        <v>295</v>
       </c>
       <c r="K23" t="s">
         <v>43</v>
@@ -6643,7 +7277,7 @@
         <v>317</v>
       </c>
       <c r="G24" t="s">
-        <v>275</v>
+        <v>286</v>
       </c>
       <c r="K24" t="s">
         <v>387</v>
@@ -6663,7 +7297,7 @@
         <v>61</v>
       </c>
       <c r="G25" t="s">
-        <v>74</v>
+        <v>275</v>
       </c>
       <c r="K25" t="s">
         <v>519</v>
@@ -6683,7 +7317,7 @@
         <v>444</v>
       </c>
       <c r="G26" t="s">
-        <v>278</v>
+        <v>74</v>
       </c>
       <c r="K26" t="s">
         <v>83</v>
@@ -6703,7 +7337,7 @@
         <v>221</v>
       </c>
       <c r="G27" t="s">
-        <v>262</v>
+        <v>278</v>
       </c>
       <c r="K27" t="s">
         <v>429</v>
@@ -6723,7 +7357,7 @@
         <v>222</v>
       </c>
       <c r="G28" t="s">
-        <v>279</v>
+        <v>262</v>
       </c>
       <c r="K28" t="s">
         <v>44</v>
@@ -6740,7 +7374,7 @@
         <v>463</v>
       </c>
       <c r="G29" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="K29" t="s">
         <v>45</v>
@@ -6757,7 +7391,7 @@
         <v>464</v>
       </c>
       <c r="G30" t="s">
-        <v>212</v>
+        <v>280</v>
       </c>
       <c r="Y30" t="s">
         <v>111</v>
@@ -6768,7 +7402,7 @@
         <v>411</v>
       </c>
       <c r="G31" t="s">
-        <v>271</v>
+        <v>212</v>
       </c>
       <c r="Y31" t="s">
         <v>112</v>
@@ -6779,7 +7413,7 @@
         <v>62</v>
       </c>
       <c r="G32" t="s">
-        <v>281</v>
+        <v>271</v>
       </c>
       <c r="Y32" t="s">
         <v>113</v>
@@ -6790,7 +7424,7 @@
         <v>63</v>
       </c>
       <c r="G33" t="s">
-        <v>504</v>
+        <v>281</v>
       </c>
       <c r="Y33" t="s">
         <v>114</v>
@@ -6801,7 +7435,7 @@
         <v>64</v>
       </c>
       <c r="G34" t="s">
-        <v>256</v>
+        <v>504</v>
       </c>
       <c r="Y34" t="s">
         <v>568</v>
@@ -6812,7 +7446,7 @@
         <v>65</v>
       </c>
       <c r="G35" t="s">
-        <v>326</v>
+        <v>256</v>
       </c>
       <c r="Y35" t="s">
         <v>115</v>
@@ -6823,7 +7457,7 @@
         <v>66</v>
       </c>
       <c r="G36" t="s">
-        <v>303</v>
+        <v>326</v>
       </c>
       <c r="Y36" t="s">
         <v>116</v>
@@ -6834,7 +7468,7 @@
         <v>67</v>
       </c>
       <c r="G37" t="s">
-        <v>257</v>
+        <v>303</v>
       </c>
       <c r="Y37" t="s">
         <v>206</v>
@@ -6845,7 +7479,7 @@
         <v>68</v>
       </c>
       <c r="G38" t="s">
-        <v>304</v>
+        <v>257</v>
       </c>
       <c r="Y38" t="s">
         <v>117</v>
@@ -6856,7 +7490,7 @@
         <v>69</v>
       </c>
       <c r="G39" t="s">
-        <v>263</v>
+        <v>304</v>
       </c>
       <c r="Y39" t="s">
         <v>334</v>
@@ -6864,7 +7498,7 @@
     </row>
     <row r="40">
       <c r="G40" t="s">
-        <v>76</v>
+        <v>263</v>
       </c>
       <c r="Y40" t="s">
         <v>433</v>
@@ -6872,7 +7506,7 @@
     </row>
     <row r="41">
       <c r="G41" t="s">
-        <v>208</v>
+        <v>76</v>
       </c>
       <c r="Y41" t="s">
         <v>522</v>
@@ -6880,7 +7514,7 @@
     </row>
     <row r="42">
       <c r="G42" t="s">
-        <v>534</v>
+        <v>208</v>
       </c>
       <c r="Y42" t="s">
         <v>388</v>
@@ -6888,7 +7522,7 @@
     </row>
     <row r="43">
       <c r="G43" t="s">
-        <v>285</v>
+        <v>534</v>
       </c>
       <c r="Y43" t="s">
         <v>118</v>
@@ -6896,7 +7530,7 @@
     </row>
     <row r="44">
       <c r="G44" t="s">
-        <v>296</v>
+        <v>285</v>
       </c>
       <c r="Y44" t="s">
         <v>119</v>
@@ -6904,7 +7538,7 @@
     </row>
     <row r="45">
       <c r="G45" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="Y45" t="s">
         <v>120</v>
@@ -6912,7 +7546,7 @@
     </row>
     <row r="46">
       <c r="G46" t="s">
-        <v>339</v>
+        <v>297</v>
       </c>
       <c r="Y46" t="s">
         <v>121</v>
@@ -6920,7 +7554,7 @@
     </row>
     <row r="47">
       <c r="G47" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="Y47" t="s">
         <v>122</v>
@@ -6928,7 +7562,7 @@
     </row>
     <row r="48">
       <c r="G48" t="s">
-        <v>207</v>
+        <v>338</v>
       </c>
       <c r="Y48" t="s">
         <v>123</v>
@@ -6936,7 +7570,7 @@
     </row>
     <row r="49">
       <c r="G49" t="s">
-        <v>316</v>
+        <v>207</v>
       </c>
       <c r="Y49" t="s">
         <v>434</v>
@@ -6944,7 +7578,7 @@
     </row>
     <row r="50">
       <c r="G50" t="s">
-        <v>335</v>
+        <v>316</v>
       </c>
       <c r="Y50" t="s">
         <v>209</v>
@@ -6952,7 +7586,7 @@
     </row>
     <row r="51">
       <c r="G51" t="s">
-        <v>363</v>
+        <v>335</v>
       </c>
       <c r="Y51" t="s">
         <v>75</v>
@@ -6960,7 +7594,7 @@
     </row>
     <row r="52">
       <c r="G52" t="s">
-        <v>298</v>
+        <v>363</v>
       </c>
       <c r="Y52" t="s">
         <v>531</v>
@@ -6968,7 +7602,7 @@
     </row>
     <row r="53">
       <c r="G53" t="s">
-        <v>351</v>
+        <v>298</v>
       </c>
       <c r="Y53" t="s">
         <v>124</v>
@@ -6976,7 +7610,7 @@
     </row>
     <row r="54">
       <c r="G54" t="s">
-        <v>327</v>
+        <v>351</v>
       </c>
       <c r="Y54" t="s">
         <v>125</v>
@@ -6984,7 +7618,7 @@
     </row>
     <row r="55">
       <c r="G55" t="s">
-        <v>264</v>
+        <v>327</v>
       </c>
       <c r="Y55" t="s">
         <v>126</v>
@@ -6992,7 +7626,7 @@
     </row>
     <row r="56">
       <c r="G56" t="s">
-        <v>288</v>
+        <v>264</v>
       </c>
       <c r="Y56" t="s">
         <v>490</v>
@@ -7000,7 +7634,7 @@
     </row>
     <row r="57">
       <c r="G57" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="Y57" t="s">
         <v>459</v>
@@ -7008,7 +7642,7 @@
     </row>
     <row r="58">
       <c r="G58" t="s">
-        <v>535</v>
+        <v>289</v>
       </c>
       <c r="Y58" t="s">
         <v>127</v>
@@ -7016,7 +7650,7 @@
     </row>
     <row r="59">
       <c r="G59" t="s">
-        <v>290</v>
+        <v>535</v>
       </c>
       <c r="Y59" t="s">
         <v>342</v>
@@ -7024,7 +7658,7 @@
     </row>
     <row r="60">
       <c r="G60" t="s">
-        <v>299</v>
+        <v>290</v>
       </c>
       <c r="Y60" t="s">
         <v>460</v>
@@ -7032,7 +7666,7 @@
     </row>
     <row r="61">
       <c r="G61" t="s">
-        <v>308</v>
+        <v>299</v>
       </c>
       <c r="Y61" t="s">
         <v>128</v>
@@ -7040,7 +7674,7 @@
     </row>
     <row r="62">
       <c r="G62" t="s">
-        <v>333</v>
+        <v>308</v>
       </c>
       <c r="Y62" t="s">
         <v>129</v>
@@ -7048,7 +7682,7 @@
     </row>
     <row r="63">
       <c r="G63" t="s">
-        <v>305</v>
+        <v>333</v>
       </c>
       <c r="Y63" t="s">
         <v>130</v>
@@ -7056,7 +7690,7 @@
     </row>
     <row r="64">
       <c r="G64" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="Y64" t="s">
         <v>131</v>
@@ -7064,7 +7698,7 @@
     </row>
     <row r="65">
       <c r="G65" t="s">
-        <v>364</v>
+        <v>306</v>
       </c>
       <c r="Y65" t="s">
         <v>132</v>
@@ -7072,7 +7706,7 @@
     </row>
     <row r="66">
       <c r="G66" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="Y66" t="s">
         <v>133</v>
@@ -7080,7 +7714,7 @@
     </row>
     <row r="67">
       <c r="G67" t="s">
-        <v>341</v>
+        <v>365</v>
       </c>
       <c r="Y67" t="s">
         <v>134</v>
@@ -7088,7 +7722,7 @@
     </row>
     <row r="68">
       <c r="G68" t="s">
-        <v>309</v>
+        <v>341</v>
       </c>
       <c r="Y68" t="s">
         <v>435</v>
@@ -7096,7 +7730,7 @@
     </row>
     <row r="69">
       <c r="G69" t="s">
-        <v>265</v>
+        <v>309</v>
       </c>
       <c r="Y69" t="s">
         <v>468</v>
@@ -7104,7 +7738,7 @@
     </row>
     <row r="70">
       <c r="G70" t="s">
-        <v>520</v>
+        <v>265</v>
       </c>
       <c r="Y70" t="s">
         <v>210</v>
@@ -7112,7 +7746,7 @@
     </row>
     <row r="71">
       <c r="G71" t="s">
-        <v>310</v>
+        <v>520</v>
       </c>
       <c r="Y71" t="s">
         <v>384</v>
@@ -7120,7 +7754,7 @@
     </row>
     <row r="72">
       <c r="G72" t="s">
-        <v>405</v>
+        <v>310</v>
       </c>
       <c r="Y72" t="s">
         <v>436</v>
@@ -7128,7 +7762,7 @@
     </row>
     <row r="73">
       <c r="G73" t="s">
-        <v>300</v>
+        <v>405</v>
       </c>
       <c r="Y73" t="s">
         <v>135</v>
@@ -7136,7 +7770,7 @@
     </row>
     <row r="74">
       <c r="G74" t="s">
-        <v>406</v>
+        <v>300</v>
       </c>
       <c r="Y74" t="s">
         <v>136</v>
@@ -7144,7 +7778,7 @@
     </row>
     <row r="75">
       <c r="G75" t="s">
-        <v>258</v>
+        <v>406</v>
       </c>
       <c r="Y75" t="s">
         <v>137</v>
@@ -7152,7 +7786,7 @@
     </row>
     <row r="76">
       <c r="G76" t="s">
-        <v>505</v>
+        <v>258</v>
       </c>
       <c r="Y76" t="s">
         <v>138</v>
@@ -7160,7 +7794,7 @@
     </row>
     <row r="77">
       <c r="G77" t="s">
-        <v>340</v>
+        <v>505</v>
       </c>
       <c r="Y77" t="s">
         <v>193</v>
@@ -7168,7 +7802,7 @@
     </row>
     <row r="78">
       <c r="G78" t="s">
-        <v>276</v>
+        <v>340</v>
       </c>
       <c r="Y78" t="s">
         <v>194</v>
@@ -7176,7 +7810,7 @@
     </row>
     <row r="79">
       <c r="G79" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="Y79" t="s">
         <v>448</v>
@@ -7184,7 +7818,7 @@
     </row>
     <row r="80">
       <c r="G80" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="Y80" t="s">
         <v>461</v>
@@ -7192,7 +7826,7 @@
     </row>
     <row r="81">
       <c r="G81" t="s">
-        <v>424</v>
+        <v>287</v>
       </c>
       <c r="Y81" t="s">
         <v>139</v>
@@ -7200,7 +7834,7 @@
     </row>
     <row r="82">
       <c r="G82" t="s">
-        <v>328</v>
+        <v>424</v>
       </c>
       <c r="Y82" t="s">
         <v>140</v>
@@ -7208,7 +7842,7 @@
     </row>
     <row r="83">
       <c r="G83" t="s">
-        <v>266</v>
+        <v>328</v>
       </c>
       <c r="Y83" t="s">
         <v>141</v>
@@ -7216,7 +7850,7 @@
     </row>
     <row r="84">
       <c r="G84" t="s">
-        <v>277</v>
+        <v>266</v>
       </c>
       <c r="Y84" t="s">
         <v>491</v>
@@ -7224,7 +7858,7 @@
     </row>
     <row r="85">
       <c r="G85" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="Y85" t="s">
         <v>142</v>
@@ -7232,7 +7866,7 @@
     </row>
     <row r="86">
       <c r="G86" t="s">
-        <v>272</v>
+        <v>283</v>
       </c>
       <c r="Y86" t="s">
         <v>143</v>
@@ -7240,7 +7874,7 @@
     </row>
     <row r="87">
       <c r="G87" t="s">
-        <v>523</v>
+        <v>272</v>
       </c>
       <c r="Y87" t="s">
         <v>195</v>
@@ -7248,7 +7882,7 @@
     </row>
     <row r="88">
       <c r="G88" t="s">
-        <v>267</v>
+        <v>523</v>
       </c>
       <c r="Y88" t="s">
         <v>492</v>
@@ -7256,7 +7890,7 @@
     </row>
     <row r="89">
       <c r="G89" t="s">
-        <v>284</v>
+        <v>267</v>
       </c>
       <c r="Y89" t="s">
         <v>196</v>
@@ -7264,7 +7898,7 @@
     </row>
     <row r="90">
       <c r="G90" t="s">
-        <v>268</v>
+        <v>284</v>
       </c>
       <c r="Y90" t="s">
         <v>449</v>
@@ -7272,7 +7906,7 @@
     </row>
     <row r="91">
       <c r="G91" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="Y91" t="s">
         <v>197</v>
@@ -7280,7 +7914,7 @@
     </row>
     <row r="92">
       <c r="G92" t="s">
-        <v>301</v>
+        <v>269</v>
       </c>
       <c r="Y92" t="s">
         <v>198</v>
@@ -7288,15 +7922,15 @@
     </row>
     <row r="93">
       <c r="G93" t="s">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="Y93" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
     </row>
     <row r="94">
       <c r="G94" t="s">
-        <v>291</v>
+        <v>307</v>
       </c>
       <c r="Y94" t="s">
         <v>211</v>
@@ -7304,7 +7938,7 @@
     </row>
     <row r="95">
       <c r="G95" t="s">
-        <v>336</v>
+        <v>291</v>
       </c>
       <c r="Y95" t="s">
         <v>144</v>
@@ -7312,7 +7946,7 @@
     </row>
     <row r="96">
       <c r="G96" t="s">
-        <v>273</v>
+        <v>336</v>
       </c>
       <c r="Y96" t="s">
         <v>199</v>
@@ -7320,13 +7954,16 @@
     </row>
     <row r="97">
       <c r="G97" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="Y97" t="s">
         <v>437</v>
       </c>
     </row>
     <row r="98">
+      <c r="G98" t="s">
+        <v>274</v>
+      </c>
       <c r="Y98" t="s">
         <v>438</v>
       </c>

--- a/src/test/resources/unittesting/artifact/script/unitTest_LocalDb.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_LocalDb.xlsx
@@ -47,7 +47,7 @@
     <definedName name="step">'#system'!$X$2:$X$4</definedName>
     <definedName name="target">'#system'!$A$2:$A$30</definedName>
     <definedName name="text">'#system'!$Y$2:$Y$2</definedName>
-    <definedName name="web">'#system'!$Y$2:$Y$133</definedName>
+    <definedName name="web">'#system'!$Y$2:$Y$134</definedName>
     <definedName name="webalert">'#system'!$Z$2:$Z$8</definedName>
     <definedName name="webcookie">'#system'!$AA$2:$AA$8</definedName>
     <definedName name="ws">'#system'!$AB$2:$AB$17</definedName>
@@ -67,7 +67,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3959" uniqueCount="573">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4516" uniqueCount="574">
   <si>
     <t>description</t>
   </si>
@@ -1800,13 +1800,16 @@
   <si>
     <t>saveInfiniteDivsAsCsv(config,file)</t>
   </si>
+  <si>
+    <t>saveInfiniteTableAsCsv(config,file)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="107" x14ac:knownFonts="1">
+  <fonts count="123" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2489,8 +2492,109 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="166">
+  <fills count="193">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3427,8 +3531,161 @@
         <bgColor rgb="E6E6E6"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="195">
+  <borders count="227">
     <border>
       <left/>
       <right/>
@@ -5422,6 +5679,332 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -5429,7 +6012,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="133">
+  <cellXfs count="149">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -5798,52 +6381,100 @@
     <xf applyFill="true" applyFont="true" borderId="0" fillId="138" fontId="90" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="91" fillId="141" borderId="170" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="170" fillId="141" fontId="91" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="92" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="92" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="93" fillId="144" borderId="174" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="174" fillId="144" fontId="93" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="94" fillId="147" borderId="178" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="178" fillId="147" fontId="94" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="95" fillId="150" borderId="182" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="182" fillId="150" fontId="95" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="96" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="96" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="97" fillId="153" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="153" fontId="97" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="98" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="98" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="99" fillId="156" borderId="186" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="186" fillId="156" fontId="99" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="100" fillId="147" borderId="190" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="190" fillId="147" fontId="100" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="101" fillId="159" borderId="194" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="194" fillId="159" fontId="101" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="102" fillId="159" borderId="194" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="194" fillId="159" fontId="102" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="103" fillId="150" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="150" fontId="103" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="104" fillId="162" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="162" fontId="104" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="105" fillId="150" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="150" fontId="105" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="106" fillId="165" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="165" fontId="106" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="107" fillId="168" borderId="202" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="108" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="109" fillId="171" borderId="206" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="110" fillId="174" borderId="210" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="111" fillId="177" borderId="214" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="112" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="113" fillId="180" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="114" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="115" fillId="183" borderId="218" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="116" fillId="174" borderId="222" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="117" fillId="186" borderId="226" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="118" fillId="186" borderId="226" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="119" fillId="177" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="120" fillId="189" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="121" fillId="177" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="122" fillId="192" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -6198,7 +6829,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AE133"/>
+  <dimension ref="A1:AE134"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
@@ -7933,7 +8564,7 @@
         <v>307</v>
       </c>
       <c r="Y94" t="s">
-        <v>211</v>
+        <v>573</v>
       </c>
     </row>
     <row r="95">
@@ -7941,7 +8572,7 @@
         <v>291</v>
       </c>
       <c r="Y95" t="s">
-        <v>144</v>
+        <v>211</v>
       </c>
     </row>
     <row r="96">
@@ -7949,7 +8580,7 @@
         <v>336</v>
       </c>
       <c r="Y96" t="s">
-        <v>199</v>
+        <v>144</v>
       </c>
     </row>
     <row r="97">
@@ -7957,7 +8588,7 @@
         <v>273</v>
       </c>
       <c r="Y97" t="s">
-        <v>437</v>
+        <v>199</v>
       </c>
     </row>
     <row r="98">
@@ -7965,181 +8596,186 @@
         <v>274</v>
       </c>
       <c r="Y98" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
     </row>
     <row r="99">
       <c r="Y99" t="s">
-        <v>200</v>
+        <v>438</v>
       </c>
     </row>
     <row r="100">
       <c r="Y100" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="101">
       <c r="Y101" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="102">
       <c r="Y102" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="103">
       <c r="Y103" t="s">
-        <v>219</v>
+        <v>203</v>
       </c>
     </row>
     <row r="104">
       <c r="Y104" t="s">
-        <v>204</v>
+        <v>219</v>
       </c>
     </row>
     <row r="105">
       <c r="Y105" t="s">
-        <v>493</v>
+        <v>204</v>
       </c>
     </row>
     <row r="106">
       <c r="Y106" t="s">
-        <v>517</v>
+        <v>493</v>
       </c>
     </row>
     <row r="107">
       <c r="Y107" t="s">
-        <v>145</v>
+        <v>517</v>
       </c>
     </row>
     <row r="108">
       <c r="Y108" t="s">
-        <v>518</v>
+        <v>145</v>
       </c>
     </row>
     <row r="109">
       <c r="Y109" t="s">
-        <v>378</v>
+        <v>518</v>
       </c>
     </row>
     <row r="110">
       <c r="Y110" t="s">
-        <v>146</v>
+        <v>378</v>
       </c>
     </row>
     <row r="111">
       <c r="Y111" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="112">
       <c r="Y112" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="113">
       <c r="Y113" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="114">
       <c r="Y114" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="115">
       <c r="Y115" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="116">
       <c r="Y116" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="117">
       <c r="Y117" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="118">
       <c r="Y118" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="119">
       <c r="Y119" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="120">
       <c r="Y120" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="121">
       <c r="Y121" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="122">
       <c r="Y122" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="123">
       <c r="Y123" t="s">
-        <v>439</v>
+        <v>158</v>
       </c>
     </row>
     <row r="124">
       <c r="Y124" t="s">
-        <v>159</v>
+        <v>439</v>
       </c>
     </row>
     <row r="125">
       <c r="Y125" t="s">
-        <v>569</v>
+        <v>159</v>
       </c>
     </row>
     <row r="126">
       <c r="Y126" t="s">
-        <v>160</v>
+        <v>569</v>
       </c>
     </row>
     <row r="127">
       <c r="Y127" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="128">
       <c r="Y128" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="129">
       <c r="Y129" t="s">
-        <v>46</v>
+        <v>162</v>
       </c>
     </row>
     <row r="130">
       <c r="Y130" t="s">
-        <v>163</v>
+        <v>46</v>
       </c>
     </row>
     <row r="131">
       <c r="Y131" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="132">
       <c r="Y132" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="133">
       <c r="Y133" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="Y134" t="s">
         <v>166</v>
       </c>
     </row>

--- a/src/test/resources/unittesting/artifact/script/unitTest_LocalDb.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_LocalDb.xlsx
@@ -20,39 +20,40 @@
     <definedName name="aws.s3">'#system'!$B$2:$B$9</definedName>
     <definedName name="aws.ses">'#system'!$C$2:$C$3</definedName>
     <definedName name="aws.sqs">'#system'!$D$2:$D$6</definedName>
-    <definedName name="base">'#system'!$E$2:$E$39</definedName>
-    <definedName name="csv">'#system'!$F$2:$F$6</definedName>
+    <definedName name="base">'#system'!$F$2:$F$39</definedName>
+    <definedName name="csv">'#system'!$G$2:$G$6</definedName>
     <definedName name="date">'#system'!$C$2:$C$14</definedName>
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
-    <definedName name="desktop">'#system'!$G$2:$G$98</definedName>
-    <definedName name="excel">'#system'!$H$2:$H$14</definedName>
-    <definedName name="external">'#system'!$I$2:$I$5</definedName>
-    <definedName name="image">'#system'!$J$2:$J$7</definedName>
-    <definedName name="io">'#system'!$K$2:$K$29</definedName>
-    <definedName name="jms">'#system'!$L$2:$L$4</definedName>
-    <definedName name="json">'#system'!$M$2:$M$18</definedName>
-    <definedName name="localdb">'#system'!$N$2:$N$12</definedName>
-    <definedName name="macro">'#system'!$O$2:$O$4</definedName>
-    <definedName name="mail">'#system'!$P$2:$P$2</definedName>
+    <definedName name="desktop">'#system'!$H$2:$H$98</definedName>
+    <definedName name="excel">'#system'!$I$2:$I$14</definedName>
+    <definedName name="external">'#system'!$J$2:$J$5</definedName>
+    <definedName name="image">'#system'!$K$2:$K$7</definedName>
+    <definedName name="io">'#system'!$L$2:$L$29</definedName>
+    <definedName name="jms">'#system'!$M$2:$M$4</definedName>
+    <definedName name="json">'#system'!$N$2:$N$18</definedName>
+    <definedName name="localdb">'#system'!$O$2:$O$12</definedName>
+    <definedName name="macro">'#system'!$P$2:$P$4</definedName>
+    <definedName name="mail">'#system'!$Q$2:$Q$2</definedName>
     <definedName name="math">'#system'!$K$2:$K$13</definedName>
     <definedName name="mq">'#system'!$J$2:$J$3</definedName>
     <definedName name="nextgen">'#system'!$K$2:$K$28</definedName>
-    <definedName name="number">'#system'!$Q$2:$Q$16</definedName>
-    <definedName name="pdf">'#system'!$R$2:$R$16</definedName>
-    <definedName name="rdbms">'#system'!$S$2:$S$7</definedName>
-    <definedName name="redis">'#system'!$T$2:$T$10</definedName>
-    <definedName name="sms">'#system'!$U$2:$U$2</definedName>
-    <definedName name="sound">'#system'!$V$2:$V$5</definedName>
-    <definedName name="ssh">'#system'!$W$2:$W$9</definedName>
-    <definedName name="step">'#system'!$X$2:$X$4</definedName>
-    <definedName name="target">'#system'!$A$2:$A$30</definedName>
+    <definedName name="number">'#system'!$R$2:$R$16</definedName>
+    <definedName name="pdf">'#system'!$S$2:$S$16</definedName>
+    <definedName name="rdbms">'#system'!$T$2:$T$7</definedName>
+    <definedName name="redis">'#system'!$U$2:$U$10</definedName>
+    <definedName name="sms">'#system'!$V$2:$V$2</definedName>
+    <definedName name="sound">'#system'!$W$2:$W$5</definedName>
+    <definedName name="ssh">'#system'!$X$2:$X$9</definedName>
+    <definedName name="step">'#system'!$Y$2:$Y$4</definedName>
+    <definedName name="target">'#system'!$A$2:$A$31</definedName>
     <definedName name="text">'#system'!$Y$2:$Y$2</definedName>
-    <definedName name="web">'#system'!$Y$2:$Y$134</definedName>
-    <definedName name="webalert">'#system'!$Z$2:$Z$8</definedName>
-    <definedName name="webcookie">'#system'!$AA$2:$AA$8</definedName>
-    <definedName name="ws">'#system'!$AB$2:$AB$17</definedName>
-    <definedName name="ws.async">'#system'!$AC$2:$AC$8</definedName>
-    <definedName name="xml">'#system'!$AD$2:$AD$27</definedName>
+    <definedName name="web">'#system'!$Z$2:$Z$135</definedName>
+    <definedName name="webalert">'#system'!$AA$2:$AA$8</definedName>
+    <definedName name="webcookie">'#system'!$AB$2:$AB$8</definedName>
+    <definedName name="ws">'#system'!$AC$2:$AC$17</definedName>
+    <definedName name="ws.async">'#system'!$AD$2:$AD$8</definedName>
+    <definedName name="xml">'#system'!$AE$2:$AE$27</definedName>
+    <definedName name="aws.vision">'#system'!$E$2:$E$2</definedName>
   </definedNames>
   <calcPr calcId="150000"/>
   <extLst>
@@ -67,7 +68,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4516" uniqueCount="574">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5077" uniqueCount="580">
   <si>
     <t>description</t>
   </si>
@@ -1803,13 +1804,31 @@
   <si>
     <t>saveInfiniteTableAsCsv(config,file)</t>
   </si>
+  <si>
+    <t>aws.vision</t>
+  </si>
+  <si>
+    <t>saveText(profile,image,var)</t>
+  </si>
+  <si>
+    <t>assertNotContain(text,substring)</t>
+  </si>
+  <si>
+    <t>assertAttributeNotContain(locator,attrName,contains)</t>
+  </si>
+  <si>
+    <t>assertTextNotContain(locator,text)</t>
+  </si>
+  <si>
+    <t>screenshot(file,locator)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="123" x14ac:knownFonts="1">
+  <fonts count="139" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2593,8 +2612,109 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="193">
+  <fills count="220">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3684,8 +3804,161 @@
         <bgColor rgb="E6E6E6"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="227">
+  <borders count="259">
     <border>
       <left/>
       <right/>
@@ -6005,6 +6278,332 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -6012,7 +6611,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="149">
+  <cellXfs count="165">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -6429,52 +7028,100 @@
     <xf applyFill="true" applyFont="true" borderId="0" fillId="165" fontId="106" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="107" fillId="168" borderId="202" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="202" fillId="168" fontId="107" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="108" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="108" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="109" fillId="171" borderId="206" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="206" fillId="171" fontId="109" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="110" fillId="174" borderId="210" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="210" fillId="174" fontId="110" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="111" fillId="177" borderId="214" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="214" fillId="177" fontId="111" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="112" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="112" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="113" fillId="180" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="180" fontId="113" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="114" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="114" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="115" fillId="183" borderId="218" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="218" fillId="183" fontId="115" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="116" fillId="174" borderId="222" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="222" fillId="174" fontId="116" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="117" fillId="186" borderId="226" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="226" fillId="186" fontId="117" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="118" fillId="186" borderId="226" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="226" fillId="186" fontId="118" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="119" fillId="177" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="177" fontId="119" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="120" fillId="189" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="189" fontId="120" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="121" fillId="177" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="177" fontId="121" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="122" fillId="192" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="192" fontId="122" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="123" fillId="195" borderId="234" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="124" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="125" fillId="198" borderId="238" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="126" fillId="201" borderId="242" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="127" fillId="204" borderId="246" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="128" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="129" fillId="207" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="130" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="131" fillId="210" borderId="250" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="132" fillId="201" borderId="254" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="133" fillId="213" borderId="258" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="134" fillId="213" borderId="258" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="135" fillId="204" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="136" fillId="216" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="137" fillId="204" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="138" fillId="219" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -6829,7 +7476,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AE134"/>
+  <dimension ref="A1:AF135"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
@@ -6854,81 +7501,84 @@
         <v>471</v>
       </c>
       <c r="E1" t="s">
+        <v>574</v>
+      </c>
+      <c r="F1" t="s">
         <v>13</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>49</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>21</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>22</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>23</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>343</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>14</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>329</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>24</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>502</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>472</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>192</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>50</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>235</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>51</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>391</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>407</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>408</v>
       </c>
-      <c r="W1" t="s">
+      <c r="X1" t="s">
         <v>352</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Y1" t="s">
         <v>392</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Z1" t="s">
         <v>52</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AA1" t="s">
         <v>53</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AB1" t="s">
         <v>54</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AC1" t="s">
         <v>55</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AD1" t="s">
         <v>409</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AE1" t="s">
         <v>223</v>
       </c>
     </row>
@@ -6946,81 +7596,84 @@
         <v>473</v>
       </c>
       <c r="E2" t="s">
+        <v>575</v>
+      </c>
+      <c r="F2" t="s">
         <v>56</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>70</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>72</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>445</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>77</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>456</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>311</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="s">
         <v>379</v>
       </c>
-      <c r="M2" t="s">
+      <c r="N2" t="s">
         <v>430</v>
       </c>
-      <c r="N2" t="s">
+      <c r="O2" t="s">
         <v>506</v>
       </c>
-      <c r="O2" t="s">
+      <c r="P2" t="s">
         <v>483</v>
       </c>
-      <c r="P2" t="s">
+      <c r="Q2" t="s">
         <v>412</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="R2" t="s">
         <v>425</v>
       </c>
-      <c r="R2" t="s">
+      <c r="S2" t="s">
         <v>249</v>
       </c>
-      <c r="S2" t="s">
+      <c r="T2" t="s">
         <v>213</v>
       </c>
-      <c r="T2" t="s">
+      <c r="U2" t="s">
         <v>393</v>
       </c>
-      <c r="U2" t="s">
+      <c r="V2" t="s">
         <v>414</v>
       </c>
-      <c r="V2" t="s">
+      <c r="W2" t="s">
         <v>415</v>
       </c>
-      <c r="W2" t="s">
+      <c r="X2" t="s">
         <v>376</v>
       </c>
-      <c r="X2" t="s">
+      <c r="Y2" t="s">
         <v>402</v>
       </c>
-      <c r="Y2" t="s">
+      <c r="Z2" t="s">
         <v>94</v>
       </c>
-      <c r="Z2" t="s">
+      <c r="AA2" t="s">
         <v>167</v>
       </c>
-      <c r="AA2" t="s">
+      <c r="AB2" t="s">
         <v>172</v>
       </c>
-      <c r="AB2" t="s">
+      <c r="AC2" t="s">
         <v>179</v>
       </c>
-      <c r="AC2" t="s">
+      <c r="AD2" t="s">
         <v>427</v>
       </c>
-      <c r="AD2" t="s">
+      <c r="AE2" t="s">
         <v>494</v>
       </c>
     </row>
@@ -7037,76 +7690,76 @@
       <c r="D3" t="s">
         <v>503</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>453</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>360</v>
       </c>
-      <c r="G3" t="s">
+      <c r="H3" t="s">
         <v>86</v>
       </c>
-      <c r="H3" t="s">
+      <c r="I3" t="s">
         <v>47</v>
       </c>
-      <c r="I3" t="s">
+      <c r="J3" t="s">
         <v>478</v>
       </c>
-      <c r="J3" t="s">
+      <c r="K3" t="s">
         <v>345</v>
       </c>
-      <c r="K3" t="s">
+      <c r="L3" t="s">
         <v>337</v>
       </c>
-      <c r="L3" t="s">
+      <c r="M3" t="s">
         <v>330</v>
       </c>
-      <c r="M3" t="s">
+      <c r="N3" t="s">
         <v>84</v>
       </c>
-      <c r="N3" t="s">
+      <c r="O3" t="s">
         <v>507</v>
       </c>
-      <c r="O3" t="s">
+      <c r="P3" t="s">
         <v>484</v>
       </c>
-      <c r="Q3" t="s">
+      <c r="R3" t="s">
         <v>426</v>
       </c>
-      <c r="R3" t="s">
+      <c r="S3" t="s">
         <v>236</v>
       </c>
-      <c r="S3" t="s">
+      <c r="T3" t="s">
         <v>214</v>
       </c>
-      <c r="T3" t="s">
+      <c r="U3" t="s">
         <v>394</v>
       </c>
-      <c r="V3" t="s">
+      <c r="W3" t="s">
         <v>416</v>
       </c>
-      <c r="W3" t="s">
+      <c r="X3" t="s">
         <v>377</v>
       </c>
-      <c r="X3" t="s">
+      <c r="Y3" t="s">
         <v>403</v>
       </c>
-      <c r="Y3" t="s">
+      <c r="Z3" t="s">
         <v>95</v>
       </c>
-      <c r="Z3" t="s">
+      <c r="AA3" t="s">
         <v>168</v>
       </c>
-      <c r="AA3" t="s">
+      <c r="AB3" t="s">
         <v>173</v>
       </c>
-      <c r="AB3" t="s">
+      <c r="AC3" t="s">
         <v>359</v>
       </c>
-      <c r="AC3" t="s">
+      <c r="AD3" t="s">
         <v>180</v>
       </c>
-      <c r="AD3" t="s">
+      <c r="AE3" t="s">
         <v>224</v>
       </c>
     </row>
@@ -7120,82 +7773,82 @@
       <c r="D4" t="s">
         <v>474</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>15</v>
       </c>
-      <c r="F4" t="s">
+      <c r="G4" t="s">
         <v>71</v>
       </c>
-      <c r="G4" t="s">
+      <c r="H4" t="s">
         <v>382</v>
       </c>
-      <c r="H4" t="s">
+      <c r="I4" t="s">
         <v>446</v>
       </c>
-      <c r="I4" t="s">
+      <c r="J4" t="s">
         <v>479</v>
       </c>
-      <c r="J4" t="s">
+      <c r="K4" t="s">
         <v>346</v>
       </c>
-      <c r="K4" t="s">
+      <c r="L4" t="s">
         <v>234</v>
       </c>
-      <c r="L4" t="s">
+      <c r="M4" t="s">
         <v>331</v>
       </c>
-      <c r="M4" t="s">
+      <c r="N4" t="s">
         <v>25</v>
       </c>
-      <c r="N4" t="s">
+      <c r="O4" t="s">
         <v>508</v>
       </c>
-      <c r="O4" t="s">
+      <c r="P4" t="s">
         <v>485</v>
       </c>
-      <c r="Q4" t="s">
+      <c r="R4" t="s">
         <v>26</v>
       </c>
-      <c r="R4" t="s">
+      <c r="S4" t="s">
         <v>237</v>
       </c>
-      <c r="S4" t="s">
+      <c r="T4" t="s">
         <v>215</v>
       </c>
-      <c r="T4" t="s">
+      <c r="U4" t="s">
         <v>395</v>
       </c>
-      <c r="V4" t="s">
+      <c r="W4" t="s">
         <v>417</v>
       </c>
-      <c r="W4" t="s">
+      <c r="X4" t="s">
         <v>353</v>
       </c>
-      <c r="X4" t="s">
+      <c r="Y4" t="s">
         <v>404</v>
       </c>
-      <c r="Y4" t="s">
+      <c r="Z4" t="s">
         <v>349</v>
       </c>
-      <c r="Z4" t="s">
+      <c r="AA4" t="s">
         <v>169</v>
       </c>
-      <c r="AA4" t="s">
+      <c r="AB4" t="s">
         <v>174</v>
       </c>
-      <c r="AB4" t="s">
+      <c r="AC4" t="s">
         <v>180</v>
       </c>
-      <c r="AC4" t="s">
+      <c r="AD4" t="s">
         <v>419</v>
       </c>
-      <c r="AD4" t="s">
+      <c r="AE4" t="s">
         <v>225</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>13</v>
+        <v>574</v>
       </c>
       <c r="B5" t="s">
         <v>370</v>
@@ -7203,73 +7856,73 @@
       <c r="D5" t="s">
         <v>475</v>
       </c>
-      <c r="E5" t="s">
+      <c r="F5" t="s">
         <v>454</v>
       </c>
-      <c r="F5" t="s">
+      <c r="G5" t="s">
         <v>428</v>
       </c>
-      <c r="G5" t="s">
+      <c r="H5" t="s">
         <v>571</v>
       </c>
-      <c r="H5" t="s">
+      <c r="I5" t="s">
         <v>455</v>
       </c>
-      <c r="I5" t="s">
+      <c r="J5" t="s">
         <v>521</v>
       </c>
-      <c r="J5" t="s">
+      <c r="K5" t="s">
         <v>347</v>
       </c>
-      <c r="K5" t="s">
+      <c r="L5" t="s">
         <v>457</v>
       </c>
-      <c r="M5" t="s">
+      <c r="N5" t="s">
         <v>85</v>
       </c>
-      <c r="N5" t="s">
+      <c r="O5" t="s">
         <v>509</v>
       </c>
-      <c r="Q5" t="s">
+      <c r="R5" t="s">
         <v>29</v>
       </c>
-      <c r="R5" t="s">
+      <c r="S5" t="s">
         <v>238</v>
       </c>
-      <c r="S5" t="s">
+      <c r="T5" t="s">
         <v>216</v>
       </c>
-      <c r="T5" t="s">
+      <c r="U5" t="s">
         <v>396</v>
       </c>
-      <c r="V5" t="s">
+      <c r="W5" t="s">
         <v>418</v>
       </c>
-      <c r="W5" t="s">
+      <c r="X5" t="s">
         <v>354</v>
       </c>
-      <c r="Y5" t="s">
-        <v>350</v>
-      </c>
       <c r="Z5" t="s">
+        <v>577</v>
+      </c>
+      <c r="AA5" t="s">
         <v>170</v>
       </c>
-      <c r="AA5" t="s">
+      <c r="AB5" t="s">
         <v>175</v>
       </c>
-      <c r="AB5" t="s">
+      <c r="AC5" t="s">
         <v>181</v>
       </c>
-      <c r="AC5" t="s">
+      <c r="AD5" t="s">
         <v>420</v>
       </c>
-      <c r="AD5" t="s">
+      <c r="AE5" t="s">
         <v>226</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>49</v>
+        <v>13</v>
       </c>
       <c r="B6" t="s">
         <v>371</v>
@@ -7277,1505 +7930,1513 @@
       <c r="D6" t="s">
         <v>476</v>
       </c>
-      <c r="E6" t="s">
+      <c r="F6" t="s">
         <v>27</v>
       </c>
-      <c r="F6" t="s">
+      <c r="G6" t="s">
         <v>477</v>
       </c>
-      <c r="G6" t="s">
+      <c r="H6" t="s">
         <v>332</v>
       </c>
-      <c r="H6" t="s">
+      <c r="I6" t="s">
         <v>443</v>
       </c>
-      <c r="J6" t="s">
+      <c r="K6" t="s">
         <v>344</v>
       </c>
-      <c r="K6" t="s">
+      <c r="L6" t="s">
         <v>70</v>
       </c>
-      <c r="M6" t="s">
+      <c r="N6" t="s">
         <v>28</v>
       </c>
-      <c r="N6" t="s">
+      <c r="O6" t="s">
         <v>510</v>
       </c>
-      <c r="Q6" t="s">
+      <c r="R6" t="s">
         <v>30</v>
       </c>
-      <c r="R6" t="s">
+      <c r="S6" t="s">
         <v>239</v>
       </c>
-      <c r="S6" t="s">
+      <c r="T6" t="s">
         <v>386</v>
       </c>
-      <c r="T6" t="s">
+      <c r="U6" t="s">
         <v>397</v>
       </c>
-      <c r="W6" t="s">
+      <c r="X6" t="s">
         <v>356</v>
       </c>
-      <c r="Y6" t="s">
+      <c r="Z6" t="s">
         <v>96</v>
       </c>
-      <c r="Z6" t="s">
+      <c r="AA6" t="s">
         <v>440</v>
       </c>
-      <c r="AA6" t="s">
+      <c r="AB6" t="s">
         <v>176</v>
       </c>
-      <c r="AB6" t="s">
+      <c r="AC6" t="s">
         <v>182</v>
       </c>
-      <c r="AC6" t="s">
+      <c r="AD6" t="s">
         <v>421</v>
       </c>
-      <c r="AD6" t="s">
+      <c r="AE6" t="s">
         <v>227</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>49</v>
       </c>
       <c r="B7" t="s">
         <v>372</v>
       </c>
-      <c r="E7" t="s">
+      <c r="F7" t="s">
         <v>220</v>
       </c>
-      <c r="G7" t="s">
+      <c r="H7" t="s">
         <v>383</v>
       </c>
-      <c r="H7" t="s">
+      <c r="I7" t="s">
         <v>442</v>
       </c>
-      <c r="J7" t="s">
+      <c r="K7" t="s">
         <v>530</v>
       </c>
-      <c r="K7" t="s">
+      <c r="L7" t="s">
         <v>16</v>
       </c>
-      <c r="M7" t="s">
+      <c r="N7" t="s">
         <v>311</v>
       </c>
-      <c r="N7" t="s">
+      <c r="O7" t="s">
         <v>511</v>
       </c>
-      <c r="Q7" t="s">
+      <c r="R7" t="s">
         <v>32</v>
       </c>
-      <c r="R7" t="s">
+      <c r="S7" t="s">
         <v>240</v>
       </c>
-      <c r="S7" t="s">
+      <c r="T7" t="s">
         <v>413</v>
       </c>
-      <c r="T7" t="s">
+      <c r="U7" t="s">
         <v>398</v>
       </c>
-      <c r="W7" t="s">
+      <c r="X7" t="s">
         <v>355</v>
       </c>
-      <c r="Y7" t="s">
+      <c r="Z7" t="s">
         <v>97</v>
       </c>
-      <c r="Z7" t="s">
+      <c r="AA7" t="s">
         <v>441</v>
       </c>
-      <c r="AA7" t="s">
+      <c r="AB7" t="s">
         <v>177</v>
       </c>
-      <c r="AB7" t="s">
+      <c r="AC7" t="s">
         <v>183</v>
       </c>
-      <c r="AC7" t="s">
+      <c r="AD7" t="s">
         <v>422</v>
       </c>
-      <c r="AD7" t="s">
+      <c r="AE7" t="s">
         <v>524</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
         <v>373</v>
       </c>
-      <c r="E8" t="s">
+      <c r="F8" t="s">
         <v>314</v>
       </c>
-      <c r="G8" t="s">
+      <c r="H8" t="s">
         <v>361</v>
       </c>
-      <c r="H8" t="s">
+      <c r="I8" t="s">
         <v>324</v>
       </c>
-      <c r="K8" t="s">
+      <c r="L8" t="s">
         <v>480</v>
       </c>
-      <c r="M8" t="s">
+      <c r="N8" t="s">
         <v>33</v>
       </c>
-      <c r="N8" t="s">
+      <c r="O8" t="s">
         <v>512</v>
       </c>
-      <c r="Q8" t="s">
+      <c r="R8" t="s">
         <v>89</v>
       </c>
-      <c r="R8" t="s">
+      <c r="S8" t="s">
         <v>241</v>
       </c>
-      <c r="T8" t="s">
+      <c r="U8" t="s">
         <v>399</v>
       </c>
-      <c r="W8" t="s">
+      <c r="X8" t="s">
         <v>357</v>
       </c>
-      <c r="Y8" t="s">
+      <c r="Z8" t="s">
         <v>98</v>
       </c>
-      <c r="Z8" t="s">
+      <c r="AA8" t="s">
         <v>171</v>
       </c>
-      <c r="AA8" t="s">
+      <c r="AB8" t="s">
         <v>178</v>
       </c>
-      <c r="AB8" t="s">
+      <c r="AC8" t="s">
         <v>184</v>
       </c>
-      <c r="AC8" t="s">
+      <c r="AD8" t="s">
         <v>423</v>
       </c>
-      <c r="AD8" t="s">
+      <c r="AE8" t="s">
         <v>525</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B9" t="s">
         <v>374</v>
       </c>
-      <c r="E9" t="s">
+      <c r="F9" t="s">
         <v>31</v>
       </c>
-      <c r="G9" t="s">
+      <c r="H9" t="s">
         <v>362</v>
       </c>
-      <c r="H9" t="s">
+      <c r="I9" t="s">
         <v>325</v>
       </c>
-      <c r="K9" t="s">
+      <c r="L9" t="s">
         <v>78</v>
       </c>
-      <c r="M9" t="s">
+      <c r="N9" t="s">
         <v>34</v>
       </c>
-      <c r="N9" t="s">
+      <c r="O9" t="s">
         <v>513</v>
       </c>
-      <c r="Q9" t="s">
+      <c r="R9" t="s">
         <v>90</v>
       </c>
-      <c r="R9" t="s">
+      <c r="S9" t="s">
         <v>242</v>
       </c>
-      <c r="T9" t="s">
+      <c r="U9" t="s">
         <v>400</v>
       </c>
-      <c r="W9" t="s">
+      <c r="X9" t="s">
         <v>358</v>
       </c>
-      <c r="Y9" t="s">
+      <c r="Z9" t="s">
         <v>205</v>
       </c>
-      <c r="AB9" t="s">
+      <c r="AC9" t="s">
         <v>185</v>
       </c>
-      <c r="AD9" t="s">
+      <c r="AE9" t="s">
         <v>526</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>343</v>
-      </c>
-      <c r="E10" t="s">
+        <v>23</v>
+      </c>
+      <c r="F10" t="s">
         <v>311</v>
       </c>
-      <c r="G10" t="s">
+      <c r="H10" t="s">
         <v>302</v>
       </c>
-      <c r="H10" t="s">
+      <c r="I10" t="s">
         <v>447</v>
       </c>
-      <c r="K10" t="s">
+      <c r="L10" t="s">
         <v>37</v>
       </c>
-      <c r="M10" t="s">
+      <c r="N10" t="s">
         <v>35</v>
       </c>
-      <c r="N10" t="s">
+      <c r="O10" t="s">
         <v>514</v>
       </c>
-      <c r="Q10" t="s">
+      <c r="R10" t="s">
         <v>432</v>
       </c>
-      <c r="R10" t="s">
+      <c r="S10" t="s">
         <v>243</v>
       </c>
-      <c r="T10" t="s">
+      <c r="U10" t="s">
         <v>401</v>
       </c>
-      <c r="Y10" t="s">
+      <c r="Z10" t="s">
         <v>253</v>
       </c>
-      <c r="AB10" t="s">
+      <c r="AC10" t="s">
         <v>186</v>
       </c>
-      <c r="AD10" t="s">
+      <c r="AE10" t="s">
         <v>228</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>14</v>
-      </c>
-      <c r="E11" t="s">
-        <v>251</v>
-      </c>
-      <c r="G11" t="s">
+        <v>343</v>
+      </c>
+      <c r="F11" t="s">
+        <v>576</v>
+      </c>
+      <c r="H11" t="s">
         <v>348</v>
       </c>
-      <c r="H11" t="s">
+      <c r="I11" t="s">
         <v>318</v>
       </c>
-      <c r="K11" t="s">
+      <c r="L11" t="s">
         <v>481</v>
       </c>
-      <c r="M11" t="s">
+      <c r="N11" t="s">
         <v>466</v>
       </c>
-      <c r="N11" t="s">
+      <c r="O11" t="s">
         <v>515</v>
       </c>
-      <c r="Q11" t="s">
+      <c r="R11" t="s">
         <v>91</v>
       </c>
-      <c r="R11" t="s">
+      <c r="S11" t="s">
         <v>244</v>
       </c>
-      <c r="Y11" t="s">
+      <c r="Z11" t="s">
         <v>254</v>
       </c>
-      <c r="AB11" t="s">
+      <c r="AC11" t="s">
         <v>255</v>
       </c>
-      <c r="AD11" t="s">
+      <c r="AE11" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>329</v>
-      </c>
-      <c r="E12" t="s">
+        <v>14</v>
+      </c>
+      <c r="F12" t="s">
         <v>315</v>
       </c>
-      <c r="G12" t="s">
+      <c r="H12" t="s">
         <v>270</v>
       </c>
-      <c r="H12" t="s">
+      <c r="I12" t="s">
         <v>319</v>
       </c>
-      <c r="K12" t="s">
+      <c r="L12" t="s">
         <v>385</v>
       </c>
-      <c r="M12" t="s">
+      <c r="N12" t="s">
         <v>532</v>
       </c>
-      <c r="N12" t="s">
+      <c r="O12" t="s">
         <v>516</v>
       </c>
-      <c r="Q12" t="s">
+      <c r="R12" t="s">
         <v>40</v>
       </c>
-      <c r="R12" t="s">
+      <c r="S12" t="s">
         <v>245</v>
       </c>
-      <c r="Y12" t="s">
+      <c r="Z12" t="s">
         <v>99</v>
       </c>
-      <c r="AB12" t="s">
+      <c r="AC12" t="s">
         <v>187</v>
       </c>
-      <c r="AD12" t="s">
+      <c r="AE12" t="s">
         <v>230</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>24</v>
-      </c>
-      <c r="E13" t="s">
+        <v>329</v>
+      </c>
+      <c r="F13" t="s">
         <v>337</v>
       </c>
-      <c r="G13" t="s">
+      <c r="H13" t="s">
         <v>259</v>
       </c>
-      <c r="H13" t="s">
+      <c r="I13" t="s">
         <v>320</v>
       </c>
-      <c r="K13" t="s">
+      <c r="L13" t="s">
         <v>17</v>
       </c>
-      <c r="M13" t="s">
+      <c r="N13" t="s">
         <v>431</v>
       </c>
-      <c r="Q13" t="s">
+      <c r="R13" t="s">
         <v>92</v>
       </c>
-      <c r="R13" t="s">
+      <c r="S13" t="s">
         <v>250</v>
       </c>
-      <c r="Y13" t="s">
+      <c r="Z13" t="s">
         <v>322</v>
       </c>
-      <c r="AB13" t="s">
+      <c r="AC13" t="s">
         <v>188</v>
       </c>
-      <c r="AD13" t="s">
+      <c r="AE13" t="s">
         <v>469</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>502</v>
-      </c>
-      <c r="E14" t="s">
+        <v>24</v>
+      </c>
+      <c r="F14" t="s">
         <v>36</v>
       </c>
-      <c r="G14" t="s">
+      <c r="H14" t="s">
         <v>312</v>
       </c>
-      <c r="H14" t="s">
+      <c r="I14" t="s">
         <v>321</v>
       </c>
-      <c r="K14" t="s">
+      <c r="L14" t="s">
         <v>41</v>
       </c>
-      <c r="M14" t="s">
+      <c r="N14" t="s">
         <v>467</v>
       </c>
-      <c r="Q14" t="s">
+      <c r="R14" t="s">
         <v>93</v>
       </c>
-      <c r="R14" t="s">
+      <c r="S14" t="s">
         <v>246</v>
       </c>
-      <c r="Y14" t="s">
+      <c r="Z14" t="s">
         <v>100</v>
       </c>
-      <c r="AB14" t="s">
+      <c r="AC14" t="s">
         <v>189</v>
       </c>
-      <c r="AD14" t="s">
+      <c r="AE14" t="s">
         <v>495</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>472</v>
-      </c>
-      <c r="E15" t="s">
+        <v>502</v>
+      </c>
+      <c r="F15" t="s">
         <v>57</v>
       </c>
-      <c r="G15" t="s">
+      <c r="H15" t="s">
         <v>260</v>
       </c>
-      <c r="K15" t="s">
+      <c r="L15" t="s">
         <v>482</v>
       </c>
-      <c r="M15" t="s">
+      <c r="N15" t="s">
         <v>38</v>
       </c>
-      <c r="Q15" t="s">
+      <c r="R15" t="s">
         <v>486</v>
       </c>
-      <c r="R15" t="s">
+      <c r="S15" t="s">
         <v>247</v>
       </c>
-      <c r="Y15" t="s">
+      <c r="Z15" t="s">
         <v>101</v>
       </c>
-      <c r="AB15" t="s">
+      <c r="AC15" t="s">
         <v>190</v>
       </c>
-      <c r="AD15" t="s">
+      <c r="AE15" t="s">
         <v>496</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>192</v>
-      </c>
-      <c r="E16" t="s">
+        <v>472</v>
+      </c>
+      <c r="F16" t="s">
         <v>380</v>
       </c>
-      <c r="G16" t="s">
+      <c r="H16" t="s">
         <v>261</v>
       </c>
-      <c r="K16" t="s">
+      <c r="L16" t="s">
         <v>79</v>
       </c>
-      <c r="M16" t="s">
+      <c r="N16" t="s">
         <v>536</v>
       </c>
-      <c r="Q16" t="s">
+      <c r="R16" t="s">
         <v>487</v>
       </c>
-      <c r="R16" t="s">
+      <c r="S16" t="s">
         <v>248</v>
       </c>
-      <c r="Y16" t="s">
+      <c r="Z16" t="s">
         <v>73</v>
       </c>
-      <c r="AB16" t="s">
+      <c r="AC16" t="s">
         <v>191</v>
       </c>
-      <c r="AD16" t="s">
+      <c r="AE16" t="s">
         <v>497</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>50</v>
-      </c>
-      <c r="E17" t="s">
+        <v>192</v>
+      </c>
+      <c r="F17" t="s">
         <v>381</v>
       </c>
-      <c r="G17" t="s">
+      <c r="H17" t="s">
         <v>313</v>
       </c>
-      <c r="K17" t="s">
+      <c r="L17" t="s">
         <v>80</v>
       </c>
-      <c r="M17" t="s">
+      <c r="N17" t="s">
         <v>39</v>
       </c>
-      <c r="Y17" t="s">
+      <c r="Z17" t="s">
         <v>488</v>
       </c>
-      <c r="AB17" t="s">
+      <c r="AC17" t="s">
         <v>462</v>
       </c>
-      <c r="AD17" t="s">
+      <c r="AE17" t="s">
         <v>498</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>235</v>
-      </c>
-      <c r="E18" t="s">
+        <v>50</v>
+      </c>
+      <c r="F18" t="s">
         <v>410</v>
       </c>
-      <c r="G18" t="s">
+      <c r="H18" t="s">
         <v>87</v>
       </c>
-      <c r="K18" t="s">
+      <c r="L18" t="s">
         <v>458</v>
       </c>
-      <c r="M18" t="s">
+      <c r="N18" t="s">
         <v>42</v>
       </c>
-      <c r="Y18" t="s">
+      <c r="Z18" t="s">
         <v>102</v>
       </c>
-      <c r="AD18" t="s">
+      <c r="AE18" t="s">
         <v>470</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>51</v>
-      </c>
-      <c r="E19" t="s">
+        <v>235</v>
+      </c>
+      <c r="F19" t="s">
         <v>58</v>
       </c>
-      <c r="G19" t="s">
+      <c r="H19" t="s">
         <v>88</v>
       </c>
-      <c r="K19" t="s">
+      <c r="L19" t="s">
         <v>81</v>
       </c>
-      <c r="Y19" t="s">
+      <c r="Z19" t="s">
         <v>103</v>
       </c>
-      <c r="AD19" t="s">
+      <c r="AE19" t="s">
         <v>499</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>391</v>
-      </c>
-      <c r="E20" t="s">
+        <v>51</v>
+      </c>
+      <c r="F20" t="s">
         <v>59</v>
       </c>
-      <c r="G20" t="s">
+      <c r="H20" t="s">
         <v>292</v>
       </c>
-      <c r="K20" t="s">
+      <c r="L20" t="s">
         <v>82</v>
       </c>
-      <c r="Y20" t="s">
+      <c r="Z20" t="s">
         <v>104</v>
       </c>
-      <c r="AD20" t="s">
+      <c r="AE20" t="s">
         <v>500</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>407</v>
-      </c>
-      <c r="E21" t="s">
+        <v>391</v>
+      </c>
+      <c r="F21" t="s">
         <v>252</v>
       </c>
-      <c r="G21" t="s">
+      <c r="H21" t="s">
         <v>293</v>
       </c>
-      <c r="K21" t="s">
+      <c r="L21" t="s">
         <v>375</v>
       </c>
-      <c r="Y21" t="s">
+      <c r="Z21" t="s">
         <v>105</v>
       </c>
-      <c r="AD21" t="s">
+      <c r="AE21" t="s">
         <v>501</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>408</v>
-      </c>
-      <c r="E22" t="s">
+        <v>407</v>
+      </c>
+      <c r="F22" t="s">
         <v>533</v>
       </c>
-      <c r="G22" t="s">
+      <c r="H22" t="s">
         <v>294</v>
       </c>
-      <c r="K22" t="s">
+      <c r="L22" t="s">
         <v>465</v>
       </c>
-      <c r="Y22" t="s">
+      <c r="Z22" t="s">
         <v>489</v>
       </c>
-      <c r="AD22" t="s">
+      <c r="AE22" t="s">
         <v>231</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>352</v>
-      </c>
-      <c r="E23" t="s">
+        <v>408</v>
+      </c>
+      <c r="F23" t="s">
         <v>60</v>
       </c>
-      <c r="G23" t="s">
+      <c r="H23" t="s">
         <v>295</v>
       </c>
-      <c r="K23" t="s">
+      <c r="L23" t="s">
         <v>43</v>
       </c>
-      <c r="Y23" t="s">
+      <c r="Z23" t="s">
         <v>106</v>
       </c>
-      <c r="AD23" t="s">
+      <c r="AE23" t="s">
         <v>527</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>392</v>
-      </c>
-      <c r="E24" t="s">
+        <v>352</v>
+      </c>
+      <c r="F24" t="s">
         <v>317</v>
       </c>
-      <c r="G24" t="s">
+      <c r="H24" t="s">
         <v>286</v>
       </c>
-      <c r="K24" t="s">
+      <c r="L24" t="s">
         <v>387</v>
       </c>
-      <c r="Y24" t="s">
+      <c r="Z24" t="s">
         <v>567</v>
       </c>
-      <c r="AD24" t="s">
+      <c r="AE24" t="s">
         <v>528</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>52</v>
-      </c>
-      <c r="E25" t="s">
+        <v>392</v>
+      </c>
+      <c r="F25" t="s">
         <v>61</v>
       </c>
-      <c r="G25" t="s">
+      <c r="H25" t="s">
         <v>275</v>
       </c>
-      <c r="K25" t="s">
+      <c r="L25" t="s">
         <v>519</v>
       </c>
-      <c r="Y25" t="s">
+      <c r="Z25" t="s">
         <v>107</v>
       </c>
-      <c r="AD25" t="s">
+      <c r="AE25" t="s">
         <v>529</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>53</v>
-      </c>
-      <c r="E26" t="s">
+        <v>52</v>
+      </c>
+      <c r="F26" t="s">
         <v>444</v>
       </c>
-      <c r="G26" t="s">
+      <c r="H26" t="s">
         <v>74</v>
       </c>
-      <c r="K26" t="s">
+      <c r="L26" t="s">
         <v>83</v>
       </c>
-      <c r="Y26" t="s">
+      <c r="Z26" t="s">
         <v>108</v>
       </c>
-      <c r="AD26" t="s">
+      <c r="AE26" t="s">
         <v>232</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>54</v>
-      </c>
-      <c r="E27" t="s">
+        <v>53</v>
+      </c>
+      <c r="F27" t="s">
         <v>221</v>
       </c>
-      <c r="G27" t="s">
+      <c r="H27" t="s">
         <v>278</v>
       </c>
-      <c r="K27" t="s">
+      <c r="L27" t="s">
         <v>429</v>
       </c>
-      <c r="Y27" t="s">
+      <c r="Z27" t="s">
         <v>109</v>
       </c>
-      <c r="AD27" t="s">
+      <c r="AE27" t="s">
         <v>233</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>55</v>
-      </c>
-      <c r="E28" t="s">
+        <v>54</v>
+      </c>
+      <c r="F28" t="s">
         <v>222</v>
       </c>
-      <c r="G28" t="s">
+      <c r="H28" t="s">
         <v>262</v>
       </c>
-      <c r="K28" t="s">
+      <c r="L28" t="s">
         <v>44</v>
       </c>
-      <c r="Y28" t="s">
+      <c r="Z28" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>409</v>
-      </c>
-      <c r="E29" t="s">
+        <v>55</v>
+      </c>
+      <c r="F29" t="s">
         <v>463</v>
       </c>
-      <c r="G29" t="s">
+      <c r="H29" t="s">
         <v>279</v>
       </c>
-      <c r="K29" t="s">
+      <c r="L29" t="s">
         <v>45</v>
       </c>
-      <c r="Y29" t="s">
+      <c r="Z29" t="s">
         <v>323</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
+        <v>409</v>
+      </c>
+      <c r="F30" t="s">
+        <v>464</v>
+      </c>
+      <c r="H30" t="s">
+        <v>280</v>
+      </c>
+      <c r="Z30" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s">
         <v>223</v>
       </c>
-      <c r="E30" t="s">
-        <v>464</v>
-      </c>
-      <c r="G30" t="s">
-        <v>280</v>
-      </c>
-      <c r="Y30" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="E31" t="s">
+      <c r="F31" t="s">
         <v>411</v>
       </c>
-      <c r="G31" t="s">
+      <c r="H31" t="s">
         <v>212</v>
       </c>
-      <c r="Y31" t="s">
+      <c r="Z31" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="32">
-      <c r="E32" t="s">
+      <c r="F32" t="s">
         <v>62</v>
       </c>
-      <c r="G32" t="s">
+      <c r="H32" t="s">
         <v>271</v>
       </c>
-      <c r="Y32" t="s">
+      <c r="Z32" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="33">
-      <c r="E33" t="s">
+      <c r="F33" t="s">
         <v>63</v>
       </c>
-      <c r="G33" t="s">
+      <c r="H33" t="s">
         <v>281</v>
       </c>
-      <c r="Y33" t="s">
+      <c r="Z33" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="34">
-      <c r="E34" t="s">
+      <c r="F34" t="s">
         <v>64</v>
       </c>
-      <c r="G34" t="s">
+      <c r="H34" t="s">
         <v>504</v>
       </c>
-      <c r="Y34" t="s">
+      <c r="Z34" t="s">
         <v>568</v>
       </c>
     </row>
     <row r="35">
-      <c r="E35" t="s">
+      <c r="F35" t="s">
         <v>65</v>
       </c>
-      <c r="G35" t="s">
+      <c r="H35" t="s">
         <v>256</v>
       </c>
-      <c r="Y35" t="s">
+      <c r="Z35" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="36">
-      <c r="E36" t="s">
+      <c r="F36" t="s">
         <v>66</v>
       </c>
-      <c r="G36" t="s">
+      <c r="H36" t="s">
         <v>326</v>
       </c>
-      <c r="Y36" t="s">
+      <c r="Z36" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="37">
-      <c r="E37" t="s">
+      <c r="F37" t="s">
         <v>67</v>
       </c>
-      <c r="G37" t="s">
+      <c r="H37" t="s">
         <v>303</v>
       </c>
-      <c r="Y37" t="s">
+      <c r="Z37" t="s">
         <v>206</v>
       </c>
     </row>
     <row r="38">
-      <c r="E38" t="s">
+      <c r="F38" t="s">
         <v>68</v>
       </c>
-      <c r="G38" t="s">
+      <c r="H38" t="s">
         <v>257</v>
       </c>
-      <c r="Y38" t="s">
+      <c r="Z38" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="39">
-      <c r="E39" t="s">
+      <c r="F39" t="s">
         <v>69</v>
       </c>
-      <c r="G39" t="s">
+      <c r="H39" t="s">
         <v>304</v>
       </c>
-      <c r="Y39" t="s">
+      <c r="Z39" t="s">
         <v>334</v>
       </c>
     </row>
     <row r="40">
-      <c r="G40" t="s">
+      <c r="H40" t="s">
         <v>263</v>
       </c>
-      <c r="Y40" t="s">
+      <c r="Z40" t="s">
         <v>433</v>
       </c>
     </row>
     <row r="41">
-      <c r="G41" t="s">
+      <c r="H41" t="s">
         <v>76</v>
       </c>
-      <c r="Y41" t="s">
-        <v>522</v>
+      <c r="Z41" t="s">
+        <v>578</v>
       </c>
     </row>
     <row r="42">
-      <c r="G42" t="s">
+      <c r="H42" t="s">
         <v>208</v>
       </c>
-      <c r="Y42" t="s">
+      <c r="Z42" t="s">
         <v>388</v>
       </c>
     </row>
     <row r="43">
-      <c r="G43" t="s">
+      <c r="H43" t="s">
         <v>534</v>
       </c>
-      <c r="Y43" t="s">
+      <c r="Z43" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="44">
-      <c r="G44" t="s">
+      <c r="H44" t="s">
         <v>285</v>
       </c>
-      <c r="Y44" t="s">
+      <c r="Z44" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="45">
-      <c r="G45" t="s">
+      <c r="H45" t="s">
         <v>296</v>
       </c>
-      <c r="Y45" t="s">
+      <c r="Z45" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="46">
-      <c r="G46" t="s">
+      <c r="H46" t="s">
         <v>297</v>
       </c>
-      <c r="Y46" t="s">
+      <c r="Z46" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="47">
-      <c r="G47" t="s">
+      <c r="H47" t="s">
         <v>339</v>
       </c>
-      <c r="Y47" t="s">
+      <c r="Z47" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="48">
-      <c r="G48" t="s">
+      <c r="H48" t="s">
         <v>338</v>
       </c>
-      <c r="Y48" t="s">
+      <c r="Z48" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="49">
-      <c r="G49" t="s">
+      <c r="H49" t="s">
         <v>207</v>
       </c>
-      <c r="Y49" t="s">
+      <c r="Z49" t="s">
         <v>434</v>
       </c>
     </row>
     <row r="50">
-      <c r="G50" t="s">
+      <c r="H50" t="s">
         <v>316</v>
       </c>
-      <c r="Y50" t="s">
+      <c r="Z50" t="s">
         <v>209</v>
       </c>
     </row>
     <row r="51">
-      <c r="G51" t="s">
+      <c r="H51" t="s">
         <v>335</v>
       </c>
-      <c r="Y51" t="s">
+      <c r="Z51" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="52">
-      <c r="G52" t="s">
+      <c r="H52" t="s">
         <v>363</v>
       </c>
-      <c r="Y52" t="s">
+      <c r="Z52" t="s">
         <v>531</v>
       </c>
     </row>
     <row r="53">
-      <c r="G53" t="s">
+      <c r="H53" t="s">
         <v>298</v>
       </c>
-      <c r="Y53" t="s">
+      <c r="Z53" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="54">
-      <c r="G54" t="s">
+      <c r="H54" t="s">
         <v>351</v>
       </c>
-      <c r="Y54" t="s">
+      <c r="Z54" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="55">
-      <c r="G55" t="s">
+      <c r="H55" t="s">
         <v>327</v>
       </c>
-      <c r="Y55" t="s">
+      <c r="Z55" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="56">
-      <c r="G56" t="s">
+      <c r="H56" t="s">
         <v>264</v>
       </c>
-      <c r="Y56" t="s">
+      <c r="Z56" t="s">
         <v>490</v>
       </c>
     </row>
     <row r="57">
-      <c r="G57" t="s">
+      <c r="H57" t="s">
         <v>288</v>
       </c>
-      <c r="Y57" t="s">
+      <c r="Z57" t="s">
         <v>459</v>
       </c>
     </row>
     <row r="58">
-      <c r="G58" t="s">
+      <c r="H58" t="s">
         <v>289</v>
       </c>
-      <c r="Y58" t="s">
+      <c r="Z58" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="59">
-      <c r="G59" t="s">
+      <c r="H59" t="s">
         <v>535</v>
       </c>
-      <c r="Y59" t="s">
+      <c r="Z59" t="s">
         <v>342</v>
       </c>
     </row>
     <row r="60">
-      <c r="G60" t="s">
+      <c r="H60" t="s">
         <v>290</v>
       </c>
-      <c r="Y60" t="s">
+      <c r="Z60" t="s">
         <v>460</v>
       </c>
     </row>
     <row r="61">
-      <c r="G61" t="s">
+      <c r="H61" t="s">
         <v>299</v>
       </c>
-      <c r="Y61" t="s">
+      <c r="Z61" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="62">
-      <c r="G62" t="s">
+      <c r="H62" t="s">
         <v>308</v>
       </c>
-      <c r="Y62" t="s">
+      <c r="Z62" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="63">
-      <c r="G63" t="s">
+      <c r="H63" t="s">
         <v>333</v>
       </c>
-      <c r="Y63" t="s">
+      <c r="Z63" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="64">
-      <c r="G64" t="s">
+      <c r="H64" t="s">
         <v>305</v>
       </c>
-      <c r="Y64" t="s">
+      <c r="Z64" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="65">
-      <c r="G65" t="s">
+      <c r="H65" t="s">
         <v>306</v>
       </c>
-      <c r="Y65" t="s">
+      <c r="Z65" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="66">
-      <c r="G66" t="s">
+      <c r="H66" t="s">
         <v>364</v>
       </c>
-      <c r="Y66" t="s">
+      <c r="Z66" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="67">
-      <c r="G67" t="s">
+      <c r="H67" t="s">
         <v>365</v>
       </c>
-      <c r="Y67" t="s">
+      <c r="Z67" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="68">
-      <c r="G68" t="s">
+      <c r="H68" t="s">
         <v>341</v>
       </c>
-      <c r="Y68" t="s">
+      <c r="Z68" t="s">
         <v>435</v>
       </c>
     </row>
     <row r="69">
-      <c r="G69" t="s">
+      <c r="H69" t="s">
         <v>309</v>
       </c>
-      <c r="Y69" t="s">
+      <c r="Z69" t="s">
         <v>468</v>
       </c>
     </row>
     <row r="70">
-      <c r="G70" t="s">
+      <c r="H70" t="s">
         <v>265</v>
       </c>
-      <c r="Y70" t="s">
+      <c r="Z70" t="s">
         <v>210</v>
       </c>
     </row>
     <row r="71">
-      <c r="G71" t="s">
+      <c r="H71" t="s">
         <v>520</v>
       </c>
-      <c r="Y71" t="s">
+      <c r="Z71" t="s">
         <v>384</v>
       </c>
     </row>
     <row r="72">
-      <c r="G72" t="s">
+      <c r="H72" t="s">
         <v>310</v>
       </c>
-      <c r="Y72" t="s">
+      <c r="Z72" t="s">
         <v>436</v>
       </c>
     </row>
     <row r="73">
-      <c r="G73" t="s">
+      <c r="H73" t="s">
         <v>405</v>
       </c>
-      <c r="Y73" t="s">
+      <c r="Z73" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="74">
-      <c r="G74" t="s">
+      <c r="H74" t="s">
         <v>300</v>
       </c>
-      <c r="Y74" t="s">
+      <c r="Z74" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="75">
-      <c r="G75" t="s">
+      <c r="H75" t="s">
         <v>406</v>
       </c>
-      <c r="Y75" t="s">
+      <c r="Z75" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="76">
-      <c r="G76" t="s">
+      <c r="H76" t="s">
         <v>258</v>
       </c>
-      <c r="Y76" t="s">
+      <c r="Z76" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="77">
-      <c r="G77" t="s">
+      <c r="H77" t="s">
         <v>505</v>
       </c>
-      <c r="Y77" t="s">
+      <c r="Z77" t="s">
         <v>193</v>
       </c>
     </row>
     <row r="78">
-      <c r="G78" t="s">
+      <c r="H78" t="s">
         <v>340</v>
       </c>
-      <c r="Y78" t="s">
+      <c r="Z78" t="s">
         <v>194</v>
       </c>
     </row>
     <row r="79">
-      <c r="G79" t="s">
+      <c r="H79" t="s">
         <v>276</v>
       </c>
-      <c r="Y79" t="s">
+      <c r="Z79" t="s">
         <v>448</v>
       </c>
     </row>
     <row r="80">
-      <c r="G80" t="s">
+      <c r="H80" t="s">
         <v>282</v>
       </c>
-      <c r="Y80" t="s">
+      <c r="Z80" t="s">
         <v>461</v>
       </c>
     </row>
     <row r="81">
-      <c r="G81" t="s">
+      <c r="H81" t="s">
         <v>287</v>
       </c>
-      <c r="Y81" t="s">
+      <c r="Z81" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="82">
-      <c r="G82" t="s">
+      <c r="H82" t="s">
         <v>424</v>
       </c>
-      <c r="Y82" t="s">
+      <c r="Z82" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="83">
-      <c r="G83" t="s">
+      <c r="H83" t="s">
         <v>328</v>
       </c>
-      <c r="Y83" t="s">
+      <c r="Z83" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="84">
-      <c r="G84" t="s">
+      <c r="H84" t="s">
         <v>266</v>
       </c>
-      <c r="Y84" t="s">
+      <c r="Z84" t="s">
         <v>491</v>
       </c>
     </row>
     <row r="85">
-      <c r="G85" t="s">
+      <c r="H85" t="s">
         <v>277</v>
       </c>
-      <c r="Y85" t="s">
+      <c r="Z85" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="86">
-      <c r="G86" t="s">
+      <c r="H86" t="s">
         <v>283</v>
       </c>
-      <c r="Y86" t="s">
+      <c r="Z86" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="87">
-      <c r="G87" t="s">
+      <c r="H87" t="s">
         <v>272</v>
       </c>
-      <c r="Y87" t="s">
+      <c r="Z87" t="s">
         <v>195</v>
       </c>
     </row>
     <row r="88">
-      <c r="G88" t="s">
+      <c r="H88" t="s">
         <v>523</v>
       </c>
-      <c r="Y88" t="s">
+      <c r="Z88" t="s">
         <v>492</v>
       </c>
     </row>
     <row r="89">
-      <c r="G89" t="s">
+      <c r="H89" t="s">
         <v>267</v>
       </c>
-      <c r="Y89" t="s">
+      <c r="Z89" t="s">
         <v>196</v>
       </c>
     </row>
     <row r="90">
-      <c r="G90" t="s">
+      <c r="H90" t="s">
         <v>284</v>
       </c>
-      <c r="Y90" t="s">
+      <c r="Z90" t="s">
         <v>449</v>
       </c>
     </row>
     <row r="91">
-      <c r="G91" t="s">
+      <c r="H91" t="s">
         <v>268</v>
       </c>
-      <c r="Y91" t="s">
+      <c r="Z91" t="s">
         <v>197</v>
       </c>
     </row>
     <row r="92">
-      <c r="G92" t="s">
+      <c r="H92" t="s">
         <v>269</v>
       </c>
-      <c r="Y92" t="s">
+      <c r="Z92" t="s">
         <v>198</v>
       </c>
     </row>
     <row r="93">
-      <c r="G93" t="s">
+      <c r="H93" t="s">
         <v>301</v>
       </c>
-      <c r="Y93" t="s">
+      <c r="Z93" t="s">
         <v>572</v>
       </c>
     </row>
     <row r="94">
-      <c r="G94" t="s">
+      <c r="H94" t="s">
         <v>307</v>
       </c>
-      <c r="Y94" t="s">
+      <c r="Z94" t="s">
         <v>573</v>
       </c>
     </row>
     <row r="95">
-      <c r="G95" t="s">
+      <c r="H95" t="s">
         <v>291</v>
       </c>
-      <c r="Y95" t="s">
+      <c r="Z95" t="s">
         <v>211</v>
       </c>
     </row>
     <row r="96">
-      <c r="G96" t="s">
+      <c r="H96" t="s">
         <v>336</v>
       </c>
-      <c r="Y96" t="s">
+      <c r="Z96" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="97">
-      <c r="G97" t="s">
+      <c r="H97" t="s">
         <v>273</v>
       </c>
-      <c r="Y97" t="s">
+      <c r="Z97" t="s">
         <v>199</v>
       </c>
     </row>
     <row r="98">
-      <c r="G98" t="s">
+      <c r="H98" t="s">
         <v>274</v>
       </c>
-      <c r="Y98" t="s">
+      <c r="Z98" t="s">
         <v>437</v>
       </c>
     </row>
     <row r="99">
-      <c r="Y99" t="s">
+      <c r="Z99" t="s">
         <v>438</v>
       </c>
     </row>
     <row r="100">
-      <c r="Y100" t="s">
+      <c r="Z100" t="s">
         <v>200</v>
       </c>
     </row>
     <row r="101">
-      <c r="Y101" t="s">
+      <c r="Z101" t="s">
         <v>201</v>
       </c>
     </row>
     <row r="102">
-      <c r="Y102" t="s">
+      <c r="Z102" t="s">
         <v>202</v>
       </c>
     </row>
     <row r="103">
-      <c r="Y103" t="s">
+      <c r="Z103" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="104">
-      <c r="Y104" t="s">
+      <c r="Z104" t="s">
         <v>219</v>
       </c>
     </row>
     <row r="105">
-      <c r="Y105" t="s">
+      <c r="Z105" t="s">
         <v>204</v>
       </c>
     </row>
     <row r="106">
-      <c r="Y106" t="s">
+      <c r="Z106" t="s">
         <v>493</v>
       </c>
     </row>
     <row r="107">
-      <c r="Y107" t="s">
+      <c r="Z107" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="Z108" t="s">
         <v>517</v>
       </c>
     </row>
-    <row r="108">
-      <c r="Y108" t="s">
+    <row r="109">
+      <c r="Z109" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="109">
-      <c r="Y109" t="s">
+    <row r="110">
+      <c r="Z110" t="s">
         <v>518</v>
       </c>
     </row>
-    <row r="110">
-      <c r="Y110" t="s">
+    <row r="111">
+      <c r="Z111" t="s">
         <v>378</v>
       </c>
     </row>
-    <row r="111">
-      <c r="Y111" t="s">
+    <row r="112">
+      <c r="Z112" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="112">
-      <c r="Y112" t="s">
+    <row r="113">
+      <c r="Z113" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="113">
-      <c r="Y113" t="s">
+    <row r="114">
+      <c r="Z114" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="114">
-      <c r="Y114" t="s">
+    <row r="115">
+      <c r="Z115" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="115">
-      <c r="Y115" t="s">
+    <row r="116">
+      <c r="Z116" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="116">
-      <c r="Y116" t="s">
+    <row r="117">
+      <c r="Z117" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="117">
-      <c r="Y117" t="s">
+    <row r="118">
+      <c r="Z118" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="118">
-      <c r="Y118" t="s">
+    <row r="119">
+      <c r="Z119" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="119">
-      <c r="Y119" t="s">
+    <row r="120">
+      <c r="Z120" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="120">
-      <c r="Y120" t="s">
+    <row r="121">
+      <c r="Z121" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="121">
-      <c r="Y121" t="s">
+    <row r="122">
+      <c r="Z122" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="122">
-      <c r="Y122" t="s">
+    <row r="123">
+      <c r="Z123" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="123">
-      <c r="Y123" t="s">
+    <row r="124">
+      <c r="Z124" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="124">
-      <c r="Y124" t="s">
+    <row r="125">
+      <c r="Z125" t="s">
         <v>439</v>
       </c>
     </row>
-    <row r="125">
-      <c r="Y125" t="s">
+    <row r="126">
+      <c r="Z126" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="126">
-      <c r="Y126" t="s">
+    <row r="127">
+      <c r="Z127" t="s">
         <v>569</v>
       </c>
     </row>
-    <row r="127">
-      <c r="Y127" t="s">
+    <row r="128">
+      <c r="Z128" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="128">
-      <c r="Y128" t="s">
+    <row r="129">
+      <c r="Z129" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="129">
-      <c r="Y129" t="s">
+    <row r="130">
+      <c r="Z130" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="130">
-      <c r="Y130" t="s">
+    <row r="131">
+      <c r="Z131" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="131">
-      <c r="Y131" t="s">
+    <row r="132">
+      <c r="Z132" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="132">
-      <c r="Y132" t="s">
+    <row r="133">
+      <c r="Z133" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="133">
-      <c r="Y133" t="s">
+    <row r="134">
+      <c r="Z134" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="134">
-      <c r="Y134" t="s">
+    <row r="135">
+      <c r="Z135" t="s">
         <v>166</v>
       </c>
     </row>

--- a/src/test/resources/unittesting/artifact/script/unitTest_LocalDb.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_LocalDb.xlsx
@@ -68,7 +68,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5077" uniqueCount="580">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5638" uniqueCount="580">
   <si>
     <t>description</t>
   </si>
@@ -1828,7 +1828,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="139" x14ac:knownFonts="1">
+  <fonts count="155" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2713,8 +2713,109 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="220">
+  <fills count="247">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3957,8 +4058,161 @@
         <bgColor rgb="E6E6E6"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="259">
+  <borders count="291">
     <border>
       <left/>
       <right/>
@@ -6604,6 +6858,332 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -6611,7 +7191,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="165">
+  <cellXfs count="181">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -7076,52 +7656,100 @@
     <xf applyFill="true" applyFont="true" borderId="0" fillId="192" fontId="122" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="123" fillId="195" borderId="234" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="234" fillId="195" fontId="123" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="124" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="124" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="125" fillId="198" borderId="238" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="238" fillId="198" fontId="125" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="126" fillId="201" borderId="242" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="242" fillId="201" fontId="126" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="127" fillId="204" borderId="246" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="246" fillId="204" fontId="127" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="128" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="128" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="129" fillId="207" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="207" fontId="129" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="130" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="130" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="131" fillId="210" borderId="250" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="250" fillId="210" fontId="131" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="132" fillId="201" borderId="254" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="254" fillId="201" fontId="132" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="133" fillId="213" borderId="258" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="258" fillId="213" fontId="133" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="134" fillId="213" borderId="258" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="258" fillId="213" fontId="134" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="135" fillId="204" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="204" fontId="135" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="136" fillId="216" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="216" fontId="136" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="137" fillId="204" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="204" fontId="137" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="138" fillId="219" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="219" fontId="138" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="139" fillId="222" borderId="266" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="140" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="141" fillId="225" borderId="270" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="142" fillId="228" borderId="274" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="143" fillId="231" borderId="278" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="144" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="145" fillId="234" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="146" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="147" fillId="237" borderId="282" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="148" fillId="228" borderId="286" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="149" fillId="240" borderId="290" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="150" fillId="240" borderId="290" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="151" fillId="231" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="152" fillId="243" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="153" fillId="231" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="154" fillId="246" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>

--- a/src/test/resources/unittesting/artifact/script/unitTest_LocalDb.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_LocalDb.xlsx
@@ -20,7 +20,7 @@
     <definedName name="aws.s3">'#system'!$B$2:$B$9</definedName>
     <definedName name="aws.ses">'#system'!$C$2:$C$3</definedName>
     <definedName name="aws.sqs">'#system'!$D$2:$D$6</definedName>
-    <definedName name="base">'#system'!$F$2:$F$39</definedName>
+    <definedName name="base">'#system'!$F$2:$F$40</definedName>
     <definedName name="csv">'#system'!$G$2:$G$6</definedName>
     <definedName name="date">'#system'!$C$2:$C$14</definedName>
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
@@ -68,7 +68,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5638" uniqueCount="580">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6762" uniqueCount="582">
   <si>
     <t>description</t>
   </si>
@@ -1822,13 +1822,19 @@
   <si>
     <t>screenshot(file,locator)</t>
   </si>
+  <si>
+    <t>clear(variables)</t>
+  </si>
+  <si>
+    <t>saveMatches(var,path,fileFilter,textFilter)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="155" x14ac:knownFonts="1">
+  <fonts count="187" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2814,8 +2820,210 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="247">
+  <fills count="301">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -4211,8 +4419,314 @@
         <bgColor rgb="E6E6E6"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="291">
+  <borders count="355">
     <border>
       <left/>
       <right/>
@@ -7184,6 +7698,658 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -7191,7 +8357,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="181">
+  <cellXfs count="213">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -7704,52 +8870,148 @@
     <xf applyFill="true" applyFont="true" borderId="0" fillId="219" fontId="138" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="139" fillId="222" borderId="266" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="266" fillId="222" fontId="139" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="140" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="140" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="141" fillId="225" borderId="270" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="270" fillId="225" fontId="141" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="142" fillId="228" borderId="274" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="274" fillId="228" fontId="142" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="143" fillId="231" borderId="278" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="278" fillId="231" fontId="143" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="144" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="144" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="145" fillId="234" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="234" fontId="145" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="146" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="146" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="147" fillId="237" borderId="282" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="282" fillId="237" fontId="147" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="148" fillId="228" borderId="286" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="286" fillId="228" fontId="148" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="149" fillId="240" borderId="290" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="290" fillId="240" fontId="149" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="150" fillId="240" borderId="290" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="290" fillId="240" fontId="150" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="151" fillId="231" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="231" fontId="151" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="152" fillId="243" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="243" fontId="152" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="153" fillId="231" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="231" fontId="153" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="154" fillId="246" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="246" fontId="154" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="298" fillId="249" fontId="155" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="156" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="302" fillId="252" fontId="157" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="306" fillId="255" fontId="158" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="310" fillId="258" fontId="159" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="160" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="261" fontId="161" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="162" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="314" fillId="264" fontId="163" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="318" fillId="255" fontId="164" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="322" fillId="267" fontId="165" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="322" fillId="267" fontId="166" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="258" fontId="167" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="270" fontId="168" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="258" fontId="169" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="273" fontId="170" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="171" fillId="276" borderId="330" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="172" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="173" fillId="279" borderId="334" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="174" fillId="282" borderId="338" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="175" fillId="285" borderId="342" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="176" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="177" fillId="288" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="178" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="179" fillId="291" borderId="346" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="180" fillId="282" borderId="350" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="181" fillId="294" borderId="354" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="182" fillId="294" borderId="354" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="183" fillId="285" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="184" fillId="297" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="185" fillId="285" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="186" fillId="300" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -9063,7 +10325,7 @@
         <v>50</v>
       </c>
       <c r="F18" t="s">
-        <v>410</v>
+        <v>580</v>
       </c>
       <c r="H18" t="s">
         <v>87</v>
@@ -9086,7 +10348,7 @@
         <v>235</v>
       </c>
       <c r="F19" t="s">
-        <v>58</v>
+        <v>410</v>
       </c>
       <c r="H19" t="s">
         <v>88</v>
@@ -9106,7 +10368,7 @@
         <v>51</v>
       </c>
       <c r="F20" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H20" t="s">
         <v>292</v>
@@ -9126,13 +10388,13 @@
         <v>391</v>
       </c>
       <c r="F21" t="s">
-        <v>252</v>
+        <v>59</v>
       </c>
       <c r="H21" t="s">
         <v>293</v>
       </c>
       <c r="L21" t="s">
-        <v>375</v>
+        <v>581</v>
       </c>
       <c r="Z21" t="s">
         <v>105</v>
@@ -9146,7 +10408,7 @@
         <v>407</v>
       </c>
       <c r="F22" t="s">
-        <v>533</v>
+        <v>252</v>
       </c>
       <c r="H22" t="s">
         <v>294</v>
@@ -9166,7 +10428,7 @@
         <v>408</v>
       </c>
       <c r="F23" t="s">
-        <v>60</v>
+        <v>533</v>
       </c>
       <c r="H23" t="s">
         <v>295</v>
@@ -9186,7 +10448,7 @@
         <v>352</v>
       </c>
       <c r="F24" t="s">
-        <v>317</v>
+        <v>60</v>
       </c>
       <c r="H24" t="s">
         <v>286</v>
@@ -9206,7 +10468,7 @@
         <v>392</v>
       </c>
       <c r="F25" t="s">
-        <v>61</v>
+        <v>317</v>
       </c>
       <c r="H25" t="s">
         <v>275</v>
@@ -9226,7 +10488,7 @@
         <v>52</v>
       </c>
       <c r="F26" t="s">
-        <v>444</v>
+        <v>61</v>
       </c>
       <c r="H26" t="s">
         <v>74</v>
@@ -9246,7 +10508,7 @@
         <v>53</v>
       </c>
       <c r="F27" t="s">
-        <v>221</v>
+        <v>444</v>
       </c>
       <c r="H27" t="s">
         <v>278</v>
@@ -9266,7 +10528,7 @@
         <v>54</v>
       </c>
       <c r="F28" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="H28" t="s">
         <v>262</v>
@@ -9283,7 +10545,7 @@
         <v>55</v>
       </c>
       <c r="F29" t="s">
-        <v>463</v>
+        <v>222</v>
       </c>
       <c r="H29" t="s">
         <v>279</v>
@@ -9300,7 +10562,7 @@
         <v>409</v>
       </c>
       <c r="F30" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="H30" t="s">
         <v>280</v>
@@ -9314,7 +10576,7 @@
         <v>223</v>
       </c>
       <c r="F31" t="s">
-        <v>411</v>
+        <v>464</v>
       </c>
       <c r="H31" t="s">
         <v>212</v>
@@ -9325,7 +10587,7 @@
     </row>
     <row r="32">
       <c r="F32" t="s">
-        <v>62</v>
+        <v>411</v>
       </c>
       <c r="H32" t="s">
         <v>271</v>
@@ -9336,7 +10598,7 @@
     </row>
     <row r="33">
       <c r="F33" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H33" t="s">
         <v>281</v>
@@ -9347,7 +10609,7 @@
     </row>
     <row r="34">
       <c r="F34" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H34" t="s">
         <v>504</v>
@@ -9358,7 +10620,7 @@
     </row>
     <row r="35">
       <c r="F35" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H35" t="s">
         <v>256</v>
@@ -9369,7 +10631,7 @@
     </row>
     <row r="36">
       <c r="F36" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H36" t="s">
         <v>326</v>
@@ -9380,7 +10642,7 @@
     </row>
     <row r="37">
       <c r="F37" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H37" t="s">
         <v>303</v>
@@ -9391,7 +10653,7 @@
     </row>
     <row r="38">
       <c r="F38" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H38" t="s">
         <v>257</v>
@@ -9402,7 +10664,7 @@
     </row>
     <row r="39">
       <c r="F39" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H39" t="s">
         <v>304</v>
@@ -9412,6 +10674,9 @@
       </c>
     </row>
     <row r="40">
+      <c r="F40" t="s">
+        <v>69</v>
+      </c>
       <c r="H40" t="s">
         <v>263</v>
       </c>

--- a/src/test/resources/unittesting/artifact/script/unitTest_LocalDb.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_LocalDb.xlsx
@@ -20,15 +20,15 @@
     <definedName name="aws.s3">'#system'!$B$2:$B$9</definedName>
     <definedName name="aws.ses">'#system'!$C$2:$C$3</definedName>
     <definedName name="aws.sqs">'#system'!$D$2:$D$6</definedName>
-    <definedName name="base">'#system'!$F$2:$F$40</definedName>
+    <definedName name="base">'#system'!$F$2:$F$39</definedName>
     <definedName name="csv">'#system'!$G$2:$G$6</definedName>
     <definedName name="date">'#system'!$C$2:$C$14</definedName>
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
     <definedName name="desktop">'#system'!$H$2:$H$98</definedName>
     <definedName name="excel">'#system'!$I$2:$I$14</definedName>
-    <definedName name="external">'#system'!$J$2:$J$5</definedName>
+    <definedName name="external">'#system'!$J$2:$J$6</definedName>
     <definedName name="image">'#system'!$K$2:$K$7</definedName>
-    <definedName name="io">'#system'!$L$2:$L$29</definedName>
+    <definedName name="io">'#system'!$L$2:$L$30</definedName>
     <definedName name="jms">'#system'!$M$2:$M$4</definedName>
     <definedName name="json">'#system'!$N$2:$N$18</definedName>
     <definedName name="localdb">'#system'!$O$2:$O$12</definedName>
@@ -47,7 +47,7 @@
     <definedName name="step">'#system'!$Y$2:$Y$4</definedName>
     <definedName name="target">'#system'!$A$2:$A$31</definedName>
     <definedName name="text">'#system'!$Y$2:$Y$2</definedName>
-    <definedName name="web">'#system'!$Z$2:$Z$135</definedName>
+    <definedName name="web">'#system'!$Z$2:$Z$137</definedName>
     <definedName name="webalert">'#system'!$AA$2:$AA$8</definedName>
     <definedName name="webcookie">'#system'!$AB$2:$AB$8</definedName>
     <definedName name="ws">'#system'!$AC$2:$AC$17</definedName>
@@ -68,7 +68,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6762" uniqueCount="582">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7327" uniqueCount="587">
   <si>
     <t>description</t>
   </si>
@@ -1828,13 +1828,28 @@
   <si>
     <t>saveMatches(var,path,fileFilter,textFilter)</t>
   </si>
+  <si>
+    <t>terminate(programName)</t>
+  </si>
+  <si>
+    <t>assertPath(path)</t>
+  </si>
+  <si>
+    <t>assertAttributeContain(locator,attrName,contains)</t>
+  </si>
+  <si>
+    <t>saveSelectedText(var,locator)</t>
+  </si>
+  <si>
+    <t>saveSelectedValue(var,locator)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="187" x14ac:knownFonts="1">
+  <fonts count="203" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -3022,8 +3037,109 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="301">
+  <fills count="328">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -4725,8 +4841,161 @@
         <bgColor rgb="E6E6E6"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="355">
+  <borders count="387">
     <border>
       <left/>
       <right/>
@@ -8350,6 +8619,332 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -8357,7 +8952,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="213">
+  <cellXfs count="229">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -8966,52 +9561,100 @@
     <xf applyFill="true" applyFont="true" borderId="0" fillId="273" fontId="170" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="171" fillId="276" borderId="330" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="330" fillId="276" fontId="171" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="172" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="172" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="173" fillId="279" borderId="334" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="334" fillId="279" fontId="173" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="174" fillId="282" borderId="338" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="338" fillId="282" fontId="174" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="175" fillId="285" borderId="342" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="342" fillId="285" fontId="175" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="176" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="176" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="177" fillId="288" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="288" fontId="177" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="178" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="178" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="179" fillId="291" borderId="346" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="346" fillId="291" fontId="179" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="180" fillId="282" borderId="350" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="350" fillId="282" fontId="180" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="181" fillId="294" borderId="354" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="354" fillId="294" fontId="181" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="182" fillId="294" borderId="354" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="354" fillId="294" fontId="182" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="183" fillId="285" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="285" fontId="183" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="184" fillId="297" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="297" fontId="184" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="185" fillId="285" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="285" fontId="185" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="186" fillId="300" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="300" fontId="186" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="187" fillId="303" borderId="362" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="188" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="189" fillId="306" borderId="366" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="190" fillId="309" borderId="370" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="191" fillId="312" borderId="374" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="192" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="193" fillId="315" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="194" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="195" fillId="318" borderId="378" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="196" fillId="309" borderId="382" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="197" fillId="321" borderId="386" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="198" fillId="321" borderId="386" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="199" fillId="312" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="200" fillId="324" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="201" fillId="312" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="202" fillId="327" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -9366,7 +10009,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AF135"/>
+  <dimension ref="A1:AF137"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
@@ -9682,7 +10325,7 @@
         <v>346</v>
       </c>
       <c r="L4" t="s">
-        <v>234</v>
+        <v>583</v>
       </c>
       <c r="M4" t="s">
         <v>331</v>
@@ -9718,7 +10361,7 @@
         <v>404</v>
       </c>
       <c r="Z4" t="s">
-        <v>349</v>
+        <v>584</v>
       </c>
       <c r="AA4" t="s">
         <v>169</v>
@@ -9765,7 +10408,7 @@
         <v>347</v>
       </c>
       <c r="L5" t="s">
-        <v>457</v>
+        <v>234</v>
       </c>
       <c r="N5" t="s">
         <v>85</v>
@@ -9832,11 +10475,14 @@
       <c r="I6" t="s">
         <v>443</v>
       </c>
+      <c r="J6" t="s">
+        <v>582</v>
+      </c>
       <c r="K6" t="s">
         <v>344</v>
       </c>
       <c r="L6" t="s">
-        <v>70</v>
+        <v>457</v>
       </c>
       <c r="N6" t="s">
         <v>28</v>
@@ -9898,7 +10544,7 @@
         <v>530</v>
       </c>
       <c r="L7" t="s">
-        <v>16</v>
+        <v>70</v>
       </c>
       <c r="N7" t="s">
         <v>311</v>
@@ -9957,7 +10603,7 @@
         <v>324</v>
       </c>
       <c r="L8" t="s">
-        <v>480</v>
+        <v>16</v>
       </c>
       <c r="N8" t="s">
         <v>33</v>
@@ -10013,7 +10659,7 @@
         <v>325</v>
       </c>
       <c r="L9" t="s">
-        <v>78</v>
+        <v>480</v>
       </c>
       <c r="N9" t="s">
         <v>34</v>
@@ -10057,7 +10703,7 @@
         <v>447</v>
       </c>
       <c r="L10" t="s">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="N10" t="s">
         <v>35</v>
@@ -10098,7 +10744,7 @@
         <v>318</v>
       </c>
       <c r="L11" t="s">
-        <v>481</v>
+        <v>37</v>
       </c>
       <c r="N11" t="s">
         <v>466</v>
@@ -10136,7 +10782,7 @@
         <v>319</v>
       </c>
       <c r="L12" t="s">
-        <v>385</v>
+        <v>481</v>
       </c>
       <c r="N12" t="s">
         <v>532</v>
@@ -10174,7 +10820,7 @@
         <v>320</v>
       </c>
       <c r="L13" t="s">
-        <v>17</v>
+        <v>385</v>
       </c>
       <c r="N13" t="s">
         <v>431</v>
@@ -10209,7 +10855,7 @@
         <v>321</v>
       </c>
       <c r="L14" t="s">
-        <v>41</v>
+        <v>17</v>
       </c>
       <c r="N14" t="s">
         <v>467</v>
@@ -10241,7 +10887,7 @@
         <v>260</v>
       </c>
       <c r="L15" t="s">
-        <v>482</v>
+        <v>41</v>
       </c>
       <c r="N15" t="s">
         <v>38</v>
@@ -10273,7 +10919,7 @@
         <v>261</v>
       </c>
       <c r="L16" t="s">
-        <v>79</v>
+        <v>482</v>
       </c>
       <c r="N16" t="s">
         <v>536</v>
@@ -10305,7 +10951,7 @@
         <v>313</v>
       </c>
       <c r="L17" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="N17" t="s">
         <v>39</v>
@@ -10325,13 +10971,13 @@
         <v>50</v>
       </c>
       <c r="F18" t="s">
-        <v>580</v>
+        <v>410</v>
       </c>
       <c r="H18" t="s">
         <v>87</v>
       </c>
       <c r="L18" t="s">
-        <v>458</v>
+        <v>80</v>
       </c>
       <c r="N18" t="s">
         <v>42</v>
@@ -10348,13 +10994,13 @@
         <v>235</v>
       </c>
       <c r="F19" t="s">
-        <v>410</v>
+        <v>58</v>
       </c>
       <c r="H19" t="s">
         <v>88</v>
       </c>
       <c r="L19" t="s">
-        <v>81</v>
+        <v>458</v>
       </c>
       <c r="Z19" t="s">
         <v>103</v>
@@ -10368,13 +11014,13 @@
         <v>51</v>
       </c>
       <c r="F20" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H20" t="s">
         <v>292</v>
       </c>
       <c r="L20" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="Z20" t="s">
         <v>104</v>
@@ -10388,13 +11034,13 @@
         <v>391</v>
       </c>
       <c r="F21" t="s">
-        <v>59</v>
+        <v>252</v>
       </c>
       <c r="H21" t="s">
         <v>293</v>
       </c>
       <c r="L21" t="s">
-        <v>581</v>
+        <v>82</v>
       </c>
       <c r="Z21" t="s">
         <v>105</v>
@@ -10408,13 +11054,13 @@
         <v>407</v>
       </c>
       <c r="F22" t="s">
-        <v>252</v>
+        <v>533</v>
       </c>
       <c r="H22" t="s">
         <v>294</v>
       </c>
       <c r="L22" t="s">
-        <v>465</v>
+        <v>581</v>
       </c>
       <c r="Z22" t="s">
         <v>489</v>
@@ -10428,13 +11074,13 @@
         <v>408</v>
       </c>
       <c r="F23" t="s">
-        <v>533</v>
+        <v>60</v>
       </c>
       <c r="H23" t="s">
         <v>295</v>
       </c>
       <c r="L23" t="s">
-        <v>43</v>
+        <v>465</v>
       </c>
       <c r="Z23" t="s">
         <v>106</v>
@@ -10448,13 +11094,13 @@
         <v>352</v>
       </c>
       <c r="F24" t="s">
-        <v>60</v>
+        <v>317</v>
       </c>
       <c r="H24" t="s">
         <v>286</v>
       </c>
       <c r="L24" t="s">
-        <v>387</v>
+        <v>43</v>
       </c>
       <c r="Z24" t="s">
         <v>567</v>
@@ -10468,13 +11114,13 @@
         <v>392</v>
       </c>
       <c r="F25" t="s">
-        <v>317</v>
+        <v>61</v>
       </c>
       <c r="H25" t="s">
         <v>275</v>
       </c>
       <c r="L25" t="s">
-        <v>519</v>
+        <v>387</v>
       </c>
       <c r="Z25" t="s">
         <v>107</v>
@@ -10488,13 +11134,13 @@
         <v>52</v>
       </c>
       <c r="F26" t="s">
-        <v>61</v>
+        <v>444</v>
       </c>
       <c r="H26" t="s">
         <v>74</v>
       </c>
       <c r="L26" t="s">
-        <v>83</v>
+        <v>519</v>
       </c>
       <c r="Z26" t="s">
         <v>108</v>
@@ -10508,13 +11154,13 @@
         <v>53</v>
       </c>
       <c r="F27" t="s">
-        <v>444</v>
+        <v>221</v>
       </c>
       <c r="H27" t="s">
         <v>278</v>
       </c>
       <c r="L27" t="s">
-        <v>429</v>
+        <v>83</v>
       </c>
       <c r="Z27" t="s">
         <v>109</v>
@@ -10528,13 +11174,13 @@
         <v>54</v>
       </c>
       <c r="F28" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="H28" t="s">
         <v>262</v>
       </c>
       <c r="L28" t="s">
-        <v>44</v>
+        <v>429</v>
       </c>
       <c r="Z28" t="s">
         <v>110</v>
@@ -10545,13 +11191,13 @@
         <v>55</v>
       </c>
       <c r="F29" t="s">
-        <v>222</v>
+        <v>463</v>
       </c>
       <c r="H29" t="s">
         <v>279</v>
       </c>
       <c r="L29" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="Z29" t="s">
         <v>323</v>
@@ -10562,10 +11208,13 @@
         <v>409</v>
       </c>
       <c r="F30" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="H30" t="s">
         <v>280</v>
+      </c>
+      <c r="L30" t="s">
+        <v>45</v>
       </c>
       <c r="Z30" t="s">
         <v>111</v>
@@ -10576,7 +11225,7 @@
         <v>223</v>
       </c>
       <c r="F31" t="s">
-        <v>464</v>
+        <v>411</v>
       </c>
       <c r="H31" t="s">
         <v>212</v>
@@ -10587,7 +11236,7 @@
     </row>
     <row r="32">
       <c r="F32" t="s">
-        <v>411</v>
+        <v>62</v>
       </c>
       <c r="H32" t="s">
         <v>271</v>
@@ -10598,7 +11247,7 @@
     </row>
     <row r="33">
       <c r="F33" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="H33" t="s">
         <v>281</v>
@@ -10609,7 +11258,7 @@
     </row>
     <row r="34">
       <c r="F34" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="H34" t="s">
         <v>504</v>
@@ -10620,7 +11269,7 @@
     </row>
     <row r="35">
       <c r="F35" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="H35" t="s">
         <v>256</v>
@@ -10631,7 +11280,7 @@
     </row>
     <row r="36">
       <c r="F36" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="H36" t="s">
         <v>326</v>
@@ -10642,7 +11291,7 @@
     </row>
     <row r="37">
       <c r="F37" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="H37" t="s">
         <v>303</v>
@@ -10653,7 +11302,7 @@
     </row>
     <row r="38">
       <c r="F38" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="H38" t="s">
         <v>257</v>
@@ -10664,7 +11313,7 @@
     </row>
     <row r="39">
       <c r="F39" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="H39" t="s">
         <v>304</v>
@@ -10674,9 +11323,6 @@
       </c>
     </row>
     <row r="40">
-      <c r="F40" t="s">
-        <v>69</v>
-      </c>
       <c r="H40" t="s">
         <v>263</v>
       </c>
@@ -11150,186 +11796,196 @@
     </row>
     <row r="99">
       <c r="Z99" t="s">
-        <v>438</v>
+        <v>585</v>
       </c>
     </row>
     <row r="100">
       <c r="Z100" t="s">
-        <v>200</v>
+        <v>586</v>
       </c>
     </row>
     <row r="101">
       <c r="Z101" t="s">
-        <v>201</v>
+        <v>438</v>
       </c>
     </row>
     <row r="102">
       <c r="Z102" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="103">
       <c r="Z103" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
     </row>
     <row r="104">
       <c r="Z104" t="s">
-        <v>219</v>
+        <v>202</v>
       </c>
     </row>
     <row r="105">
       <c r="Z105" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="106">
       <c r="Z106" t="s">
-        <v>493</v>
+        <v>219</v>
       </c>
     </row>
     <row r="107">
       <c r="Z107" t="s">
-        <v>579</v>
+        <v>204</v>
       </c>
     </row>
     <row r="108">
       <c r="Z108" t="s">
-        <v>517</v>
+        <v>493</v>
       </c>
     </row>
     <row r="109">
       <c r="Z109" t="s">
-        <v>145</v>
+        <v>579</v>
       </c>
     </row>
     <row r="110">
       <c r="Z110" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
     </row>
     <row r="111">
       <c r="Z111" t="s">
-        <v>378</v>
+        <v>145</v>
       </c>
     </row>
     <row r="112">
       <c r="Z112" t="s">
-        <v>146</v>
+        <v>518</v>
       </c>
     </row>
     <row r="113">
       <c r="Z113" t="s">
-        <v>147</v>
+        <v>378</v>
       </c>
     </row>
     <row r="114">
       <c r="Z114" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="115">
       <c r="Z115" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="116">
       <c r="Z116" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="117">
       <c r="Z117" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="118">
       <c r="Z118" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="119">
       <c r="Z119" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="120">
       <c r="Z120" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="121">
       <c r="Z121" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="122">
       <c r="Z122" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="123">
       <c r="Z123" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="124">
       <c r="Z124" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="125">
       <c r="Z125" t="s">
-        <v>439</v>
+        <v>157</v>
       </c>
     </row>
     <row r="126">
       <c r="Z126" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="127">
       <c r="Z127" t="s">
-        <v>569</v>
+        <v>439</v>
       </c>
     </row>
     <row r="128">
       <c r="Z128" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="129">
       <c r="Z129" t="s">
-        <v>161</v>
+        <v>569</v>
       </c>
     </row>
     <row r="130">
       <c r="Z130" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="131">
       <c r="Z131" t="s">
-        <v>46</v>
+        <v>161</v>
       </c>
     </row>
     <row r="132">
       <c r="Z132" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="133">
       <c r="Z133" t="s">
-        <v>164</v>
+        <v>46</v>
       </c>
     </row>
     <row r="134">
       <c r="Z134" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="135">
       <c r="Z135" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="Z136" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="Z137" t="s">
         <v>166</v>
       </c>
     </row>

--- a/src/test/resources/unittesting/artifact/script/unitTest_LocalDb.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_LocalDb.xlsx
@@ -68,7 +68,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7327" uniqueCount="587">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7892" uniqueCount="587">
   <si>
     <t>description</t>
   </si>
@@ -1849,7 +1849,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="203" x14ac:knownFonts="1">
+  <fonts count="219" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -3138,8 +3138,109 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="328">
+  <fills count="355">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -4994,8 +5095,161 @@
         <bgColor rgb="E6E6E6"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="387">
+  <borders count="419">
     <border>
       <left/>
       <right/>
@@ -5032,6 +5286,332 @@
         <color theme="2" tint="-0.749961851863155"/>
       </bottom>
       <diagonal/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
     </border>
     <border>
       <top style="thin"/>
@@ -8952,7 +9532,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="229">
+  <cellXfs count="245">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -9609,52 +10189,100 @@
     <xf applyFill="true" applyFont="true" borderId="0" fillId="300" fontId="186" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="187" fillId="303" borderId="362" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="362" fillId="303" fontId="187" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="188" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="188" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="189" fillId="306" borderId="366" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="366" fillId="306" fontId="189" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="190" fillId="309" borderId="370" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="370" fillId="309" fontId="190" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="191" fillId="312" borderId="374" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="374" fillId="312" fontId="191" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="192" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="192" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="193" fillId="315" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="315" fontId="193" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="194" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="194" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="195" fillId="318" borderId="378" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="378" fillId="318" fontId="195" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="196" fillId="309" borderId="382" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="382" fillId="309" fontId="196" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="197" fillId="321" borderId="386" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="386" fillId="321" fontId="197" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="198" fillId="321" borderId="386" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="386" fillId="321" fontId="198" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="199" fillId="312" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="312" fontId="199" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="200" fillId="324" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="324" fontId="200" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="201" fillId="312" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="312" fontId="201" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="202" fillId="327" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="327" fontId="202" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="203" fillId="330" borderId="394" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="204" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="205" fillId="333" borderId="398" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="206" fillId="336" borderId="402" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="207" fillId="339" borderId="406" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="208" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="209" fillId="342" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="210" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="211" fillId="345" borderId="410" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="212" fillId="336" borderId="414" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="213" fillId="348" borderId="418" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="214" fillId="348" borderId="418" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="215" fillId="339" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="216" fillId="351" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="217" fillId="339" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="218" fillId="354" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>

--- a/src/test/resources/unittesting/artifact/script/unitTest_LocalDb.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_LocalDb.xlsx
@@ -47,7 +47,7 @@
     <definedName name="step">'#system'!$Y$2:$Y$4</definedName>
     <definedName name="target">'#system'!$A$2:$A$31</definedName>
     <definedName name="text">'#system'!$Y$2:$Y$2</definedName>
-    <definedName name="web">'#system'!$Z$2:$Z$137</definedName>
+    <definedName name="web">'#system'!$Z$2:$Z$138</definedName>
     <definedName name="webalert">'#system'!$AA$2:$AA$8</definedName>
     <definedName name="webcookie">'#system'!$AB$2:$AB$8</definedName>
     <definedName name="ws">'#system'!$AC$2:$AC$17</definedName>
@@ -68,7 +68,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7892" uniqueCount="587">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9024" uniqueCount="588">
   <si>
     <t>description</t>
   </si>
@@ -1843,13 +1843,16 @@
   <si>
     <t>saveSelectedValue(var,locator)</t>
   </si>
+  <si>
+    <t>saveBrowserVersion(var)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="219" x14ac:knownFonts="1">
+  <fonts count="251" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -3239,8 +3242,210 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="355">
+  <fills count="409">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -5248,8 +5453,314 @@
         <bgColor rgb="E6E6E6"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="419">
+  <borders count="483">
     <border>
       <left/>
       <right/>
@@ -5286,6 +5797,658 @@
         <color theme="2" tint="-0.749961851863155"/>
       </bottom>
       <diagonal/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
     </border>
     <border>
       <top style="thin"/>
@@ -9532,7 +10695,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="245">
+  <cellXfs count="277">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -10237,52 +11400,148 @@
     <xf applyFill="true" applyFont="true" borderId="0" fillId="327" fontId="202" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="203" fillId="330" borderId="394" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="394" fillId="330" fontId="203" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="204" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="204" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="205" fillId="333" borderId="398" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="398" fillId="333" fontId="205" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="206" fillId="336" borderId="402" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="402" fillId="336" fontId="206" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="207" fillId="339" borderId="406" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="406" fillId="339" fontId="207" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="208" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="208" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="209" fillId="342" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="342" fontId="209" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="210" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="210" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="211" fillId="345" borderId="410" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="410" fillId="345" fontId="211" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="212" fillId="336" borderId="414" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="414" fillId="336" fontId="212" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="213" fillId="348" borderId="418" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="418" fillId="348" fontId="213" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="214" fillId="348" borderId="418" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="418" fillId="348" fontId="214" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="215" fillId="339" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="339" fontId="215" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="216" fillId="351" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="351" fontId="216" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="217" fillId="339" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="339" fontId="217" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="218" fillId="354" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="354" fontId="218" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="426" fillId="357" fontId="219" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="220" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="430" fillId="360" fontId="221" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="434" fillId="363" fontId="222" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="438" fillId="366" fontId="223" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="224" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="369" fontId="225" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="226" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="442" fillId="372" fontId="227" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="446" fillId="363" fontId="228" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="450" fillId="375" fontId="229" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="450" fillId="375" fontId="230" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="366" fontId="231" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="378" fontId="232" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="366" fontId="233" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="381" fontId="234" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="235" fillId="384" borderId="458" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="236" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="237" fillId="387" borderId="462" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="238" fillId="390" borderId="466" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="239" fillId="393" borderId="470" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="240" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="241" fillId="396" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="242" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="243" fillId="399" borderId="474" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="244" fillId="390" borderId="478" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="245" fillId="402" borderId="482" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="246" fillId="402" borderId="482" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="247" fillId="393" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="248" fillId="405" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="249" fillId="393" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="250" fillId="408" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -10637,7 +11896,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AF137"/>
+  <dimension ref="A1:AF138"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
@@ -12347,7 +13606,7 @@
         <v>267</v>
       </c>
       <c r="Z89" t="s">
-        <v>196</v>
+        <v>587</v>
       </c>
     </row>
     <row r="90">
@@ -12355,7 +13614,7 @@
         <v>284</v>
       </c>
       <c r="Z90" t="s">
-        <v>449</v>
+        <v>196</v>
       </c>
     </row>
     <row r="91">
@@ -12363,7 +13622,7 @@
         <v>268</v>
       </c>
       <c r="Z91" t="s">
-        <v>197</v>
+        <v>449</v>
       </c>
     </row>
     <row r="92">
@@ -12371,7 +13630,7 @@
         <v>269</v>
       </c>
       <c r="Z92" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="93">
@@ -12379,7 +13638,7 @@
         <v>301</v>
       </c>
       <c r="Z93" t="s">
-        <v>572</v>
+        <v>198</v>
       </c>
     </row>
     <row r="94">
@@ -12387,7 +13646,7 @@
         <v>307</v>
       </c>
       <c r="Z94" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
     </row>
     <row r="95">
@@ -12395,7 +13654,7 @@
         <v>291</v>
       </c>
       <c r="Z95" t="s">
-        <v>211</v>
+        <v>573</v>
       </c>
     </row>
     <row r="96">
@@ -12403,7 +13662,7 @@
         <v>336</v>
       </c>
       <c r="Z96" t="s">
-        <v>144</v>
+        <v>211</v>
       </c>
     </row>
     <row r="97">
@@ -12411,7 +13670,7 @@
         <v>273</v>
       </c>
       <c r="Z97" t="s">
-        <v>199</v>
+        <v>144</v>
       </c>
     </row>
     <row r="98">
@@ -12419,201 +13678,206 @@
         <v>274</v>
       </c>
       <c r="Z98" t="s">
-        <v>437</v>
+        <v>199</v>
       </c>
     </row>
     <row r="99">
       <c r="Z99" t="s">
-        <v>585</v>
+        <v>437</v>
       </c>
     </row>
     <row r="100">
       <c r="Z100" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
     </row>
     <row r="101">
       <c r="Z101" t="s">
-        <v>438</v>
+        <v>586</v>
       </c>
     </row>
     <row r="102">
       <c r="Z102" t="s">
-        <v>200</v>
+        <v>438</v>
       </c>
     </row>
     <row r="103">
       <c r="Z103" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="104">
       <c r="Z104" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="105">
       <c r="Z105" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="106">
       <c r="Z106" t="s">
-        <v>219</v>
+        <v>203</v>
       </c>
     </row>
     <row r="107">
       <c r="Z107" t="s">
-        <v>204</v>
+        <v>219</v>
       </c>
     </row>
     <row r="108">
       <c r="Z108" t="s">
-        <v>493</v>
+        <v>204</v>
       </c>
     </row>
     <row r="109">
       <c r="Z109" t="s">
-        <v>579</v>
+        <v>493</v>
       </c>
     </row>
     <row r="110">
       <c r="Z110" t="s">
-        <v>517</v>
+        <v>579</v>
       </c>
     </row>
     <row r="111">
       <c r="Z111" t="s">
-        <v>145</v>
+        <v>517</v>
       </c>
     </row>
     <row r="112">
       <c r="Z112" t="s">
-        <v>518</v>
+        <v>145</v>
       </c>
     </row>
     <row r="113">
       <c r="Z113" t="s">
-        <v>378</v>
+        <v>518</v>
       </c>
     </row>
     <row r="114">
       <c r="Z114" t="s">
-        <v>146</v>
+        <v>378</v>
       </c>
     </row>
     <row r="115">
       <c r="Z115" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="116">
       <c r="Z116" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="117">
       <c r="Z117" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="118">
       <c r="Z118" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="119">
       <c r="Z119" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="120">
       <c r="Z120" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="121">
       <c r="Z121" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="122">
       <c r="Z122" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="123">
       <c r="Z123" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="124">
       <c r="Z124" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="125">
       <c r="Z125" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="126">
       <c r="Z126" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="127">
       <c r="Z127" t="s">
-        <v>439</v>
+        <v>158</v>
       </c>
     </row>
     <row r="128">
       <c r="Z128" t="s">
-        <v>159</v>
+        <v>439</v>
       </c>
     </row>
     <row r="129">
       <c r="Z129" t="s">
-        <v>569</v>
+        <v>159</v>
       </c>
     </row>
     <row r="130">
       <c r="Z130" t="s">
-        <v>160</v>
+        <v>569</v>
       </c>
     </row>
     <row r="131">
       <c r="Z131" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="132">
       <c r="Z132" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="133">
       <c r="Z133" t="s">
-        <v>46</v>
+        <v>162</v>
       </c>
     </row>
     <row r="134">
       <c r="Z134" t="s">
-        <v>163</v>
+        <v>46</v>
       </c>
     </row>
     <row r="135">
       <c r="Z135" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="136">
       <c r="Z136" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="137">
       <c r="Z137" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="Z138" t="s">
         <v>166</v>
       </c>
     </row>

--- a/src/test/resources/unittesting/artifact/script/unitTest_LocalDb.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_LocalDb.xlsx
@@ -68,7 +68,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9024" uniqueCount="588">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9590" uniqueCount="588">
   <si>
     <t>description</t>
   </si>
@@ -1852,7 +1852,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="251" x14ac:knownFonts="1">
+  <fonts count="267" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -3444,8 +3444,109 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="409">
+  <fills count="436">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -5759,8 +5860,161 @@
         <bgColor rgb="E6E6E6"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="483">
+  <borders count="515">
     <border>
       <left/>
       <right/>
@@ -5797,6 +6051,332 @@
         <color theme="2" tint="-0.749961851863155"/>
       </bottom>
       <diagonal/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
     </border>
     <border>
       <top style="thin"/>
@@ -10695,7 +11275,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="277">
+  <cellXfs count="293">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -11496,52 +12076,100 @@
     <xf applyFill="true" applyFont="true" borderId="0" fillId="381" fontId="234" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="235" fillId="384" borderId="458" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="458" fillId="384" fontId="235" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="236" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="236" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="237" fillId="387" borderId="462" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="462" fillId="387" fontId="237" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="238" fillId="390" borderId="466" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="466" fillId="390" fontId="238" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="239" fillId="393" borderId="470" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="470" fillId="393" fontId="239" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="240" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="240" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="241" fillId="396" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="396" fontId="241" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="242" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="242" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="243" fillId="399" borderId="474" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="474" fillId="399" fontId="243" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="244" fillId="390" borderId="478" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="478" fillId="390" fontId="244" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="245" fillId="402" borderId="482" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="482" fillId="402" fontId="245" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="246" fillId="402" borderId="482" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="482" fillId="402" fontId="246" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="247" fillId="393" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="393" fontId="247" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="248" fillId="405" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="405" fontId="248" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="249" fillId="393" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="393" fontId="249" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="250" fillId="408" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="408" fontId="250" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="251" fillId="411" borderId="490" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="252" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="253" fillId="414" borderId="494" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="254" fillId="417" borderId="498" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="255" fillId="420" borderId="502" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="256" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="257" fillId="423" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="258" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="259" fillId="426" borderId="506" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="260" fillId="417" borderId="510" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="261" fillId="429" borderId="514" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="262" fillId="429" borderId="514" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="263" fillId="420" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="264" fillId="432" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="265" fillId="420" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="266" fillId="435" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>

--- a/src/test/resources/unittesting/artifact/script/unitTest_LocalDb.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_LocalDb.xlsx
@@ -25,7 +25,7 @@
     <definedName name="date">'#system'!$C$2:$C$14</definedName>
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
     <definedName name="desktop">'#system'!$H$2:$H$98</definedName>
-    <definedName name="excel">'#system'!$I$2:$I$14</definedName>
+    <definedName name="excel">'#system'!$I$2:$I$15</definedName>
     <definedName name="external">'#system'!$J$2:$J$6</definedName>
     <definedName name="image">'#system'!$K$2:$K$7</definedName>
     <definedName name="io">'#system'!$L$2:$L$30</definedName>
@@ -38,7 +38,7 @@
     <definedName name="mq">'#system'!$J$2:$J$3</definedName>
     <definedName name="nextgen">'#system'!$K$2:$K$28</definedName>
     <definedName name="number">'#system'!$R$2:$R$16</definedName>
-    <definedName name="pdf">'#system'!$S$2:$S$16</definedName>
+    <definedName name="pdf">'#system'!$S$2:$S$17</definedName>
     <definedName name="rdbms">'#system'!$T$2:$T$7</definedName>
     <definedName name="redis">'#system'!$U$2:$U$10</definedName>
     <definedName name="sms">'#system'!$V$2:$V$2</definedName>
@@ -47,9 +47,9 @@
     <definedName name="step">'#system'!$Y$2:$Y$4</definedName>
     <definedName name="target">'#system'!$A$2:$A$31</definedName>
     <definedName name="text">'#system'!$Y$2:$Y$2</definedName>
-    <definedName name="web">'#system'!$Z$2:$Z$138</definedName>
+    <definedName name="web">'#system'!$Z$2:$Z$144</definedName>
     <definedName name="webalert">'#system'!$AA$2:$AA$8</definedName>
-    <definedName name="webcookie">'#system'!$AB$2:$AB$8</definedName>
+    <definedName name="webcookie">'#system'!$AB$2:$AB$10</definedName>
     <definedName name="ws">'#system'!$AC$2:$AC$17</definedName>
     <definedName name="ws.async">'#system'!$AD$2:$AD$8</definedName>
     <definedName name="xml">'#system'!$AE$2:$AE$27</definedName>
@@ -68,7 +68,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9590" uniqueCount="588">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10166" uniqueCount="598">
   <si>
     <t>description</t>
   </si>
@@ -1846,13 +1846,43 @@
   <si>
     <t>saveBrowserVersion(var)</t>
   </si>
+  <si>
+    <t>saveTotalDataCount(file,worksheet,saveVar)</t>
+  </si>
+  <si>
+    <t>saveAsPdf(profile,content,file)</t>
+  </si>
+  <si>
+    <t>assertElementEnabled(locator)</t>
+  </si>
+  <si>
+    <t>saveTitle(var)</t>
+  </si>
+  <si>
+    <t>selectAllOptions(locator)</t>
+  </si>
+  <si>
+    <t>selectMultiByValue(locator,array)</t>
+  </si>
+  <si>
+    <t>switchBrowser(profile,config)</t>
+  </si>
+  <si>
+    <t>waitForElementsPresent(locators)</t>
+  </si>
+  <si>
+    <t>clearCookieFields(var,remove)</t>
+  </si>
+  <si>
+    <t>saveAllAsText(var,exclude)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="267" x14ac:knownFonts="1">
+  <fonts count="283" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -3545,8 +3575,109 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="436">
+  <fills count="463">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -6013,8 +6144,161 @@
         <bgColor rgb="E6E6E6"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="515">
+  <borders count="547">
     <border>
       <left/>
       <right/>
@@ -6051,6 +6335,332 @@
         <color theme="2" tint="-0.749961851863155"/>
       </bottom>
       <diagonal/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
     </border>
     <border>
       <top style="thin"/>
@@ -11275,7 +11885,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="293">
+  <cellXfs count="309">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -12124,52 +12734,100 @@
     <xf applyFill="true" applyFont="true" borderId="0" fillId="408" fontId="250" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="251" fillId="411" borderId="490" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="490" fillId="411" fontId="251" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="252" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="252" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="253" fillId="414" borderId="494" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="494" fillId="414" fontId="253" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="254" fillId="417" borderId="498" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="498" fillId="417" fontId="254" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="255" fillId="420" borderId="502" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="502" fillId="420" fontId="255" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="256" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="256" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="257" fillId="423" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="423" fontId="257" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="258" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="258" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="259" fillId="426" borderId="506" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="506" fillId="426" fontId="259" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="260" fillId="417" borderId="510" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="510" fillId="417" fontId="260" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="261" fillId="429" borderId="514" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="514" fillId="429" fontId="261" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="262" fillId="429" borderId="514" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="514" fillId="429" fontId="262" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="263" fillId="420" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="420" fontId="263" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="264" fillId="432" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="432" fontId="264" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="265" fillId="420" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="420" fontId="265" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="266" fillId="435" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="435" fontId="266" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="267" fillId="438" borderId="522" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="268" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="269" fillId="441" borderId="526" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="270" fillId="444" borderId="530" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="271" fillId="447" borderId="534" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="272" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="273" fillId="450" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="274" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="275" fillId="453" borderId="538" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="276" fillId="444" borderId="542" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="277" fillId="456" borderId="546" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="278" fillId="456" borderId="546" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="279" fillId="447" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="280" fillId="459" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="281" fillId="447" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="282" fillId="462" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -12524,7 +13182,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AF138"/>
+  <dimension ref="A1:AF144"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
@@ -12956,7 +13614,7 @@
         <v>170</v>
       </c>
       <c r="AB5" t="s">
-        <v>175</v>
+        <v>596</v>
       </c>
       <c r="AC5" t="s">
         <v>181</v>
@@ -13027,7 +13685,7 @@
         <v>440</v>
       </c>
       <c r="AB6" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="AC6" t="s">
         <v>182</v>
@@ -13089,7 +13747,7 @@
         <v>441</v>
       </c>
       <c r="AB7" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="AC7" t="s">
         <v>183</v>
@@ -13145,7 +13803,7 @@
         <v>171</v>
       </c>
       <c r="AB8" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="AC8" t="s">
         <v>184</v>
@@ -13197,6 +13855,9 @@
       <c r="Z9" t="s">
         <v>205</v>
       </c>
+      <c r="AB9" t="s">
+        <v>178</v>
+      </c>
       <c r="AC9" t="s">
         <v>185</v>
       </c>
@@ -13215,7 +13876,7 @@
         <v>302</v>
       </c>
       <c r="I10" t="s">
-        <v>447</v>
+        <v>588</v>
       </c>
       <c r="L10" t="s">
         <v>78</v>
@@ -13237,6 +13898,9 @@
       </c>
       <c r="Z10" t="s">
         <v>253</v>
+      </c>
+      <c r="AB10" t="s">
+        <v>597</v>
       </c>
       <c r="AC10" t="s">
         <v>186</v>
@@ -13256,7 +13920,7 @@
         <v>348</v>
       </c>
       <c r="I11" t="s">
-        <v>318</v>
+        <v>447</v>
       </c>
       <c r="L11" t="s">
         <v>37</v>
@@ -13294,7 +13958,7 @@
         <v>270</v>
       </c>
       <c r="I12" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="L12" t="s">
         <v>481</v>
@@ -13332,7 +13996,7 @@
         <v>259</v>
       </c>
       <c r="I13" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="L13" t="s">
         <v>385</v>
@@ -13344,7 +14008,7 @@
         <v>92</v>
       </c>
       <c r="S13" t="s">
-        <v>250</v>
+        <v>589</v>
       </c>
       <c r="Z13" t="s">
         <v>322</v>
@@ -13367,7 +14031,7 @@
         <v>312</v>
       </c>
       <c r="I14" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="L14" t="s">
         <v>17</v>
@@ -13379,7 +14043,7 @@
         <v>93</v>
       </c>
       <c r="S14" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="Z14" t="s">
         <v>100</v>
@@ -13401,6 +14065,9 @@
       <c r="H15" t="s">
         <v>260</v>
       </c>
+      <c r="I15" t="s">
+        <v>321</v>
+      </c>
       <c r="L15" t="s">
         <v>41</v>
       </c>
@@ -13411,10 +14078,10 @@
         <v>486</v>
       </c>
       <c r="S15" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="Z15" t="s">
-        <v>101</v>
+        <v>590</v>
       </c>
       <c r="AC15" t="s">
         <v>190</v>
@@ -13443,10 +14110,10 @@
         <v>487</v>
       </c>
       <c r="S16" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="Z16" t="s">
-        <v>73</v>
+        <v>101</v>
       </c>
       <c r="AC16" t="s">
         <v>191</v>
@@ -13471,8 +14138,11 @@
       <c r="N17" t="s">
         <v>39</v>
       </c>
+      <c r="S17" t="s">
+        <v>248</v>
+      </c>
       <c r="Z17" t="s">
-        <v>488</v>
+        <v>73</v>
       </c>
       <c r="AC17" t="s">
         <v>462</v>
@@ -13498,7 +14168,7 @@
         <v>42</v>
       </c>
       <c r="Z18" t="s">
-        <v>102</v>
+        <v>488</v>
       </c>
       <c r="AE18" t="s">
         <v>470</v>
@@ -13518,7 +14188,7 @@
         <v>458</v>
       </c>
       <c r="Z19" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="AE19" t="s">
         <v>499</v>
@@ -13538,7 +14208,7 @@
         <v>81</v>
       </c>
       <c r="Z20" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AE20" t="s">
         <v>500</v>
@@ -13558,7 +14228,7 @@
         <v>82</v>
       </c>
       <c r="Z21" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="AE21" t="s">
         <v>501</v>
@@ -13578,7 +14248,7 @@
         <v>581</v>
       </c>
       <c r="Z22" t="s">
-        <v>489</v>
+        <v>105</v>
       </c>
       <c r="AE22" t="s">
         <v>231</v>
@@ -13598,7 +14268,7 @@
         <v>465</v>
       </c>
       <c r="Z23" t="s">
-        <v>106</v>
+        <v>489</v>
       </c>
       <c r="AE23" t="s">
         <v>527</v>
@@ -13618,7 +14288,7 @@
         <v>43</v>
       </c>
       <c r="Z24" t="s">
-        <v>567</v>
+        <v>106</v>
       </c>
       <c r="AE24" t="s">
         <v>528</v>
@@ -13638,7 +14308,7 @@
         <v>387</v>
       </c>
       <c r="Z25" t="s">
-        <v>107</v>
+        <v>567</v>
       </c>
       <c r="AE25" t="s">
         <v>529</v>
@@ -13658,7 +14328,7 @@
         <v>519</v>
       </c>
       <c r="Z26" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="AE26" t="s">
         <v>232</v>
@@ -13678,7 +14348,7 @@
         <v>83</v>
       </c>
       <c r="Z27" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="AE27" t="s">
         <v>233</v>
@@ -13698,7 +14368,7 @@
         <v>429</v>
       </c>
       <c r="Z28" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="29">
@@ -13715,7 +14385,7 @@
         <v>44</v>
       </c>
       <c r="Z29" t="s">
-        <v>323</v>
+        <v>110</v>
       </c>
     </row>
     <row r="30">
@@ -13732,7 +14402,7 @@
         <v>45</v>
       </c>
       <c r="Z30" t="s">
-        <v>111</v>
+        <v>323</v>
       </c>
     </row>
     <row r="31">
@@ -13746,7 +14416,7 @@
         <v>212</v>
       </c>
       <c r="Z31" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="32">
@@ -13757,7 +14427,7 @@
         <v>271</v>
       </c>
       <c r="Z32" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="33">
@@ -13768,7 +14438,7 @@
         <v>281</v>
       </c>
       <c r="Z33" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="34">
@@ -13779,7 +14449,7 @@
         <v>504</v>
       </c>
       <c r="Z34" t="s">
-        <v>568</v>
+        <v>114</v>
       </c>
     </row>
     <row r="35">
@@ -13790,7 +14460,7 @@
         <v>256</v>
       </c>
       <c r="Z35" t="s">
-        <v>115</v>
+        <v>568</v>
       </c>
     </row>
     <row r="36">
@@ -13801,7 +14471,7 @@
         <v>326</v>
       </c>
       <c r="Z36" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="37">
@@ -13812,7 +14482,7 @@
         <v>303</v>
       </c>
       <c r="Z37" t="s">
-        <v>206</v>
+        <v>116</v>
       </c>
     </row>
     <row r="38">
@@ -13823,7 +14493,7 @@
         <v>257</v>
       </c>
       <c r="Z38" t="s">
-        <v>117</v>
+        <v>206</v>
       </c>
     </row>
     <row r="39">
@@ -13834,7 +14504,7 @@
         <v>304</v>
       </c>
       <c r="Z39" t="s">
-        <v>334</v>
+        <v>117</v>
       </c>
     </row>
     <row r="40">
@@ -13842,7 +14512,7 @@
         <v>263</v>
       </c>
       <c r="Z40" t="s">
-        <v>433</v>
+        <v>334</v>
       </c>
     </row>
     <row r="41">
@@ -13850,7 +14520,7 @@
         <v>76</v>
       </c>
       <c r="Z41" t="s">
-        <v>578</v>
+        <v>433</v>
       </c>
     </row>
     <row r="42">
@@ -13858,7 +14528,7 @@
         <v>208</v>
       </c>
       <c r="Z42" t="s">
-        <v>388</v>
+        <v>578</v>
       </c>
     </row>
     <row r="43">
@@ -13866,7 +14536,7 @@
         <v>534</v>
       </c>
       <c r="Z43" t="s">
-        <v>118</v>
+        <v>388</v>
       </c>
     </row>
     <row r="44">
@@ -13874,7 +14544,7 @@
         <v>285</v>
       </c>
       <c r="Z44" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="45">
@@ -13882,7 +14552,7 @@
         <v>296</v>
       </c>
       <c r="Z45" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="46">
@@ -13890,7 +14560,7 @@
         <v>297</v>
       </c>
       <c r="Z46" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="47">
@@ -13898,7 +14568,7 @@
         <v>339</v>
       </c>
       <c r="Z47" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="48">
@@ -13906,7 +14576,7 @@
         <v>338</v>
       </c>
       <c r="Z48" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="49">
@@ -13914,7 +14584,7 @@
         <v>207</v>
       </c>
       <c r="Z49" t="s">
-        <v>434</v>
+        <v>123</v>
       </c>
     </row>
     <row r="50">
@@ -13922,7 +14592,7 @@
         <v>316</v>
       </c>
       <c r="Z50" t="s">
-        <v>209</v>
+        <v>434</v>
       </c>
     </row>
     <row r="51">
@@ -13930,7 +14600,7 @@
         <v>335</v>
       </c>
       <c r="Z51" t="s">
-        <v>75</v>
+        <v>209</v>
       </c>
     </row>
     <row r="52">
@@ -13938,7 +14608,7 @@
         <v>363</v>
       </c>
       <c r="Z52" t="s">
-        <v>531</v>
+        <v>75</v>
       </c>
     </row>
     <row r="53">
@@ -13946,7 +14616,7 @@
         <v>298</v>
       </c>
       <c r="Z53" t="s">
-        <v>124</v>
+        <v>531</v>
       </c>
     </row>
     <row r="54">
@@ -13954,7 +14624,7 @@
         <v>351</v>
       </c>
       <c r="Z54" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="55">
@@ -13962,7 +14632,7 @@
         <v>327</v>
       </c>
       <c r="Z55" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="56">
@@ -13970,7 +14640,7 @@
         <v>264</v>
       </c>
       <c r="Z56" t="s">
-        <v>490</v>
+        <v>126</v>
       </c>
     </row>
     <row r="57">
@@ -13978,7 +14648,7 @@
         <v>288</v>
       </c>
       <c r="Z57" t="s">
-        <v>459</v>
+        <v>490</v>
       </c>
     </row>
     <row r="58">
@@ -13986,7 +14656,7 @@
         <v>289</v>
       </c>
       <c r="Z58" t="s">
-        <v>127</v>
+        <v>459</v>
       </c>
     </row>
     <row r="59">
@@ -13994,7 +14664,7 @@
         <v>535</v>
       </c>
       <c r="Z59" t="s">
-        <v>342</v>
+        <v>127</v>
       </c>
     </row>
     <row r="60">
@@ -14002,7 +14672,7 @@
         <v>290</v>
       </c>
       <c r="Z60" t="s">
-        <v>460</v>
+        <v>342</v>
       </c>
     </row>
     <row r="61">
@@ -14010,7 +14680,7 @@
         <v>299</v>
       </c>
       <c r="Z61" t="s">
-        <v>128</v>
+        <v>460</v>
       </c>
     </row>
     <row r="62">
@@ -14018,7 +14688,7 @@
         <v>308</v>
       </c>
       <c r="Z62" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="63">
@@ -14026,7 +14696,7 @@
         <v>333</v>
       </c>
       <c r="Z63" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="64">
@@ -14034,7 +14704,7 @@
         <v>305</v>
       </c>
       <c r="Z64" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="65">
@@ -14042,7 +14712,7 @@
         <v>306</v>
       </c>
       <c r="Z65" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="66">
@@ -14050,7 +14720,7 @@
         <v>364</v>
       </c>
       <c r="Z66" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="67">
@@ -14058,7 +14728,7 @@
         <v>365</v>
       </c>
       <c r="Z67" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="68">
@@ -14066,7 +14736,7 @@
         <v>341</v>
       </c>
       <c r="Z68" t="s">
-        <v>435</v>
+        <v>134</v>
       </c>
     </row>
     <row r="69">
@@ -14074,7 +14744,7 @@
         <v>309</v>
       </c>
       <c r="Z69" t="s">
-        <v>468</v>
+        <v>435</v>
       </c>
     </row>
     <row r="70">
@@ -14082,7 +14752,7 @@
         <v>265</v>
       </c>
       <c r="Z70" t="s">
-        <v>210</v>
+        <v>468</v>
       </c>
     </row>
     <row r="71">
@@ -14090,7 +14760,7 @@
         <v>520</v>
       </c>
       <c r="Z71" t="s">
-        <v>384</v>
+        <v>210</v>
       </c>
     </row>
     <row r="72">
@@ -14098,7 +14768,7 @@
         <v>310</v>
       </c>
       <c r="Z72" t="s">
-        <v>436</v>
+        <v>384</v>
       </c>
     </row>
     <row r="73">
@@ -14106,7 +14776,7 @@
         <v>405</v>
       </c>
       <c r="Z73" t="s">
-        <v>135</v>
+        <v>436</v>
       </c>
     </row>
     <row r="74">
@@ -14114,7 +14784,7 @@
         <v>300</v>
       </c>
       <c r="Z74" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="75">
@@ -14122,7 +14792,7 @@
         <v>406</v>
       </c>
       <c r="Z75" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="76">
@@ -14130,7 +14800,7 @@
         <v>258</v>
       </c>
       <c r="Z76" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="77">
@@ -14138,7 +14808,7 @@
         <v>505</v>
       </c>
       <c r="Z77" t="s">
-        <v>193</v>
+        <v>138</v>
       </c>
     </row>
     <row r="78">
@@ -14146,7 +14816,7 @@
         <v>340</v>
       </c>
       <c r="Z78" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="79">
@@ -14154,7 +14824,7 @@
         <v>276</v>
       </c>
       <c r="Z79" t="s">
-        <v>448</v>
+        <v>194</v>
       </c>
     </row>
     <row r="80">
@@ -14162,7 +14832,7 @@
         <v>282</v>
       </c>
       <c r="Z80" t="s">
-        <v>461</v>
+        <v>448</v>
       </c>
     </row>
     <row r="81">
@@ -14170,7 +14840,7 @@
         <v>287</v>
       </c>
       <c r="Z81" t="s">
-        <v>139</v>
+        <v>461</v>
       </c>
     </row>
     <row r="82">
@@ -14178,7 +14848,7 @@
         <v>424</v>
       </c>
       <c r="Z82" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="83">
@@ -14186,7 +14856,7 @@
         <v>328</v>
       </c>
       <c r="Z83" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="84">
@@ -14194,7 +14864,7 @@
         <v>266</v>
       </c>
       <c r="Z84" t="s">
-        <v>491</v>
+        <v>141</v>
       </c>
     </row>
     <row r="85">
@@ -14202,7 +14872,7 @@
         <v>277</v>
       </c>
       <c r="Z85" t="s">
-        <v>142</v>
+        <v>491</v>
       </c>
     </row>
     <row r="86">
@@ -14210,7 +14880,7 @@
         <v>283</v>
       </c>
       <c r="Z86" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="87">
@@ -14218,7 +14888,7 @@
         <v>272</v>
       </c>
       <c r="Z87" t="s">
-        <v>195</v>
+        <v>143</v>
       </c>
     </row>
     <row r="88">
@@ -14226,7 +14896,7 @@
         <v>523</v>
       </c>
       <c r="Z88" t="s">
-        <v>492</v>
+        <v>195</v>
       </c>
     </row>
     <row r="89">
@@ -14234,7 +14904,7 @@
         <v>267</v>
       </c>
       <c r="Z89" t="s">
-        <v>587</v>
+        <v>492</v>
       </c>
     </row>
     <row r="90">
@@ -14242,7 +14912,7 @@
         <v>284</v>
       </c>
       <c r="Z90" t="s">
-        <v>196</v>
+        <v>587</v>
       </c>
     </row>
     <row r="91">
@@ -14250,7 +14920,7 @@
         <v>268</v>
       </c>
       <c r="Z91" t="s">
-        <v>449</v>
+        <v>196</v>
       </c>
     </row>
     <row r="92">
@@ -14258,7 +14928,7 @@
         <v>269</v>
       </c>
       <c r="Z92" t="s">
-        <v>197</v>
+        <v>449</v>
       </c>
     </row>
     <row r="93">
@@ -14266,7 +14936,7 @@
         <v>301</v>
       </c>
       <c r="Z93" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="94">
@@ -14274,7 +14944,7 @@
         <v>307</v>
       </c>
       <c r="Z94" t="s">
-        <v>572</v>
+        <v>198</v>
       </c>
     </row>
     <row r="95">
@@ -14282,7 +14952,7 @@
         <v>291</v>
       </c>
       <c r="Z95" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
     </row>
     <row r="96">
@@ -14290,7 +14960,7 @@
         <v>336</v>
       </c>
       <c r="Z96" t="s">
-        <v>211</v>
+        <v>573</v>
       </c>
     </row>
     <row r="97">
@@ -14298,7 +14968,7 @@
         <v>273</v>
       </c>
       <c r="Z97" t="s">
-        <v>144</v>
+        <v>211</v>
       </c>
     </row>
     <row r="98">
@@ -14306,206 +14976,236 @@
         <v>274</v>
       </c>
       <c r="Z98" t="s">
-        <v>199</v>
+        <v>144</v>
       </c>
     </row>
     <row r="99">
       <c r="Z99" t="s">
-        <v>437</v>
+        <v>199</v>
       </c>
     </row>
     <row r="100">
       <c r="Z100" t="s">
-        <v>585</v>
+        <v>437</v>
       </c>
     </row>
     <row r="101">
       <c r="Z101" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
     </row>
     <row r="102">
       <c r="Z102" t="s">
-        <v>438</v>
+        <v>586</v>
       </c>
     </row>
     <row r="103">
       <c r="Z103" t="s">
-        <v>200</v>
+        <v>438</v>
       </c>
     </row>
     <row r="104">
       <c r="Z104" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="105">
       <c r="Z105" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="106">
       <c r="Z106" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="107">
       <c r="Z107" t="s">
-        <v>219</v>
+        <v>203</v>
       </c>
     </row>
     <row r="108">
       <c r="Z108" t="s">
-        <v>204</v>
+        <v>219</v>
       </c>
     </row>
     <row r="109">
       <c r="Z109" t="s">
-        <v>493</v>
+        <v>591</v>
       </c>
     </row>
     <row r="110">
       <c r="Z110" t="s">
-        <v>579</v>
+        <v>204</v>
       </c>
     </row>
     <row r="111">
       <c r="Z111" t="s">
-        <v>517</v>
+        <v>493</v>
       </c>
     </row>
     <row r="112">
       <c r="Z112" t="s">
-        <v>145</v>
+        <v>579</v>
       </c>
     </row>
     <row r="113">
       <c r="Z113" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
     </row>
     <row r="114">
       <c r="Z114" t="s">
-        <v>378</v>
+        <v>145</v>
       </c>
     </row>
     <row r="115">
       <c r="Z115" t="s">
-        <v>146</v>
+        <v>518</v>
       </c>
     </row>
     <row r="116">
       <c r="Z116" t="s">
-        <v>147</v>
+        <v>378</v>
       </c>
     </row>
     <row r="117">
       <c r="Z117" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="118">
       <c r="Z118" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="119">
       <c r="Z119" t="s">
-        <v>150</v>
+        <v>592</v>
       </c>
     </row>
     <row r="120">
       <c r="Z120" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
     </row>
     <row r="121">
       <c r="Z121" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
     </row>
     <row r="122">
       <c r="Z122" t="s">
-        <v>153</v>
+        <v>593</v>
       </c>
     </row>
     <row r="123">
       <c r="Z123" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
     </row>
     <row r="124">
       <c r="Z124" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
     </row>
     <row r="125">
       <c r="Z125" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
     </row>
     <row r="126">
       <c r="Z126" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
     </row>
     <row r="127">
       <c r="Z127" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
     </row>
     <row r="128">
       <c r="Z128" t="s">
-        <v>439</v>
+        <v>155</v>
       </c>
     </row>
     <row r="129">
       <c r="Z129" t="s">
-        <v>159</v>
+        <v>594</v>
       </c>
     </row>
     <row r="130">
       <c r="Z130" t="s">
-        <v>569</v>
+        <v>156</v>
       </c>
     </row>
     <row r="131">
       <c r="Z131" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
     </row>
     <row r="132">
       <c r="Z132" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
     </row>
     <row r="133">
       <c r="Z133" t="s">
-        <v>162</v>
+        <v>439</v>
       </c>
     </row>
     <row r="134">
       <c r="Z134" t="s">
-        <v>46</v>
+        <v>159</v>
       </c>
     </row>
     <row r="135">
       <c r="Z135" t="s">
-        <v>163</v>
+        <v>569</v>
       </c>
     </row>
     <row r="136">
       <c r="Z136" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
     </row>
     <row r="137">
       <c r="Z137" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
     </row>
     <row r="138">
       <c r="Z138" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="Z139" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="Z140" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="Z141" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="Z142" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="Z143" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="Z144" t="s">
         <v>166</v>
       </c>
     </row>

--- a/src/test/resources/unittesting/artifact/script/unitTest_LocalDb.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_LocalDb.xlsx
@@ -25,7 +25,7 @@
     <definedName name="date">'#system'!$C$2:$C$14</definedName>
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
     <definedName name="desktop">'#system'!$H$2:$H$98</definedName>
-    <definedName name="excel">'#system'!$I$2:$I$15</definedName>
+    <definedName name="excel">'#system'!$I$2:$I$16</definedName>
     <definedName name="external">'#system'!$J$2:$J$6</definedName>
     <definedName name="image">'#system'!$K$2:$K$7</definedName>
     <definedName name="io">'#system'!$L$2:$L$30</definedName>
@@ -68,7 +68,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10166" uniqueCount="598">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10743" uniqueCount="600">
   <si>
     <t>description</t>
   </si>
@@ -1876,13 +1876,19 @@
   <si>
     <t>saveAllAsText(var,exclude)</t>
   </si>
+  <si>
+    <t>saveTotalColumnCount(file,worksheet,row,saveVar)</t>
+  </si>
+  <si>
+    <t>saveTotalRowCount(file,worksheet,saveVar)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="283" x14ac:knownFonts="1">
+  <fonts count="299" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -3676,8 +3682,109 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="463">
+  <fills count="490">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -6297,8 +6404,161 @@
         <bgColor rgb="E6E6E6"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="547">
+  <borders count="579">
     <border>
       <left/>
       <right/>
@@ -6335,6 +6595,332 @@
         <color theme="2" tint="-0.749961851863155"/>
       </bottom>
       <diagonal/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
     </border>
     <border>
       <top style="thin"/>
@@ -11885,7 +12471,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="309">
+  <cellXfs count="325">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -12782,52 +13368,100 @@
     <xf applyFill="true" applyFont="true" borderId="0" fillId="435" fontId="266" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="267" fillId="438" borderId="522" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="522" fillId="438" fontId="267" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="268" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="268" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="269" fillId="441" borderId="526" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="526" fillId="441" fontId="269" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="270" fillId="444" borderId="530" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="530" fillId="444" fontId="270" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="271" fillId="447" borderId="534" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="534" fillId="447" fontId="271" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="272" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="272" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="273" fillId="450" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="450" fontId="273" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="274" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="274" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="275" fillId="453" borderId="538" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="538" fillId="453" fontId="275" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="276" fillId="444" borderId="542" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="542" fillId="444" fontId="276" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="277" fillId="456" borderId="546" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="546" fillId="456" fontId="277" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="278" fillId="456" borderId="546" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="546" fillId="456" fontId="278" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="279" fillId="447" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="447" fontId="279" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="280" fillId="459" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="459" fontId="280" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="281" fillId="447" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="447" fontId="281" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="282" fillId="462" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="462" fontId="282" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="283" fillId="465" borderId="554" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="284" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="285" fillId="468" borderId="558" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="286" fillId="471" borderId="562" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="287" fillId="474" borderId="566" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="288" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="289" fillId="477" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="290" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="291" fillId="480" borderId="570" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="292" fillId="471" borderId="574" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="293" fillId="483" borderId="578" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="294" fillId="483" borderId="578" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="295" fillId="474" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="296" fillId="486" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="297" fillId="474" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="298" fillId="489" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -13876,7 +14510,7 @@
         <v>302</v>
       </c>
       <c r="I10" t="s">
-        <v>588</v>
+        <v>598</v>
       </c>
       <c r="L10" t="s">
         <v>78</v>
@@ -13920,7 +14554,7 @@
         <v>348</v>
       </c>
       <c r="I11" t="s">
-        <v>447</v>
+        <v>599</v>
       </c>
       <c r="L11" t="s">
         <v>37</v>
@@ -13958,7 +14592,7 @@
         <v>270</v>
       </c>
       <c r="I12" t="s">
-        <v>318</v>
+        <v>447</v>
       </c>
       <c r="L12" t="s">
         <v>481</v>
@@ -13996,7 +14630,7 @@
         <v>259</v>
       </c>
       <c r="I13" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="L13" t="s">
         <v>385</v>
@@ -14031,7 +14665,7 @@
         <v>312</v>
       </c>
       <c r="I14" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="L14" t="s">
         <v>17</v>
@@ -14066,7 +14700,7 @@
         <v>260</v>
       </c>
       <c r="I15" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="L15" t="s">
         <v>41</v>
@@ -14099,6 +14733,9 @@
       </c>
       <c r="H16" t="s">
         <v>261</v>
+      </c>
+      <c r="I16" t="s">
+        <v>321</v>
       </c>
       <c r="L16" t="s">
         <v>482</v>

--- a/src/test/resources/unittesting/artifact/script/unitTest_LocalDb.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_LocalDb.xlsx
@@ -27,7 +27,7 @@
     <definedName name="desktop">'#system'!$H$2:$H$98</definedName>
     <definedName name="excel">'#system'!$I$2:$I$16</definedName>
     <definedName name="external">'#system'!$J$2:$J$6</definedName>
-    <definedName name="image">'#system'!$K$2:$K$7</definedName>
+    <definedName name="image">'#system'!$K$2:$K$8</definedName>
     <definedName name="io">'#system'!$L$2:$L$30</definedName>
     <definedName name="jms">'#system'!$M$2:$M$4</definedName>
     <definedName name="json">'#system'!$N$2:$N$18</definedName>
@@ -45,15 +45,16 @@
     <definedName name="sound">'#system'!$W$2:$W$5</definedName>
     <definedName name="ssh">'#system'!$X$2:$X$9</definedName>
     <definedName name="step">'#system'!$Y$2:$Y$4</definedName>
-    <definedName name="target">'#system'!$A$2:$A$31</definedName>
+    <definedName name="target">'#system'!$A$2:$A$32</definedName>
     <definedName name="text">'#system'!$Y$2:$Y$2</definedName>
-    <definedName name="web">'#system'!$Z$2:$Z$144</definedName>
-    <definedName name="webalert">'#system'!$AA$2:$AA$8</definedName>
-    <definedName name="webcookie">'#system'!$AB$2:$AB$10</definedName>
-    <definedName name="ws">'#system'!$AC$2:$AC$17</definedName>
-    <definedName name="ws.async">'#system'!$AD$2:$AD$8</definedName>
-    <definedName name="xml">'#system'!$AE$2:$AE$27</definedName>
+    <definedName name="web">'#system'!$AA$2:$AA$144</definedName>
+    <definedName name="webalert">'#system'!$AB$2:$AB$8</definedName>
+    <definedName name="webcookie">'#system'!$AC$2:$AC$10</definedName>
+    <definedName name="ws">'#system'!$AD$2:$AD$17</definedName>
+    <definedName name="ws.async">'#system'!$AE$2:$AE$8</definedName>
+    <definedName name="xml">'#system'!$AF$2:$AF$27</definedName>
     <definedName name="aws.vision">'#system'!$E$2:$E$2</definedName>
+    <definedName name="tn.5250">'#system'!$Z$2:$Z$6</definedName>
   </definedNames>
   <calcPr calcId="150000"/>
   <extLst>
@@ -68,7 +69,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10743" uniqueCount="600">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11913" uniqueCount="609">
   <si>
     <t>description</t>
   </si>
@@ -1882,13 +1883,40 @@
   <si>
     <t>saveTotalRowCount(file,worksheet,saveVar)</t>
   </si>
+  <si>
+    <t>tn.5250</t>
+  </si>
+  <si>
+    <t>ocr(source,saveVar)</t>
+  </si>
+  <si>
+    <t>close(profile)</t>
+  </si>
+  <si>
+    <t>open(profile)</t>
+  </si>
+  <si>
+    <t>saveText(profile,var)</t>
+  </si>
+  <si>
+    <t>typeKeys(profile,keystrokes)</t>
+  </si>
+  <si>
+    <t>updateScreenFields(profile)</t>
+  </si>
+  <si>
+    <t>colorbit(image,bit,saveTo)</t>
+  </si>
+  <si>
+    <t>ocr(image,saveVar)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="299" x14ac:knownFonts="1">
+  <fonts count="331" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -3783,8 +3811,210 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="490">
+  <fills count="544">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -6557,8 +6787,314 @@
         <bgColor rgb="E6E6E6"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="579">
+  <borders count="643">
     <border>
       <left/>
       <right/>
@@ -6595,6 +7131,658 @@
         <color theme="2" tint="-0.749961851863155"/>
       </bottom>
       <diagonal/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
     </border>
     <border>
       <top style="thin"/>
@@ -12471,7 +13659,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="325">
+  <cellXfs count="357">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -13416,52 +14604,148 @@
     <xf applyFill="true" applyFont="true" borderId="0" fillId="462" fontId="282" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="283" fillId="465" borderId="554" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="554" fillId="465" fontId="283" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="284" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="284" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="285" fillId="468" borderId="558" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="558" fillId="468" fontId="285" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="286" fillId="471" borderId="562" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="562" fillId="471" fontId="286" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="287" fillId="474" borderId="566" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="566" fillId="474" fontId="287" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="288" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="288" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="289" fillId="477" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="477" fontId="289" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="290" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="290" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="291" fillId="480" borderId="570" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="570" fillId="480" fontId="291" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="292" fillId="471" borderId="574" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="574" fillId="471" fontId="292" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="293" fillId="483" borderId="578" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="578" fillId="483" fontId="293" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="294" fillId="483" borderId="578" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="578" fillId="483" fontId="294" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="295" fillId="474" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="474" fontId="295" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="296" fillId="486" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="486" fontId="296" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="297" fillId="474" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="474" fontId="297" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="298" fillId="489" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="489" fontId="298" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="586" fillId="492" fontId="299" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="300" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="590" fillId="495" fontId="301" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="594" fillId="498" fontId="302" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="598" fillId="501" fontId="303" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="304" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="504" fontId="305" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="306" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="602" fillId="507" fontId="307" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="606" fillId="498" fontId="308" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="610" fillId="510" fontId="309" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="610" fillId="510" fontId="310" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="501" fontId="311" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="513" fontId="312" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="501" fontId="313" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="516" fontId="314" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="315" fillId="519" borderId="618" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="316" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="317" fillId="522" borderId="622" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="318" fillId="525" borderId="626" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="319" fillId="528" borderId="630" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="320" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="321" fillId="531" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="322" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="323" fillId="534" borderId="634" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="324" fillId="525" borderId="638" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="325" fillId="537" borderId="642" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="326" fillId="537" borderId="642" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="327" fillId="528" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="328" fillId="540" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="329" fillId="528" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="330" fillId="543" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -13816,7 +15100,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AF144"/>
+  <dimension ref="A1:AG144"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
@@ -13904,21 +15188,24 @@
         <v>392</v>
       </c>
       <c r="Z1" t="s">
+        <v>600</v>
+      </c>
+      <c r="AA1" t="s">
         <v>52</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AB1" t="s">
         <v>53</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AC1" t="s">
         <v>54</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AD1" t="s">
         <v>55</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AE1" t="s">
         <v>409</v>
       </c>
-      <c r="AE1" t="s">
+      <c r="AF1" t="s">
         <v>223</v>
       </c>
     </row>
@@ -13954,7 +15241,7 @@
         <v>77</v>
       </c>
       <c r="K2" t="s">
-        <v>456</v>
+        <v>607</v>
       </c>
       <c r="L2" t="s">
         <v>311</v>
@@ -13999,21 +15286,24 @@
         <v>402</v>
       </c>
       <c r="Z2" t="s">
+        <v>602</v>
+      </c>
+      <c r="AA2" t="s">
         <v>94</v>
       </c>
-      <c r="AA2" t="s">
+      <c r="AB2" t="s">
         <v>167</v>
       </c>
-      <c r="AB2" t="s">
+      <c r="AC2" t="s">
         <v>172</v>
       </c>
-      <c r="AC2" t="s">
+      <c r="AD2" t="s">
         <v>179</v>
       </c>
-      <c r="AD2" t="s">
+      <c r="AE2" t="s">
         <v>427</v>
       </c>
-      <c r="AE2" t="s">
+      <c r="AF2" t="s">
         <v>494</v>
       </c>
     </row>
@@ -14085,21 +15375,24 @@
         <v>403</v>
       </c>
       <c r="Z3" t="s">
+        <v>603</v>
+      </c>
+      <c r="AA3" t="s">
         <v>95</v>
       </c>
-      <c r="AA3" t="s">
+      <c r="AB3" t="s">
         <v>168</v>
       </c>
-      <c r="AB3" t="s">
+      <c r="AC3" t="s">
         <v>173</v>
       </c>
-      <c r="AC3" t="s">
+      <c r="AD3" t="s">
         <v>359</v>
       </c>
-      <c r="AD3" t="s">
+      <c r="AE3" t="s">
         <v>180</v>
       </c>
-      <c r="AE3" t="s">
+      <c r="AF3" t="s">
         <v>224</v>
       </c>
     </row>
@@ -14168,21 +15461,24 @@
         <v>404</v>
       </c>
       <c r="Z4" t="s">
+        <v>604</v>
+      </c>
+      <c r="AA4" t="s">
         <v>584</v>
       </c>
-      <c r="AA4" t="s">
+      <c r="AB4" t="s">
         <v>169</v>
       </c>
-      <c r="AB4" t="s">
+      <c r="AC4" t="s">
         <v>174</v>
       </c>
-      <c r="AC4" t="s">
+      <c r="AD4" t="s">
         <v>180</v>
       </c>
-      <c r="AD4" t="s">
+      <c r="AE4" t="s">
         <v>419</v>
       </c>
-      <c r="AE4" t="s">
+      <c r="AF4" t="s">
         <v>225</v>
       </c>
     </row>
@@ -14242,21 +15538,24 @@
         <v>354</v>
       </c>
       <c r="Z5" t="s">
+        <v>605</v>
+      </c>
+      <c r="AA5" t="s">
         <v>577</v>
       </c>
-      <c r="AA5" t="s">
+      <c r="AB5" t="s">
         <v>170</v>
       </c>
-      <c r="AB5" t="s">
+      <c r="AC5" t="s">
         <v>596</v>
       </c>
-      <c r="AC5" t="s">
+      <c r="AD5" t="s">
         <v>181</v>
       </c>
-      <c r="AD5" t="s">
+      <c r="AE5" t="s">
         <v>420</v>
       </c>
-      <c r="AE5" t="s">
+      <c r="AF5" t="s">
         <v>226</v>
       </c>
     </row>
@@ -14286,7 +15585,7 @@
         <v>582</v>
       </c>
       <c r="K6" t="s">
-        <v>344</v>
+        <v>608</v>
       </c>
       <c r="L6" t="s">
         <v>457</v>
@@ -14313,21 +15612,24 @@
         <v>356</v>
       </c>
       <c r="Z6" t="s">
+        <v>606</v>
+      </c>
+      <c r="AA6" t="s">
         <v>96</v>
       </c>
-      <c r="AA6" t="s">
+      <c r="AB6" t="s">
         <v>440</v>
       </c>
-      <c r="AB6" t="s">
+      <c r="AC6" t="s">
         <v>175</v>
       </c>
-      <c r="AC6" t="s">
+      <c r="AD6" t="s">
         <v>182</v>
       </c>
-      <c r="AD6" t="s">
+      <c r="AE6" t="s">
         <v>421</v>
       </c>
-      <c r="AE6" t="s">
+      <c r="AF6" t="s">
         <v>227</v>
       </c>
     </row>
@@ -14348,7 +15650,7 @@
         <v>442</v>
       </c>
       <c r="K7" t="s">
-        <v>530</v>
+        <v>344</v>
       </c>
       <c r="L7" t="s">
         <v>70</v>
@@ -14374,22 +15676,22 @@
       <c r="X7" t="s">
         <v>355</v>
       </c>
-      <c r="Z7" t="s">
+      <c r="AA7" t="s">
         <v>97</v>
       </c>
-      <c r="AA7" t="s">
+      <c r="AB7" t="s">
         <v>441</v>
       </c>
-      <c r="AB7" t="s">
+      <c r="AC7" t="s">
         <v>176</v>
       </c>
-      <c r="AC7" t="s">
+      <c r="AD7" t="s">
         <v>183</v>
       </c>
-      <c r="AD7" t="s">
+      <c r="AE7" t="s">
         <v>422</v>
       </c>
-      <c r="AE7" t="s">
+      <c r="AF7" t="s">
         <v>524</v>
       </c>
     </row>
@@ -14409,6 +15711,9 @@
       <c r="I8" t="s">
         <v>324</v>
       </c>
+      <c r="K8" t="s">
+        <v>530</v>
+      </c>
       <c r="L8" t="s">
         <v>16</v>
       </c>
@@ -14430,22 +15735,22 @@
       <c r="X8" t="s">
         <v>357</v>
       </c>
-      <c r="Z8" t="s">
+      <c r="AA8" t="s">
         <v>98</v>
       </c>
-      <c r="AA8" t="s">
+      <c r="AB8" t="s">
         <v>171</v>
       </c>
-      <c r="AB8" t="s">
+      <c r="AC8" t="s">
         <v>177</v>
       </c>
-      <c r="AC8" t="s">
+      <c r="AD8" t="s">
         <v>184</v>
       </c>
-      <c r="AD8" t="s">
+      <c r="AE8" t="s">
         <v>423</v>
       </c>
-      <c r="AE8" t="s">
+      <c r="AF8" t="s">
         <v>525</v>
       </c>
     </row>
@@ -14486,16 +15791,16 @@
       <c r="X9" t="s">
         <v>358</v>
       </c>
-      <c r="Z9" t="s">
+      <c r="AA9" t="s">
         <v>205</v>
       </c>
-      <c r="AB9" t="s">
+      <c r="AC9" t="s">
         <v>178</v>
       </c>
-      <c r="AC9" t="s">
+      <c r="AD9" t="s">
         <v>185</v>
       </c>
-      <c r="AE9" t="s">
+      <c r="AF9" t="s">
         <v>526</v>
       </c>
     </row>
@@ -14530,16 +15835,16 @@
       <c r="U10" t="s">
         <v>401</v>
       </c>
-      <c r="Z10" t="s">
+      <c r="AA10" t="s">
         <v>253</v>
       </c>
-      <c r="AB10" t="s">
+      <c r="AC10" t="s">
         <v>597</v>
       </c>
-      <c r="AC10" t="s">
+      <c r="AD10" t="s">
         <v>186</v>
       </c>
-      <c r="AE10" t="s">
+      <c r="AF10" t="s">
         <v>228</v>
       </c>
     </row>
@@ -14571,13 +15876,13 @@
       <c r="S11" t="s">
         <v>244</v>
       </c>
-      <c r="Z11" t="s">
+      <c r="AA11" t="s">
         <v>254</v>
       </c>
-      <c r="AC11" t="s">
+      <c r="AD11" t="s">
         <v>255</v>
       </c>
-      <c r="AE11" t="s">
+      <c r="AF11" t="s">
         <v>229</v>
       </c>
     </row>
@@ -14609,13 +15914,13 @@
       <c r="S12" t="s">
         <v>245</v>
       </c>
-      <c r="Z12" t="s">
+      <c r="AA12" t="s">
         <v>99</v>
       </c>
-      <c r="AC12" t="s">
+      <c r="AD12" t="s">
         <v>187</v>
       </c>
-      <c r="AE12" t="s">
+      <c r="AF12" t="s">
         <v>230</v>
       </c>
     </row>
@@ -14644,13 +15949,13 @@
       <c r="S13" t="s">
         <v>589</v>
       </c>
-      <c r="Z13" t="s">
+      <c r="AA13" t="s">
         <v>322</v>
       </c>
-      <c r="AC13" t="s">
+      <c r="AD13" t="s">
         <v>188</v>
       </c>
-      <c r="AE13" t="s">
+      <c r="AF13" t="s">
         <v>469</v>
       </c>
     </row>
@@ -14679,13 +15984,13 @@
       <c r="S14" t="s">
         <v>250</v>
       </c>
-      <c r="Z14" t="s">
+      <c r="AA14" t="s">
         <v>100</v>
       </c>
-      <c r="AC14" t="s">
+      <c r="AD14" t="s">
         <v>189</v>
       </c>
-      <c r="AE14" t="s">
+      <c r="AF14" t="s">
         <v>495</v>
       </c>
     </row>
@@ -14714,13 +16019,13 @@
       <c r="S15" t="s">
         <v>246</v>
       </c>
-      <c r="Z15" t="s">
+      <c r="AA15" t="s">
         <v>590</v>
       </c>
-      <c r="AC15" t="s">
+      <c r="AD15" t="s">
         <v>190</v>
       </c>
-      <c r="AE15" t="s">
+      <c r="AF15" t="s">
         <v>496</v>
       </c>
     </row>
@@ -14749,13 +16054,13 @@
       <c r="S16" t="s">
         <v>247</v>
       </c>
-      <c r="Z16" t="s">
+      <c r="AA16" t="s">
         <v>101</v>
       </c>
-      <c r="AC16" t="s">
+      <c r="AD16" t="s">
         <v>191</v>
       </c>
-      <c r="AE16" t="s">
+      <c r="AF16" t="s">
         <v>497</v>
       </c>
     </row>
@@ -14778,13 +16083,13 @@
       <c r="S17" t="s">
         <v>248</v>
       </c>
-      <c r="Z17" t="s">
+      <c r="AA17" t="s">
         <v>73</v>
       </c>
-      <c r="AC17" t="s">
+      <c r="AD17" t="s">
         <v>462</v>
       </c>
-      <c r="AE17" t="s">
+      <c r="AF17" t="s">
         <v>498</v>
       </c>
     </row>
@@ -14804,10 +16109,10 @@
       <c r="N18" t="s">
         <v>42</v>
       </c>
-      <c r="Z18" t="s">
+      <c r="AA18" t="s">
         <v>488</v>
       </c>
-      <c r="AE18" t="s">
+      <c r="AF18" t="s">
         <v>470</v>
       </c>
     </row>
@@ -14824,10 +16129,10 @@
       <c r="L19" t="s">
         <v>458</v>
       </c>
-      <c r="Z19" t="s">
+      <c r="AA19" t="s">
         <v>102</v>
       </c>
-      <c r="AE19" t="s">
+      <c r="AF19" t="s">
         <v>499</v>
       </c>
     </row>
@@ -14844,10 +16149,10 @@
       <c r="L20" t="s">
         <v>81</v>
       </c>
-      <c r="Z20" t="s">
+      <c r="AA20" t="s">
         <v>103</v>
       </c>
-      <c r="AE20" t="s">
+      <c r="AF20" t="s">
         <v>500</v>
       </c>
     </row>
@@ -14864,10 +16169,10 @@
       <c r="L21" t="s">
         <v>82</v>
       </c>
-      <c r="Z21" t="s">
+      <c r="AA21" t="s">
         <v>104</v>
       </c>
-      <c r="AE21" t="s">
+      <c r="AF21" t="s">
         <v>501</v>
       </c>
     </row>
@@ -14884,10 +16189,10 @@
       <c r="L22" t="s">
         <v>581</v>
       </c>
-      <c r="Z22" t="s">
+      <c r="AA22" t="s">
         <v>105</v>
       </c>
-      <c r="AE22" t="s">
+      <c r="AF22" t="s">
         <v>231</v>
       </c>
     </row>
@@ -14904,10 +16209,10 @@
       <c r="L23" t="s">
         <v>465</v>
       </c>
-      <c r="Z23" t="s">
+      <c r="AA23" t="s">
         <v>489</v>
       </c>
-      <c r="AE23" t="s">
+      <c r="AF23" t="s">
         <v>527</v>
       </c>
     </row>
@@ -14924,10 +16229,10 @@
       <c r="L24" t="s">
         <v>43</v>
       </c>
-      <c r="Z24" t="s">
+      <c r="AA24" t="s">
         <v>106</v>
       </c>
-      <c r="AE24" t="s">
+      <c r="AF24" t="s">
         <v>528</v>
       </c>
     </row>
@@ -14944,16 +16249,16 @@
       <c r="L25" t="s">
         <v>387</v>
       </c>
-      <c r="Z25" t="s">
+      <c r="AA25" t="s">
         <v>567</v>
       </c>
-      <c r="AE25" t="s">
+      <c r="AF25" t="s">
         <v>529</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>52</v>
+        <v>600</v>
       </c>
       <c r="F26" t="s">
         <v>444</v>
@@ -14964,16 +16269,16 @@
       <c r="L26" t="s">
         <v>519</v>
       </c>
-      <c r="Z26" t="s">
+      <c r="AA26" t="s">
         <v>107</v>
       </c>
-      <c r="AE26" t="s">
+      <c r="AF26" t="s">
         <v>232</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F27" t="s">
         <v>221</v>
@@ -14984,16 +16289,16 @@
       <c r="L27" t="s">
         <v>83</v>
       </c>
-      <c r="Z27" t="s">
+      <c r="AA27" t="s">
         <v>108</v>
       </c>
-      <c r="AE27" t="s">
+      <c r="AF27" t="s">
         <v>233</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F28" t="s">
         <v>222</v>
@@ -15004,13 +16309,13 @@
       <c r="L28" t="s">
         <v>429</v>
       </c>
-      <c r="Z28" t="s">
+      <c r="AA28" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F29" t="s">
         <v>463</v>
@@ -15021,13 +16326,13 @@
       <c r="L29" t="s">
         <v>44</v>
       </c>
-      <c r="Z29" t="s">
+      <c r="AA29" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>409</v>
+        <v>55</v>
       </c>
       <c r="F30" t="s">
         <v>464</v>
@@ -15038,13 +16343,13 @@
       <c r="L30" t="s">
         <v>45</v>
       </c>
-      <c r="Z30" t="s">
+      <c r="AA30" t="s">
         <v>323</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>223</v>
+        <v>409</v>
       </c>
       <c r="F31" t="s">
         <v>411</v>
@@ -15052,18 +16357,21 @@
       <c r="H31" t="s">
         <v>212</v>
       </c>
-      <c r="Z31" t="s">
+      <c r="AA31" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="32">
+      <c r="A32" t="s">
+        <v>223</v>
+      </c>
       <c r="F32" t="s">
         <v>62</v>
       </c>
       <c r="H32" t="s">
         <v>271</v>
       </c>
-      <c r="Z32" t="s">
+      <c r="AA32" t="s">
         <v>112</v>
       </c>
     </row>
@@ -15074,7 +16382,7 @@
       <c r="H33" t="s">
         <v>281</v>
       </c>
-      <c r="Z33" t="s">
+      <c r="AA33" t="s">
         <v>113</v>
       </c>
     </row>
@@ -15085,7 +16393,7 @@
       <c r="H34" t="s">
         <v>504</v>
       </c>
-      <c r="Z34" t="s">
+      <c r="AA34" t="s">
         <v>114</v>
       </c>
     </row>
@@ -15096,7 +16404,7 @@
       <c r="H35" t="s">
         <v>256</v>
       </c>
-      <c r="Z35" t="s">
+      <c r="AA35" t="s">
         <v>568</v>
       </c>
     </row>
@@ -15107,7 +16415,7 @@
       <c r="H36" t="s">
         <v>326</v>
       </c>
-      <c r="Z36" t="s">
+      <c r="AA36" t="s">
         <v>115</v>
       </c>
     </row>
@@ -15118,7 +16426,7 @@
       <c r="H37" t="s">
         <v>303</v>
       </c>
-      <c r="Z37" t="s">
+      <c r="AA37" t="s">
         <v>116</v>
       </c>
     </row>
@@ -15129,7 +16437,7 @@
       <c r="H38" t="s">
         <v>257</v>
       </c>
-      <c r="Z38" t="s">
+      <c r="AA38" t="s">
         <v>206</v>
       </c>
     </row>
@@ -15140,7 +16448,7 @@
       <c r="H39" t="s">
         <v>304</v>
       </c>
-      <c r="Z39" t="s">
+      <c r="AA39" t="s">
         <v>117</v>
       </c>
     </row>
@@ -15148,7 +16456,7 @@
       <c r="H40" t="s">
         <v>263</v>
       </c>
-      <c r="Z40" t="s">
+      <c r="AA40" t="s">
         <v>334</v>
       </c>
     </row>
@@ -15156,7 +16464,7 @@
       <c r="H41" t="s">
         <v>76</v>
       </c>
-      <c r="Z41" t="s">
+      <c r="AA41" t="s">
         <v>433</v>
       </c>
     </row>
@@ -15164,7 +16472,7 @@
       <c r="H42" t="s">
         <v>208</v>
       </c>
-      <c r="Z42" t="s">
+      <c r="AA42" t="s">
         <v>578</v>
       </c>
     </row>
@@ -15172,7 +16480,7 @@
       <c r="H43" t="s">
         <v>534</v>
       </c>
-      <c r="Z43" t="s">
+      <c r="AA43" t="s">
         <v>388</v>
       </c>
     </row>
@@ -15180,7 +16488,7 @@
       <c r="H44" t="s">
         <v>285</v>
       </c>
-      <c r="Z44" t="s">
+      <c r="AA44" t="s">
         <v>118</v>
       </c>
     </row>
@@ -15188,7 +16496,7 @@
       <c r="H45" t="s">
         <v>296</v>
       </c>
-      <c r="Z45" t="s">
+      <c r="AA45" t="s">
         <v>119</v>
       </c>
     </row>
@@ -15196,7 +16504,7 @@
       <c r="H46" t="s">
         <v>297</v>
       </c>
-      <c r="Z46" t="s">
+      <c r="AA46" t="s">
         <v>120</v>
       </c>
     </row>
@@ -15204,7 +16512,7 @@
       <c r="H47" t="s">
         <v>339</v>
       </c>
-      <c r="Z47" t="s">
+      <c r="AA47" t="s">
         <v>121</v>
       </c>
     </row>
@@ -15212,7 +16520,7 @@
       <c r="H48" t="s">
         <v>338</v>
       </c>
-      <c r="Z48" t="s">
+      <c r="AA48" t="s">
         <v>122</v>
       </c>
     </row>
@@ -15220,7 +16528,7 @@
       <c r="H49" t="s">
         <v>207</v>
       </c>
-      <c r="Z49" t="s">
+      <c r="AA49" t="s">
         <v>123</v>
       </c>
     </row>
@@ -15228,7 +16536,7 @@
       <c r="H50" t="s">
         <v>316</v>
       </c>
-      <c r="Z50" t="s">
+      <c r="AA50" t="s">
         <v>434</v>
       </c>
     </row>
@@ -15236,7 +16544,7 @@
       <c r="H51" t="s">
         <v>335</v>
       </c>
-      <c r="Z51" t="s">
+      <c r="AA51" t="s">
         <v>209</v>
       </c>
     </row>
@@ -15244,7 +16552,7 @@
       <c r="H52" t="s">
         <v>363</v>
       </c>
-      <c r="Z52" t="s">
+      <c r="AA52" t="s">
         <v>75</v>
       </c>
     </row>
@@ -15252,7 +16560,7 @@
       <c r="H53" t="s">
         <v>298</v>
       </c>
-      <c r="Z53" t="s">
+      <c r="AA53" t="s">
         <v>531</v>
       </c>
     </row>
@@ -15260,7 +16568,7 @@
       <c r="H54" t="s">
         <v>351</v>
       </c>
-      <c r="Z54" t="s">
+      <c r="AA54" t="s">
         <v>124</v>
       </c>
     </row>
@@ -15268,7 +16576,7 @@
       <c r="H55" t="s">
         <v>327</v>
       </c>
-      <c r="Z55" t="s">
+      <c r="AA55" t="s">
         <v>125</v>
       </c>
     </row>
@@ -15276,7 +16584,7 @@
       <c r="H56" t="s">
         <v>264</v>
       </c>
-      <c r="Z56" t="s">
+      <c r="AA56" t="s">
         <v>126</v>
       </c>
     </row>
@@ -15284,7 +16592,7 @@
       <c r="H57" t="s">
         <v>288</v>
       </c>
-      <c r="Z57" t="s">
+      <c r="AA57" t="s">
         <v>490</v>
       </c>
     </row>
@@ -15292,7 +16600,7 @@
       <c r="H58" t="s">
         <v>289</v>
       </c>
-      <c r="Z58" t="s">
+      <c r="AA58" t="s">
         <v>459</v>
       </c>
     </row>
@@ -15300,7 +16608,7 @@
       <c r="H59" t="s">
         <v>535</v>
       </c>
-      <c r="Z59" t="s">
+      <c r="AA59" t="s">
         <v>127</v>
       </c>
     </row>
@@ -15308,7 +16616,7 @@
       <c r="H60" t="s">
         <v>290</v>
       </c>
-      <c r="Z60" t="s">
+      <c r="AA60" t="s">
         <v>342</v>
       </c>
     </row>
@@ -15316,7 +16624,7 @@
       <c r="H61" t="s">
         <v>299</v>
       </c>
-      <c r="Z61" t="s">
+      <c r="AA61" t="s">
         <v>460</v>
       </c>
     </row>
@@ -15324,7 +16632,7 @@
       <c r="H62" t="s">
         <v>308</v>
       </c>
-      <c r="Z62" t="s">
+      <c r="AA62" t="s">
         <v>128</v>
       </c>
     </row>
@@ -15332,7 +16640,7 @@
       <c r="H63" t="s">
         <v>333</v>
       </c>
-      <c r="Z63" t="s">
+      <c r="AA63" t="s">
         <v>129</v>
       </c>
     </row>
@@ -15340,7 +16648,7 @@
       <c r="H64" t="s">
         <v>305</v>
       </c>
-      <c r="Z64" t="s">
+      <c r="AA64" t="s">
         <v>130</v>
       </c>
     </row>
@@ -15348,7 +16656,7 @@
       <c r="H65" t="s">
         <v>306</v>
       </c>
-      <c r="Z65" t="s">
+      <c r="AA65" t="s">
         <v>131</v>
       </c>
     </row>
@@ -15356,7 +16664,7 @@
       <c r="H66" t="s">
         <v>364</v>
       </c>
-      <c r="Z66" t="s">
+      <c r="AA66" t="s">
         <v>132</v>
       </c>
     </row>
@@ -15364,7 +16672,7 @@
       <c r="H67" t="s">
         <v>365</v>
       </c>
-      <c r="Z67" t="s">
+      <c r="AA67" t="s">
         <v>133</v>
       </c>
     </row>
@@ -15372,7 +16680,7 @@
       <c r="H68" t="s">
         <v>341</v>
       </c>
-      <c r="Z68" t="s">
+      <c r="AA68" t="s">
         <v>134</v>
       </c>
     </row>
@@ -15380,7 +16688,7 @@
       <c r="H69" t="s">
         <v>309</v>
       </c>
-      <c r="Z69" t="s">
+      <c r="AA69" t="s">
         <v>435</v>
       </c>
     </row>
@@ -15388,7 +16696,7 @@
       <c r="H70" t="s">
         <v>265</v>
       </c>
-      <c r="Z70" t="s">
+      <c r="AA70" t="s">
         <v>468</v>
       </c>
     </row>
@@ -15396,7 +16704,7 @@
       <c r="H71" t="s">
         <v>520</v>
       </c>
-      <c r="Z71" t="s">
+      <c r="AA71" t="s">
         <v>210</v>
       </c>
     </row>
@@ -15404,7 +16712,7 @@
       <c r="H72" t="s">
         <v>310</v>
       </c>
-      <c r="Z72" t="s">
+      <c r="AA72" t="s">
         <v>384</v>
       </c>
     </row>
@@ -15412,7 +16720,7 @@
       <c r="H73" t="s">
         <v>405</v>
       </c>
-      <c r="Z73" t="s">
+      <c r="AA73" t="s">
         <v>436</v>
       </c>
     </row>
@@ -15420,7 +16728,7 @@
       <c r="H74" t="s">
         <v>300</v>
       </c>
-      <c r="Z74" t="s">
+      <c r="AA74" t="s">
         <v>135</v>
       </c>
     </row>
@@ -15428,7 +16736,7 @@
       <c r="H75" t="s">
         <v>406</v>
       </c>
-      <c r="Z75" t="s">
+      <c r="AA75" t="s">
         <v>136</v>
       </c>
     </row>
@@ -15436,7 +16744,7 @@
       <c r="H76" t="s">
         <v>258</v>
       </c>
-      <c r="Z76" t="s">
+      <c r="AA76" t="s">
         <v>137</v>
       </c>
     </row>
@@ -15444,7 +16752,7 @@
       <c r="H77" t="s">
         <v>505</v>
       </c>
-      <c r="Z77" t="s">
+      <c r="AA77" t="s">
         <v>138</v>
       </c>
     </row>
@@ -15452,7 +16760,7 @@
       <c r="H78" t="s">
         <v>340</v>
       </c>
-      <c r="Z78" t="s">
+      <c r="AA78" t="s">
         <v>193</v>
       </c>
     </row>
@@ -15460,7 +16768,7 @@
       <c r="H79" t="s">
         <v>276</v>
       </c>
-      <c r="Z79" t="s">
+      <c r="AA79" t="s">
         <v>194</v>
       </c>
     </row>
@@ -15468,7 +16776,7 @@
       <c r="H80" t="s">
         <v>282</v>
       </c>
-      <c r="Z80" t="s">
+      <c r="AA80" t="s">
         <v>448</v>
       </c>
     </row>
@@ -15476,7 +16784,7 @@
       <c r="H81" t="s">
         <v>287</v>
       </c>
-      <c r="Z81" t="s">
+      <c r="AA81" t="s">
         <v>461</v>
       </c>
     </row>
@@ -15484,7 +16792,7 @@
       <c r="H82" t="s">
         <v>424</v>
       </c>
-      <c r="Z82" t="s">
+      <c r="AA82" t="s">
         <v>139</v>
       </c>
     </row>
@@ -15492,7 +16800,7 @@
       <c r="H83" t="s">
         <v>328</v>
       </c>
-      <c r="Z83" t="s">
+      <c r="AA83" t="s">
         <v>140</v>
       </c>
     </row>
@@ -15500,7 +16808,7 @@
       <c r="H84" t="s">
         <v>266</v>
       </c>
-      <c r="Z84" t="s">
+      <c r="AA84" t="s">
         <v>141</v>
       </c>
     </row>
@@ -15508,7 +16816,7 @@
       <c r="H85" t="s">
         <v>277</v>
       </c>
-      <c r="Z85" t="s">
+      <c r="AA85" t="s">
         <v>491</v>
       </c>
     </row>
@@ -15516,7 +16824,7 @@
       <c r="H86" t="s">
         <v>283</v>
       </c>
-      <c r="Z86" t="s">
+      <c r="AA86" t="s">
         <v>142</v>
       </c>
     </row>
@@ -15524,7 +16832,7 @@
       <c r="H87" t="s">
         <v>272</v>
       </c>
-      <c r="Z87" t="s">
+      <c r="AA87" t="s">
         <v>143</v>
       </c>
     </row>
@@ -15532,7 +16840,7 @@
       <c r="H88" t="s">
         <v>523</v>
       </c>
-      <c r="Z88" t="s">
+      <c r="AA88" t="s">
         <v>195</v>
       </c>
     </row>
@@ -15540,7 +16848,7 @@
       <c r="H89" t="s">
         <v>267</v>
       </c>
-      <c r="Z89" t="s">
+      <c r="AA89" t="s">
         <v>492</v>
       </c>
     </row>
@@ -15548,7 +16856,7 @@
       <c r="H90" t="s">
         <v>284</v>
       </c>
-      <c r="Z90" t="s">
+      <c r="AA90" t="s">
         <v>587</v>
       </c>
     </row>
@@ -15556,7 +16864,7 @@
       <c r="H91" t="s">
         <v>268</v>
       </c>
-      <c r="Z91" t="s">
+      <c r="AA91" t="s">
         <v>196</v>
       </c>
     </row>
@@ -15564,7 +16872,7 @@
       <c r="H92" t="s">
         <v>269</v>
       </c>
-      <c r="Z92" t="s">
+      <c r="AA92" t="s">
         <v>449</v>
       </c>
     </row>
@@ -15572,7 +16880,7 @@
       <c r="H93" t="s">
         <v>301</v>
       </c>
-      <c r="Z93" t="s">
+      <c r="AA93" t="s">
         <v>197</v>
       </c>
     </row>
@@ -15580,7 +16888,7 @@
       <c r="H94" t="s">
         <v>307</v>
       </c>
-      <c r="Z94" t="s">
+      <c r="AA94" t="s">
         <v>198</v>
       </c>
     </row>
@@ -15588,7 +16896,7 @@
       <c r="H95" t="s">
         <v>291</v>
       </c>
-      <c r="Z95" t="s">
+      <c r="AA95" t="s">
         <v>572</v>
       </c>
     </row>
@@ -15596,7 +16904,7 @@
       <c r="H96" t="s">
         <v>336</v>
       </c>
-      <c r="Z96" t="s">
+      <c r="AA96" t="s">
         <v>573</v>
       </c>
     </row>
@@ -15604,7 +16912,7 @@
       <c r="H97" t="s">
         <v>273</v>
       </c>
-      <c r="Z97" t="s">
+      <c r="AA97" t="s">
         <v>211</v>
       </c>
     </row>
@@ -15612,237 +16920,237 @@
       <c r="H98" t="s">
         <v>274</v>
       </c>
-      <c r="Z98" t="s">
+      <c r="AA98" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="99">
-      <c r="Z99" t="s">
+      <c r="AA99" t="s">
         <v>199</v>
       </c>
     </row>
     <row r="100">
-      <c r="Z100" t="s">
+      <c r="AA100" t="s">
         <v>437</v>
       </c>
     </row>
     <row r="101">
-      <c r="Z101" t="s">
+      <c r="AA101" t="s">
         <v>585</v>
       </c>
     </row>
     <row r="102">
-      <c r="Z102" t="s">
+      <c r="AA102" t="s">
         <v>586</v>
       </c>
     </row>
     <row r="103">
-      <c r="Z103" t="s">
+      <c r="AA103" t="s">
         <v>438</v>
       </c>
     </row>
     <row r="104">
-      <c r="Z104" t="s">
+      <c r="AA104" t="s">
         <v>200</v>
       </c>
     </row>
     <row r="105">
-      <c r="Z105" t="s">
+      <c r="AA105" t="s">
         <v>201</v>
       </c>
     </row>
     <row r="106">
-      <c r="Z106" t="s">
+      <c r="AA106" t="s">
         <v>202</v>
       </c>
     </row>
     <row r="107">
-      <c r="Z107" t="s">
+      <c r="AA107" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="108">
-      <c r="Z108" t="s">
+      <c r="AA108" t="s">
         <v>219</v>
       </c>
     </row>
     <row r="109">
-      <c r="Z109" t="s">
+      <c r="AA109" t="s">
         <v>591</v>
       </c>
     </row>
     <row r="110">
-      <c r="Z110" t="s">
+      <c r="AA110" t="s">
         <v>204</v>
       </c>
     </row>
     <row r="111">
-      <c r="Z111" t="s">
+      <c r="AA111" t="s">
         <v>493</v>
       </c>
     </row>
     <row r="112">
-      <c r="Z112" t="s">
+      <c r="AA112" t="s">
         <v>579</v>
       </c>
     </row>
     <row r="113">
-      <c r="Z113" t="s">
+      <c r="AA113" t="s">
         <v>517</v>
       </c>
     </row>
     <row r="114">
-      <c r="Z114" t="s">
+      <c r="AA114" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="115">
-      <c r="Z115" t="s">
+      <c r="AA115" t="s">
         <v>518</v>
       </c>
     </row>
     <row r="116">
-      <c r="Z116" t="s">
+      <c r="AA116" t="s">
         <v>378</v>
       </c>
     </row>
     <row r="117">
-      <c r="Z117" t="s">
+      <c r="AA117" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="118">
-      <c r="Z118" t="s">
+      <c r="AA118" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="119">
-      <c r="Z119" t="s">
+      <c r="AA119" t="s">
         <v>592</v>
       </c>
     </row>
     <row r="120">
-      <c r="Z120" t="s">
+      <c r="AA120" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="121">
-      <c r="Z121" t="s">
+      <c r="AA121" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="122">
-      <c r="Z122" t="s">
+      <c r="AA122" t="s">
         <v>593</v>
       </c>
     </row>
     <row r="123">
-      <c r="Z123" t="s">
+      <c r="AA123" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="124">
-      <c r="Z124" t="s">
+      <c r="AA124" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="125">
-      <c r="Z125" t="s">
+      <c r="AA125" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="126">
-      <c r="Z126" t="s">
+      <c r="AA126" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="127">
-      <c r="Z127" t="s">
+      <c r="AA127" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="128">
-      <c r="Z128" t="s">
+      <c r="AA128" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="129">
-      <c r="Z129" t="s">
+      <c r="AA129" t="s">
         <v>594</v>
       </c>
     </row>
     <row r="130">
-      <c r="Z130" t="s">
+      <c r="AA130" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="131">
-      <c r="Z131" t="s">
+      <c r="AA131" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="132">
-      <c r="Z132" t="s">
+      <c r="AA132" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="133">
-      <c r="Z133" t="s">
+      <c r="AA133" t="s">
         <v>439</v>
       </c>
     </row>
     <row r="134">
-      <c r="Z134" t="s">
+      <c r="AA134" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="135">
-      <c r="Z135" t="s">
+      <c r="AA135" t="s">
         <v>569</v>
       </c>
     </row>
     <row r="136">
-      <c r="Z136" t="s">
+      <c r="AA136" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="137">
-      <c r="Z137" t="s">
+      <c r="AA137" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="138">
-      <c r="Z138" t="s">
+      <c r="AA138" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="139">
-      <c r="Z139" t="s">
+      <c r="AA139" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="140">
-      <c r="Z140" t="s">
+      <c r="AA140" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="141">
-      <c r="Z141" t="s">
+      <c r="AA141" t="s">
         <v>595</v>
       </c>
     </row>
     <row r="142">
-      <c r="Z142" t="s">
+      <c r="AA142" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="143">
-      <c r="Z143" t="s">
+      <c r="AA143" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="144">
-      <c r="Z144" t="s">
+      <c r="AA144" t="s">
         <v>166</v>
       </c>
     </row>

--- a/src/test/resources/unittesting/artifact/script/unitTest_LocalDb.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_LocalDb.xlsx
@@ -31,7 +31,7 @@
     <definedName name="io">'#system'!$L$2:$L$30</definedName>
     <definedName name="jms">'#system'!$M$2:$M$4</definedName>
     <definedName name="json">'#system'!$N$2:$N$18</definedName>
-    <definedName name="localdb">'#system'!$O$2:$O$12</definedName>
+    <definedName name="localdb">'#system'!$O$2:$O$13</definedName>
     <definedName name="macro">'#system'!$P$2:$P$4</definedName>
     <definedName name="mail">'#system'!$Q$2:$Q$2</definedName>
     <definedName name="math">'#system'!$K$2:$K$13</definedName>
@@ -39,7 +39,7 @@
     <definedName name="nextgen">'#system'!$K$2:$K$28</definedName>
     <definedName name="number">'#system'!$R$2:$R$16</definedName>
     <definedName name="pdf">'#system'!$S$2:$S$17</definedName>
-    <definedName name="rdbms">'#system'!$T$2:$T$7</definedName>
+    <definedName name="rdbms">'#system'!$T$2:$T$9</definedName>
     <definedName name="redis">'#system'!$U$2:$U$10</definedName>
     <definedName name="sms">'#system'!$V$2:$V$2</definedName>
     <definedName name="sound">'#system'!$W$2:$W$5</definedName>
@@ -47,7 +47,7 @@
     <definedName name="step">'#system'!$Y$2:$Y$4</definedName>
     <definedName name="target">'#system'!$A$2:$A$32</definedName>
     <definedName name="text">'#system'!$Y$2:$Y$2</definedName>
-    <definedName name="web">'#system'!$AA$2:$AA$144</definedName>
+    <definedName name="web">'#system'!$AA$2:$AA$145</definedName>
     <definedName name="webalert">'#system'!$AB$2:$AB$8</definedName>
     <definedName name="webcookie">'#system'!$AC$2:$AC$10</definedName>
     <definedName name="ws">'#system'!$AD$2:$AD$17</definedName>
@@ -55,6 +55,7 @@
     <definedName name="xml">'#system'!$AF$2:$AF$27</definedName>
     <definedName name="aws.vision">'#system'!$E$2:$E$2</definedName>
     <definedName name="tn.5250">'#system'!$Z$2:$Z$6</definedName>
+    <definedName name="step.inTime">'#system'!$Z$2:$Z$4</definedName>
   </definedNames>
   <calcPr calcId="150000"/>
   <extLst>
@@ -69,7 +70,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11913" uniqueCount="609">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12500" uniqueCount="619">
   <si>
     <t>description</t>
   </si>
@@ -1910,13 +1911,43 @@
   <si>
     <t>ocr(image,saveVar)</t>
   </si>
+  <si>
+    <t>step.inTime</t>
+  </si>
+  <si>
+    <t>queryAsCSV(var,sql)</t>
+  </si>
+  <si>
+    <t>assertResultMatch(var,columns,search)</t>
+  </si>
+  <si>
+    <t>assertResultNotMatch(var,columns,search)</t>
+  </si>
+  <si>
+    <t>observe(prompt,waitMs)</t>
+  </si>
+  <si>
+    <t>perform(instructions,waitMs)</t>
+  </si>
+  <si>
+    <t>validate(prompt,responses,passResponses,waitMs)</t>
+  </si>
+  <si>
+    <t>assertElementDisabled(locator)</t>
+  </si>
+  <si>
+    <t>checkAll(locator,waitMs)</t>
+  </si>
+  <si>
+    <t>uncheckAll(locator,waitMs)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="331" x14ac:knownFonts="1">
+  <fonts count="347" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -4013,8 +4044,109 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="544">
+  <fills count="571">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -7093,8 +7225,161 @@
         <bgColor rgb="E6E6E6"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="643">
+  <borders count="675">
     <border>
       <left/>
       <right/>
@@ -7131,6 +7416,332 @@
         <color theme="2" tint="-0.749961851863155"/>
       </bottom>
       <diagonal/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
     </border>
     <border>
       <top style="thin"/>
@@ -13659,7 +14270,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="357">
+  <cellXfs count="373">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -14700,52 +15311,100 @@
     <xf applyFill="true" applyFont="true" borderId="0" fillId="516" fontId="314" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="315" fillId="519" borderId="618" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="618" fillId="519" fontId="315" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="316" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="316" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="317" fillId="522" borderId="622" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="622" fillId="522" fontId="317" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="318" fillId="525" borderId="626" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="626" fillId="525" fontId="318" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="319" fillId="528" borderId="630" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="630" fillId="528" fontId="319" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="320" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="320" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="321" fillId="531" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="531" fontId="321" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="322" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="322" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="323" fillId="534" borderId="634" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="634" fillId="534" fontId="323" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="324" fillId="525" borderId="638" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="638" fillId="525" fontId="324" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="325" fillId="537" borderId="642" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="642" fillId="537" fontId="325" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="326" fillId="537" borderId="642" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="642" fillId="537" fontId="326" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="327" fillId="528" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="528" fontId="327" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="328" fillId="540" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="540" fontId="328" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="329" fillId="528" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="528" fontId="329" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="330" fillId="543" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="543" fontId="330" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="331" fillId="546" borderId="650" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="332" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="333" fillId="549" borderId="654" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="334" fillId="552" borderId="658" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="335" fillId="555" borderId="662" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="336" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="337" fillId="558" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="338" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="339" fillId="561" borderId="666" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="340" fillId="552" borderId="670" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="341" fillId="564" borderId="674" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="342" fillId="564" borderId="674" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="343" fillId="555" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="344" fillId="567" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="345" fillId="555" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="346" fillId="570" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -15100,7 +15759,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AG144"/>
+  <dimension ref="A1:AG145"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
@@ -15188,7 +15847,7 @@
         <v>392</v>
       </c>
       <c r="Z1" t="s">
-        <v>600</v>
+        <v>609</v>
       </c>
       <c r="AA1" t="s">
         <v>52</v>
@@ -15268,7 +15927,7 @@
         <v>249</v>
       </c>
       <c r="T2" t="s">
-        <v>213</v>
+        <v>611</v>
       </c>
       <c r="U2" t="s">
         <v>393</v>
@@ -15286,7 +15945,7 @@
         <v>402</v>
       </c>
       <c r="Z2" t="s">
-        <v>602</v>
+        <v>613</v>
       </c>
       <c r="AA2" t="s">
         <v>94</v>
@@ -15360,7 +16019,7 @@
         <v>236</v>
       </c>
       <c r="T3" t="s">
-        <v>214</v>
+        <v>612</v>
       </c>
       <c r="U3" t="s">
         <v>394</v>
@@ -15375,7 +16034,7 @@
         <v>403</v>
       </c>
       <c r="Z3" t="s">
-        <v>603</v>
+        <v>614</v>
       </c>
       <c r="AA3" t="s">
         <v>95</v>
@@ -15446,7 +16105,7 @@
         <v>237</v>
       </c>
       <c r="T4" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="U4" t="s">
         <v>395</v>
@@ -15461,7 +16120,7 @@
         <v>404</v>
       </c>
       <c r="Z4" t="s">
-        <v>604</v>
+        <v>615</v>
       </c>
       <c r="AA4" t="s">
         <v>584</v>
@@ -15526,7 +16185,7 @@
         <v>238</v>
       </c>
       <c r="T5" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="U5" t="s">
         <v>396</v>
@@ -15536,9 +16195,6 @@
       </c>
       <c r="X5" t="s">
         <v>354</v>
-      </c>
-      <c r="Z5" t="s">
-        <v>605</v>
       </c>
       <c r="AA5" t="s">
         <v>577</v>
@@ -15603,16 +16259,13 @@
         <v>239</v>
       </c>
       <c r="T6" t="s">
-        <v>386</v>
+        <v>215</v>
       </c>
       <c r="U6" t="s">
         <v>397</v>
       </c>
       <c r="X6" t="s">
         <v>356</v>
-      </c>
-      <c r="Z6" t="s">
-        <v>606</v>
       </c>
       <c r="AA6" t="s">
         <v>96</v>
@@ -15668,7 +16321,7 @@
         <v>240</v>
       </c>
       <c r="T7" t="s">
-        <v>413</v>
+        <v>216</v>
       </c>
       <c r="U7" t="s">
         <v>398</v>
@@ -15729,6 +16382,9 @@
       <c r="S8" t="s">
         <v>241</v>
       </c>
+      <c r="T8" t="s">
+        <v>386</v>
+      </c>
       <c r="U8" t="s">
         <v>399</v>
       </c>
@@ -15785,6 +16441,9 @@
       <c r="S9" t="s">
         <v>242</v>
       </c>
+      <c r="T9" t="s">
+        <v>413</v>
+      </c>
       <c r="U9" t="s">
         <v>400</v>
       </c>
@@ -15906,7 +16565,7 @@
         <v>532</v>
       </c>
       <c r="O12" t="s">
-        <v>516</v>
+        <v>610</v>
       </c>
       <c r="R12" t="s">
         <v>40</v>
@@ -15943,6 +16602,9 @@
       <c r="N13" t="s">
         <v>431</v>
       </c>
+      <c r="O13" t="s">
+        <v>516</v>
+      </c>
       <c r="R13" t="s">
         <v>92</v>
       </c>
@@ -16020,7 +16682,7 @@
         <v>246</v>
       </c>
       <c r="AA15" t="s">
-        <v>590</v>
+        <v>616</v>
       </c>
       <c r="AD15" t="s">
         <v>190</v>
@@ -16055,7 +16717,7 @@
         <v>247</v>
       </c>
       <c r="AA16" t="s">
-        <v>101</v>
+        <v>590</v>
       </c>
       <c r="AD16" t="s">
         <v>191</v>
@@ -16084,7 +16746,7 @@
         <v>248</v>
       </c>
       <c r="AA17" t="s">
-        <v>73</v>
+        <v>101</v>
       </c>
       <c r="AD17" t="s">
         <v>462</v>
@@ -16110,7 +16772,7 @@
         <v>42</v>
       </c>
       <c r="AA18" t="s">
-        <v>488</v>
+        <v>73</v>
       </c>
       <c r="AF18" t="s">
         <v>470</v>
@@ -16130,7 +16792,7 @@
         <v>458</v>
       </c>
       <c r="AA19" t="s">
-        <v>102</v>
+        <v>488</v>
       </c>
       <c r="AF19" t="s">
         <v>499</v>
@@ -16150,7 +16812,7 @@
         <v>81</v>
       </c>
       <c r="AA20" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="AF20" t="s">
         <v>500</v>
@@ -16170,7 +16832,7 @@
         <v>82</v>
       </c>
       <c r="AA21" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AF21" t="s">
         <v>501</v>
@@ -16190,7 +16852,7 @@
         <v>581</v>
       </c>
       <c r="AA22" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="AF22" t="s">
         <v>231</v>
@@ -16210,7 +16872,7 @@
         <v>465</v>
       </c>
       <c r="AA23" t="s">
-        <v>489</v>
+        <v>105</v>
       </c>
       <c r="AF23" t="s">
         <v>527</v>
@@ -16230,7 +16892,7 @@
         <v>43</v>
       </c>
       <c r="AA24" t="s">
-        <v>106</v>
+        <v>489</v>
       </c>
       <c r="AF24" t="s">
         <v>528</v>
@@ -16250,7 +16912,7 @@
         <v>387</v>
       </c>
       <c r="AA25" t="s">
-        <v>567</v>
+        <v>106</v>
       </c>
       <c r="AF25" t="s">
         <v>529</v>
@@ -16258,7 +16920,7 @@
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>600</v>
+        <v>609</v>
       </c>
       <c r="F26" t="s">
         <v>444</v>
@@ -16270,7 +16932,7 @@
         <v>519</v>
       </c>
       <c r="AA26" t="s">
-        <v>107</v>
+        <v>567</v>
       </c>
       <c r="AF26" t="s">
         <v>232</v>
@@ -16290,7 +16952,7 @@
         <v>83</v>
       </c>
       <c r="AA27" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="AF27" t="s">
         <v>233</v>
@@ -16310,7 +16972,7 @@
         <v>429</v>
       </c>
       <c r="AA28" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="29">
@@ -16327,7 +16989,7 @@
         <v>44</v>
       </c>
       <c r="AA29" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="30">
@@ -16344,7 +17006,7 @@
         <v>45</v>
       </c>
       <c r="AA30" t="s">
-        <v>323</v>
+        <v>110</v>
       </c>
     </row>
     <row r="31">
@@ -16358,7 +17020,7 @@
         <v>212</v>
       </c>
       <c r="AA31" t="s">
-        <v>111</v>
+        <v>323</v>
       </c>
     </row>
     <row r="32">
@@ -16372,7 +17034,7 @@
         <v>271</v>
       </c>
       <c r="AA32" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="33">
@@ -16383,7 +17045,7 @@
         <v>281</v>
       </c>
       <c r="AA33" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="34">
@@ -16394,7 +17056,7 @@
         <v>504</v>
       </c>
       <c r="AA34" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="35">
@@ -16405,7 +17067,7 @@
         <v>256</v>
       </c>
       <c r="AA35" t="s">
-        <v>568</v>
+        <v>114</v>
       </c>
     </row>
     <row r="36">
@@ -16416,7 +17078,7 @@
         <v>326</v>
       </c>
       <c r="AA36" t="s">
-        <v>115</v>
+        <v>568</v>
       </c>
     </row>
     <row r="37">
@@ -16427,7 +17089,7 @@
         <v>303</v>
       </c>
       <c r="AA37" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="38">
@@ -16438,7 +17100,7 @@
         <v>257</v>
       </c>
       <c r="AA38" t="s">
-        <v>206</v>
+        <v>116</v>
       </c>
     </row>
     <row r="39">
@@ -16449,7 +17111,7 @@
         <v>304</v>
       </c>
       <c r="AA39" t="s">
-        <v>117</v>
+        <v>206</v>
       </c>
     </row>
     <row r="40">
@@ -16457,7 +17119,7 @@
         <v>263</v>
       </c>
       <c r="AA40" t="s">
-        <v>334</v>
+        <v>117</v>
       </c>
     </row>
     <row r="41">
@@ -16465,7 +17127,7 @@
         <v>76</v>
       </c>
       <c r="AA41" t="s">
-        <v>433</v>
+        <v>334</v>
       </c>
     </row>
     <row r="42">
@@ -16473,7 +17135,7 @@
         <v>208</v>
       </c>
       <c r="AA42" t="s">
-        <v>578</v>
+        <v>433</v>
       </c>
     </row>
     <row r="43">
@@ -16481,7 +17143,7 @@
         <v>534</v>
       </c>
       <c r="AA43" t="s">
-        <v>388</v>
+        <v>578</v>
       </c>
     </row>
     <row r="44">
@@ -16489,7 +17151,7 @@
         <v>285</v>
       </c>
       <c r="AA44" t="s">
-        <v>118</v>
+        <v>388</v>
       </c>
     </row>
     <row r="45">
@@ -16497,7 +17159,7 @@
         <v>296</v>
       </c>
       <c r="AA45" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="46">
@@ -16505,7 +17167,7 @@
         <v>297</v>
       </c>
       <c r="AA46" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="47">
@@ -16513,7 +17175,7 @@
         <v>339</v>
       </c>
       <c r="AA47" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="48">
@@ -16521,7 +17183,7 @@
         <v>338</v>
       </c>
       <c r="AA48" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="49">
@@ -16529,7 +17191,7 @@
         <v>207</v>
       </c>
       <c r="AA49" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="50">
@@ -16537,7 +17199,7 @@
         <v>316</v>
       </c>
       <c r="AA50" t="s">
-        <v>434</v>
+        <v>123</v>
       </c>
     </row>
     <row r="51">
@@ -16545,7 +17207,7 @@
         <v>335</v>
       </c>
       <c r="AA51" t="s">
-        <v>209</v>
+        <v>617</v>
       </c>
     </row>
     <row r="52">
@@ -16553,7 +17215,7 @@
         <v>363</v>
       </c>
       <c r="AA52" t="s">
-        <v>75</v>
+        <v>209</v>
       </c>
     </row>
     <row r="53">
@@ -16561,7 +17223,7 @@
         <v>298</v>
       </c>
       <c r="AA53" t="s">
-        <v>531</v>
+        <v>75</v>
       </c>
     </row>
     <row r="54">
@@ -16569,7 +17231,7 @@
         <v>351</v>
       </c>
       <c r="AA54" t="s">
-        <v>124</v>
+        <v>531</v>
       </c>
     </row>
     <row r="55">
@@ -16577,7 +17239,7 @@
         <v>327</v>
       </c>
       <c r="AA55" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="56">
@@ -16585,7 +17247,7 @@
         <v>264</v>
       </c>
       <c r="AA56" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="57">
@@ -16593,7 +17255,7 @@
         <v>288</v>
       </c>
       <c r="AA57" t="s">
-        <v>490</v>
+        <v>126</v>
       </c>
     </row>
     <row r="58">
@@ -16601,7 +17263,7 @@
         <v>289</v>
       </c>
       <c r="AA58" t="s">
-        <v>459</v>
+        <v>490</v>
       </c>
     </row>
     <row r="59">
@@ -16609,7 +17271,7 @@
         <v>535</v>
       </c>
       <c r="AA59" t="s">
-        <v>127</v>
+        <v>459</v>
       </c>
     </row>
     <row r="60">
@@ -16617,7 +17279,7 @@
         <v>290</v>
       </c>
       <c r="AA60" t="s">
-        <v>342</v>
+        <v>127</v>
       </c>
     </row>
     <row r="61">
@@ -16625,7 +17287,7 @@
         <v>299</v>
       </c>
       <c r="AA61" t="s">
-        <v>460</v>
+        <v>342</v>
       </c>
     </row>
     <row r="62">
@@ -16633,7 +17295,7 @@
         <v>308</v>
       </c>
       <c r="AA62" t="s">
-        <v>128</v>
+        <v>460</v>
       </c>
     </row>
     <row r="63">
@@ -16641,7 +17303,7 @@
         <v>333</v>
       </c>
       <c r="AA63" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="64">
@@ -16649,7 +17311,7 @@
         <v>305</v>
       </c>
       <c r="AA64" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="65">
@@ -16657,7 +17319,7 @@
         <v>306</v>
       </c>
       <c r="AA65" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="66">
@@ -16665,7 +17327,7 @@
         <v>364</v>
       </c>
       <c r="AA66" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="67">
@@ -16673,7 +17335,7 @@
         <v>365</v>
       </c>
       <c r="AA67" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="68">
@@ -16681,7 +17343,7 @@
         <v>341</v>
       </c>
       <c r="AA68" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="69">
@@ -16689,7 +17351,7 @@
         <v>309</v>
       </c>
       <c r="AA69" t="s">
-        <v>435</v>
+        <v>134</v>
       </c>
     </row>
     <row r="70">
@@ -16697,7 +17359,7 @@
         <v>265</v>
       </c>
       <c r="AA70" t="s">
-        <v>468</v>
+        <v>435</v>
       </c>
     </row>
     <row r="71">
@@ -16705,7 +17367,7 @@
         <v>520</v>
       </c>
       <c r="AA71" t="s">
-        <v>210</v>
+        <v>468</v>
       </c>
     </row>
     <row r="72">
@@ -16713,7 +17375,7 @@
         <v>310</v>
       </c>
       <c r="AA72" t="s">
-        <v>384</v>
+        <v>210</v>
       </c>
     </row>
     <row r="73">
@@ -16721,7 +17383,7 @@
         <v>405</v>
       </c>
       <c r="AA73" t="s">
-        <v>436</v>
+        <v>384</v>
       </c>
     </row>
     <row r="74">
@@ -16729,7 +17391,7 @@
         <v>300</v>
       </c>
       <c r="AA74" t="s">
-        <v>135</v>
+        <v>436</v>
       </c>
     </row>
     <row r="75">
@@ -16737,7 +17399,7 @@
         <v>406</v>
       </c>
       <c r="AA75" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="76">
@@ -16745,7 +17407,7 @@
         <v>258</v>
       </c>
       <c r="AA76" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="77">
@@ -16753,7 +17415,7 @@
         <v>505</v>
       </c>
       <c r="AA77" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="78">
@@ -16761,7 +17423,7 @@
         <v>340</v>
       </c>
       <c r="AA78" t="s">
-        <v>193</v>
+        <v>138</v>
       </c>
     </row>
     <row r="79">
@@ -16769,7 +17431,7 @@
         <v>276</v>
       </c>
       <c r="AA79" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="80">
@@ -16777,7 +17439,7 @@
         <v>282</v>
       </c>
       <c r="AA80" t="s">
-        <v>448</v>
+        <v>194</v>
       </c>
     </row>
     <row r="81">
@@ -16785,7 +17447,7 @@
         <v>287</v>
       </c>
       <c r="AA81" t="s">
-        <v>461</v>
+        <v>448</v>
       </c>
     </row>
     <row r="82">
@@ -16793,7 +17455,7 @@
         <v>424</v>
       </c>
       <c r="AA82" t="s">
-        <v>139</v>
+        <v>461</v>
       </c>
     </row>
     <row r="83">
@@ -16801,7 +17463,7 @@
         <v>328</v>
       </c>
       <c r="AA83" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="84">
@@ -16809,7 +17471,7 @@
         <v>266</v>
       </c>
       <c r="AA84" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="85">
@@ -16817,7 +17479,7 @@
         <v>277</v>
       </c>
       <c r="AA85" t="s">
-        <v>491</v>
+        <v>141</v>
       </c>
     </row>
     <row r="86">
@@ -16825,7 +17487,7 @@
         <v>283</v>
       </c>
       <c r="AA86" t="s">
-        <v>142</v>
+        <v>491</v>
       </c>
     </row>
     <row r="87">
@@ -16833,7 +17495,7 @@
         <v>272</v>
       </c>
       <c r="AA87" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="88">
@@ -16841,7 +17503,7 @@
         <v>523</v>
       </c>
       <c r="AA88" t="s">
-        <v>195</v>
+        <v>143</v>
       </c>
     </row>
     <row r="89">
@@ -16849,7 +17511,7 @@
         <v>267</v>
       </c>
       <c r="AA89" t="s">
-        <v>492</v>
+        <v>195</v>
       </c>
     </row>
     <row r="90">
@@ -16857,7 +17519,7 @@
         <v>284</v>
       </c>
       <c r="AA90" t="s">
-        <v>587</v>
+        <v>492</v>
       </c>
     </row>
     <row r="91">
@@ -16865,7 +17527,7 @@
         <v>268</v>
       </c>
       <c r="AA91" t="s">
-        <v>196</v>
+        <v>587</v>
       </c>
     </row>
     <row r="92">
@@ -16873,7 +17535,7 @@
         <v>269</v>
       </c>
       <c r="AA92" t="s">
-        <v>449</v>
+        <v>196</v>
       </c>
     </row>
     <row r="93">
@@ -16881,7 +17543,7 @@
         <v>301</v>
       </c>
       <c r="AA93" t="s">
-        <v>197</v>
+        <v>449</v>
       </c>
     </row>
     <row r="94">
@@ -16889,7 +17551,7 @@
         <v>307</v>
       </c>
       <c r="AA94" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="95">
@@ -16897,7 +17559,7 @@
         <v>291</v>
       </c>
       <c r="AA95" t="s">
-        <v>572</v>
+        <v>198</v>
       </c>
     </row>
     <row r="96">
@@ -16905,7 +17567,7 @@
         <v>336</v>
       </c>
       <c r="AA96" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
     </row>
     <row r="97">
@@ -16913,7 +17575,7 @@
         <v>273</v>
       </c>
       <c r="AA97" t="s">
-        <v>211</v>
+        <v>573</v>
       </c>
     </row>
     <row r="98">
@@ -16921,236 +17583,241 @@
         <v>274</v>
       </c>
       <c r="AA98" t="s">
-        <v>144</v>
+        <v>211</v>
       </c>
     </row>
     <row r="99">
       <c r="AA99" t="s">
-        <v>199</v>
+        <v>144</v>
       </c>
     </row>
     <row r="100">
       <c r="AA100" t="s">
-        <v>437</v>
+        <v>199</v>
       </c>
     </row>
     <row r="101">
       <c r="AA101" t="s">
-        <v>585</v>
+        <v>437</v>
       </c>
     </row>
     <row r="102">
       <c r="AA102" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
     </row>
     <row r="103">
       <c r="AA103" t="s">
-        <v>438</v>
+        <v>586</v>
       </c>
     </row>
     <row r="104">
       <c r="AA104" t="s">
-        <v>200</v>
+        <v>438</v>
       </c>
     </row>
     <row r="105">
       <c r="AA105" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="106">
       <c r="AA106" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="107">
       <c r="AA107" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="108">
       <c r="AA108" t="s">
-        <v>219</v>
+        <v>203</v>
       </c>
     </row>
     <row r="109">
       <c r="AA109" t="s">
-        <v>591</v>
+        <v>219</v>
       </c>
     </row>
     <row r="110">
       <c r="AA110" t="s">
-        <v>204</v>
+        <v>591</v>
       </c>
     </row>
     <row r="111">
       <c r="AA111" t="s">
-        <v>493</v>
+        <v>204</v>
       </c>
     </row>
     <row r="112">
       <c r="AA112" t="s">
-        <v>579</v>
+        <v>493</v>
       </c>
     </row>
     <row r="113">
       <c r="AA113" t="s">
-        <v>517</v>
+        <v>579</v>
       </c>
     </row>
     <row r="114">
       <c r="AA114" t="s">
-        <v>145</v>
+        <v>517</v>
       </c>
     </row>
     <row r="115">
       <c r="AA115" t="s">
-        <v>518</v>
+        <v>145</v>
       </c>
     </row>
     <row r="116">
       <c r="AA116" t="s">
-        <v>378</v>
+        <v>518</v>
       </c>
     </row>
     <row r="117">
       <c r="AA117" t="s">
-        <v>146</v>
+        <v>378</v>
       </c>
     </row>
     <row r="118">
       <c r="AA118" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="119">
       <c r="AA119" t="s">
-        <v>592</v>
+        <v>147</v>
       </c>
     </row>
     <row r="120">
       <c r="AA120" t="s">
-        <v>148</v>
+        <v>592</v>
       </c>
     </row>
     <row r="121">
       <c r="AA121" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="122">
       <c r="AA122" t="s">
-        <v>593</v>
+        <v>149</v>
       </c>
     </row>
     <row r="123">
       <c r="AA123" t="s">
-        <v>150</v>
+        <v>593</v>
       </c>
     </row>
     <row r="124">
       <c r="AA124" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="125">
       <c r="AA125" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="126">
       <c r="AA126" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="127">
       <c r="AA127" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="128">
       <c r="AA128" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="129">
       <c r="AA129" t="s">
-        <v>594</v>
+        <v>155</v>
       </c>
     </row>
     <row r="130">
       <c r="AA130" t="s">
-        <v>156</v>
+        <v>594</v>
       </c>
     </row>
     <row r="131">
       <c r="AA131" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="132">
       <c r="AA132" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="133">
       <c r="AA133" t="s">
-        <v>439</v>
+        <v>158</v>
       </c>
     </row>
     <row r="134">
       <c r="AA134" t="s">
-        <v>159</v>
+        <v>618</v>
       </c>
     </row>
     <row r="135">
       <c r="AA135" t="s">
-        <v>569</v>
+        <v>159</v>
       </c>
     </row>
     <row r="136">
       <c r="AA136" t="s">
-        <v>160</v>
+        <v>569</v>
       </c>
     </row>
     <row r="137">
       <c r="AA137" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="138">
       <c r="AA138" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="139">
       <c r="AA139" t="s">
-        <v>46</v>
+        <v>162</v>
       </c>
     </row>
     <row r="140">
       <c r="AA140" t="s">
-        <v>163</v>
+        <v>46</v>
       </c>
     </row>
     <row r="141">
       <c r="AA141" t="s">
-        <v>595</v>
+        <v>163</v>
       </c>
     </row>
     <row r="142">
       <c r="AA142" t="s">
-        <v>164</v>
+        <v>595</v>
       </c>
     </row>
     <row r="143">
       <c r="AA143" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="144">
       <c r="AA144" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="AA145" t="s">
         <v>166</v>
       </c>
     </row>

--- a/src/test/resources/unittesting/artifact/script/unitTest_LocalDb.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_LocalDb.xlsx
@@ -20,7 +20,7 @@
     <definedName name="aws.s3">'#system'!$B$2:$B$9</definedName>
     <definedName name="aws.ses">'#system'!$C$2:$C$3</definedName>
     <definedName name="aws.sqs">'#system'!$D$2:$D$6</definedName>
-    <definedName name="base">'#system'!$F$2:$F$39</definedName>
+    <definedName name="base">'#system'!$F$2:$F$44</definedName>
     <definedName name="csv">'#system'!$G$2:$G$6</definedName>
     <definedName name="date">'#system'!$C$2:$C$14</definedName>
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
@@ -28,7 +28,7 @@
     <definedName name="excel">'#system'!$I$2:$I$16</definedName>
     <definedName name="external">'#system'!$J$2:$J$6</definedName>
     <definedName name="image">'#system'!$K$2:$K$8</definedName>
-    <definedName name="io">'#system'!$L$2:$L$30</definedName>
+    <definedName name="io">'#system'!$L$2:$L$31</definedName>
     <definedName name="jms">'#system'!$M$2:$M$4</definedName>
     <definedName name="json">'#system'!$N$2:$N$18</definedName>
     <definedName name="localdb">'#system'!$O$2:$O$13</definedName>
@@ -38,23 +38,23 @@
     <definedName name="mq">'#system'!$J$2:$J$3</definedName>
     <definedName name="nextgen">'#system'!$K$2:$K$28</definedName>
     <definedName name="number">'#system'!$R$2:$R$16</definedName>
-    <definedName name="pdf">'#system'!$S$2:$S$17</definedName>
+    <definedName name="pdf">'#system'!$S$2:$S$18</definedName>
     <definedName name="rdbms">'#system'!$T$2:$T$9</definedName>
     <definedName name="redis">'#system'!$U$2:$U$10</definedName>
     <definedName name="sms">'#system'!$V$2:$V$2</definedName>
     <definedName name="sound">'#system'!$W$2:$W$5</definedName>
     <definedName name="ssh">'#system'!$X$2:$X$9</definedName>
     <definedName name="step">'#system'!$Y$2:$Y$4</definedName>
-    <definedName name="target">'#system'!$A$2:$A$32</definedName>
+    <definedName name="target">'#system'!$A$2:$A$33</definedName>
     <definedName name="text">'#system'!$Y$2:$Y$2</definedName>
-    <definedName name="web">'#system'!$AA$2:$AA$145</definedName>
-    <definedName name="webalert">'#system'!$AB$2:$AB$8</definedName>
-    <definedName name="webcookie">'#system'!$AC$2:$AC$10</definedName>
-    <definedName name="ws">'#system'!$AD$2:$AD$17</definedName>
-    <definedName name="ws.async">'#system'!$AE$2:$AE$8</definedName>
-    <definedName name="xml">'#system'!$AF$2:$AF$27</definedName>
+    <definedName name="web">'#system'!$AB$2:$AB$151</definedName>
+    <definedName name="webalert">'#system'!$AC$2:$AC$8</definedName>
+    <definedName name="webcookie">'#system'!$AD$2:$AD$10</definedName>
+    <definedName name="ws">'#system'!$AE$2:$AE$17</definedName>
+    <definedName name="ws.async">'#system'!$AF$2:$AF$8</definedName>
+    <definedName name="xml">'#system'!$AG$2:$AG$27</definedName>
     <definedName name="aws.vision">'#system'!$E$2:$E$2</definedName>
-    <definedName name="tn.5250">'#system'!$Z$2:$Z$6</definedName>
+    <definedName name="tn.5250">'#system'!$AA$2:$AA$38</definedName>
     <definedName name="step.inTime">'#system'!$Z$2:$Z$4</definedName>
   </definedNames>
   <calcPr calcId="150000"/>
@@ -70,7 +70,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12500" uniqueCount="619">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13778" uniqueCount="669">
   <si>
     <t>description</t>
   </si>
@@ -1941,13 +1941,163 @@
   <si>
     <t>uncheckAll(locator,waitMs)</t>
   </si>
+  <si>
+    <t>clearClipboard()</t>
+  </si>
+  <si>
+    <t>copyFromClipboard(var)</t>
+  </si>
+  <si>
+    <t>copyIntoClipboard(text)</t>
+  </si>
+  <si>
+    <t>macroFlex(macro,input,output)</t>
+  </si>
+  <si>
+    <t>waitForCondition(conditions,maxWaitMs)</t>
+  </si>
+  <si>
+    <t>waitForFile(file,minFileSize,waitMs,maxWaitMs)</t>
+  </si>
+  <si>
+    <t>combine(path,fileFilter,saveTo)</t>
+  </si>
+  <si>
+    <t>assertColumnNotPresent(column)</t>
+  </si>
+  <si>
+    <t>assertColumnPresent(column)</t>
+  </si>
+  <si>
+    <t>assertFieldMatch(label,expects)</t>
+  </si>
+  <si>
+    <t>assertFieldNotMatch(label,expects)</t>
+  </si>
+  <si>
+    <t>assertFieldNotPresent(label)</t>
+  </si>
+  <si>
+    <t>assertFieldPresent(label)</t>
+  </si>
+  <si>
+    <t>assertKeyboardLocked()</t>
+  </si>
+  <si>
+    <t>assertKeyboardNotLocked()</t>
+  </si>
+  <si>
+    <t>assertMessageMatch(expects)</t>
+  </si>
+  <si>
+    <t>assertMessageNotMatch(expects)</t>
+  </si>
+  <si>
+    <t>assertScreenContain(list,ordered)</t>
+  </si>
+  <si>
+    <t>assertScreenMatch(text)</t>
+  </si>
+  <si>
+    <t>assertScreenNotContain(list,ordered)</t>
+  </si>
+  <si>
+    <t>assertScreenNotMatch(text)</t>
+  </si>
+  <si>
+    <t>assertTableMatch(column,text)</t>
+  </si>
+  <si>
+    <t>assertTableNotMatch(column,text)</t>
+  </si>
+  <si>
+    <t>assertTablePresent()</t>
+  </si>
+  <si>
+    <t>assertTitle(expects)</t>
+  </si>
+  <si>
+    <t>assertTitleContain(expects)</t>
+  </si>
+  <si>
+    <t>clearField(label)</t>
+  </si>
+  <si>
+    <t>focus(label)</t>
+  </si>
+  <si>
+    <t>inspectNestedScreen(titles)</t>
+  </si>
+  <si>
+    <t>inspectScreen()</t>
+  </si>
+  <si>
+    <t>saveDisplay(var,field)</t>
+  </si>
+  <si>
+    <t>saveDisplayFields(var)</t>
+  </si>
+  <si>
+    <t>saveInputFields(var)</t>
+  </si>
+  <si>
+    <t>saveMessage(var)</t>
+  </si>
+  <si>
+    <t>saveScreenText(var)</t>
+  </si>
+  <si>
+    <t>saveTableAsCSV(csv,maxPage)</t>
+  </si>
+  <si>
+    <t>saveTableMatchCount(var,column,text)</t>
+  </si>
+  <si>
+    <t>saveTableRow(var,criteria)</t>
+  </si>
+  <si>
+    <t>type(label,text)</t>
+  </si>
+  <si>
+    <t>typeKeys(keystrokes)</t>
+  </si>
+  <si>
+    <t>typeOnMatchedRow(column,match,keystrokes)</t>
+  </si>
+  <si>
+    <t>unlockKeyboard()</t>
+  </si>
+  <si>
+    <t>moveTo(x,y)</t>
+  </si>
+  <si>
+    <t>screenshot(file,locator,removeFixed)</t>
+  </si>
+  <si>
+    <t>screenshotInFull(file,timeout,removeFixed)</t>
+  </si>
+  <si>
+    <t>waitForElementPresent(locator,waitMs)</t>
+  </si>
+  <si>
+    <t>waitUntilDisabled(locator,waitMs)</t>
+  </si>
+  <si>
+    <t>waitUntilEnabled(locator,waitMs)</t>
+  </si>
+  <si>
+    <t>waitUntilHidden(locator,waitMs)</t>
+  </si>
+  <si>
+    <t>waitUntilVisible(locator,waitMs)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="347" x14ac:knownFonts="1">
+  <fonts count="381" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -4145,8 +4295,222 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="571">
+  <fills count="619">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -7376,6 +7740,278 @@
       <patternFill patternType="solid">
         <fgColor rgb="E6E6E6"/>
         <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
   </fills>
@@ -14270,7 +14906,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="373">
+  <cellXfs count="407">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -15359,52 +15995,154 @@
     <xf applyFill="true" applyFont="true" borderId="0" fillId="543" fontId="330" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="331" fillId="546" borderId="650" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="650" fillId="546" fontId="331" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="332" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="332" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="333" fillId="549" borderId="654" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="654" fillId="549" fontId="333" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="334" fillId="552" borderId="658" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="658" fillId="552" fontId="334" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="335" fillId="555" borderId="662" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="662" fillId="555" fontId="335" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="336" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="336" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="337" fillId="558" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="558" fontId="337" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="338" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="338" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="339" fillId="561" borderId="666" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="666" fillId="561" fontId="339" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="340" fillId="552" borderId="670" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="670" fillId="552" fontId="340" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="341" fillId="564" borderId="674" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="674" fillId="564" fontId="341" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="342" fillId="564" borderId="674" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="674" fillId="564" fontId="342" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="343" fillId="555" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="555" fontId="343" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="344" fillId="567" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="567" fontId="344" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="345" fillId="555" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="555" fontId="345" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="346" fillId="570" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="570" fontId="346" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="573" fontId="347" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="348" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="576" fontId="349" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="579" fontId="350" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="582" fontId="351" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="352" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="585" fontId="353" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="354" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="588" fontId="355" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="591" fontId="356" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="579" fontId="357" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="358" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="359" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="582" fontId="360" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="594" fontId="361" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="582" fontId="362" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="591" fontId="363" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="364" fillId="597" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="365" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="366" fillId="600" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="367" fillId="603" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="368" fillId="606" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="369" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="370" fillId="609" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="371" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="372" fillId="612" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="373" fillId="615" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="374" fillId="603" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="375" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="376" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="377" fillId="606" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="378" fillId="618" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="379" fillId="606" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="380" fillId="615" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -15759,7 +16497,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AG145"/>
+  <dimension ref="A1:AH151"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
@@ -15850,21 +16588,24 @@
         <v>609</v>
       </c>
       <c r="AA1" t="s">
+        <v>600</v>
+      </c>
+      <c r="AB1" t="s">
         <v>52</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AC1" t="s">
         <v>53</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AD1" t="s">
         <v>54</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AE1" t="s">
         <v>55</v>
       </c>
-      <c r="AE1" t="s">
+      <c r="AF1" t="s">
         <v>409</v>
       </c>
-      <c r="AF1" t="s">
+      <c r="AG1" t="s">
         <v>223</v>
       </c>
     </row>
@@ -15948,21 +16689,24 @@
         <v>613</v>
       </c>
       <c r="AA2" t="s">
+        <v>626</v>
+      </c>
+      <c r="AB2" t="s">
         <v>94</v>
       </c>
-      <c r="AB2" t="s">
+      <c r="AC2" t="s">
         <v>167</v>
       </c>
-      <c r="AC2" t="s">
+      <c r="AD2" t="s">
         <v>172</v>
       </c>
-      <c r="AD2" t="s">
+      <c r="AE2" t="s">
         <v>179</v>
       </c>
-      <c r="AE2" t="s">
+      <c r="AF2" t="s">
         <v>427</v>
       </c>
-      <c r="AF2" t="s">
+      <c r="AG2" t="s">
         <v>494</v>
       </c>
     </row>
@@ -16037,21 +16781,24 @@
         <v>614</v>
       </c>
       <c r="AA3" t="s">
+        <v>627</v>
+      </c>
+      <c r="AB3" t="s">
         <v>95</v>
       </c>
-      <c r="AB3" t="s">
+      <c r="AC3" t="s">
         <v>168</v>
       </c>
-      <c r="AC3" t="s">
+      <c r="AD3" t="s">
         <v>173</v>
       </c>
-      <c r="AD3" t="s">
+      <c r="AE3" t="s">
         <v>359</v>
       </c>
-      <c r="AE3" t="s">
+      <c r="AF3" t="s">
         <v>180</v>
       </c>
-      <c r="AF3" t="s">
+      <c r="AG3" t="s">
         <v>224</v>
       </c>
     </row>
@@ -16123,21 +16870,24 @@
         <v>615</v>
       </c>
       <c r="AA4" t="s">
+        <v>628</v>
+      </c>
+      <c r="AB4" t="s">
         <v>584</v>
       </c>
-      <c r="AB4" t="s">
+      <c r="AC4" t="s">
         <v>169</v>
       </c>
-      <c r="AC4" t="s">
+      <c r="AD4" t="s">
         <v>174</v>
       </c>
-      <c r="AD4" t="s">
+      <c r="AE4" t="s">
         <v>180</v>
       </c>
-      <c r="AE4" t="s">
+      <c r="AF4" t="s">
         <v>419</v>
       </c>
-      <c r="AF4" t="s">
+      <c r="AG4" t="s">
         <v>225</v>
       </c>
     </row>
@@ -16197,21 +16947,24 @@
         <v>354</v>
       </c>
       <c r="AA5" t="s">
+        <v>629</v>
+      </c>
+      <c r="AB5" t="s">
         <v>577</v>
       </c>
-      <c r="AB5" t="s">
+      <c r="AC5" t="s">
         <v>170</v>
       </c>
-      <c r="AC5" t="s">
+      <c r="AD5" t="s">
         <v>596</v>
       </c>
-      <c r="AD5" t="s">
+      <c r="AE5" t="s">
         <v>181</v>
       </c>
-      <c r="AE5" t="s">
+      <c r="AF5" t="s">
         <v>420</v>
       </c>
-      <c r="AF5" t="s">
+      <c r="AG5" t="s">
         <v>226</v>
       </c>
     </row>
@@ -16268,21 +17021,24 @@
         <v>356</v>
       </c>
       <c r="AA6" t="s">
+        <v>630</v>
+      </c>
+      <c r="AB6" t="s">
         <v>96</v>
       </c>
-      <c r="AB6" t="s">
+      <c r="AC6" t="s">
         <v>440</v>
       </c>
-      <c r="AC6" t="s">
+      <c r="AD6" t="s">
         <v>175</v>
       </c>
-      <c r="AD6" t="s">
+      <c r="AE6" t="s">
         <v>182</v>
       </c>
-      <c r="AE6" t="s">
+      <c r="AF6" t="s">
         <v>421</v>
       </c>
-      <c r="AF6" t="s">
+      <c r="AG6" t="s">
         <v>227</v>
       </c>
     </row>
@@ -16330,21 +17086,24 @@
         <v>355</v>
       </c>
       <c r="AA7" t="s">
+        <v>631</v>
+      </c>
+      <c r="AB7" t="s">
         <v>97</v>
       </c>
-      <c r="AB7" t="s">
+      <c r="AC7" t="s">
         <v>441</v>
       </c>
-      <c r="AC7" t="s">
+      <c r="AD7" t="s">
         <v>176</v>
       </c>
-      <c r="AD7" t="s">
+      <c r="AE7" t="s">
         <v>183</v>
       </c>
-      <c r="AE7" t="s">
+      <c r="AF7" t="s">
         <v>422</v>
       </c>
-      <c r="AF7" t="s">
+      <c r="AG7" t="s">
         <v>524</v>
       </c>
     </row>
@@ -16392,21 +17151,24 @@
         <v>357</v>
       </c>
       <c r="AA8" t="s">
+        <v>632</v>
+      </c>
+      <c r="AB8" t="s">
         <v>98</v>
       </c>
-      <c r="AB8" t="s">
+      <c r="AC8" t="s">
         <v>171</v>
       </c>
-      <c r="AC8" t="s">
+      <c r="AD8" t="s">
         <v>177</v>
       </c>
-      <c r="AD8" t="s">
+      <c r="AE8" t="s">
         <v>184</v>
       </c>
-      <c r="AE8" t="s">
+      <c r="AF8" t="s">
         <v>423</v>
       </c>
-      <c r="AF8" t="s">
+      <c r="AG8" t="s">
         <v>525</v>
       </c>
     </row>
@@ -16451,15 +17213,18 @@
         <v>358</v>
       </c>
       <c r="AA9" t="s">
+        <v>633</v>
+      </c>
+      <c r="AB9" t="s">
         <v>205</v>
       </c>
-      <c r="AC9" t="s">
+      <c r="AD9" t="s">
         <v>178</v>
       </c>
-      <c r="AD9" t="s">
+      <c r="AE9" t="s">
         <v>185</v>
       </c>
-      <c r="AF9" t="s">
+      <c r="AG9" t="s">
         <v>526</v>
       </c>
     </row>
@@ -16495,15 +17260,18 @@
         <v>401</v>
       </c>
       <c r="AA10" t="s">
+        <v>634</v>
+      </c>
+      <c r="AB10" t="s">
         <v>253</v>
       </c>
-      <c r="AC10" t="s">
+      <c r="AD10" t="s">
         <v>597</v>
       </c>
-      <c r="AD10" t="s">
+      <c r="AE10" t="s">
         <v>186</v>
       </c>
-      <c r="AF10" t="s">
+      <c r="AG10" t="s">
         <v>228</v>
       </c>
     </row>
@@ -16533,15 +17301,18 @@
         <v>91</v>
       </c>
       <c r="S11" t="s">
-        <v>244</v>
+        <v>625</v>
       </c>
       <c r="AA11" t="s">
+        <v>635</v>
+      </c>
+      <c r="AB11" t="s">
         <v>254</v>
       </c>
-      <c r="AD11" t="s">
+      <c r="AE11" t="s">
         <v>255</v>
       </c>
-      <c r="AF11" t="s">
+      <c r="AG11" t="s">
         <v>229</v>
       </c>
     </row>
@@ -16571,15 +17342,18 @@
         <v>40</v>
       </c>
       <c r="S12" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="AA12" t="s">
+        <v>636</v>
+      </c>
+      <c r="AB12" t="s">
         <v>99</v>
       </c>
-      <c r="AD12" t="s">
+      <c r="AE12" t="s">
         <v>187</v>
       </c>
-      <c r="AF12" t="s">
+      <c r="AG12" t="s">
         <v>230</v>
       </c>
     </row>
@@ -16609,15 +17383,18 @@
         <v>92</v>
       </c>
       <c r="S13" t="s">
-        <v>589</v>
+        <v>245</v>
       </c>
       <c r="AA13" t="s">
+        <v>637</v>
+      </c>
+      <c r="AB13" t="s">
         <v>322</v>
       </c>
-      <c r="AD13" t="s">
+      <c r="AE13" t="s">
         <v>188</v>
       </c>
-      <c r="AF13" t="s">
+      <c r="AG13" t="s">
         <v>469</v>
       </c>
     </row>
@@ -16644,15 +17421,18 @@
         <v>93</v>
       </c>
       <c r="S14" t="s">
-        <v>250</v>
+        <v>589</v>
       </c>
       <c r="AA14" t="s">
+        <v>638</v>
+      </c>
+      <c r="AB14" t="s">
         <v>100</v>
       </c>
-      <c r="AD14" t="s">
+      <c r="AE14" t="s">
         <v>189</v>
       </c>
-      <c r="AF14" t="s">
+      <c r="AG14" t="s">
         <v>495</v>
       </c>
     </row>
@@ -16679,15 +17459,18 @@
         <v>486</v>
       </c>
       <c r="S15" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="AA15" t="s">
+        <v>639</v>
+      </c>
+      <c r="AB15" t="s">
         <v>616</v>
       </c>
-      <c r="AD15" t="s">
+      <c r="AE15" t="s">
         <v>190</v>
       </c>
-      <c r="AF15" t="s">
+      <c r="AG15" t="s">
         <v>496</v>
       </c>
     </row>
@@ -16714,15 +17497,18 @@
         <v>487</v>
       </c>
       <c r="S16" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="AA16" t="s">
+        <v>640</v>
+      </c>
+      <c r="AB16" t="s">
         <v>590</v>
       </c>
-      <c r="AD16" t="s">
+      <c r="AE16" t="s">
         <v>191</v>
       </c>
-      <c r="AF16" t="s">
+      <c r="AG16" t="s">
         <v>497</v>
       </c>
     </row>
@@ -16743,15 +17529,18 @@
         <v>39</v>
       </c>
       <c r="S17" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="AA17" t="s">
+        <v>641</v>
+      </c>
+      <c r="AB17" t="s">
         <v>101</v>
       </c>
-      <c r="AD17" t="s">
+      <c r="AE17" t="s">
         <v>462</v>
       </c>
-      <c r="AF17" t="s">
+      <c r="AG17" t="s">
         <v>498</v>
       </c>
     </row>
@@ -16771,10 +17560,16 @@
       <c r="N18" t="s">
         <v>42</v>
       </c>
+      <c r="S18" t="s">
+        <v>248</v>
+      </c>
       <c r="AA18" t="s">
+        <v>642</v>
+      </c>
+      <c r="AB18" t="s">
         <v>73</v>
       </c>
-      <c r="AF18" t="s">
+      <c r="AG18" t="s">
         <v>470</v>
       </c>
     </row>
@@ -16783,7 +17578,7 @@
         <v>235</v>
       </c>
       <c r="F19" t="s">
-        <v>58</v>
+        <v>619</v>
       </c>
       <c r="H19" t="s">
         <v>88</v>
@@ -16792,9 +17587,12 @@
         <v>458</v>
       </c>
       <c r="AA19" t="s">
+        <v>643</v>
+      </c>
+      <c r="AB19" t="s">
         <v>488</v>
       </c>
-      <c r="AF19" t="s">
+      <c r="AG19" t="s">
         <v>499</v>
       </c>
     </row>
@@ -16803,7 +17601,7 @@
         <v>51</v>
       </c>
       <c r="F20" t="s">
-        <v>59</v>
+        <v>620</v>
       </c>
       <c r="H20" t="s">
         <v>292</v>
@@ -16812,9 +17610,12 @@
         <v>81</v>
       </c>
       <c r="AA20" t="s">
+        <v>644</v>
+      </c>
+      <c r="AB20" t="s">
         <v>102</v>
       </c>
-      <c r="AF20" t="s">
+      <c r="AG20" t="s">
         <v>500</v>
       </c>
     </row>
@@ -16823,7 +17624,7 @@
         <v>391</v>
       </c>
       <c r="F21" t="s">
-        <v>252</v>
+        <v>621</v>
       </c>
       <c r="H21" t="s">
         <v>293</v>
@@ -16832,9 +17633,12 @@
         <v>82</v>
       </c>
       <c r="AA21" t="s">
+        <v>645</v>
+      </c>
+      <c r="AB21" t="s">
         <v>103</v>
       </c>
-      <c r="AF21" t="s">
+      <c r="AG21" t="s">
         <v>501</v>
       </c>
     </row>
@@ -16843,7 +17647,7 @@
         <v>407</v>
       </c>
       <c r="F22" t="s">
-        <v>533</v>
+        <v>58</v>
       </c>
       <c r="H22" t="s">
         <v>294</v>
@@ -16852,9 +17656,12 @@
         <v>581</v>
       </c>
       <c r="AA22" t="s">
+        <v>602</v>
+      </c>
+      <c r="AB22" t="s">
         <v>104</v>
       </c>
-      <c r="AF22" t="s">
+      <c r="AG22" t="s">
         <v>231</v>
       </c>
     </row>
@@ -16863,7 +17670,7 @@
         <v>408</v>
       </c>
       <c r="F23" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H23" t="s">
         <v>295</v>
@@ -16872,9 +17679,12 @@
         <v>465</v>
       </c>
       <c r="AA23" t="s">
+        <v>646</v>
+      </c>
+      <c r="AB23" t="s">
         <v>105</v>
       </c>
-      <c r="AF23" t="s">
+      <c r="AG23" t="s">
         <v>527</v>
       </c>
     </row>
@@ -16883,7 +17693,7 @@
         <v>352</v>
       </c>
       <c r="F24" t="s">
-        <v>317</v>
+        <v>252</v>
       </c>
       <c r="H24" t="s">
         <v>286</v>
@@ -16892,9 +17702,12 @@
         <v>43</v>
       </c>
       <c r="AA24" t="s">
+        <v>647</v>
+      </c>
+      <c r="AB24" t="s">
         <v>489</v>
       </c>
-      <c r="AF24" t="s">
+      <c r="AG24" t="s">
         <v>528</v>
       </c>
     </row>
@@ -16903,7 +17716,7 @@
         <v>392</v>
       </c>
       <c r="F25" t="s">
-        <v>61</v>
+        <v>622</v>
       </c>
       <c r="H25" t="s">
         <v>275</v>
@@ -16912,9 +17725,12 @@
         <v>387</v>
       </c>
       <c r="AA25" t="s">
+        <v>648</v>
+      </c>
+      <c r="AB25" t="s">
         <v>106</v>
       </c>
-      <c r="AF25" t="s">
+      <c r="AG25" t="s">
         <v>529</v>
       </c>
     </row>
@@ -16923,234 +17739,294 @@
         <v>609</v>
       </c>
       <c r="F26" t="s">
-        <v>444</v>
+        <v>533</v>
       </c>
       <c r="H26" t="s">
         <v>74</v>
       </c>
       <c r="L26" t="s">
-        <v>519</v>
+        <v>624</v>
       </c>
       <c r="AA26" t="s">
+        <v>603</v>
+      </c>
+      <c r="AB26" t="s">
         <v>567</v>
       </c>
-      <c r="AF26" t="s">
+      <c r="AG26" t="s">
         <v>232</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>52</v>
+        <v>600</v>
       </c>
       <c r="F27" t="s">
-        <v>221</v>
+        <v>60</v>
       </c>
       <c r="H27" t="s">
         <v>278</v>
       </c>
       <c r="L27" t="s">
-        <v>83</v>
+        <v>519</v>
       </c>
       <c r="AA27" t="s">
+        <v>649</v>
+      </c>
+      <c r="AB27" t="s">
         <v>107</v>
       </c>
-      <c r="AF27" t="s">
+      <c r="AG27" t="s">
         <v>233</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F28" t="s">
-        <v>222</v>
+        <v>317</v>
       </c>
       <c r="H28" t="s">
         <v>262</v>
       </c>
       <c r="L28" t="s">
-        <v>429</v>
+        <v>83</v>
       </c>
       <c r="AA28" t="s">
+        <v>650</v>
+      </c>
+      <c r="AB28" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F29" t="s">
-        <v>463</v>
+        <v>61</v>
       </c>
       <c r="H29" t="s">
         <v>279</v>
       </c>
       <c r="L29" t="s">
-        <v>44</v>
+        <v>429</v>
       </c>
       <c r="AA29" t="s">
+        <v>651</v>
+      </c>
+      <c r="AB29" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F30" t="s">
-        <v>464</v>
+        <v>444</v>
       </c>
       <c r="H30" t="s">
         <v>280</v>
       </c>
       <c r="L30" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AA30" t="s">
+        <v>652</v>
+      </c>
+      <c r="AB30" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>409</v>
+        <v>55</v>
       </c>
       <c r="F31" t="s">
-        <v>411</v>
+        <v>221</v>
       </c>
       <c r="H31" t="s">
         <v>212</v>
       </c>
+      <c r="L31" t="s">
+        <v>45</v>
+      </c>
       <c r="AA31" t="s">
+        <v>653</v>
+      </c>
+      <c r="AB31" t="s">
         <v>323</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>223</v>
+        <v>409</v>
       </c>
       <c r="F32" t="s">
-        <v>62</v>
+        <v>222</v>
       </c>
       <c r="H32" t="s">
         <v>271</v>
       </c>
       <c r="AA32" t="s">
+        <v>654</v>
+      </c>
+      <c r="AB32" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="33">
+      <c r="A33" t="s">
+        <v>223</v>
+      </c>
       <c r="F33" t="s">
-        <v>63</v>
+        <v>463</v>
       </c>
       <c r="H33" t="s">
         <v>281</v>
       </c>
       <c r="AA33" t="s">
+        <v>655</v>
+      </c>
+      <c r="AB33" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="34">
       <c r="F34" t="s">
-        <v>64</v>
+        <v>464</v>
       </c>
       <c r="H34" t="s">
         <v>504</v>
       </c>
       <c r="AA34" t="s">
+        <v>656</v>
+      </c>
+      <c r="AB34" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="35">
       <c r="F35" t="s">
-        <v>65</v>
+        <v>411</v>
       </c>
       <c r="H35" t="s">
         <v>256</v>
       </c>
       <c r="AA35" t="s">
+        <v>657</v>
+      </c>
+      <c r="AB35" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="36">
       <c r="F36" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="H36" t="s">
         <v>326</v>
       </c>
       <c r="AA36" t="s">
+        <v>658</v>
+      </c>
+      <c r="AB36" t="s">
         <v>568</v>
       </c>
     </row>
     <row r="37">
       <c r="F37" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="H37" t="s">
         <v>303</v>
       </c>
       <c r="AA37" t="s">
+        <v>659</v>
+      </c>
+      <c r="AB37" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="38">
       <c r="F38" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="H38" t="s">
         <v>257</v>
       </c>
       <c r="AA38" t="s">
+        <v>660</v>
+      </c>
+      <c r="AB38" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="39">
       <c r="F39" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="H39" t="s">
         <v>304</v>
       </c>
-      <c r="AA39" t="s">
+      <c r="AB39" t="s">
         <v>206</v>
       </c>
     </row>
     <row r="40">
+      <c r="F40" t="s">
+        <v>66</v>
+      </c>
       <c r="H40" t="s">
         <v>263</v>
       </c>
-      <c r="AA40" t="s">
+      <c r="AB40" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="41">
+      <c r="F41" t="s">
+        <v>67</v>
+      </c>
       <c r="H41" t="s">
         <v>76</v>
       </c>
-      <c r="AA41" t="s">
+      <c r="AB41" t="s">
         <v>334</v>
       </c>
     </row>
     <row r="42">
+      <c r="F42" t="s">
+        <v>68</v>
+      </c>
       <c r="H42" t="s">
         <v>208</v>
       </c>
-      <c r="AA42" t="s">
+      <c r="AB42" t="s">
         <v>433</v>
       </c>
     </row>
     <row r="43">
+      <c r="F43" t="s">
+        <v>69</v>
+      </c>
       <c r="H43" t="s">
         <v>534</v>
       </c>
-      <c r="AA43" t="s">
+      <c r="AB43" t="s">
         <v>578</v>
       </c>
     </row>
     <row r="44">
+      <c r="F44" t="s">
+        <v>623</v>
+      </c>
       <c r="H44" t="s">
         <v>285</v>
       </c>
-      <c r="AA44" t="s">
+      <c r="AB44" t="s">
         <v>388</v>
       </c>
     </row>
@@ -17158,7 +18034,7 @@
       <c r="H45" t="s">
         <v>296</v>
       </c>
-      <c r="AA45" t="s">
+      <c r="AB45" t="s">
         <v>118</v>
       </c>
     </row>
@@ -17166,7 +18042,7 @@
       <c r="H46" t="s">
         <v>297</v>
       </c>
-      <c r="AA46" t="s">
+      <c r="AB46" t="s">
         <v>119</v>
       </c>
     </row>
@@ -17174,7 +18050,7 @@
       <c r="H47" t="s">
         <v>339</v>
       </c>
-      <c r="AA47" t="s">
+      <c r="AB47" t="s">
         <v>120</v>
       </c>
     </row>
@@ -17182,7 +18058,7 @@
       <c r="H48" t="s">
         <v>338</v>
       </c>
-      <c r="AA48" t="s">
+      <c r="AB48" t="s">
         <v>121</v>
       </c>
     </row>
@@ -17190,7 +18066,7 @@
       <c r="H49" t="s">
         <v>207</v>
       </c>
-      <c r="AA49" t="s">
+      <c r="AB49" t="s">
         <v>122</v>
       </c>
     </row>
@@ -17198,7 +18074,7 @@
       <c r="H50" t="s">
         <v>316</v>
       </c>
-      <c r="AA50" t="s">
+      <c r="AB50" t="s">
         <v>123</v>
       </c>
     </row>
@@ -17206,7 +18082,7 @@
       <c r="H51" t="s">
         <v>335</v>
       </c>
-      <c r="AA51" t="s">
+      <c r="AB51" t="s">
         <v>617</v>
       </c>
     </row>
@@ -17214,7 +18090,7 @@
       <c r="H52" t="s">
         <v>363</v>
       </c>
-      <c r="AA52" t="s">
+      <c r="AB52" t="s">
         <v>209</v>
       </c>
     </row>
@@ -17222,7 +18098,7 @@
       <c r="H53" t="s">
         <v>298</v>
       </c>
-      <c r="AA53" t="s">
+      <c r="AB53" t="s">
         <v>75</v>
       </c>
     </row>
@@ -17230,7 +18106,7 @@
       <c r="H54" t="s">
         <v>351</v>
       </c>
-      <c r="AA54" t="s">
+      <c r="AB54" t="s">
         <v>531</v>
       </c>
     </row>
@@ -17238,7 +18114,7 @@
       <c r="H55" t="s">
         <v>327</v>
       </c>
-      <c r="AA55" t="s">
+      <c r="AB55" t="s">
         <v>124</v>
       </c>
     </row>
@@ -17246,7 +18122,7 @@
       <c r="H56" t="s">
         <v>264</v>
       </c>
-      <c r="AA56" t="s">
+      <c r="AB56" t="s">
         <v>125</v>
       </c>
     </row>
@@ -17254,7 +18130,7 @@
       <c r="H57" t="s">
         <v>288</v>
       </c>
-      <c r="AA57" t="s">
+      <c r="AB57" t="s">
         <v>126</v>
       </c>
     </row>
@@ -17262,7 +18138,7 @@
       <c r="H58" t="s">
         <v>289</v>
       </c>
-      <c r="AA58" t="s">
+      <c r="AB58" t="s">
         <v>490</v>
       </c>
     </row>
@@ -17270,7 +18146,7 @@
       <c r="H59" t="s">
         <v>535</v>
       </c>
-      <c r="AA59" t="s">
+      <c r="AB59" t="s">
         <v>459</v>
       </c>
     </row>
@@ -17278,7 +18154,7 @@
       <c r="H60" t="s">
         <v>290</v>
       </c>
-      <c r="AA60" t="s">
+      <c r="AB60" t="s">
         <v>127</v>
       </c>
     </row>
@@ -17286,7 +18162,7 @@
       <c r="H61" t="s">
         <v>299</v>
       </c>
-      <c r="AA61" t="s">
+      <c r="AB61" t="s">
         <v>342</v>
       </c>
     </row>
@@ -17294,7 +18170,7 @@
       <c r="H62" t="s">
         <v>308</v>
       </c>
-      <c r="AA62" t="s">
+      <c r="AB62" t="s">
         <v>460</v>
       </c>
     </row>
@@ -17302,7 +18178,7 @@
       <c r="H63" t="s">
         <v>333</v>
       </c>
-      <c r="AA63" t="s">
+      <c r="AB63" t="s">
         <v>128</v>
       </c>
     </row>
@@ -17310,7 +18186,7 @@
       <c r="H64" t="s">
         <v>305</v>
       </c>
-      <c r="AA64" t="s">
+      <c r="AB64" t="s">
         <v>129</v>
       </c>
     </row>
@@ -17318,7 +18194,7 @@
       <c r="H65" t="s">
         <v>306</v>
       </c>
-      <c r="AA65" t="s">
+      <c r="AB65" t="s">
         <v>130</v>
       </c>
     </row>
@@ -17326,7 +18202,7 @@
       <c r="H66" t="s">
         <v>364</v>
       </c>
-      <c r="AA66" t="s">
+      <c r="AB66" t="s">
         <v>131</v>
       </c>
     </row>
@@ -17334,7 +18210,7 @@
       <c r="H67" t="s">
         <v>365</v>
       </c>
-      <c r="AA67" t="s">
+      <c r="AB67" t="s">
         <v>132</v>
       </c>
     </row>
@@ -17342,7 +18218,7 @@
       <c r="H68" t="s">
         <v>341</v>
       </c>
-      <c r="AA68" t="s">
+      <c r="AB68" t="s">
         <v>133</v>
       </c>
     </row>
@@ -17350,7 +18226,7 @@
       <c r="H69" t="s">
         <v>309</v>
       </c>
-      <c r="AA69" t="s">
+      <c r="AB69" t="s">
         <v>134</v>
       </c>
     </row>
@@ -17358,7 +18234,7 @@
       <c r="H70" t="s">
         <v>265</v>
       </c>
-      <c r="AA70" t="s">
+      <c r="AB70" t="s">
         <v>435</v>
       </c>
     </row>
@@ -17366,7 +18242,7 @@
       <c r="H71" t="s">
         <v>520</v>
       </c>
-      <c r="AA71" t="s">
+      <c r="AB71" t="s">
         <v>468</v>
       </c>
     </row>
@@ -17374,7 +18250,7 @@
       <c r="H72" t="s">
         <v>310</v>
       </c>
-      <c r="AA72" t="s">
+      <c r="AB72" t="s">
         <v>210</v>
       </c>
     </row>
@@ -17382,7 +18258,7 @@
       <c r="H73" t="s">
         <v>405</v>
       </c>
-      <c r="AA73" t="s">
+      <c r="AB73" t="s">
         <v>384</v>
       </c>
     </row>
@@ -17390,7 +18266,7 @@
       <c r="H74" t="s">
         <v>300</v>
       </c>
-      <c r="AA74" t="s">
+      <c r="AB74" t="s">
         <v>436</v>
       </c>
     </row>
@@ -17398,7 +18274,7 @@
       <c r="H75" t="s">
         <v>406</v>
       </c>
-      <c r="AA75" t="s">
+      <c r="AB75" t="s">
         <v>135</v>
       </c>
     </row>
@@ -17406,7 +18282,7 @@
       <c r="H76" t="s">
         <v>258</v>
       </c>
-      <c r="AA76" t="s">
+      <c r="AB76" t="s">
         <v>136</v>
       </c>
     </row>
@@ -17414,7 +18290,7 @@
       <c r="H77" t="s">
         <v>505</v>
       </c>
-      <c r="AA77" t="s">
+      <c r="AB77" t="s">
         <v>137</v>
       </c>
     </row>
@@ -17422,7 +18298,7 @@
       <c r="H78" t="s">
         <v>340</v>
       </c>
-      <c r="AA78" t="s">
+      <c r="AB78" t="s">
         <v>138</v>
       </c>
     </row>
@@ -17430,395 +18306,425 @@
       <c r="H79" t="s">
         <v>276</v>
       </c>
-      <c r="AA79" t="s">
-        <v>193</v>
+      <c r="AB79" t="s">
+        <v>661</v>
       </c>
     </row>
     <row r="80">
       <c r="H80" t="s">
         <v>282</v>
       </c>
-      <c r="AA80" t="s">
-        <v>194</v>
+      <c r="AB80" t="s">
+        <v>193</v>
       </c>
     </row>
     <row r="81">
       <c r="H81" t="s">
         <v>287</v>
       </c>
-      <c r="AA81" t="s">
-        <v>448</v>
+      <c r="AB81" t="s">
+        <v>194</v>
       </c>
     </row>
     <row r="82">
       <c r="H82" t="s">
         <v>424</v>
       </c>
-      <c r="AA82" t="s">
-        <v>461</v>
+      <c r="AB82" t="s">
+        <v>448</v>
       </c>
     </row>
     <row r="83">
       <c r="H83" t="s">
         <v>328</v>
       </c>
-      <c r="AA83" t="s">
-        <v>139</v>
+      <c r="AB83" t="s">
+        <v>461</v>
       </c>
     </row>
     <row r="84">
       <c r="H84" t="s">
         <v>266</v>
       </c>
-      <c r="AA84" t="s">
-        <v>140</v>
+      <c r="AB84" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="85">
       <c r="H85" t="s">
         <v>277</v>
       </c>
-      <c r="AA85" t="s">
-        <v>141</v>
+      <c r="AB85" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="86">
       <c r="H86" t="s">
         <v>283</v>
       </c>
-      <c r="AA86" t="s">
-        <v>491</v>
+      <c r="AB86" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="87">
       <c r="H87" t="s">
         <v>272</v>
       </c>
-      <c r="AA87" t="s">
-        <v>142</v>
+      <c r="AB87" t="s">
+        <v>491</v>
       </c>
     </row>
     <row r="88">
       <c r="H88" t="s">
         <v>523</v>
       </c>
-      <c r="AA88" t="s">
-        <v>143</v>
+      <c r="AB88" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="89">
       <c r="H89" t="s">
         <v>267</v>
       </c>
-      <c r="AA89" t="s">
-        <v>195</v>
+      <c r="AB89" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="90">
       <c r="H90" t="s">
         <v>284</v>
       </c>
-      <c r="AA90" t="s">
-        <v>492</v>
+      <c r="AB90" t="s">
+        <v>195</v>
       </c>
     </row>
     <row r="91">
       <c r="H91" t="s">
         <v>268</v>
       </c>
-      <c r="AA91" t="s">
-        <v>587</v>
+      <c r="AB91" t="s">
+        <v>492</v>
       </c>
     </row>
     <row r="92">
       <c r="H92" t="s">
         <v>269</v>
       </c>
-      <c r="AA92" t="s">
-        <v>196</v>
+      <c r="AB92" t="s">
+        <v>587</v>
       </c>
     </row>
     <row r="93">
       <c r="H93" t="s">
         <v>301</v>
       </c>
-      <c r="AA93" t="s">
-        <v>449</v>
+      <c r="AB93" t="s">
+        <v>196</v>
       </c>
     </row>
     <row r="94">
       <c r="H94" t="s">
         <v>307</v>
       </c>
-      <c r="AA94" t="s">
-        <v>197</v>
+      <c r="AB94" t="s">
+        <v>449</v>
       </c>
     </row>
     <row r="95">
       <c r="H95" t="s">
         <v>291</v>
       </c>
-      <c r="AA95" t="s">
-        <v>198</v>
+      <c r="AB95" t="s">
+        <v>197</v>
       </c>
     </row>
     <row r="96">
       <c r="H96" t="s">
         <v>336</v>
       </c>
-      <c r="AA96" t="s">
-        <v>572</v>
+      <c r="AB96" t="s">
+        <v>198</v>
       </c>
     </row>
     <row r="97">
       <c r="H97" t="s">
         <v>273</v>
       </c>
-      <c r="AA97" t="s">
-        <v>573</v>
+      <c r="AB97" t="s">
+        <v>572</v>
       </c>
     </row>
     <row r="98">
       <c r="H98" t="s">
         <v>274</v>
       </c>
-      <c r="AA98" t="s">
+      <c r="AB98" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="AB99" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="99">
-      <c r="AA99" t="s">
+    <row r="100">
+      <c r="AB100" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="100">
-      <c r="AA100" t="s">
+    <row r="101">
+      <c r="AB101" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="101">
-      <c r="AA101" t="s">
+    <row r="102">
+      <c r="AB102" t="s">
         <v>437</v>
       </c>
     </row>
-    <row r="102">
-      <c r="AA102" t="s">
+    <row r="103">
+      <c r="AB103" t="s">
         <v>585</v>
       </c>
     </row>
-    <row r="103">
-      <c r="AA103" t="s">
+    <row r="104">
+      <c r="AB104" t="s">
         <v>586</v>
       </c>
     </row>
-    <row r="104">
-      <c r="AA104" t="s">
+    <row r="105">
+      <c r="AB105" t="s">
         <v>438</v>
       </c>
     </row>
-    <row r="105">
-      <c r="AA105" t="s">
+    <row r="106">
+      <c r="AB106" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="106">
-      <c r="AA106" t="s">
+    <row r="107">
+      <c r="AB107" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="107">
-      <c r="AA107" t="s">
+    <row r="108">
+      <c r="AB108" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="108">
-      <c r="AA108" t="s">
+    <row r="109">
+      <c r="AB109" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="109">
-      <c r="AA109" t="s">
+    <row r="110">
+      <c r="AB110" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="110">
-      <c r="AA110" t="s">
+    <row r="111">
+      <c r="AB111" t="s">
         <v>591</v>
       </c>
     </row>
-    <row r="111">
-      <c r="AA111" t="s">
+    <row r="112">
+      <c r="AB112" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="112">
-      <c r="AA112" t="s">
+    <row r="113">
+      <c r="AB113" t="s">
         <v>493</v>
       </c>
     </row>
-    <row r="113">
-      <c r="AA113" t="s">
-        <v>579</v>
-      </c>
-    </row>
     <row r="114">
-      <c r="AA114" t="s">
+      <c r="AB114" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="AB115" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="AB116" t="s">
         <v>517</v>
       </c>
     </row>
-    <row r="115">
-      <c r="AA115" t="s">
+    <row r="117">
+      <c r="AB117" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="116">
-      <c r="AA116" t="s">
+    <row r="118">
+      <c r="AB118" t="s">
         <v>518</v>
       </c>
     </row>
-    <row r="117">
-      <c r="AA117" t="s">
+    <row r="119">
+      <c r="AB119" t="s">
         <v>378</v>
       </c>
     </row>
-    <row r="118">
-      <c r="AA118" t="s">
+    <row r="120">
+      <c r="AB120" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="119">
-      <c r="AA119" t="s">
+    <row r="121">
+      <c r="AB121" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="120">
-      <c r="AA120" t="s">
+    <row r="122">
+      <c r="AB122" t="s">
         <v>592</v>
       </c>
     </row>
-    <row r="121">
-      <c r="AA121" t="s">
+    <row r="123">
+      <c r="AB123" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="122">
-      <c r="AA122" t="s">
+    <row r="124">
+      <c r="AB124" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="123">
-      <c r="AA123" t="s">
+    <row r="125">
+      <c r="AB125" t="s">
         <v>593</v>
       </c>
     </row>
-    <row r="124">
-      <c r="AA124" t="s">
+    <row r="126">
+      <c r="AB126" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="125">
-      <c r="AA125" t="s">
+    <row r="127">
+      <c r="AB127" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="126">
-      <c r="AA126" t="s">
+    <row r="128">
+      <c r="AB128" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="127">
-      <c r="AA127" t="s">
+    <row r="129">
+      <c r="AB129" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="128">
-      <c r="AA128" t="s">
+    <row r="130">
+      <c r="AB130" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="129">
-      <c r="AA129" t="s">
+    <row r="131">
+      <c r="AB131" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="130">
-      <c r="AA130" t="s">
+    <row r="132">
+      <c r="AB132" t="s">
         <v>594</v>
       </c>
     </row>
-    <row r="131">
-      <c r="AA131" t="s">
+    <row r="133">
+      <c r="AB133" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="132">
-      <c r="AA132" t="s">
+    <row r="134">
+      <c r="AB134" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="133">
-      <c r="AA133" t="s">
+    <row r="135">
+      <c r="AB135" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="134">
-      <c r="AA134" t="s">
+    <row r="136">
+      <c r="AB136" t="s">
         <v>618</v>
       </c>
     </row>
-    <row r="135">
-      <c r="AA135" t="s">
+    <row r="137">
+      <c r="AB137" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="136">
-      <c r="AA136" t="s">
+    <row r="138">
+      <c r="AB138" t="s">
         <v>569</v>
       </c>
     </row>
-    <row r="137">
-      <c r="AA137" t="s">
+    <row r="139">
+      <c r="AB139" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="138">
-      <c r="AA138" t="s">
+    <row r="140">
+      <c r="AB140" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="139">
-      <c r="AA139" t="s">
+    <row r="141">
+      <c r="AB141" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="140">
-      <c r="AA140" t="s">
+    <row r="142">
+      <c r="AB142" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="141">
-      <c r="AA141" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="142">
-      <c r="AA142" t="s">
+    <row r="143">
+      <c r="AB143" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="AB144" t="s">
         <v>595</v>
       </c>
     </row>
-    <row r="143">
-      <c r="AA143" t="s">
+    <row r="145">
+      <c r="AB145" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="144">
-      <c r="AA144" t="s">
+    <row r="146">
+      <c r="AB146" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="145">
-      <c r="AA145" t="s">
+    <row r="147">
+      <c r="AB147" t="s">
         <v>166</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="AB148" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="AB149" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="AB150" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="AB151" t="s">
+        <v>668</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/resources/unittesting/artifact/script/unitTest_LocalDb.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_LocalDb.xlsx
@@ -20,13 +20,13 @@
     <definedName name="aws.s3">'#system'!$B$2:$B$9</definedName>
     <definedName name="aws.ses">'#system'!$C$2:$C$3</definedName>
     <definedName name="aws.sqs">'#system'!$D$2:$D$6</definedName>
-    <definedName name="base">'#system'!$F$2:$F$44</definedName>
+    <definedName name="base">'#system'!$F$2:$F$45</definedName>
     <definedName name="csv">'#system'!$G$2:$G$6</definedName>
     <definedName name="date">'#system'!$C$2:$C$14</definedName>
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
     <definedName name="desktop">'#system'!$H$2:$H$98</definedName>
     <definedName name="excel">'#system'!$I$2:$I$16</definedName>
-    <definedName name="external">'#system'!$J$2:$J$6</definedName>
+    <definedName name="external">'#system'!$J$2:$J$7</definedName>
     <definedName name="image">'#system'!$K$2:$K$8</definedName>
     <definedName name="io">'#system'!$L$2:$L$31</definedName>
     <definedName name="jms">'#system'!$M$2:$M$4</definedName>
@@ -45,14 +45,14 @@
     <definedName name="sound">'#system'!$W$2:$W$5</definedName>
     <definedName name="ssh">'#system'!$X$2:$X$9</definedName>
     <definedName name="step">'#system'!$Y$2:$Y$4</definedName>
-    <definedName name="target">'#system'!$A$2:$A$33</definedName>
+    <definedName name="target">'#system'!$A$2:$A$32</definedName>
     <definedName name="text">'#system'!$Y$2:$Y$2</definedName>
-    <definedName name="web">'#system'!$AB$2:$AB$151</definedName>
-    <definedName name="webalert">'#system'!$AC$2:$AC$8</definedName>
-    <definedName name="webcookie">'#system'!$AD$2:$AD$10</definedName>
-    <definedName name="ws">'#system'!$AE$2:$AE$17</definedName>
-    <definedName name="ws.async">'#system'!$AF$2:$AF$8</definedName>
-    <definedName name="xml">'#system'!$AG$2:$AG$27</definedName>
+    <definedName name="web">'#system'!$AA$2:$AA$151</definedName>
+    <definedName name="webalert">'#system'!$AB$2:$AB$8</definedName>
+    <definedName name="webcookie">'#system'!$AC$2:$AC$10</definedName>
+    <definedName name="ws">'#system'!$AD$2:$AD$17</definedName>
+    <definedName name="ws.async">'#system'!$AE$2:$AE$8</definedName>
+    <definedName name="xml">'#system'!$AF$2:$AF$27</definedName>
     <definedName name="aws.vision">'#system'!$E$2:$E$2</definedName>
     <definedName name="tn.5250">'#system'!$AA$2:$AA$38</definedName>
     <definedName name="step.inTime">'#system'!$Z$2:$Z$4</definedName>
@@ -70,7 +70,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13778" uniqueCount="669">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14380" uniqueCount="671">
   <si>
     <t>description</t>
   </si>
@@ -2091,13 +2091,19 @@
   <si>
     <t>waitUntilVisible(locator,waitMs)</t>
   </si>
+  <si>
+    <t>assertMatch(text,regex)</t>
+  </si>
+  <si>
+    <t>openFile(filePath)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="381" x14ac:knownFonts="1">
+  <fonts count="398" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -4509,8 +4515,115 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="619">
+  <fills count="643">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -7740,6 +7853,142 @@
       <patternFill patternType="solid">
         <fgColor rgb="E6E6E6"/>
         <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
     <fill>
@@ -14906,7 +15155,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="407">
+  <cellXfs count="424">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -16094,55 +16343,106 @@
     <xf applyFill="true" applyFont="true" borderId="0" fillId="591" fontId="363" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="364" fillId="597" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="597" fontId="364" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="365" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="365" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="366" fillId="600" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="600" fontId="366" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="367" fillId="603" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="603" fontId="367" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="368" fillId="606" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="606" fontId="368" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="369" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="369" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="370" fillId="609" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="609" fontId="370" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="371" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="371" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="372" fillId="612" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="612" fontId="372" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="373" fillId="615" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="615" fontId="373" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="374" fillId="603" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="603" fontId="374" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="375" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="375" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="376" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="376" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="377" fillId="606" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="606" fontId="377" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="378" fillId="618" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="618" fontId="378" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="379" fillId="606" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="606" fontId="379" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="380" fillId="615" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="615" fontId="380" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="381" fillId="621" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="382" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="383" fillId="624" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="384" fillId="627" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="385" fillId="630" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="386" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="387" fillId="633" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="388" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="389" fillId="636" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="390" fillId="639" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="391" fillId="627" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="392" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="393" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="394" fillId="630" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="395" fillId="642" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="396" fillId="630" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="397" fillId="639" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -16497,7 +16797,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AH151"/>
+  <dimension ref="A1:AG151"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
@@ -16588,24 +16888,21 @@
         <v>609</v>
       </c>
       <c r="AA1" t="s">
-        <v>600</v>
+        <v>52</v>
       </c>
       <c r="AB1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="AC1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="AD1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AE1" t="s">
-        <v>55</v>
+        <v>409</v>
       </c>
       <c r="AF1" t="s">
-        <v>409</v>
-      </c>
-      <c r="AG1" t="s">
         <v>223</v>
       </c>
     </row>
@@ -16638,7 +16935,7 @@
         <v>445</v>
       </c>
       <c r="J2" t="s">
-        <v>77</v>
+        <v>670</v>
       </c>
       <c r="K2" t="s">
         <v>607</v>
@@ -16689,24 +16986,21 @@
         <v>613</v>
       </c>
       <c r="AA2" t="s">
-        <v>626</v>
+        <v>94</v>
       </c>
       <c r="AB2" t="s">
-        <v>94</v>
+        <v>167</v>
       </c>
       <c r="AC2" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="AD2" t="s">
-        <v>172</v>
+        <v>179</v>
       </c>
       <c r="AE2" t="s">
-        <v>179</v>
+        <v>427</v>
       </c>
       <c r="AF2" t="s">
-        <v>427</v>
-      </c>
-      <c r="AG2" t="s">
         <v>494</v>
       </c>
     </row>
@@ -16736,7 +17030,7 @@
         <v>47</v>
       </c>
       <c r="J3" t="s">
-        <v>478</v>
+        <v>77</v>
       </c>
       <c r="K3" t="s">
         <v>345</v>
@@ -16781,24 +17075,21 @@
         <v>614</v>
       </c>
       <c r="AA3" t="s">
-        <v>627</v>
+        <v>95</v>
       </c>
       <c r="AB3" t="s">
-        <v>95</v>
+        <v>168</v>
       </c>
       <c r="AC3" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="AD3" t="s">
-        <v>173</v>
+        <v>359</v>
       </c>
       <c r="AE3" t="s">
-        <v>359</v>
+        <v>180</v>
       </c>
       <c r="AF3" t="s">
-        <v>180</v>
-      </c>
-      <c r="AG3" t="s">
         <v>224</v>
       </c>
     </row>
@@ -16825,7 +17116,7 @@
         <v>446</v>
       </c>
       <c r="J4" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="K4" t="s">
         <v>346</v>
@@ -16870,24 +17161,21 @@
         <v>615</v>
       </c>
       <c r="AA4" t="s">
-        <v>628</v>
+        <v>584</v>
       </c>
       <c r="AB4" t="s">
-        <v>584</v>
+        <v>169</v>
       </c>
       <c r="AC4" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="AD4" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="AE4" t="s">
-        <v>180</v>
+        <v>419</v>
       </c>
       <c r="AF4" t="s">
-        <v>419</v>
-      </c>
-      <c r="AG4" t="s">
         <v>225</v>
       </c>
     </row>
@@ -16914,7 +17202,7 @@
         <v>455</v>
       </c>
       <c r="J5" t="s">
-        <v>521</v>
+        <v>479</v>
       </c>
       <c r="K5" t="s">
         <v>347</v>
@@ -16947,24 +17235,21 @@
         <v>354</v>
       </c>
       <c r="AA5" t="s">
-        <v>629</v>
+        <v>577</v>
       </c>
       <c r="AB5" t="s">
-        <v>577</v>
+        <v>170</v>
       </c>
       <c r="AC5" t="s">
-        <v>170</v>
+        <v>596</v>
       </c>
       <c r="AD5" t="s">
-        <v>596</v>
+        <v>181</v>
       </c>
       <c r="AE5" t="s">
-        <v>181</v>
+        <v>420</v>
       </c>
       <c r="AF5" t="s">
-        <v>420</v>
-      </c>
-      <c r="AG5" t="s">
         <v>226</v>
       </c>
     </row>
@@ -16991,7 +17276,7 @@
         <v>443</v>
       </c>
       <c r="J6" t="s">
-        <v>582</v>
+        <v>521</v>
       </c>
       <c r="K6" t="s">
         <v>608</v>
@@ -17021,24 +17306,21 @@
         <v>356</v>
       </c>
       <c r="AA6" t="s">
-        <v>630</v>
+        <v>96</v>
       </c>
       <c r="AB6" t="s">
-        <v>96</v>
+        <v>440</v>
       </c>
       <c r="AC6" t="s">
-        <v>440</v>
+        <v>175</v>
       </c>
       <c r="AD6" t="s">
-        <v>175</v>
+        <v>182</v>
       </c>
       <c r="AE6" t="s">
-        <v>182</v>
+        <v>421</v>
       </c>
       <c r="AF6" t="s">
-        <v>421</v>
-      </c>
-      <c r="AG6" t="s">
         <v>227</v>
       </c>
     </row>
@@ -17058,6 +17340,9 @@
       <c r="I7" t="s">
         <v>442</v>
       </c>
+      <c r="J7" t="s">
+        <v>582</v>
+      </c>
       <c r="K7" t="s">
         <v>344</v>
       </c>
@@ -17086,24 +17371,21 @@
         <v>355</v>
       </c>
       <c r="AA7" t="s">
-        <v>631</v>
+        <v>97</v>
       </c>
       <c r="AB7" t="s">
-        <v>97</v>
+        <v>441</v>
       </c>
       <c r="AC7" t="s">
-        <v>441</v>
+        <v>176</v>
       </c>
       <c r="AD7" t="s">
-        <v>176</v>
+        <v>183</v>
       </c>
       <c r="AE7" t="s">
-        <v>183</v>
+        <v>422</v>
       </c>
       <c r="AF7" t="s">
-        <v>422</v>
-      </c>
-      <c r="AG7" t="s">
         <v>524</v>
       </c>
     </row>
@@ -17151,24 +17433,21 @@
         <v>357</v>
       </c>
       <c r="AA8" t="s">
-        <v>632</v>
+        <v>98</v>
       </c>
       <c r="AB8" t="s">
-        <v>98</v>
+        <v>171</v>
       </c>
       <c r="AC8" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
       <c r="AD8" t="s">
-        <v>177</v>
+        <v>184</v>
       </c>
       <c r="AE8" t="s">
-        <v>184</v>
+        <v>423</v>
       </c>
       <c r="AF8" t="s">
-        <v>423</v>
-      </c>
-      <c r="AG8" t="s">
         <v>525</v>
       </c>
     </row>
@@ -17213,18 +17492,15 @@
         <v>358</v>
       </c>
       <c r="AA9" t="s">
-        <v>633</v>
-      </c>
-      <c r="AB9" t="s">
         <v>205</v>
       </c>
+      <c r="AC9" t="s">
+        <v>178</v>
+      </c>
       <c r="AD9" t="s">
-        <v>178</v>
-      </c>
-      <c r="AE9" t="s">
         <v>185</v>
       </c>
-      <c r="AG9" t="s">
+      <c r="AF9" t="s">
         <v>526</v>
       </c>
     </row>
@@ -17260,18 +17536,15 @@
         <v>401</v>
       </c>
       <c r="AA10" t="s">
-        <v>634</v>
-      </c>
-      <c r="AB10" t="s">
         <v>253</v>
       </c>
+      <c r="AC10" t="s">
+        <v>597</v>
+      </c>
       <c r="AD10" t="s">
-        <v>597</v>
-      </c>
-      <c r="AE10" t="s">
         <v>186</v>
       </c>
-      <c r="AG10" t="s">
+      <c r="AF10" t="s">
         <v>228</v>
       </c>
     </row>
@@ -17280,7 +17553,7 @@
         <v>343</v>
       </c>
       <c r="F11" t="s">
-        <v>576</v>
+        <v>669</v>
       </c>
       <c r="H11" t="s">
         <v>348</v>
@@ -17304,15 +17577,12 @@
         <v>625</v>
       </c>
       <c r="AA11" t="s">
-        <v>635</v>
-      </c>
-      <c r="AB11" t="s">
         <v>254</v>
       </c>
-      <c r="AE11" t="s">
+      <c r="AD11" t="s">
         <v>255</v>
       </c>
-      <c r="AG11" t="s">
+      <c r="AF11" t="s">
         <v>229</v>
       </c>
     </row>
@@ -17321,7 +17591,7 @@
         <v>14</v>
       </c>
       <c r="F12" t="s">
-        <v>315</v>
+        <v>576</v>
       </c>
       <c r="H12" t="s">
         <v>270</v>
@@ -17345,15 +17615,12 @@
         <v>244</v>
       </c>
       <c r="AA12" t="s">
-        <v>636</v>
-      </c>
-      <c r="AB12" t="s">
         <v>99</v>
       </c>
-      <c r="AE12" t="s">
+      <c r="AD12" t="s">
         <v>187</v>
       </c>
-      <c r="AG12" t="s">
+      <c r="AF12" t="s">
         <v>230</v>
       </c>
     </row>
@@ -17362,7 +17629,7 @@
         <v>329</v>
       </c>
       <c r="F13" t="s">
-        <v>337</v>
+        <v>315</v>
       </c>
       <c r="H13" t="s">
         <v>259</v>
@@ -17386,15 +17653,12 @@
         <v>245</v>
       </c>
       <c r="AA13" t="s">
-        <v>637</v>
-      </c>
-      <c r="AB13" t="s">
         <v>322</v>
       </c>
-      <c r="AE13" t="s">
+      <c r="AD13" t="s">
         <v>188</v>
       </c>
-      <c r="AG13" t="s">
+      <c r="AF13" t="s">
         <v>469</v>
       </c>
     </row>
@@ -17403,7 +17667,7 @@
         <v>24</v>
       </c>
       <c r="F14" t="s">
-        <v>36</v>
+        <v>337</v>
       </c>
       <c r="H14" t="s">
         <v>312</v>
@@ -17424,15 +17688,12 @@
         <v>589</v>
       </c>
       <c r="AA14" t="s">
-        <v>638</v>
-      </c>
-      <c r="AB14" t="s">
         <v>100</v>
       </c>
-      <c r="AE14" t="s">
+      <c r="AD14" t="s">
         <v>189</v>
       </c>
-      <c r="AG14" t="s">
+      <c r="AF14" t="s">
         <v>495</v>
       </c>
     </row>
@@ -17441,7 +17702,7 @@
         <v>502</v>
       </c>
       <c r="F15" t="s">
-        <v>57</v>
+        <v>36</v>
       </c>
       <c r="H15" t="s">
         <v>260</v>
@@ -17462,15 +17723,12 @@
         <v>250</v>
       </c>
       <c r="AA15" t="s">
-        <v>639</v>
-      </c>
-      <c r="AB15" t="s">
         <v>616</v>
       </c>
-      <c r="AE15" t="s">
+      <c r="AD15" t="s">
         <v>190</v>
       </c>
-      <c r="AG15" t="s">
+      <c r="AF15" t="s">
         <v>496</v>
       </c>
     </row>
@@ -17479,7 +17737,7 @@
         <v>472</v>
       </c>
       <c r="F16" t="s">
-        <v>380</v>
+        <v>57</v>
       </c>
       <c r="H16" t="s">
         <v>261</v>
@@ -17500,15 +17758,12 @@
         <v>246</v>
       </c>
       <c r="AA16" t="s">
-        <v>640</v>
-      </c>
-      <c r="AB16" t="s">
         <v>590</v>
       </c>
-      <c r="AE16" t="s">
+      <c r="AD16" t="s">
         <v>191</v>
       </c>
-      <c r="AG16" t="s">
+      <c r="AF16" t="s">
         <v>497</v>
       </c>
     </row>
@@ -17517,7 +17772,7 @@
         <v>192</v>
       </c>
       <c r="F17" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="H17" t="s">
         <v>313</v>
@@ -17532,15 +17787,12 @@
         <v>247</v>
       </c>
       <c r="AA17" t="s">
-        <v>641</v>
-      </c>
-      <c r="AB17" t="s">
         <v>101</v>
       </c>
-      <c r="AE17" t="s">
+      <c r="AD17" t="s">
         <v>462</v>
       </c>
-      <c r="AG17" t="s">
+      <c r="AF17" t="s">
         <v>498</v>
       </c>
     </row>
@@ -17549,7 +17801,7 @@
         <v>50</v>
       </c>
       <c r="F18" t="s">
-        <v>410</v>
+        <v>381</v>
       </c>
       <c r="H18" t="s">
         <v>87</v>
@@ -17564,12 +17816,9 @@
         <v>248</v>
       </c>
       <c r="AA18" t="s">
-        <v>642</v>
-      </c>
-      <c r="AB18" t="s">
         <v>73</v>
       </c>
-      <c r="AG18" t="s">
+      <c r="AF18" t="s">
         <v>470</v>
       </c>
     </row>
@@ -17578,7 +17827,7 @@
         <v>235</v>
       </c>
       <c r="F19" t="s">
-        <v>619</v>
+        <v>410</v>
       </c>
       <c r="H19" t="s">
         <v>88</v>
@@ -17587,12 +17836,9 @@
         <v>458</v>
       </c>
       <c r="AA19" t="s">
-        <v>643</v>
-      </c>
-      <c r="AB19" t="s">
         <v>488</v>
       </c>
-      <c r="AG19" t="s">
+      <c r="AF19" t="s">
         <v>499</v>
       </c>
     </row>
@@ -17601,7 +17847,7 @@
         <v>51</v>
       </c>
       <c r="F20" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="H20" t="s">
         <v>292</v>
@@ -17610,12 +17856,9 @@
         <v>81</v>
       </c>
       <c r="AA20" t="s">
-        <v>644</v>
-      </c>
-      <c r="AB20" t="s">
         <v>102</v>
       </c>
-      <c r="AG20" t="s">
+      <c r="AF20" t="s">
         <v>500</v>
       </c>
     </row>
@@ -17624,7 +17867,7 @@
         <v>391</v>
       </c>
       <c r="F21" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="H21" t="s">
         <v>293</v>
@@ -17633,12 +17876,9 @@
         <v>82</v>
       </c>
       <c r="AA21" t="s">
-        <v>645</v>
-      </c>
-      <c r="AB21" t="s">
         <v>103</v>
       </c>
-      <c r="AG21" t="s">
+      <c r="AF21" t="s">
         <v>501</v>
       </c>
     </row>
@@ -17647,7 +17887,7 @@
         <v>407</v>
       </c>
       <c r="F22" t="s">
-        <v>58</v>
+        <v>621</v>
       </c>
       <c r="H22" t="s">
         <v>294</v>
@@ -17656,12 +17896,9 @@
         <v>581</v>
       </c>
       <c r="AA22" t="s">
-        <v>602</v>
-      </c>
-      <c r="AB22" t="s">
         <v>104</v>
       </c>
-      <c r="AG22" t="s">
+      <c r="AF22" t="s">
         <v>231</v>
       </c>
     </row>
@@ -17670,7 +17907,7 @@
         <v>408</v>
       </c>
       <c r="F23" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H23" t="s">
         <v>295</v>
@@ -17679,12 +17916,9 @@
         <v>465</v>
       </c>
       <c r="AA23" t="s">
-        <v>646</v>
-      </c>
-      <c r="AB23" t="s">
         <v>105</v>
       </c>
-      <c r="AG23" t="s">
+      <c r="AF23" t="s">
         <v>527</v>
       </c>
     </row>
@@ -17693,7 +17927,7 @@
         <v>352</v>
       </c>
       <c r="F24" t="s">
-        <v>252</v>
+        <v>59</v>
       </c>
       <c r="H24" t="s">
         <v>286</v>
@@ -17702,12 +17936,9 @@
         <v>43</v>
       </c>
       <c r="AA24" t="s">
-        <v>647</v>
-      </c>
-      <c r="AB24" t="s">
         <v>489</v>
       </c>
-      <c r="AG24" t="s">
+      <c r="AF24" t="s">
         <v>528</v>
       </c>
     </row>
@@ -17716,7 +17947,7 @@
         <v>392</v>
       </c>
       <c r="F25" t="s">
-        <v>622</v>
+        <v>252</v>
       </c>
       <c r="H25" t="s">
         <v>275</v>
@@ -17725,12 +17956,9 @@
         <v>387</v>
       </c>
       <c r="AA25" t="s">
-        <v>648</v>
-      </c>
-      <c r="AB25" t="s">
         <v>106</v>
       </c>
-      <c r="AG25" t="s">
+      <c r="AF25" t="s">
         <v>529</v>
       </c>
     </row>
@@ -17739,7 +17967,7 @@
         <v>609</v>
       </c>
       <c r="F26" t="s">
-        <v>533</v>
+        <v>622</v>
       </c>
       <c r="H26" t="s">
         <v>74</v>
@@ -17748,21 +17976,18 @@
         <v>624</v>
       </c>
       <c r="AA26" t="s">
-        <v>603</v>
-      </c>
-      <c r="AB26" t="s">
         <v>567</v>
       </c>
-      <c r="AG26" t="s">
+      <c r="AF26" t="s">
         <v>232</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>600</v>
+        <v>52</v>
       </c>
       <c r="F27" t="s">
-        <v>60</v>
+        <v>533</v>
       </c>
       <c r="H27" t="s">
         <v>278</v>
@@ -17771,21 +17996,18 @@
         <v>519</v>
       </c>
       <c r="AA27" t="s">
-        <v>649</v>
-      </c>
-      <c r="AB27" t="s">
         <v>107</v>
       </c>
-      <c r="AG27" t="s">
+      <c r="AF27" t="s">
         <v>233</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F28" t="s">
-        <v>317</v>
+        <v>60</v>
       </c>
       <c r="H28" t="s">
         <v>262</v>
@@ -17794,18 +18016,15 @@
         <v>83</v>
       </c>
       <c r="AA28" t="s">
-        <v>650</v>
-      </c>
-      <c r="AB28" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F29" t="s">
-        <v>61</v>
+        <v>317</v>
       </c>
       <c r="H29" t="s">
         <v>279</v>
@@ -17814,18 +18033,15 @@
         <v>429</v>
       </c>
       <c r="AA29" t="s">
-        <v>651</v>
-      </c>
-      <c r="AB29" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F30" t="s">
-        <v>444</v>
+        <v>61</v>
       </c>
       <c r="H30" t="s">
         <v>280</v>
@@ -17834,18 +18050,15 @@
         <v>44</v>
       </c>
       <c r="AA30" t="s">
-        <v>652</v>
-      </c>
-      <c r="AB30" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>55</v>
+        <v>409</v>
       </c>
       <c r="F31" t="s">
-        <v>221</v>
+        <v>444</v>
       </c>
       <c r="H31" t="s">
         <v>212</v>
@@ -17854,187 +18067,163 @@
         <v>45</v>
       </c>
       <c r="AA31" t="s">
-        <v>653</v>
-      </c>
-      <c r="AB31" t="s">
         <v>323</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>409</v>
+        <v>223</v>
       </c>
       <c r="F32" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="H32" t="s">
         <v>271</v>
       </c>
       <c r="AA32" t="s">
-        <v>654</v>
-      </c>
-      <c r="AB32" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="33">
-      <c r="A33" t="s">
-        <v>223</v>
-      </c>
       <c r="F33" t="s">
-        <v>463</v>
+        <v>222</v>
       </c>
       <c r="H33" t="s">
         <v>281</v>
       </c>
       <c r="AA33" t="s">
-        <v>655</v>
-      </c>
-      <c r="AB33" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="34">
       <c r="F34" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="H34" t="s">
         <v>504</v>
       </c>
       <c r="AA34" t="s">
-        <v>656</v>
-      </c>
-      <c r="AB34" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="35">
       <c r="F35" t="s">
-        <v>411</v>
+        <v>464</v>
       </c>
       <c r="H35" t="s">
         <v>256</v>
       </c>
       <c r="AA35" t="s">
-        <v>657</v>
-      </c>
-      <c r="AB35" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="36">
       <c r="F36" t="s">
-        <v>62</v>
+        <v>411</v>
       </c>
       <c r="H36" t="s">
         <v>326</v>
       </c>
       <c r="AA36" t="s">
-        <v>658</v>
-      </c>
-      <c r="AB36" t="s">
         <v>568</v>
       </c>
     </row>
     <row r="37">
       <c r="F37" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H37" t="s">
         <v>303</v>
       </c>
       <c r="AA37" t="s">
-        <v>659</v>
-      </c>
-      <c r="AB37" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="38">
       <c r="F38" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H38" t="s">
         <v>257</v>
       </c>
       <c r="AA38" t="s">
-        <v>660</v>
-      </c>
-      <c r="AB38" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="39">
       <c r="F39" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H39" t="s">
         <v>304</v>
       </c>
-      <c r="AB39" t="s">
+      <c r="AA39" t="s">
         <v>206</v>
       </c>
     </row>
     <row r="40">
       <c r="F40" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H40" t="s">
         <v>263</v>
       </c>
-      <c r="AB40" t="s">
+      <c r="AA40" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="41">
       <c r="F41" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H41" t="s">
         <v>76</v>
       </c>
-      <c r="AB41" t="s">
+      <c r="AA41" t="s">
         <v>334</v>
       </c>
     </row>
     <row r="42">
       <c r="F42" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H42" t="s">
         <v>208</v>
       </c>
-      <c r="AB42" t="s">
+      <c r="AA42" t="s">
         <v>433</v>
       </c>
     </row>
     <row r="43">
       <c r="F43" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H43" t="s">
         <v>534</v>
       </c>
-      <c r="AB43" t="s">
+      <c r="AA43" t="s">
         <v>578</v>
       </c>
     </row>
     <row r="44">
       <c r="F44" t="s">
-        <v>623</v>
+        <v>69</v>
       </c>
       <c r="H44" t="s">
         <v>285</v>
       </c>
-      <c r="AB44" t="s">
+      <c r="AA44" t="s">
         <v>388</v>
       </c>
     </row>
     <row r="45">
+      <c r="F45" t="s">
+        <v>623</v>
+      </c>
       <c r="H45" t="s">
         <v>296</v>
       </c>
-      <c r="AB45" t="s">
+      <c r="AA45" t="s">
         <v>118</v>
       </c>
     </row>
@@ -18042,7 +18231,7 @@
       <c r="H46" t="s">
         <v>297</v>
       </c>
-      <c r="AB46" t="s">
+      <c r="AA46" t="s">
         <v>119</v>
       </c>
     </row>
@@ -18050,7 +18239,7 @@
       <c r="H47" t="s">
         <v>339</v>
       </c>
-      <c r="AB47" t="s">
+      <c r="AA47" t="s">
         <v>120</v>
       </c>
     </row>
@@ -18058,7 +18247,7 @@
       <c r="H48" t="s">
         <v>338</v>
       </c>
-      <c r="AB48" t="s">
+      <c r="AA48" t="s">
         <v>121</v>
       </c>
     </row>
@@ -18066,7 +18255,7 @@
       <c r="H49" t="s">
         <v>207</v>
       </c>
-      <c r="AB49" t="s">
+      <c r="AA49" t="s">
         <v>122</v>
       </c>
     </row>
@@ -18074,7 +18263,7 @@
       <c r="H50" t="s">
         <v>316</v>
       </c>
-      <c r="AB50" t="s">
+      <c r="AA50" t="s">
         <v>123</v>
       </c>
     </row>
@@ -18082,7 +18271,7 @@
       <c r="H51" t="s">
         <v>335</v>
       </c>
-      <c r="AB51" t="s">
+      <c r="AA51" t="s">
         <v>617</v>
       </c>
     </row>
@@ -18090,7 +18279,7 @@
       <c r="H52" t="s">
         <v>363</v>
       </c>
-      <c r="AB52" t="s">
+      <c r="AA52" t="s">
         <v>209</v>
       </c>
     </row>
@@ -18098,7 +18287,7 @@
       <c r="H53" t="s">
         <v>298</v>
       </c>
-      <c r="AB53" t="s">
+      <c r="AA53" t="s">
         <v>75</v>
       </c>
     </row>
@@ -18106,7 +18295,7 @@
       <c r="H54" t="s">
         <v>351</v>
       </c>
-      <c r="AB54" t="s">
+      <c r="AA54" t="s">
         <v>531</v>
       </c>
     </row>
@@ -18114,7 +18303,7 @@
       <c r="H55" t="s">
         <v>327</v>
       </c>
-      <c r="AB55" t="s">
+      <c r="AA55" t="s">
         <v>124</v>
       </c>
     </row>
@@ -18122,7 +18311,7 @@
       <c r="H56" t="s">
         <v>264</v>
       </c>
-      <c r="AB56" t="s">
+      <c r="AA56" t="s">
         <v>125</v>
       </c>
     </row>
@@ -18130,7 +18319,7 @@
       <c r="H57" t="s">
         <v>288</v>
       </c>
-      <c r="AB57" t="s">
+      <c r="AA57" t="s">
         <v>126</v>
       </c>
     </row>
@@ -18138,7 +18327,7 @@
       <c r="H58" t="s">
         <v>289</v>
       </c>
-      <c r="AB58" t="s">
+      <c r="AA58" t="s">
         <v>490</v>
       </c>
     </row>
@@ -18146,7 +18335,7 @@
       <c r="H59" t="s">
         <v>535</v>
       </c>
-      <c r="AB59" t="s">
+      <c r="AA59" t="s">
         <v>459</v>
       </c>
     </row>
@@ -18154,7 +18343,7 @@
       <c r="H60" t="s">
         <v>290</v>
       </c>
-      <c r="AB60" t="s">
+      <c r="AA60" t="s">
         <v>127</v>
       </c>
     </row>
@@ -18162,7 +18351,7 @@
       <c r="H61" t="s">
         <v>299</v>
       </c>
-      <c r="AB61" t="s">
+      <c r="AA61" t="s">
         <v>342</v>
       </c>
     </row>
@@ -18170,7 +18359,7 @@
       <c r="H62" t="s">
         <v>308</v>
       </c>
-      <c r="AB62" t="s">
+      <c r="AA62" t="s">
         <v>460</v>
       </c>
     </row>
@@ -18178,7 +18367,7 @@
       <c r="H63" t="s">
         <v>333</v>
       </c>
-      <c r="AB63" t="s">
+      <c r="AA63" t="s">
         <v>128</v>
       </c>
     </row>
@@ -18186,7 +18375,7 @@
       <c r="H64" t="s">
         <v>305</v>
       </c>
-      <c r="AB64" t="s">
+      <c r="AA64" t="s">
         <v>129</v>
       </c>
     </row>
@@ -18194,7 +18383,7 @@
       <c r="H65" t="s">
         <v>306</v>
       </c>
-      <c r="AB65" t="s">
+      <c r="AA65" t="s">
         <v>130</v>
       </c>
     </row>
@@ -18202,7 +18391,7 @@
       <c r="H66" t="s">
         <v>364</v>
       </c>
-      <c r="AB66" t="s">
+      <c r="AA66" t="s">
         <v>131</v>
       </c>
     </row>
@@ -18210,7 +18399,7 @@
       <c r="H67" t="s">
         <v>365</v>
       </c>
-      <c r="AB67" t="s">
+      <c r="AA67" t="s">
         <v>132</v>
       </c>
     </row>
@@ -18218,7 +18407,7 @@
       <c r="H68" t="s">
         <v>341</v>
       </c>
-      <c r="AB68" t="s">
+      <c r="AA68" t="s">
         <v>133</v>
       </c>
     </row>
@@ -18226,7 +18415,7 @@
       <c r="H69" t="s">
         <v>309</v>
       </c>
-      <c r="AB69" t="s">
+      <c r="AA69" t="s">
         <v>134</v>
       </c>
     </row>
@@ -18234,7 +18423,7 @@
       <c r="H70" t="s">
         <v>265</v>
       </c>
-      <c r="AB70" t="s">
+      <c r="AA70" t="s">
         <v>435</v>
       </c>
     </row>
@@ -18242,7 +18431,7 @@
       <c r="H71" t="s">
         <v>520</v>
       </c>
-      <c r="AB71" t="s">
+      <c r="AA71" t="s">
         <v>468</v>
       </c>
     </row>
@@ -18250,7 +18439,7 @@
       <c r="H72" t="s">
         <v>310</v>
       </c>
-      <c r="AB72" t="s">
+      <c r="AA72" t="s">
         <v>210</v>
       </c>
     </row>
@@ -18258,7 +18447,7 @@
       <c r="H73" t="s">
         <v>405</v>
       </c>
-      <c r="AB73" t="s">
+      <c r="AA73" t="s">
         <v>384</v>
       </c>
     </row>
@@ -18266,7 +18455,7 @@
       <c r="H74" t="s">
         <v>300</v>
       </c>
-      <c r="AB74" t="s">
+      <c r="AA74" t="s">
         <v>436</v>
       </c>
     </row>
@@ -18274,7 +18463,7 @@
       <c r="H75" t="s">
         <v>406</v>
       </c>
-      <c r="AB75" t="s">
+      <c r="AA75" t="s">
         <v>135</v>
       </c>
     </row>
@@ -18282,7 +18471,7 @@
       <c r="H76" t="s">
         <v>258</v>
       </c>
-      <c r="AB76" t="s">
+      <c r="AA76" t="s">
         <v>136</v>
       </c>
     </row>
@@ -18290,7 +18479,7 @@
       <c r="H77" t="s">
         <v>505</v>
       </c>
-      <c r="AB77" t="s">
+      <c r="AA77" t="s">
         <v>137</v>
       </c>
     </row>
@@ -18298,7 +18487,7 @@
       <c r="H78" t="s">
         <v>340</v>
       </c>
-      <c r="AB78" t="s">
+      <c r="AA78" t="s">
         <v>138</v>
       </c>
     </row>
@@ -18306,7 +18495,7 @@
       <c r="H79" t="s">
         <v>276</v>
       </c>
-      <c r="AB79" t="s">
+      <c r="AA79" t="s">
         <v>661</v>
       </c>
     </row>
@@ -18314,7 +18503,7 @@
       <c r="H80" t="s">
         <v>282</v>
       </c>
-      <c r="AB80" t="s">
+      <c r="AA80" t="s">
         <v>193</v>
       </c>
     </row>
@@ -18322,7 +18511,7 @@
       <c r="H81" t="s">
         <v>287</v>
       </c>
-      <c r="AB81" t="s">
+      <c r="AA81" t="s">
         <v>194</v>
       </c>
     </row>
@@ -18330,7 +18519,7 @@
       <c r="H82" t="s">
         <v>424</v>
       </c>
-      <c r="AB82" t="s">
+      <c r="AA82" t="s">
         <v>448</v>
       </c>
     </row>
@@ -18338,7 +18527,7 @@
       <c r="H83" t="s">
         <v>328</v>
       </c>
-      <c r="AB83" t="s">
+      <c r="AA83" t="s">
         <v>461</v>
       </c>
     </row>
@@ -18346,7 +18535,7 @@
       <c r="H84" t="s">
         <v>266</v>
       </c>
-      <c r="AB84" t="s">
+      <c r="AA84" t="s">
         <v>139</v>
       </c>
     </row>
@@ -18354,7 +18543,7 @@
       <c r="H85" t="s">
         <v>277</v>
       </c>
-      <c r="AB85" t="s">
+      <c r="AA85" t="s">
         <v>140</v>
       </c>
     </row>
@@ -18362,7 +18551,7 @@
       <c r="H86" t="s">
         <v>283</v>
       </c>
-      <c r="AB86" t="s">
+      <c r="AA86" t="s">
         <v>141</v>
       </c>
     </row>
@@ -18370,7 +18559,7 @@
       <c r="H87" t="s">
         <v>272</v>
       </c>
-      <c r="AB87" t="s">
+      <c r="AA87" t="s">
         <v>491</v>
       </c>
     </row>
@@ -18378,7 +18567,7 @@
       <c r="H88" t="s">
         <v>523</v>
       </c>
-      <c r="AB88" t="s">
+      <c r="AA88" t="s">
         <v>142</v>
       </c>
     </row>
@@ -18386,7 +18575,7 @@
       <c r="H89" t="s">
         <v>267</v>
       </c>
-      <c r="AB89" t="s">
+      <c r="AA89" t="s">
         <v>143</v>
       </c>
     </row>
@@ -18394,7 +18583,7 @@
       <c r="H90" t="s">
         <v>284</v>
       </c>
-      <c r="AB90" t="s">
+      <c r="AA90" t="s">
         <v>195</v>
       </c>
     </row>
@@ -18402,7 +18591,7 @@
       <c r="H91" t="s">
         <v>268</v>
       </c>
-      <c r="AB91" t="s">
+      <c r="AA91" t="s">
         <v>492</v>
       </c>
     </row>
@@ -18410,7 +18599,7 @@
       <c r="H92" t="s">
         <v>269</v>
       </c>
-      <c r="AB92" t="s">
+      <c r="AA92" t="s">
         <v>587</v>
       </c>
     </row>
@@ -18418,7 +18607,7 @@
       <c r="H93" t="s">
         <v>301</v>
       </c>
-      <c r="AB93" t="s">
+      <c r="AA93" t="s">
         <v>196</v>
       </c>
     </row>
@@ -18426,7 +18615,7 @@
       <c r="H94" t="s">
         <v>307</v>
       </c>
-      <c r="AB94" t="s">
+      <c r="AA94" t="s">
         <v>449</v>
       </c>
     </row>
@@ -18434,7 +18623,7 @@
       <c r="H95" t="s">
         <v>291</v>
       </c>
-      <c r="AB95" t="s">
+      <c r="AA95" t="s">
         <v>197</v>
       </c>
     </row>
@@ -18442,7 +18631,7 @@
       <c r="H96" t="s">
         <v>336</v>
       </c>
-      <c r="AB96" t="s">
+      <c r="AA96" t="s">
         <v>198</v>
       </c>
     </row>
@@ -18450,7 +18639,7 @@
       <c r="H97" t="s">
         <v>273</v>
       </c>
-      <c r="AB97" t="s">
+      <c r="AA97" t="s">
         <v>572</v>
       </c>
     </row>
@@ -18458,272 +18647,272 @@
       <c r="H98" t="s">
         <v>274</v>
       </c>
-      <c r="AB98" t="s">
+      <c r="AA98" t="s">
         <v>573</v>
       </c>
     </row>
     <row r="99">
-      <c r="AB99" t="s">
+      <c r="AA99" t="s">
         <v>211</v>
       </c>
     </row>
     <row r="100">
-      <c r="AB100" t="s">
+      <c r="AA100" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="101">
-      <c r="AB101" t="s">
+      <c r="AA101" t="s">
         <v>199</v>
       </c>
     </row>
     <row r="102">
-      <c r="AB102" t="s">
+      <c r="AA102" t="s">
         <v>437</v>
       </c>
     </row>
     <row r="103">
-      <c r="AB103" t="s">
+      <c r="AA103" t="s">
         <v>585</v>
       </c>
     </row>
     <row r="104">
-      <c r="AB104" t="s">
+      <c r="AA104" t="s">
         <v>586</v>
       </c>
     </row>
     <row r="105">
-      <c r="AB105" t="s">
+      <c r="AA105" t="s">
         <v>438</v>
       </c>
     </row>
     <row r="106">
-      <c r="AB106" t="s">
+      <c r="AA106" t="s">
         <v>200</v>
       </c>
     </row>
     <row r="107">
-      <c r="AB107" t="s">
+      <c r="AA107" t="s">
         <v>201</v>
       </c>
     </row>
     <row r="108">
-      <c r="AB108" t="s">
+      <c r="AA108" t="s">
         <v>202</v>
       </c>
     </row>
     <row r="109">
-      <c r="AB109" t="s">
+      <c r="AA109" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="110">
-      <c r="AB110" t="s">
+      <c r="AA110" t="s">
         <v>219</v>
       </c>
     </row>
     <row r="111">
-      <c r="AB111" t="s">
+      <c r="AA111" t="s">
         <v>591</v>
       </c>
     </row>
     <row r="112">
-      <c r="AB112" t="s">
+      <c r="AA112" t="s">
         <v>204</v>
       </c>
     </row>
     <row r="113">
-      <c r="AB113" t="s">
+      <c r="AA113" t="s">
         <v>493</v>
       </c>
     </row>
     <row r="114">
-      <c r="AB114" t="s">
+      <c r="AA114" t="s">
         <v>662</v>
       </c>
     </row>
     <row r="115">
-      <c r="AB115" t="s">
+      <c r="AA115" t="s">
         <v>663</v>
       </c>
     </row>
     <row r="116">
-      <c r="AB116" t="s">
+      <c r="AA116" t="s">
         <v>517</v>
       </c>
     </row>
     <row r="117">
-      <c r="AB117" t="s">
+      <c r="AA117" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="118">
-      <c r="AB118" t="s">
+      <c r="AA118" t="s">
         <v>518</v>
       </c>
     </row>
     <row r="119">
-      <c r="AB119" t="s">
+      <c r="AA119" t="s">
         <v>378</v>
       </c>
     </row>
     <row r="120">
-      <c r="AB120" t="s">
+      <c r="AA120" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="121">
-      <c r="AB121" t="s">
+      <c r="AA121" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="122">
-      <c r="AB122" t="s">
+      <c r="AA122" t="s">
         <v>592</v>
       </c>
     </row>
     <row r="123">
-      <c r="AB123" t="s">
+      <c r="AA123" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="124">
-      <c r="AB124" t="s">
+      <c r="AA124" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="125">
-      <c r="AB125" t="s">
+      <c r="AA125" t="s">
         <v>593</v>
       </c>
     </row>
     <row r="126">
-      <c r="AB126" t="s">
+      <c r="AA126" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="127">
-      <c r="AB127" t="s">
+      <c r="AA127" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="128">
-      <c r="AB128" t="s">
+      <c r="AA128" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="129">
-      <c r="AB129" t="s">
+      <c r="AA129" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="130">
-      <c r="AB130" t="s">
+      <c r="AA130" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="131">
-      <c r="AB131" t="s">
+      <c r="AA131" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="132">
-      <c r="AB132" t="s">
+      <c r="AA132" t="s">
         <v>594</v>
       </c>
     </row>
     <row r="133">
-      <c r="AB133" t="s">
+      <c r="AA133" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="134">
-      <c r="AB134" t="s">
+      <c r="AA134" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="135">
-      <c r="AB135" t="s">
+      <c r="AA135" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="136">
-      <c r="AB136" t="s">
+      <c r="AA136" t="s">
         <v>618</v>
       </c>
     </row>
     <row r="137">
-      <c r="AB137" t="s">
+      <c r="AA137" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="138">
-      <c r="AB138" t="s">
+      <c r="AA138" t="s">
         <v>569</v>
       </c>
     </row>
     <row r="139">
-      <c r="AB139" t="s">
+      <c r="AA139" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="140">
-      <c r="AB140" t="s">
+      <c r="AA140" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="141">
-      <c r="AB141" t="s">
+      <c r="AA141" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="142">
-      <c r="AB142" t="s">
+      <c r="AA142" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="143">
-      <c r="AB143" t="s">
+      <c r="AA143" t="s">
         <v>664</v>
       </c>
     </row>
     <row r="144">
-      <c r="AB144" t="s">
+      <c r="AA144" t="s">
         <v>595</v>
       </c>
     </row>
     <row r="145">
-      <c r="AB145" t="s">
+      <c r="AA145" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="146">
-      <c r="AB146" t="s">
+      <c r="AA146" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="147">
-      <c r="AB147" t="s">
+      <c r="AA147" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="148">
-      <c r="AB148" t="s">
+      <c r="AA148" t="s">
         <v>665</v>
       </c>
     </row>
     <row r="149">
-      <c r="AB149" t="s">
+      <c r="AA149" t="s">
         <v>666</v>
       </c>
     </row>
     <row r="150">
-      <c r="AB150" t="s">
+      <c r="AA150" t="s">
         <v>667</v>
       </c>
     </row>
     <row r="151">
-      <c r="AB151" t="s">
+      <c r="AA151" t="s">
         <v>668</v>
       </c>
     </row>

--- a/src/test/resources/unittesting/artifact/script/unitTest_LocalDb.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_LocalDb.xlsx
@@ -70,7 +70,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14380" uniqueCount="671">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15584" uniqueCount="671">
   <si>
     <t>description</t>
   </si>
@@ -2103,7 +2103,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="398" x14ac:knownFonts="1">
+  <fonts count="432" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -4622,8 +4622,222 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="643">
+  <fills count="691">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -7853,6 +8067,278 @@
       <patternFill patternType="solid">
         <fgColor rgb="E6E6E6"/>
         <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
     <fill>
@@ -15155,7 +15641,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="424">
+  <cellXfs count="458">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -16394,55 +16880,157 @@
     <xf applyFill="true" applyFont="true" borderId="0" fillId="615" fontId="380" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="381" fillId="621" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="382" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="621" fontId="381" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="382" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="383" fillId="624" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="624" fontId="383" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="384" fillId="627" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="627" fontId="384" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="385" fillId="630" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="630" fontId="385" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="386" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="386" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="387" fillId="633" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="633" fontId="387" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="388" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="389" fillId="636" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="388" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="636" fontId="389" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="390" fillId="639" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="639" fontId="390" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="391" fillId="627" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="627" fontId="391" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="392" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="393" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="394" fillId="630" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="395" fillId="642" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="396" fillId="630" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="397" fillId="639" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="392" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="393" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="630" fontId="394" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="642" fontId="395" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="630" fontId="396" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="639" fontId="397" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="645" fontId="398" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="399" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="648" fontId="400" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="651" fontId="401" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="654" fontId="402" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="403" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="657" fontId="404" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="405" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="660" fontId="406" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="663" fontId="407" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="651" fontId="408" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="409" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="410" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="654" fontId="411" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="666" fontId="412" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="654" fontId="413" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="663" fontId="414" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="415" fillId="669" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="416" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="417" fillId="672" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="418" fillId="675" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="419" fillId="678" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="420" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="421" fillId="681" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="422" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="423" fillId="684" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="424" fillId="687" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="425" fillId="675" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="426" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="427" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="428" fillId="678" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="429" fillId="690" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="430" fillId="678" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="431" fillId="687" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>

--- a/src/test/resources/unittesting/artifact/script/unitTest_LocalDb.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_LocalDb.xlsx
@@ -28,12 +28,12 @@
     <definedName name="excel">'#system'!$I$2:$I$16</definedName>
     <definedName name="external">'#system'!$J$2:$J$7</definedName>
     <definedName name="image">'#system'!$K$2:$K$8</definedName>
-    <definedName name="io">'#system'!$L$2:$L$31</definedName>
+    <definedName name="io">'#system'!$L$2:$L$32</definedName>
     <definedName name="jms">'#system'!$M$2:$M$4</definedName>
     <definedName name="json">'#system'!$N$2:$N$18</definedName>
     <definedName name="localdb">'#system'!$O$2:$O$13</definedName>
     <definedName name="macro">'#system'!$P$2:$P$4</definedName>
-    <definedName name="mail">'#system'!$Q$2:$Q$2</definedName>
+    <definedName name="mail">'#system'!$Q$2:$Q$4</definedName>
     <definedName name="math">'#system'!$K$2:$K$13</definedName>
     <definedName name="mq">'#system'!$J$2:$J$3</definedName>
     <definedName name="nextgen">'#system'!$K$2:$K$28</definedName>
@@ -70,7 +70,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15584" uniqueCount="671">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16794" uniqueCount="675">
   <si>
     <t>description</t>
   </si>
@@ -2097,13 +2097,25 @@
   <si>
     <t>openFile(filePath)</t>
   </si>
+  <si>
+    <t>checksum(var,file)</t>
+  </si>
+  <si>
+    <t>clearMail(var)</t>
+  </si>
+  <si>
+    <t>composeMail(var,action,value)</t>
+  </si>
+  <si>
+    <t>send(profile,var)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="432" x14ac:knownFonts="1">
+  <fonts count="466" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -4836,8 +4848,222 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="691">
+  <fills count="739">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -8067,6 +8293,278 @@
       <patternFill patternType="solid">
         <fgColor rgb="E6E6E6"/>
         <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
     <fill>
@@ -15641,7 +16139,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="458">
+  <cellXfs count="492">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -16982,55 +17480,157 @@
     <xf applyFill="true" applyFont="true" borderId="0" fillId="663" fontId="414" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="415" fillId="669" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="416" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="669" fontId="415" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="416" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="417" fillId="672" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="672" fontId="417" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="418" fillId="675" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="675" fontId="418" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="419" fillId="678" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="678" fontId="419" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="420" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="420" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="421" fillId="681" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="681" fontId="421" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="422" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="423" fillId="684" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="422" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="684" fontId="423" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="424" fillId="687" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="687" fontId="424" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="425" fillId="675" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="675" fontId="425" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="426" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="427" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="428" fillId="678" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="429" fillId="690" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="430" fillId="678" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="431" fillId="687" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="426" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="427" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="678" fontId="428" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="690" fontId="429" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="678" fontId="430" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="687" fontId="431" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="693" fontId="432" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="433" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="696" fontId="434" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="699" fontId="435" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="702" fontId="436" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="437" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="705" fontId="438" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="439" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="708" fontId="440" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="711" fontId="441" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="699" fontId="442" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="443" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="444" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="702" fontId="445" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="714" fontId="446" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="702" fontId="447" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="711" fontId="448" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="449" fillId="717" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="450" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="451" fillId="720" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="452" fillId="723" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="453" fillId="726" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="454" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="455" fillId="729" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="456" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="457" fillId="732" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="458" fillId="735" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="459" fillId="723" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="460" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="461" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="462" fillId="726" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="463" fillId="738" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="464" fillId="726" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="465" fillId="735" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -17544,7 +18144,7 @@
         <v>483</v>
       </c>
       <c r="Q2" t="s">
-        <v>412</v>
+        <v>672</v>
       </c>
       <c r="R2" t="s">
         <v>425</v>
@@ -17638,6 +18238,9 @@
       <c r="P3" t="s">
         <v>484</v>
       </c>
+      <c r="Q3" t="s">
+        <v>673</v>
+      </c>
       <c r="R3" t="s">
         <v>426</v>
       </c>
@@ -17724,6 +18327,9 @@
       <c r="P4" t="s">
         <v>485</v>
       </c>
+      <c r="Q4" t="s">
+        <v>674</v>
+      </c>
       <c r="R4" t="s">
         <v>26</v>
       </c>
@@ -17935,7 +18541,7 @@
         <v>344</v>
       </c>
       <c r="L7" t="s">
-        <v>70</v>
+        <v>671</v>
       </c>
       <c r="N7" t="s">
         <v>311</v>
@@ -17997,7 +18603,7 @@
         <v>530</v>
       </c>
       <c r="L8" t="s">
-        <v>16</v>
+        <v>70</v>
       </c>
       <c r="N8" t="s">
         <v>33</v>
@@ -18056,7 +18662,7 @@
         <v>325</v>
       </c>
       <c r="L9" t="s">
-        <v>480</v>
+        <v>16</v>
       </c>
       <c r="N9" t="s">
         <v>34</v>
@@ -18106,7 +18712,7 @@
         <v>598</v>
       </c>
       <c r="L10" t="s">
-        <v>78</v>
+        <v>480</v>
       </c>
       <c r="N10" t="s">
         <v>35</v>
@@ -18150,7 +18756,7 @@
         <v>599</v>
       </c>
       <c r="L11" t="s">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="N11" t="s">
         <v>466</v>
@@ -18188,7 +18794,7 @@
         <v>447</v>
       </c>
       <c r="L12" t="s">
-        <v>481</v>
+        <v>37</v>
       </c>
       <c r="N12" t="s">
         <v>532</v>
@@ -18226,7 +18832,7 @@
         <v>318</v>
       </c>
       <c r="L13" t="s">
-        <v>385</v>
+        <v>481</v>
       </c>
       <c r="N13" t="s">
         <v>431</v>
@@ -18264,7 +18870,7 @@
         <v>319</v>
       </c>
       <c r="L14" t="s">
-        <v>17</v>
+        <v>385</v>
       </c>
       <c r="N14" t="s">
         <v>467</v>
@@ -18299,7 +18905,7 @@
         <v>320</v>
       </c>
       <c r="L15" t="s">
-        <v>41</v>
+        <v>17</v>
       </c>
       <c r="N15" t="s">
         <v>38</v>
@@ -18334,7 +18940,7 @@
         <v>321</v>
       </c>
       <c r="L16" t="s">
-        <v>482</v>
+        <v>41</v>
       </c>
       <c r="N16" t="s">
         <v>536</v>
@@ -18366,7 +18972,7 @@
         <v>313</v>
       </c>
       <c r="L17" t="s">
-        <v>79</v>
+        <v>482</v>
       </c>
       <c r="N17" t="s">
         <v>39</v>
@@ -18395,7 +19001,7 @@
         <v>87</v>
       </c>
       <c r="L18" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="N18" t="s">
         <v>42</v>
@@ -18421,7 +19027,7 @@
         <v>88</v>
       </c>
       <c r="L19" t="s">
-        <v>458</v>
+        <v>80</v>
       </c>
       <c r="AA19" t="s">
         <v>488</v>
@@ -18441,7 +19047,7 @@
         <v>292</v>
       </c>
       <c r="L20" t="s">
-        <v>81</v>
+        <v>458</v>
       </c>
       <c r="AA20" t="s">
         <v>102</v>
@@ -18461,7 +19067,7 @@
         <v>293</v>
       </c>
       <c r="L21" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AA21" t="s">
         <v>103</v>
@@ -18481,7 +19087,7 @@
         <v>294</v>
       </c>
       <c r="L22" t="s">
-        <v>581</v>
+        <v>82</v>
       </c>
       <c r="AA22" t="s">
         <v>104</v>
@@ -18501,7 +19107,7 @@
         <v>295</v>
       </c>
       <c r="L23" t="s">
-        <v>465</v>
+        <v>581</v>
       </c>
       <c r="AA23" t="s">
         <v>105</v>
@@ -18521,7 +19127,7 @@
         <v>286</v>
       </c>
       <c r="L24" t="s">
-        <v>43</v>
+        <v>465</v>
       </c>
       <c r="AA24" t="s">
         <v>489</v>
@@ -18541,7 +19147,7 @@
         <v>275</v>
       </c>
       <c r="L25" t="s">
-        <v>387</v>
+        <v>43</v>
       </c>
       <c r="AA25" t="s">
         <v>106</v>
@@ -18561,7 +19167,7 @@
         <v>74</v>
       </c>
       <c r="L26" t="s">
-        <v>624</v>
+        <v>387</v>
       </c>
       <c r="AA26" t="s">
         <v>567</v>
@@ -18581,7 +19187,7 @@
         <v>278</v>
       </c>
       <c r="L27" t="s">
-        <v>519</v>
+        <v>624</v>
       </c>
       <c r="AA27" t="s">
         <v>107</v>
@@ -18601,7 +19207,7 @@
         <v>262</v>
       </c>
       <c r="L28" t="s">
-        <v>83</v>
+        <v>519</v>
       </c>
       <c r="AA28" t="s">
         <v>108</v>
@@ -18618,7 +19224,7 @@
         <v>279</v>
       </c>
       <c r="L29" t="s">
-        <v>429</v>
+        <v>83</v>
       </c>
       <c r="AA29" t="s">
         <v>109</v>
@@ -18635,7 +19241,7 @@
         <v>280</v>
       </c>
       <c r="L30" t="s">
-        <v>44</v>
+        <v>429</v>
       </c>
       <c r="AA30" t="s">
         <v>110</v>
@@ -18652,7 +19258,7 @@
         <v>212</v>
       </c>
       <c r="L31" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AA31" t="s">
         <v>323</v>
@@ -18667,6 +19273,9 @@
       </c>
       <c r="H32" t="s">
         <v>271</v>
+      </c>
+      <c r="L32" t="s">
+        <v>45</v>
       </c>
       <c r="AA32" t="s">
         <v>111</v>

--- a/src/test/resources/unittesting/artifact/script/unitTest_LocalDb.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_LocalDb.xlsx
@@ -33,12 +33,12 @@
     <definedName name="json">'#system'!$N$2:$N$18</definedName>
     <definedName name="localdb">'#system'!$O$2:$O$13</definedName>
     <definedName name="macro">'#system'!$P$2:$P$4</definedName>
-    <definedName name="mail">'#system'!$Q$2:$Q$4</definedName>
+    <definedName name="mail">'#system'!$Q$2:$Q$5</definedName>
     <definedName name="math">'#system'!$K$2:$K$13</definedName>
     <definedName name="mq">'#system'!$J$2:$J$3</definedName>
     <definedName name="nextgen">'#system'!$K$2:$K$28</definedName>
     <definedName name="number">'#system'!$R$2:$R$16</definedName>
-    <definedName name="pdf">'#system'!$S$2:$S$18</definedName>
+    <definedName name="pdf">'#system'!$S$2:$S$21</definedName>
     <definedName name="rdbms">'#system'!$T$2:$T$9</definedName>
     <definedName name="redis">'#system'!$U$2:$U$10</definedName>
     <definedName name="sms">'#system'!$V$2:$V$2</definedName>
@@ -70,7 +70,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16794" uniqueCount="675">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17403" uniqueCount="681">
   <si>
     <t>description</t>
   </si>
@@ -2109,13 +2109,31 @@
   <si>
     <t>send(profile,var)</t>
   </si>
+  <si>
+    <t>clearComposed(var)</t>
+  </si>
+  <si>
+    <t>compose(var,config,value)</t>
+  </si>
+  <si>
+    <t>sendComposed(profile,var)</t>
+  </si>
+  <si>
+    <t>ocr(pdf,saveTo)</t>
+  </si>
+  <si>
+    <t>savePageCount(pdf,var)</t>
+  </si>
+  <si>
+    <t>split(pdf,saveTo)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="466" x14ac:knownFonts="1">
+  <fonts count="483" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -5062,8 +5080,115 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="739">
+  <fills count="763">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -8293,6 +8418,142 @@
       <patternFill patternType="solid">
         <fgColor rgb="E6E6E6"/>
         <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
     <fill>
@@ -16139,7 +16400,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="492">
+  <cellXfs count="509">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -17582,55 +17843,106 @@
     <xf applyFill="true" applyFont="true" borderId="0" fillId="711" fontId="448" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="449" fillId="717" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="450" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="717" fontId="449" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="450" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="451" fillId="720" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="720" fontId="451" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="452" fillId="723" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="723" fontId="452" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="453" fillId="726" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="726" fontId="453" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="454" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="454" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="455" fillId="729" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="729" fontId="455" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="456" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="457" fillId="732" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="456" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="732" fontId="457" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="458" fillId="735" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="735" fontId="458" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="459" fillId="723" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="723" fontId="459" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="460" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="461" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="462" fillId="726" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="463" fillId="738" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="464" fillId="726" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="465" fillId="735" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="460" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="461" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="726" fontId="462" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="738" fontId="463" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="726" fontId="464" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="735" fontId="465" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="466" fillId="741" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="467" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="468" fillId="744" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="469" fillId="747" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="470" fillId="750" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="471" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="472" fillId="753" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="473" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="474" fillId="756" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="475" fillId="759" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="476" fillId="747" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="477" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="478" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="479" fillId="750" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="480" fillId="762" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="481" fillId="750" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="482" fillId="759" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -18144,7 +18456,7 @@
         <v>483</v>
       </c>
       <c r="Q2" t="s">
-        <v>672</v>
+        <v>675</v>
       </c>
       <c r="R2" t="s">
         <v>425</v>
@@ -18239,7 +18551,7 @@
         <v>484</v>
       </c>
       <c r="Q3" t="s">
-        <v>673</v>
+        <v>676</v>
       </c>
       <c r="R3" t="s">
         <v>426</v>
@@ -18328,7 +18640,7 @@
         <v>485</v>
       </c>
       <c r="Q4" t="s">
-        <v>674</v>
+        <v>412</v>
       </c>
       <c r="R4" t="s">
         <v>26</v>
@@ -18410,6 +18722,9 @@
       <c r="O5" t="s">
         <v>509</v>
       </c>
+      <c r="Q5" t="s">
+        <v>677</v>
+      </c>
       <c r="R5" t="s">
         <v>29</v>
       </c>
@@ -18844,7 +19159,7 @@
         <v>92</v>
       </c>
       <c r="S13" t="s">
-        <v>245</v>
+        <v>678</v>
       </c>
       <c r="AA13" t="s">
         <v>322</v>
@@ -18879,7 +19194,7 @@
         <v>93</v>
       </c>
       <c r="S14" t="s">
-        <v>589</v>
+        <v>245</v>
       </c>
       <c r="AA14" t="s">
         <v>100</v>
@@ -18914,7 +19229,7 @@
         <v>486</v>
       </c>
       <c r="S15" t="s">
-        <v>250</v>
+        <v>589</v>
       </c>
       <c r="AA15" t="s">
         <v>616</v>
@@ -18949,7 +19264,7 @@
         <v>487</v>
       </c>
       <c r="S16" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="AA16" t="s">
         <v>590</v>
@@ -18978,7 +19293,7 @@
         <v>39</v>
       </c>
       <c r="S17" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="AA17" t="s">
         <v>101</v>
@@ -19007,7 +19322,7 @@
         <v>42</v>
       </c>
       <c r="S18" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="AA18" t="s">
         <v>73</v>
@@ -19029,6 +19344,9 @@
       <c r="L19" t="s">
         <v>80</v>
       </c>
+      <c r="S19" t="s">
+        <v>679</v>
+      </c>
       <c r="AA19" t="s">
         <v>488</v>
       </c>
@@ -19049,6 +19367,9 @@
       <c r="L20" t="s">
         <v>458</v>
       </c>
+      <c r="S20" t="s">
+        <v>248</v>
+      </c>
       <c r="AA20" t="s">
         <v>102</v>
       </c>
@@ -19068,6 +19389,9 @@
       </c>
       <c r="L21" t="s">
         <v>81</v>
+      </c>
+      <c r="S21" t="s">
+        <v>680</v>
       </c>
       <c r="AA21" t="s">
         <v>103</v>

--- a/src/test/resources/unittesting/artifact/script/unitTest_LocalDb.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_LocalDb.xlsx
@@ -20,12 +20,12 @@
     <definedName name="aws.s3">'#system'!$B$2:$B$9</definedName>
     <definedName name="aws.ses">'#system'!$C$2:$C$3</definedName>
     <definedName name="aws.sqs">'#system'!$D$2:$D$6</definedName>
-    <definedName name="base">'#system'!$F$2:$F$45</definedName>
+    <definedName name="base">'#system'!$F$2:$F$47</definedName>
     <definedName name="csv">'#system'!$G$2:$G$6</definedName>
     <definedName name="date">'#system'!$C$2:$C$14</definedName>
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
-    <definedName name="desktop">'#system'!$H$2:$H$98</definedName>
-    <definedName name="excel">'#system'!$I$2:$I$16</definedName>
+    <definedName name="desktop">'#system'!$H$2:$H$111</definedName>
+    <definedName name="excel">'#system'!$I$2:$I$18</definedName>
     <definedName name="external">'#system'!$J$2:$J$7</definedName>
     <definedName name="image">'#system'!$K$2:$K$8</definedName>
     <definedName name="io">'#system'!$L$2:$L$32</definedName>
@@ -45,17 +45,19 @@
     <definedName name="sound">'#system'!$W$2:$W$5</definedName>
     <definedName name="ssh">'#system'!$X$2:$X$9</definedName>
     <definedName name="step">'#system'!$Y$2:$Y$4</definedName>
-    <definedName name="target">'#system'!$A$2:$A$32</definedName>
+    <definedName name="target">'#system'!$A$2:$A$34</definedName>
     <definedName name="text">'#system'!$Y$2:$Y$2</definedName>
-    <definedName name="web">'#system'!$AA$2:$AA$151</definedName>
+    <definedName name="web">'#system'!$AA$2:$AA$153</definedName>
     <definedName name="webalert">'#system'!$AB$2:$AB$8</definedName>
     <definedName name="webcookie">'#system'!$AC$2:$AC$10</definedName>
-    <definedName name="ws">'#system'!$AD$2:$AD$17</definedName>
-    <definedName name="ws.async">'#system'!$AE$2:$AE$8</definedName>
-    <definedName name="xml">'#system'!$AF$2:$AF$27</definedName>
+    <definedName name="ws">'#system'!$AF$2:$AF$17</definedName>
+    <definedName name="ws.async">'#system'!$AG$2:$AG$8</definedName>
+    <definedName name="xml">'#system'!$AH$2:$AH$27</definedName>
     <definedName name="aws.vision">'#system'!$E$2:$E$2</definedName>
     <definedName name="tn.5250">'#system'!$AA$2:$AA$38</definedName>
     <definedName name="step.inTime">'#system'!$Z$2:$Z$4</definedName>
+    <definedName name="webmail">'#system'!$AD$2:$AD$4</definedName>
+    <definedName name="word">'#system'!$AE$2:$AE$9</definedName>
   </definedNames>
   <calcPr calcId="150000"/>
   <extLst>
@@ -70,7 +72,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17403" uniqueCount="681">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18046" uniqueCount="718">
   <si>
     <t>description</t>
   </si>
@@ -2127,13 +2129,124 @@
   <si>
     <t>split(pdf,saveTo)</t>
   </si>
+  <si>
+    <t>webmail</t>
+  </si>
+  <si>
+    <t>word</t>
+  </si>
+  <si>
+    <t>assertVarsNotPresent(vars)</t>
+  </si>
+  <si>
+    <t>assertVarsPresent(vars)</t>
+  </si>
+  <si>
+    <t>check(name)</t>
+  </si>
+  <si>
+    <t>checkByLocator(locator)</t>
+  </si>
+  <si>
+    <t>clickMenuByLocator(locator,menu)</t>
+  </si>
+  <si>
+    <t>contextMenu(name,menu,xOffset,yOffset)</t>
+  </si>
+  <si>
+    <t>contextMenuByLocator(locator,menu,xOffset,yOffset)</t>
+  </si>
+  <si>
+    <t>doubleClick(name)</t>
+  </si>
+  <si>
+    <t>doubleClickByLocator(locator)</t>
+  </si>
+  <si>
+    <t>rightClickElementOffset(name,xOffset,yOffset)</t>
+  </si>
+  <si>
+    <t>rightClickOffset(locator,xOffset,yOffset)</t>
+  </si>
+  <si>
+    <t>saveAllTableRows(var,csv)</t>
+  </si>
+  <si>
+    <t>saveComboOptions(var,name)</t>
+  </si>
+  <si>
+    <t>saveComboOptionsByLocator(var,locator)</t>
+  </si>
+  <si>
+    <t>saveTableRows(var,contains,csv)</t>
+  </si>
+  <si>
+    <t>saveTableRowsRange(var,beginRow,endRow,csv)</t>
+  </si>
+  <si>
+    <t>screenshot(name,file)</t>
+  </si>
+  <si>
+    <t>screenshotByLocator(locator,file)</t>
+  </si>
+  <si>
+    <t>uncheck(name)</t>
+  </si>
+  <si>
+    <t>uncheckByLocator(locator)</t>
+  </si>
+  <si>
+    <t>renameSheet(file,worksheet,newName)</t>
+  </si>
+  <si>
+    <t>xls2xlsx(xlsFile,xlsxFile)</t>
+  </si>
+  <si>
+    <t>assertLocation(search)</t>
+  </si>
+  <si>
+    <t>openInTab(name,url)</t>
+  </si>
+  <si>
+    <t>delete(profile,id)</t>
+  </si>
+  <si>
+    <t>read(var,profile,id)</t>
+  </si>
+  <si>
+    <t>search(var,profile,searchCriteria,duration)</t>
+  </si>
+  <si>
+    <t>assertContains(file,text)</t>
+  </si>
+  <si>
+    <t>assertNotContain(file,text)</t>
+  </si>
+  <si>
+    <t>assertNotReadOnly(file)</t>
+  </si>
+  <si>
+    <t>assertPassword(file,password)</t>
+  </si>
+  <si>
+    <t>assertReadOnly(file)</t>
+  </si>
+  <si>
+    <t>extractText(var,file)</t>
+  </si>
+  <si>
+    <t>readOnly(file,password)</t>
+  </si>
+  <si>
+    <t>removeProtection(file)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="483" x14ac:knownFonts="1">
+  <fonts count="500" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -5187,8 +5300,115 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="763">
+  <fills count="787">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -8418,6 +8638,142 @@
       <patternFill patternType="solid">
         <fgColor rgb="E6E6E6"/>
         <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
     <fill>
@@ -16400,7 +16756,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="509">
+  <cellXfs count="526">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -17943,6 +18299,57 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="482" fillId="759" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="483" fillId="765" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="484" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="485" fillId="768" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="486" fillId="771" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="487" fillId="774" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="488" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="489" fillId="777" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="490" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="491" fillId="780" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="492" fillId="783" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="493" fillId="771" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="494" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="495" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="496" fillId="774" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="497" fillId="786" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="498" fillId="774" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="499" fillId="783" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -18297,7 +18704,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AG151"/>
+  <dimension ref="A1:AI153"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
@@ -18397,12 +18804,18 @@
         <v>54</v>
       </c>
       <c r="AD1" t="s">
+        <v>681</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>682</v>
+      </c>
+      <c r="AF1" t="s">
         <v>55</v>
       </c>
-      <c r="AE1" t="s">
+      <c r="AG1" t="s">
         <v>409</v>
       </c>
-      <c r="AF1" t="s">
+      <c r="AH1" t="s">
         <v>223</v>
       </c>
     </row>
@@ -18495,12 +18908,18 @@
         <v>172</v>
       </c>
       <c r="AD2" t="s">
+        <v>707</v>
+      </c>
+      <c r="AE2" t="s">
+        <v>710</v>
+      </c>
+      <c r="AF2" t="s">
         <v>179</v>
       </c>
-      <c r="AE2" t="s">
+      <c r="AG2" t="s">
         <v>427</v>
       </c>
-      <c r="AF2" t="s">
+      <c r="AH2" t="s">
         <v>494</v>
       </c>
     </row>
@@ -18587,12 +19006,18 @@
         <v>173</v>
       </c>
       <c r="AD3" t="s">
+        <v>708</v>
+      </c>
+      <c r="AE3" t="s">
+        <v>711</v>
+      </c>
+      <c r="AF3" t="s">
         <v>359</v>
       </c>
-      <c r="AE3" t="s">
+      <c r="AG3" t="s">
         <v>180</v>
       </c>
-      <c r="AF3" t="s">
+      <c r="AH3" t="s">
         <v>224</v>
       </c>
     </row>
@@ -18676,12 +19101,18 @@
         <v>174</v>
       </c>
       <c r="AD4" t="s">
+        <v>709</v>
+      </c>
+      <c r="AE4" t="s">
+        <v>712</v>
+      </c>
+      <c r="AF4" t="s">
         <v>180</v>
       </c>
-      <c r="AE4" t="s">
+      <c r="AG4" t="s">
         <v>419</v>
       </c>
-      <c r="AF4" t="s">
+      <c r="AH4" t="s">
         <v>225</v>
       </c>
     </row>
@@ -18752,13 +19183,16 @@
       <c r="AC5" t="s">
         <v>596</v>
       </c>
-      <c r="AD5" t="s">
+      <c r="AE5" t="s">
+        <v>713</v>
+      </c>
+      <c r="AF5" t="s">
         <v>181</v>
       </c>
-      <c r="AE5" t="s">
+      <c r="AG5" t="s">
         <v>420</v>
       </c>
-      <c r="AF5" t="s">
+      <c r="AH5" t="s">
         <v>226</v>
       </c>
     </row>
@@ -18823,13 +19257,16 @@
       <c r="AC6" t="s">
         <v>175</v>
       </c>
-      <c r="AD6" t="s">
+      <c r="AE6" t="s">
+        <v>714</v>
+      </c>
+      <c r="AF6" t="s">
         <v>182</v>
       </c>
-      <c r="AE6" t="s">
+      <c r="AG6" t="s">
         <v>421</v>
       </c>
-      <c r="AF6" t="s">
+      <c r="AH6" t="s">
         <v>227</v>
       </c>
     </row>
@@ -18888,13 +19325,16 @@
       <c r="AC7" t="s">
         <v>176</v>
       </c>
-      <c r="AD7" t="s">
+      <c r="AE7" t="s">
+        <v>715</v>
+      </c>
+      <c r="AF7" t="s">
         <v>183</v>
       </c>
-      <c r="AE7" t="s">
+      <c r="AG7" t="s">
         <v>422</v>
       </c>
-      <c r="AF7" t="s">
+      <c r="AH7" t="s">
         <v>524</v>
       </c>
     </row>
@@ -18912,7 +19352,7 @@
         <v>361</v>
       </c>
       <c r="I8" t="s">
-        <v>324</v>
+        <v>703</v>
       </c>
       <c r="K8" t="s">
         <v>530</v>
@@ -18950,13 +19390,16 @@
       <c r="AC8" t="s">
         <v>177</v>
       </c>
-      <c r="AD8" t="s">
+      <c r="AE8" t="s">
+        <v>716</v>
+      </c>
+      <c r="AF8" t="s">
         <v>184</v>
       </c>
-      <c r="AE8" t="s">
+      <c r="AG8" t="s">
         <v>423</v>
       </c>
-      <c r="AF8" t="s">
+      <c r="AH8" t="s">
         <v>525</v>
       </c>
     </row>
@@ -18974,7 +19417,7 @@
         <v>362</v>
       </c>
       <c r="I9" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="L9" t="s">
         <v>16</v>
@@ -19006,10 +19449,13 @@
       <c r="AC9" t="s">
         <v>178</v>
       </c>
-      <c r="AD9" t="s">
+      <c r="AE9" t="s">
+        <v>717</v>
+      </c>
+      <c r="AF9" t="s">
         <v>185</v>
       </c>
-      <c r="AF9" t="s">
+      <c r="AH9" t="s">
         <v>526</v>
       </c>
     </row>
@@ -19024,7 +19470,7 @@
         <v>302</v>
       </c>
       <c r="I10" t="s">
-        <v>598</v>
+        <v>325</v>
       </c>
       <c r="L10" t="s">
         <v>480</v>
@@ -19050,10 +19496,10 @@
       <c r="AC10" t="s">
         <v>597</v>
       </c>
-      <c r="AD10" t="s">
+      <c r="AF10" t="s">
         <v>186</v>
       </c>
-      <c r="AF10" t="s">
+      <c r="AH10" t="s">
         <v>228</v>
       </c>
     </row>
@@ -19068,7 +19514,7 @@
         <v>348</v>
       </c>
       <c r="I11" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="L11" t="s">
         <v>78</v>
@@ -19088,10 +19534,10 @@
       <c r="AA11" t="s">
         <v>254</v>
       </c>
-      <c r="AD11" t="s">
+      <c r="AF11" t="s">
         <v>255</v>
       </c>
-      <c r="AF11" t="s">
+      <c r="AH11" t="s">
         <v>229</v>
       </c>
     </row>
@@ -19106,7 +19552,7 @@
         <v>270</v>
       </c>
       <c r="I12" t="s">
-        <v>447</v>
+        <v>599</v>
       </c>
       <c r="L12" t="s">
         <v>37</v>
@@ -19126,10 +19572,10 @@
       <c r="AA12" t="s">
         <v>99</v>
       </c>
-      <c r="AD12" t="s">
+      <c r="AF12" t="s">
         <v>187</v>
       </c>
-      <c r="AF12" t="s">
+      <c r="AH12" t="s">
         <v>230</v>
       </c>
     </row>
@@ -19144,7 +19590,7 @@
         <v>259</v>
       </c>
       <c r="I13" t="s">
-        <v>318</v>
+        <v>447</v>
       </c>
       <c r="L13" t="s">
         <v>481</v>
@@ -19164,10 +19610,10 @@
       <c r="AA13" t="s">
         <v>322</v>
       </c>
-      <c r="AD13" t="s">
+      <c r="AF13" t="s">
         <v>188</v>
       </c>
-      <c r="AF13" t="s">
+      <c r="AH13" t="s">
         <v>469</v>
       </c>
     </row>
@@ -19182,7 +19628,7 @@
         <v>312</v>
       </c>
       <c r="I14" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="L14" t="s">
         <v>385</v>
@@ -19199,10 +19645,10 @@
       <c r="AA14" t="s">
         <v>100</v>
       </c>
-      <c r="AD14" t="s">
+      <c r="AF14" t="s">
         <v>189</v>
       </c>
-      <c r="AF14" t="s">
+      <c r="AH14" t="s">
         <v>495</v>
       </c>
     </row>
@@ -19217,7 +19663,7 @@
         <v>260</v>
       </c>
       <c r="I15" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="L15" t="s">
         <v>17</v>
@@ -19234,10 +19680,10 @@
       <c r="AA15" t="s">
         <v>616</v>
       </c>
-      <c r="AD15" t="s">
+      <c r="AF15" t="s">
         <v>190</v>
       </c>
-      <c r="AF15" t="s">
+      <c r="AH15" t="s">
         <v>496</v>
       </c>
     </row>
@@ -19252,7 +19698,7 @@
         <v>261</v>
       </c>
       <c r="I16" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="L16" t="s">
         <v>41</v>
@@ -19269,10 +19715,10 @@
       <c r="AA16" t="s">
         <v>590</v>
       </c>
-      <c r="AD16" t="s">
+      <c r="AF16" t="s">
         <v>191</v>
       </c>
-      <c r="AF16" t="s">
+      <c r="AH16" t="s">
         <v>497</v>
       </c>
     </row>
@@ -19286,6 +19732,9 @@
       <c r="H17" t="s">
         <v>313</v>
       </c>
+      <c r="I17" t="s">
+        <v>321</v>
+      </c>
       <c r="L17" t="s">
         <v>482</v>
       </c>
@@ -19298,10 +19747,10 @@
       <c r="AA17" t="s">
         <v>101</v>
       </c>
-      <c r="AD17" t="s">
+      <c r="AF17" t="s">
         <v>462</v>
       </c>
-      <c r="AF17" t="s">
+      <c r="AH17" t="s">
         <v>498</v>
       </c>
     </row>
@@ -19315,6 +19764,9 @@
       <c r="H18" t="s">
         <v>87</v>
       </c>
+      <c r="I18" t="s">
+        <v>704</v>
+      </c>
       <c r="L18" t="s">
         <v>79</v>
       </c>
@@ -19327,7 +19779,7 @@
       <c r="AA18" t="s">
         <v>73</v>
       </c>
-      <c r="AF18" t="s">
+      <c r="AH18" t="s">
         <v>470</v>
       </c>
     </row>
@@ -19336,7 +19788,7 @@
         <v>235</v>
       </c>
       <c r="F19" t="s">
-        <v>410</v>
+        <v>683</v>
       </c>
       <c r="H19" t="s">
         <v>88</v>
@@ -19350,7 +19802,7 @@
       <c r="AA19" t="s">
         <v>488</v>
       </c>
-      <c r="AF19" t="s">
+      <c r="AH19" t="s">
         <v>499</v>
       </c>
     </row>
@@ -19359,7 +19811,7 @@
         <v>51</v>
       </c>
       <c r="F20" t="s">
-        <v>619</v>
+        <v>684</v>
       </c>
       <c r="H20" t="s">
         <v>292</v>
@@ -19373,7 +19825,7 @@
       <c r="AA20" t="s">
         <v>102</v>
       </c>
-      <c r="AF20" t="s">
+      <c r="AH20" t="s">
         <v>500</v>
       </c>
     </row>
@@ -19382,7 +19834,7 @@
         <v>391</v>
       </c>
       <c r="F21" t="s">
-        <v>620</v>
+        <v>410</v>
       </c>
       <c r="H21" t="s">
         <v>293</v>
@@ -19396,7 +19848,7 @@
       <c r="AA21" t="s">
         <v>103</v>
       </c>
-      <c r="AF21" t="s">
+      <c r="AH21" t="s">
         <v>501</v>
       </c>
     </row>
@@ -19405,7 +19857,7 @@
         <v>407</v>
       </c>
       <c r="F22" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="H22" t="s">
         <v>294</v>
@@ -19416,7 +19868,7 @@
       <c r="AA22" t="s">
         <v>104</v>
       </c>
-      <c r="AF22" t="s">
+      <c r="AH22" t="s">
         <v>231</v>
       </c>
     </row>
@@ -19425,7 +19877,7 @@
         <v>408</v>
       </c>
       <c r="F23" t="s">
-        <v>58</v>
+        <v>620</v>
       </c>
       <c r="H23" t="s">
         <v>295</v>
@@ -19436,7 +19888,7 @@
       <c r="AA23" t="s">
         <v>105</v>
       </c>
-      <c r="AF23" t="s">
+      <c r="AH23" t="s">
         <v>527</v>
       </c>
     </row>
@@ -19445,7 +19897,7 @@
         <v>352</v>
       </c>
       <c r="F24" t="s">
-        <v>59</v>
+        <v>621</v>
       </c>
       <c r="H24" t="s">
         <v>286</v>
@@ -19456,7 +19908,7 @@
       <c r="AA24" t="s">
         <v>489</v>
       </c>
-      <c r="AF24" t="s">
+      <c r="AH24" t="s">
         <v>528</v>
       </c>
     </row>
@@ -19465,7 +19917,7 @@
         <v>392</v>
       </c>
       <c r="F25" t="s">
-        <v>252</v>
+        <v>58</v>
       </c>
       <c r="H25" t="s">
         <v>275</v>
@@ -19476,7 +19928,7 @@
       <c r="AA25" t="s">
         <v>106</v>
       </c>
-      <c r="AF25" t="s">
+      <c r="AH25" t="s">
         <v>529</v>
       </c>
     </row>
@@ -19485,18 +19937,18 @@
         <v>609</v>
       </c>
       <c r="F26" t="s">
-        <v>622</v>
+        <v>59</v>
       </c>
       <c r="H26" t="s">
-        <v>74</v>
+        <v>685</v>
       </c>
       <c r="L26" t="s">
         <v>387</v>
       </c>
       <c r="AA26" t="s">
-        <v>567</v>
-      </c>
-      <c r="AF26" t="s">
+        <v>705</v>
+      </c>
+      <c r="AH26" t="s">
         <v>232</v>
       </c>
     </row>
@@ -19505,18 +19957,18 @@
         <v>52</v>
       </c>
       <c r="F27" t="s">
-        <v>533</v>
+        <v>252</v>
       </c>
       <c r="H27" t="s">
-        <v>278</v>
+        <v>686</v>
       </c>
       <c r="L27" t="s">
         <v>624</v>
       </c>
       <c r="AA27" t="s">
-        <v>107</v>
-      </c>
-      <c r="AF27" t="s">
+        <v>567</v>
+      </c>
+      <c r="AH27" t="s">
         <v>233</v>
       </c>
     </row>
@@ -19525,16 +19977,16 @@
         <v>53</v>
       </c>
       <c r="F28" t="s">
-        <v>60</v>
+        <v>622</v>
       </c>
       <c r="H28" t="s">
-        <v>262</v>
+        <v>74</v>
       </c>
       <c r="L28" t="s">
         <v>519</v>
       </c>
       <c r="AA28" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="29">
@@ -19542,898 +19994,959 @@
         <v>54</v>
       </c>
       <c r="F29" t="s">
-        <v>317</v>
+        <v>533</v>
       </c>
       <c r="H29" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="L29" t="s">
         <v>83</v>
       </c>
       <c r="AA29" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>55</v>
+        <v>681</v>
       </c>
       <c r="F30" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H30" t="s">
-        <v>280</v>
+        <v>262</v>
       </c>
       <c r="L30" t="s">
         <v>429</v>
       </c>
       <c r="AA30" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>409</v>
+        <v>682</v>
       </c>
       <c r="F31" t="s">
-        <v>444</v>
+        <v>317</v>
       </c>
       <c r="H31" t="s">
-        <v>212</v>
+        <v>279</v>
       </c>
       <c r="L31" t="s">
         <v>44</v>
       </c>
       <c r="AA31" t="s">
-        <v>323</v>
+        <v>110</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>223</v>
+        <v>55</v>
       </c>
       <c r="F32" t="s">
-        <v>221</v>
+        <v>61</v>
       </c>
       <c r="H32" t="s">
-        <v>271</v>
+        <v>280</v>
       </c>
       <c r="L32" t="s">
         <v>45</v>
       </c>
       <c r="AA32" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="s">
+        <v>409</v>
+      </c>
+      <c r="F33" t="s">
+        <v>444</v>
+      </c>
+      <c r="H33" t="s">
+        <v>212</v>
+      </c>
+      <c r="AA33" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="33">
-      <c r="F33" t="s">
-        <v>222</v>
-      </c>
-      <c r="H33" t="s">
-        <v>281</v>
-      </c>
-      <c r="AA33" t="s">
+    <row r="34">
+      <c r="A34" t="s">
+        <v>223</v>
+      </c>
+      <c r="F34" t="s">
+        <v>221</v>
+      </c>
+      <c r="H34" t="s">
+        <v>271</v>
+      </c>
+      <c r="AA34" t="s">
         <v>112</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="F34" t="s">
-        <v>463</v>
-      </c>
-      <c r="H34" t="s">
-        <v>504</v>
-      </c>
-      <c r="AA34" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="35">
       <c r="F35" t="s">
-        <v>464</v>
+        <v>222</v>
       </c>
       <c r="H35" t="s">
-        <v>256</v>
+        <v>281</v>
       </c>
       <c r="AA35" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="36">
       <c r="F36" t="s">
-        <v>411</v>
+        <v>463</v>
       </c>
       <c r="H36" t="s">
-        <v>326</v>
+        <v>504</v>
       </c>
       <c r="AA36" t="s">
-        <v>568</v>
+        <v>114</v>
       </c>
     </row>
     <row r="37">
       <c r="F37" t="s">
-        <v>62</v>
+        <v>464</v>
       </c>
       <c r="H37" t="s">
-        <v>303</v>
+        <v>256</v>
       </c>
       <c r="AA37" t="s">
-        <v>115</v>
+        <v>568</v>
       </c>
     </row>
     <row r="38">
       <c r="F38" t="s">
-        <v>63</v>
+        <v>411</v>
       </c>
       <c r="H38" t="s">
-        <v>257</v>
+        <v>326</v>
       </c>
       <c r="AA38" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="39">
       <c r="F39" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="H39" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="AA39" t="s">
-        <v>206</v>
+        <v>116</v>
       </c>
     </row>
     <row r="40">
       <c r="F40" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="H40" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="AA40" t="s">
-        <v>117</v>
+        <v>206</v>
       </c>
     </row>
     <row r="41">
       <c r="F41" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="H41" t="s">
-        <v>76</v>
+        <v>304</v>
       </c>
       <c r="AA41" t="s">
-        <v>334</v>
+        <v>117</v>
       </c>
     </row>
     <row r="42">
       <c r="F42" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="H42" t="s">
-        <v>208</v>
+        <v>263</v>
       </c>
       <c r="AA42" t="s">
-        <v>433</v>
+        <v>334</v>
       </c>
     </row>
     <row r="43">
       <c r="F43" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="H43" t="s">
-        <v>534</v>
+        <v>687</v>
       </c>
       <c r="AA43" t="s">
-        <v>578</v>
+        <v>433</v>
       </c>
     </row>
     <row r="44">
       <c r="F44" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="H44" t="s">
-        <v>285</v>
+        <v>76</v>
       </c>
       <c r="AA44" t="s">
-        <v>388</v>
+        <v>578</v>
       </c>
     </row>
     <row r="45">
       <c r="F45" t="s">
+        <v>68</v>
+      </c>
+      <c r="H45" t="s">
+        <v>208</v>
+      </c>
+      <c r="AA45" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="F46" t="s">
+        <v>69</v>
+      </c>
+      <c r="H46" t="s">
+        <v>534</v>
+      </c>
+      <c r="AA46" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="F47" t="s">
         <v>623</v>
       </c>
-      <c r="H45" t="s">
-        <v>296</v>
-      </c>
-      <c r="AA45" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="H46" t="s">
-        <v>297</v>
-      </c>
-      <c r="AA46" t="s">
+      <c r="H47" t="s">
+        <v>285</v>
+      </c>
+      <c r="AA47" t="s">
         <v>119</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="H47" t="s">
-        <v>339</v>
-      </c>
-      <c r="AA47" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="48">
       <c r="H48" t="s">
-        <v>338</v>
+        <v>296</v>
       </c>
       <c r="AA48" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="49">
       <c r="H49" t="s">
-        <v>207</v>
+        <v>297</v>
       </c>
       <c r="AA49" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="50">
       <c r="H50" t="s">
-        <v>316</v>
+        <v>339</v>
       </c>
       <c r="AA50" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="51">
       <c r="H51" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="AA51" t="s">
-        <v>617</v>
+        <v>123</v>
       </c>
     </row>
     <row r="52">
       <c r="H52" t="s">
-        <v>363</v>
+        <v>207</v>
       </c>
       <c r="AA52" t="s">
-        <v>209</v>
+        <v>617</v>
       </c>
     </row>
     <row r="53">
       <c r="H53" t="s">
-        <v>298</v>
+        <v>316</v>
       </c>
       <c r="AA53" t="s">
-        <v>75</v>
+        <v>209</v>
       </c>
     </row>
     <row r="54">
       <c r="H54" t="s">
-        <v>351</v>
+        <v>688</v>
       </c>
       <c r="AA54" t="s">
-        <v>531</v>
+        <v>75</v>
       </c>
     </row>
     <row r="55">
       <c r="H55" t="s">
-        <v>327</v>
+        <v>689</v>
       </c>
       <c r="AA55" t="s">
-        <v>124</v>
+        <v>531</v>
       </c>
     </row>
     <row r="56">
       <c r="H56" t="s">
-        <v>264</v>
+        <v>690</v>
       </c>
       <c r="AA56" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="57">
       <c r="H57" t="s">
-        <v>288</v>
+        <v>691</v>
       </c>
       <c r="AA57" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="58">
       <c r="H58" t="s">
-        <v>289</v>
+        <v>335</v>
       </c>
       <c r="AA58" t="s">
-        <v>490</v>
+        <v>126</v>
       </c>
     </row>
     <row r="59">
       <c r="H59" t="s">
-        <v>535</v>
+        <v>363</v>
       </c>
       <c r="AA59" t="s">
-        <v>459</v>
+        <v>490</v>
       </c>
     </row>
     <row r="60">
       <c r="H60" t="s">
-        <v>290</v>
+        <v>298</v>
       </c>
       <c r="AA60" t="s">
-        <v>127</v>
+        <v>459</v>
       </c>
     </row>
     <row r="61">
       <c r="H61" t="s">
-        <v>299</v>
+        <v>327</v>
       </c>
       <c r="AA61" t="s">
-        <v>342</v>
+        <v>127</v>
       </c>
     </row>
     <row r="62">
       <c r="H62" t="s">
-        <v>308</v>
+        <v>264</v>
       </c>
       <c r="AA62" t="s">
-        <v>460</v>
+        <v>342</v>
       </c>
     </row>
     <row r="63">
       <c r="H63" t="s">
-        <v>333</v>
+        <v>288</v>
       </c>
       <c r="AA63" t="s">
-        <v>128</v>
+        <v>460</v>
       </c>
     </row>
     <row r="64">
       <c r="H64" t="s">
-        <v>305</v>
+        <v>289</v>
       </c>
       <c r="AA64" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="65">
       <c r="H65" t="s">
-        <v>306</v>
+        <v>535</v>
       </c>
       <c r="AA65" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="66">
       <c r="H66" t="s">
-        <v>364</v>
+        <v>290</v>
       </c>
       <c r="AA66" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="67">
       <c r="H67" t="s">
-        <v>365</v>
+        <v>692</v>
       </c>
       <c r="AA67" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="68">
       <c r="H68" t="s">
-        <v>341</v>
+        <v>693</v>
       </c>
       <c r="AA68" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="69">
       <c r="H69" t="s">
-        <v>309</v>
+        <v>694</v>
       </c>
       <c r="AA69" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="70">
       <c r="H70" t="s">
-        <v>265</v>
+        <v>308</v>
       </c>
       <c r="AA70" t="s">
-        <v>435</v>
+        <v>134</v>
       </c>
     </row>
     <row r="71">
       <c r="H71" t="s">
-        <v>520</v>
+        <v>695</v>
       </c>
       <c r="AA71" t="s">
-        <v>468</v>
+        <v>435</v>
       </c>
     </row>
     <row r="72">
       <c r="H72" t="s">
-        <v>310</v>
+        <v>696</v>
       </c>
       <c r="AA72" t="s">
-        <v>210</v>
+        <v>468</v>
       </c>
     </row>
     <row r="73">
       <c r="H73" t="s">
-        <v>405</v>
+        <v>333</v>
       </c>
       <c r="AA73" t="s">
-        <v>384</v>
+        <v>210</v>
       </c>
     </row>
     <row r="74">
       <c r="H74" t="s">
-        <v>300</v>
+        <v>305</v>
       </c>
       <c r="AA74" t="s">
-        <v>436</v>
+        <v>384</v>
       </c>
     </row>
     <row r="75">
       <c r="H75" t="s">
-        <v>406</v>
+        <v>306</v>
       </c>
       <c r="AA75" t="s">
-        <v>135</v>
+        <v>436</v>
       </c>
     </row>
     <row r="76">
       <c r="H76" t="s">
-        <v>258</v>
+        <v>364</v>
       </c>
       <c r="AA76" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="77">
       <c r="H77" t="s">
-        <v>505</v>
+        <v>365</v>
       </c>
       <c r="AA77" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="78">
       <c r="H78" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="AA78" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="79">
       <c r="H79" t="s">
-        <v>276</v>
+        <v>309</v>
       </c>
       <c r="AA79" t="s">
-        <v>661</v>
+        <v>138</v>
       </c>
     </row>
     <row r="80">
       <c r="H80" t="s">
-        <v>282</v>
+        <v>265</v>
       </c>
       <c r="AA80" t="s">
-        <v>193</v>
+        <v>661</v>
       </c>
     </row>
     <row r="81">
       <c r="H81" t="s">
-        <v>287</v>
+        <v>520</v>
       </c>
       <c r="AA81" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="82">
       <c r="H82" t="s">
-        <v>424</v>
+        <v>310</v>
       </c>
       <c r="AA82" t="s">
-        <v>448</v>
+        <v>194</v>
       </c>
     </row>
     <row r="83">
       <c r="H83" t="s">
-        <v>328</v>
+        <v>405</v>
       </c>
       <c r="AA83" t="s">
-        <v>461</v>
+        <v>448</v>
       </c>
     </row>
     <row r="84">
       <c r="H84" t="s">
-        <v>266</v>
+        <v>697</v>
       </c>
       <c r="AA84" t="s">
-        <v>139</v>
+        <v>461</v>
       </c>
     </row>
     <row r="85">
       <c r="H85" t="s">
-        <v>277</v>
+        <v>698</v>
       </c>
       <c r="AA85" t="s">
-        <v>140</v>
+        <v>706</v>
       </c>
     </row>
     <row r="86">
       <c r="H86" t="s">
-        <v>283</v>
+        <v>258</v>
       </c>
       <c r="AA86" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="87">
       <c r="H87" t="s">
-        <v>272</v>
+        <v>505</v>
       </c>
       <c r="AA87" t="s">
-        <v>491</v>
+        <v>140</v>
       </c>
     </row>
     <row r="88">
       <c r="H88" t="s">
-        <v>523</v>
+        <v>340</v>
       </c>
       <c r="AA88" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="89">
       <c r="H89" t="s">
-        <v>267</v>
+        <v>276</v>
       </c>
       <c r="AA89" t="s">
-        <v>143</v>
+        <v>491</v>
       </c>
     </row>
     <row r="90">
       <c r="H90" t="s">
-        <v>284</v>
+        <v>699</v>
       </c>
       <c r="AA90" t="s">
-        <v>195</v>
+        <v>142</v>
       </c>
     </row>
     <row r="91">
       <c r="H91" t="s">
-        <v>268</v>
+        <v>700</v>
       </c>
       <c r="AA91" t="s">
-        <v>492</v>
+        <v>143</v>
       </c>
     </row>
     <row r="92">
       <c r="H92" t="s">
-        <v>269</v>
+        <v>287</v>
       </c>
       <c r="AA92" t="s">
-        <v>587</v>
+        <v>195</v>
       </c>
     </row>
     <row r="93">
       <c r="H93" t="s">
-        <v>301</v>
+        <v>424</v>
       </c>
       <c r="AA93" t="s">
-        <v>196</v>
+        <v>492</v>
       </c>
     </row>
     <row r="94">
       <c r="H94" t="s">
-        <v>307</v>
+        <v>328</v>
       </c>
       <c r="AA94" t="s">
-        <v>449</v>
+        <v>587</v>
       </c>
     </row>
     <row r="95">
       <c r="H95" t="s">
-        <v>291</v>
+        <v>266</v>
       </c>
       <c r="AA95" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="96">
       <c r="H96" t="s">
-        <v>336</v>
+        <v>277</v>
       </c>
       <c r="AA96" t="s">
-        <v>198</v>
+        <v>449</v>
       </c>
     </row>
     <row r="97">
       <c r="H97" t="s">
-        <v>273</v>
+        <v>283</v>
       </c>
       <c r="AA97" t="s">
-        <v>572</v>
+        <v>197</v>
       </c>
     </row>
     <row r="98">
       <c r="H98" t="s">
+        <v>272</v>
+      </c>
+      <c r="AA98" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="H99" t="s">
+        <v>523</v>
+      </c>
+      <c r="AA99" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="H100" t="s">
+        <v>267</v>
+      </c>
+      <c r="AA100" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="H101" t="s">
+        <v>284</v>
+      </c>
+      <c r="AA101" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="H102" t="s">
+        <v>701</v>
+      </c>
+      <c r="AA102" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="H103" t="s">
+        <v>702</v>
+      </c>
+      <c r="AA103" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="H104" t="s">
+        <v>268</v>
+      </c>
+      <c r="AA104" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="H105" t="s">
+        <v>269</v>
+      </c>
+      <c r="AA105" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="H106" t="s">
+        <v>301</v>
+      </c>
+      <c r="AA106" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="H107" t="s">
+        <v>307</v>
+      </c>
+      <c r="AA107" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="H108" t="s">
+        <v>291</v>
+      </c>
+      <c r="AA108" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="H109" t="s">
+        <v>336</v>
+      </c>
+      <c r="AA109" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="H110" t="s">
+        <v>273</v>
+      </c>
+      <c r="AA110" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="H111" t="s">
         <v>274</v>
       </c>
-      <c r="AA98" t="s">
-        <v>573</v>
-      </c>
-    </row>
-    <row r="99">
-      <c r="AA99" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="100">
-      <c r="AA100" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="101">
-      <c r="AA101" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="102">
-      <c r="AA102" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="103">
-      <c r="AA103" t="s">
-        <v>585</v>
-      </c>
-    </row>
-    <row r="104">
-      <c r="AA104" t="s">
-        <v>586</v>
-      </c>
-    </row>
-    <row r="105">
-      <c r="AA105" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="106">
-      <c r="AA106" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="107">
-      <c r="AA107" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="108">
-      <c r="AA108" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="109">
-      <c r="AA109" t="s">
+      <c r="AA111" t="s">
         <v>203</v>
-      </c>
-    </row>
-    <row r="110">
-      <c r="AA110" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="111">
-      <c r="AA111" t="s">
-        <v>591</v>
       </c>
     </row>
     <row r="112">
       <c r="AA112" t="s">
-        <v>204</v>
+        <v>219</v>
       </c>
     </row>
     <row r="113">
       <c r="AA113" t="s">
-        <v>493</v>
+        <v>591</v>
       </c>
     </row>
     <row r="114">
       <c r="AA114" t="s">
-        <v>662</v>
+        <v>204</v>
       </c>
     </row>
     <row r="115">
       <c r="AA115" t="s">
-        <v>663</v>
+        <v>493</v>
       </c>
     </row>
     <row r="116">
       <c r="AA116" t="s">
-        <v>517</v>
+        <v>662</v>
       </c>
     </row>
     <row r="117">
       <c r="AA117" t="s">
-        <v>145</v>
+        <v>663</v>
       </c>
     </row>
     <row r="118">
       <c r="AA118" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
     </row>
     <row r="119">
       <c r="AA119" t="s">
-        <v>378</v>
+        <v>145</v>
       </c>
     </row>
     <row r="120">
       <c r="AA120" t="s">
-        <v>146</v>
+        <v>518</v>
       </c>
     </row>
     <row r="121">
       <c r="AA121" t="s">
-        <v>147</v>
+        <v>378</v>
       </c>
     </row>
     <row r="122">
       <c r="AA122" t="s">
-        <v>592</v>
+        <v>146</v>
       </c>
     </row>
     <row r="123">
       <c r="AA123" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="124">
       <c r="AA124" t="s">
-        <v>149</v>
+        <v>592</v>
       </c>
     </row>
     <row r="125">
       <c r="AA125" t="s">
-        <v>593</v>
+        <v>148</v>
       </c>
     </row>
     <row r="126">
       <c r="AA126" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="127">
       <c r="AA127" t="s">
-        <v>151</v>
+        <v>593</v>
       </c>
     </row>
     <row r="128">
       <c r="AA128" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="129">
       <c r="AA129" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="130">
       <c r="AA130" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="131">
       <c r="AA131" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="132">
       <c r="AA132" t="s">
-        <v>594</v>
+        <v>154</v>
       </c>
     </row>
     <row r="133">
       <c r="AA133" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="134">
       <c r="AA134" t="s">
-        <v>157</v>
+        <v>594</v>
       </c>
     </row>
     <row r="135">
       <c r="AA135" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="136">
       <c r="AA136" t="s">
-        <v>618</v>
+        <v>157</v>
       </c>
     </row>
     <row r="137">
       <c r="AA137" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="138">
       <c r="AA138" t="s">
-        <v>569</v>
+        <v>618</v>
       </c>
     </row>
     <row r="139">
       <c r="AA139" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="140">
       <c r="AA140" t="s">
-        <v>161</v>
+        <v>569</v>
       </c>
     </row>
     <row r="141">
       <c r="AA141" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="142">
       <c r="AA142" t="s">
-        <v>46</v>
+        <v>161</v>
       </c>
     </row>
     <row r="143">
       <c r="AA143" t="s">
-        <v>664</v>
+        <v>162</v>
       </c>
     </row>
     <row r="144">
       <c r="AA144" t="s">
-        <v>595</v>
+        <v>46</v>
       </c>
     </row>
     <row r="145">
       <c r="AA145" t="s">
-        <v>164</v>
+        <v>664</v>
       </c>
     </row>
     <row r="146">
       <c r="AA146" t="s">
-        <v>165</v>
+        <v>595</v>
       </c>
     </row>
     <row r="147">
       <c r="AA147" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="148">
       <c r="AA148" t="s">
-        <v>665</v>
+        <v>165</v>
       </c>
     </row>
     <row r="149">
       <c r="AA149" t="s">
-        <v>666</v>
+        <v>166</v>
       </c>
     </row>
     <row r="150">
       <c r="AA150" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
     </row>
     <row r="151">
       <c r="AA151" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="AA152" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="AA153" t="s">
         <v>668</v>
       </c>
     </row>

--- a/src/test/resources/unittesting/artifact/script/unitTest_LocalDb.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_LocalDb.xlsx
@@ -21,43 +21,46 @@
     <definedName name="aws.ses">'#system'!$C$2:$C$3</definedName>
     <definedName name="aws.sqs">'#system'!$D$2:$D$6</definedName>
     <definedName name="base">'#system'!$F$2:$F$47</definedName>
-    <definedName name="csv">'#system'!$G$2:$G$6</definedName>
+    <definedName name="csv">'#system'!$H$2:$H$6</definedName>
     <definedName name="date">'#system'!$C$2:$C$14</definedName>
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
-    <definedName name="desktop">'#system'!$H$2:$H$111</definedName>
-    <definedName name="excel">'#system'!$I$2:$I$18</definedName>
-    <definedName name="external">'#system'!$J$2:$J$7</definedName>
-    <definedName name="image">'#system'!$K$2:$K$8</definedName>
-    <definedName name="io">'#system'!$L$2:$L$32</definedName>
-    <definedName name="jms">'#system'!$M$2:$M$4</definedName>
-    <definedName name="json">'#system'!$N$2:$N$18</definedName>
-    <definedName name="localdb">'#system'!$O$2:$O$13</definedName>
-    <definedName name="macro">'#system'!$P$2:$P$4</definedName>
-    <definedName name="mail">'#system'!$Q$2:$Q$5</definedName>
+    <definedName name="desktop">'#system'!$I$2:$I$113</definedName>
+    <definedName name="excel">'#system'!$J$2:$J$18</definedName>
+    <definedName name="external">'#system'!$K$2:$K$7</definedName>
+    <definedName name="image">'#system'!$L$2:$L$8</definedName>
+    <definedName name="io">'#system'!$M$2:$M$33</definedName>
+    <definedName name="jms">'#system'!$O$2:$O$4</definedName>
+    <definedName name="json">'#system'!$P$2:$P$19</definedName>
+    <definedName name="localdb">'#system'!$Q$2:$Q$13</definedName>
+    <definedName name="macro">'#system'!$R$2:$R$4</definedName>
+    <definedName name="mail">'#system'!$S$2:$S$5</definedName>
     <definedName name="math">'#system'!$K$2:$K$13</definedName>
     <definedName name="mq">'#system'!$J$2:$J$3</definedName>
     <definedName name="nextgen">'#system'!$K$2:$K$28</definedName>
-    <definedName name="number">'#system'!$R$2:$R$16</definedName>
-    <definedName name="pdf">'#system'!$S$2:$S$21</definedName>
-    <definedName name="rdbms">'#system'!$T$2:$T$9</definedName>
-    <definedName name="redis">'#system'!$U$2:$U$10</definedName>
-    <definedName name="sms">'#system'!$V$2:$V$2</definedName>
-    <definedName name="sound">'#system'!$W$2:$W$5</definedName>
-    <definedName name="ssh">'#system'!$X$2:$X$9</definedName>
-    <definedName name="step">'#system'!$Y$2:$Y$4</definedName>
-    <definedName name="target">'#system'!$A$2:$A$34</definedName>
+    <definedName name="number">'#system'!$U$2:$U$16</definedName>
+    <definedName name="pdf">'#system'!$V$2:$V$21</definedName>
+    <definedName name="rdbms">'#system'!$W$2:$W$9</definedName>
+    <definedName name="redis">'#system'!$X$2:$X$10</definedName>
+    <definedName name="sms">'#system'!$Y$2:$Y$2</definedName>
+    <definedName name="sound">'#system'!$Z$2:$Z$5</definedName>
+    <definedName name="ssh">'#system'!$AA$2:$AA$9</definedName>
+    <definedName name="step">'#system'!$AB$2:$AB$4</definedName>
+    <definedName name="target">'#system'!$A$2:$A$38</definedName>
     <definedName name="text">'#system'!$Y$2:$Y$2</definedName>
-    <definedName name="web">'#system'!$AA$2:$AA$153</definedName>
-    <definedName name="webalert">'#system'!$AB$2:$AB$8</definedName>
-    <definedName name="webcookie">'#system'!$AC$2:$AC$10</definedName>
-    <definedName name="ws">'#system'!$AF$2:$AF$17</definedName>
-    <definedName name="ws.async">'#system'!$AG$2:$AG$8</definedName>
-    <definedName name="xml">'#system'!$AH$2:$AH$27</definedName>
+    <definedName name="web">'#system'!$AE$2:$AE$160</definedName>
+    <definedName name="webalert">'#system'!$AF$2:$AF$8</definedName>
+    <definedName name="webcookie">'#system'!$AG$2:$AG$10</definedName>
+    <definedName name="ws">'#system'!$AJ$2:$AJ$20</definedName>
+    <definedName name="ws.async">'#system'!$AK$2:$AK$8</definedName>
+    <definedName name="xml">'#system'!$AL$2:$AL$27</definedName>
     <definedName name="aws.vision">'#system'!$E$2:$E$2</definedName>
-    <definedName name="tn.5250">'#system'!$AA$2:$AA$38</definedName>
-    <definedName name="step.inTime">'#system'!$Z$2:$Z$4</definedName>
-    <definedName name="webmail">'#system'!$AD$2:$AD$4</definedName>
-    <definedName name="word">'#system'!$AE$2:$AE$9</definedName>
+    <definedName name="tn.5250">'#system'!$AD$2:$AD$44</definedName>
+    <definedName name="step.inTime">'#system'!$AC$2:$AC$4</definedName>
+    <definedName name="webmail">'#system'!$AH$2:$AH$6</definedName>
+    <definedName name="word">'#system'!$AI$2:$AI$9</definedName>
+    <definedName name="browserstack">'#system'!$G$2:$G$7</definedName>
+    <definedName name="javaui">'#system'!$N$2:$N$16</definedName>
+    <definedName name="mobile">'#system'!$T$2:$T$51</definedName>
   </definedNames>
   <calcPr calcId="150000"/>
   <extLst>
@@ -72,7 +75,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18046" uniqueCount="718">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18827" uniqueCount="804">
   <si>
     <t>description</t>
   </si>
@@ -2240,13 +2243,271 @@
   <si>
     <t>removeProtection(file)</t>
   </si>
+  <si>
+    <t>browserstack</t>
+  </si>
+  <si>
+    <t>javaui</t>
+  </si>
+  <si>
+    <t>mobile</t>
+  </si>
+  <si>
+    <t>deleteApp(profile,appId,resultVar)</t>
+  </si>
+  <si>
+    <t>listBrowsers(profile,resultVar)</t>
+  </si>
+  <si>
+    <t>listDevices(profile,resultVar)</t>
+  </si>
+  <si>
+    <t>saveUploadApps(profile,customId,resultVar)</t>
+  </si>
+  <si>
+    <t>updateSessionStatus(profile,status,reason,resultVar)</t>
+  </si>
+  <si>
+    <t>uploadApp(profile,app,customId,resultVar)</t>
+  </si>
+  <si>
+    <t>focusFirstTableRow()</t>
+  </si>
+  <si>
+    <t>focusLastTableRow()</t>
+  </si>
+  <si>
+    <t>assertFileContent(file,match,asLines)</t>
+  </si>
+  <si>
+    <t>assertEditable(name)</t>
+  </si>
+  <si>
+    <t>assertPresence(name)</t>
+  </si>
+  <si>
+    <t>assertText(name,text)</t>
+  </si>
+  <si>
+    <t>clickMenu(menus)</t>
+  </si>
+  <si>
+    <t>startApp(profile)</t>
+  </si>
+  <si>
+    <t>startLocalAgent$nexial_core(portNumber)</t>
+  </si>
+  <si>
+    <t>startLocalAgent(port)</t>
+  </si>
+  <si>
+    <t>stopApp(profile)</t>
+  </si>
+  <si>
+    <t>stopLocalAgent$nexial_core(portNumber)</t>
+  </si>
+  <si>
+    <t>stopLocalAgent(port)</t>
+  </si>
+  <si>
+    <t>typeText(name,text)</t>
+  </si>
+  <si>
+    <t>waitForWindowTitle(title)</t>
+  </si>
+  <si>
+    <t>sanitize(var,json)</t>
+  </si>
+  <si>
+    <t>assertAlertPresent(text)</t>
+  </si>
+  <si>
+    <t>assertAttribute(locator,attribute,text)</t>
+  </si>
+  <si>
+    <t>assertCount(locator,count)</t>
+  </si>
+  <si>
+    <t>assertElementNotVisible(locator)</t>
+  </si>
+  <si>
+    <t>assertElementVisible(locator)</t>
+  </si>
+  <si>
+    <t>assertLocked()</t>
+  </si>
+  <si>
+    <t>assertTextPresent(locator,text)</t>
+  </si>
+  <si>
+    <t>back()</t>
+  </si>
+  <si>
+    <t>clearAlert(option)</t>
+  </si>
+  <si>
+    <t>clearNotification()</t>
+  </si>
+  <si>
+    <t>clickByDisplayText(text)</t>
+  </si>
+  <si>
+    <t>clickUntilNotFound(locator,waitMs,max)</t>
+  </si>
+  <si>
+    <t>closeApp()</t>
+  </si>
+  <si>
+    <t>copyToLocal(file,folder)</t>
+  </si>
+  <si>
+    <t>doubleClick(locator,xOffset,yOffset)</t>
+  </si>
+  <si>
+    <t>forward()</t>
+  </si>
+  <si>
+    <t>hideKeyboard()</t>
+  </si>
+  <si>
+    <t>home()</t>
+  </si>
+  <si>
+    <t>launchApp(app)</t>
+  </si>
+  <si>
+    <t>lock()</t>
+  </si>
+  <si>
+    <t>longClick(locator,waitMs)</t>
+  </si>
+  <si>
+    <t>orientation(mode)</t>
+  </si>
+  <si>
+    <t>postScreenshot$nexial_core(target,locator)</t>
+  </si>
+  <si>
+    <t>recentApps()</t>
+  </si>
+  <si>
+    <t>saveAlertText(var)</t>
+  </si>
+  <si>
+    <t>saveAttributes(var,locator,attribute)</t>
+  </si>
+  <si>
+    <t>saveLockStatus(var)</t>
+  </si>
+  <si>
+    <t>scroll(locator,direction)</t>
+  </si>
+  <si>
+    <t>scrollUntilFound(scrollTarget,direction,searchFor,maxWaitMs)</t>
+  </si>
+  <si>
+    <t>select(locator,item)</t>
+  </si>
+  <si>
+    <t>selectLocalFile(device,folder,filename)</t>
+  </si>
+  <si>
+    <t>sendSms(phone,message)</t>
+  </si>
+  <si>
+    <t>shake()</t>
+  </si>
+  <si>
+    <t>shutdown(profile)</t>
+  </si>
+  <si>
+    <t>slide(start,end)</t>
+  </si>
+  <si>
+    <t>type(locator,text)</t>
+  </si>
+  <si>
+    <t>unlock()</t>
+  </si>
+  <si>
+    <t>use(profile)</t>
+  </si>
+  <si>
+    <t>zoom(start1,end1,start2,end2)</t>
+  </si>
+  <si>
+    <t>compare$nexial_core(expects,actual,expectMatch,messagePrefix)</t>
+  </si>
+  <si>
+    <t>typeOnMatchedColumns(matches,keystrokes)</t>
+  </si>
+  <si>
+    <t>waitUntilMessagePresent(message,maxWaitMs)</t>
+  </si>
+  <si>
+    <t>waitUntilProcessed(maxWaitMs)</t>
+  </si>
+  <si>
+    <t>waitUntilTextPresent(text,maxWaitMs)</t>
+  </si>
+  <si>
+    <t>waitUntilTitlePresent(title,maxWaitMs)</t>
+  </si>
+  <si>
+    <t>assertElementNotPresent(locator,maxWaitMs)</t>
+  </si>
+  <si>
+    <t>assertElementsEnabled(prefix)</t>
+  </si>
+  <si>
+    <t>assertElementsVisible(prefix)</t>
+  </si>
+  <si>
+    <t>assertSelectOptionsAbsent(locator,options)</t>
+  </si>
+  <si>
+    <t>assertSelectOptionsPresent(locator,options)</t>
+  </si>
+  <si>
+    <t>clickIfPresent(locator)</t>
+  </si>
+  <si>
+    <t>saveCssValue(var,locator,property)</t>
+  </si>
+  <si>
+    <t>selectDropdown(locator,optLocator,optText)</t>
+  </si>
+  <si>
+    <t>toast(message,duration,darkMode)</t>
+  </si>
+  <si>
+    <t>waitForElementTextPresent(locator,text)</t>
+  </si>
+  <si>
+    <t>waitWhileElementNotPresent(locator,waitMs)</t>
+  </si>
+  <si>
+    <t>attachment(profile,id,attachment,saveTo)</t>
+  </si>
+  <si>
+    <t>attachments(profile,id,saveDir)</t>
+  </si>
+  <si>
+    <t>clearHeaders(headers)</t>
+  </si>
+  <si>
+    <t>graphql(url,body,var)</t>
+  </si>
+  <si>
+    <t>oauthProfile(var,profile)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="500" x14ac:knownFonts="1">
+  <fonts count="517" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -5407,8 +5668,115 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="787">
+  <fills count="811">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -8638,6 +9006,142 @@
       <patternFill patternType="solid">
         <fgColor rgb="E6E6E6"/>
         <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
     <fill>
@@ -16756,7 +17260,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="526">
+  <cellXfs count="543">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -18250,106 +18754,157 @@
     <xf applyFill="true" applyFont="true" borderId="0" fillId="735" fontId="465" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="466" fillId="741" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="467" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="741" fontId="466" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="467" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="468" fillId="744" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="744" fontId="468" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="469" fillId="747" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="747" fontId="469" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="470" fillId="750" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="750" fontId="470" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="471" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="471" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="472" fillId="753" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="753" fontId="472" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="473" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="474" fillId="756" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="473" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="756" fontId="474" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="475" fillId="759" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="759" fontId="475" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="476" fillId="747" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="747" fontId="476" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="477" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="478" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="479" fillId="750" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="480" fillId="762" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="481" fillId="750" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="482" fillId="759" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="483" fillId="765" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="484" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="477" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="478" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="750" fontId="479" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="762" fontId="480" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="750" fontId="481" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="759" fontId="482" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="765" fontId="483" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="484" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="485" fillId="768" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="768" fontId="485" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="486" fillId="771" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="771" fontId="486" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="487" fillId="774" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="774" fontId="487" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="488" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="488" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="489" fillId="777" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="777" fontId="489" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="490" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="491" fillId="780" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="490" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="780" fontId="491" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="492" fillId="783" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="783" fontId="492" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="493" fillId="771" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="771" fontId="493" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="494" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="495" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="496" fillId="774" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="497" fillId="786" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="498" fillId="774" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="499" fillId="783" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="494" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="495" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="774" fontId="496" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="786" fontId="497" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="774" fontId="498" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="783" fontId="499" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="500" fillId="789" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="501" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="502" fillId="792" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="503" fillId="795" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="504" fillId="798" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="505" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="506" fillId="801" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="507" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="508" fillId="804" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="509" fillId="807" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="510" fillId="795" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="511" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="512" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="513" fillId="798" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="514" fillId="810" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="515" fillId="798" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="516" fillId="807" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -18704,7 +19259,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AI153"/>
+  <dimension ref="A1:AM160"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
@@ -18735,87 +19290,99 @@
         <v>13</v>
       </c>
       <c r="G1" t="s">
+        <v>718</v>
+      </c>
+      <c r="H1" t="s">
         <v>49</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>21</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>22</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>23</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>343</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>14</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
+        <v>719</v>
+      </c>
+      <c r="O1" t="s">
         <v>329</v>
       </c>
-      <c r="N1" t="s">
+      <c r="P1" t="s">
         <v>24</v>
       </c>
-      <c r="O1" t="s">
+      <c r="Q1" t="s">
         <v>502</v>
       </c>
-      <c r="P1" t="s">
+      <c r="R1" t="s">
         <v>472</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="S1" t="s">
         <v>192</v>
       </c>
-      <c r="R1" t="s">
+      <c r="T1" t="s">
+        <v>720</v>
+      </c>
+      <c r="U1" t="s">
         <v>50</v>
       </c>
-      <c r="S1" t="s">
+      <c r="V1" t="s">
         <v>235</v>
       </c>
-      <c r="T1" t="s">
+      <c r="W1" t="s">
         <v>51</v>
       </c>
-      <c r="U1" t="s">
+      <c r="X1" t="s">
         <v>391</v>
       </c>
-      <c r="V1" t="s">
+      <c r="Y1" t="s">
         <v>407</v>
       </c>
-      <c r="W1" t="s">
+      <c r="Z1" t="s">
         <v>408</v>
       </c>
-      <c r="X1" t="s">
+      <c r="AA1" t="s">
         <v>352</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="AB1" t="s">
         <v>392</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AC1" t="s">
         <v>609</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AD1" t="s">
+        <v>600</v>
+      </c>
+      <c r="AE1" t="s">
         <v>52</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AF1" t="s">
         <v>53</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AG1" t="s">
         <v>54</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AH1" t="s">
         <v>681</v>
       </c>
-      <c r="AE1" t="s">
+      <c r="AI1" t="s">
         <v>682</v>
       </c>
-      <c r="AF1" t="s">
+      <c r="AJ1" t="s">
         <v>55</v>
       </c>
-      <c r="AG1" t="s">
+      <c r="AK1" t="s">
         <v>409</v>
       </c>
-      <c r="AH1" t="s">
+      <c r="AL1" t="s">
         <v>223</v>
       </c>
     </row>
@@ -18839,87 +19406,99 @@
         <v>56</v>
       </c>
       <c r="G2" t="s">
+        <v>721</v>
+      </c>
+      <c r="H2" t="s">
         <v>70</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>72</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>445</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>670</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>607</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="s">
         <v>311</v>
       </c>
-      <c r="M2" t="s">
+      <c r="N2" t="s">
+        <v>382</v>
+      </c>
+      <c r="O2" t="s">
         <v>379</v>
       </c>
-      <c r="N2" t="s">
+      <c r="P2" t="s">
         <v>430</v>
       </c>
-      <c r="O2" t="s">
+      <c r="Q2" t="s">
         <v>506</v>
       </c>
-      <c r="P2" t="s">
+      <c r="R2" t="s">
         <v>483</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="S2" t="s">
         <v>675</v>
       </c>
-      <c r="R2" t="s">
+      <c r="T2" t="s">
+        <v>743</v>
+      </c>
+      <c r="U2" t="s">
         <v>425</v>
       </c>
-      <c r="S2" t="s">
+      <c r="V2" t="s">
         <v>249</v>
       </c>
-      <c r="T2" t="s">
+      <c r="W2" t="s">
         <v>611</v>
       </c>
-      <c r="U2" t="s">
+      <c r="X2" t="s">
         <v>393</v>
       </c>
-      <c r="V2" t="s">
+      <c r="Y2" t="s">
         <v>414</v>
       </c>
-      <c r="W2" t="s">
+      <c r="Z2" t="s">
         <v>415</v>
       </c>
-      <c r="X2" t="s">
+      <c r="AA2" t="s">
         <v>376</v>
       </c>
-      <c r="Y2" t="s">
+      <c r="AB2" t="s">
         <v>402</v>
       </c>
-      <c r="Z2" t="s">
+      <c r="AC2" t="s">
         <v>613</v>
       </c>
-      <c r="AA2" t="s">
+      <c r="AD2" t="s">
+        <v>626</v>
+      </c>
+      <c r="AE2" t="s">
         <v>94</v>
       </c>
-      <c r="AB2" t="s">
+      <c r="AF2" t="s">
         <v>167</v>
       </c>
-      <c r="AC2" t="s">
+      <c r="AG2" t="s">
         <v>172</v>
       </c>
-      <c r="AD2" t="s">
-        <v>707</v>
-      </c>
-      <c r="AE2" t="s">
+      <c r="AH2" t="s">
+        <v>799</v>
+      </c>
+      <c r="AI2" t="s">
         <v>710</v>
       </c>
-      <c r="AF2" t="s">
+      <c r="AJ2" t="s">
         <v>179</v>
       </c>
-      <c r="AG2" t="s">
+      <c r="AK2" t="s">
         <v>427</v>
       </c>
-      <c r="AH2" t="s">
+      <c r="AL2" t="s">
         <v>494</v>
       </c>
     </row>
@@ -18940,84 +19519,96 @@
         <v>453</v>
       </c>
       <c r="G3" t="s">
+        <v>722</v>
+      </c>
+      <c r="H3" t="s">
         <v>360</v>
       </c>
-      <c r="H3" t="s">
+      <c r="I3" t="s">
         <v>86</v>
       </c>
-      <c r="I3" t="s">
+      <c r="J3" t="s">
         <v>47</v>
       </c>
-      <c r="J3" t="s">
+      <c r="K3" t="s">
         <v>77</v>
       </c>
-      <c r="K3" t="s">
+      <c r="L3" t="s">
         <v>345</v>
       </c>
-      <c r="L3" t="s">
-        <v>337</v>
-      </c>
       <c r="M3" t="s">
+        <v>729</v>
+      </c>
+      <c r="N3" t="s">
+        <v>730</v>
+      </c>
+      <c r="O3" t="s">
         <v>330</v>
       </c>
-      <c r="N3" t="s">
+      <c r="P3" t="s">
         <v>84</v>
       </c>
-      <c r="O3" t="s">
+      <c r="Q3" t="s">
         <v>507</v>
       </c>
-      <c r="P3" t="s">
+      <c r="R3" t="s">
         <v>484</v>
       </c>
-      <c r="Q3" t="s">
+      <c r="S3" t="s">
         <v>676</v>
       </c>
-      <c r="R3" t="s">
+      <c r="T3" t="s">
+        <v>744</v>
+      </c>
+      <c r="U3" t="s">
         <v>426</v>
       </c>
-      <c r="S3" t="s">
+      <c r="V3" t="s">
         <v>236</v>
       </c>
-      <c r="T3" t="s">
+      <c r="W3" t="s">
         <v>612</v>
       </c>
-      <c r="U3" t="s">
+      <c r="X3" t="s">
         <v>394</v>
       </c>
-      <c r="W3" t="s">
+      <c r="Z3" t="s">
         <v>416</v>
       </c>
-      <c r="X3" t="s">
+      <c r="AA3" t="s">
         <v>377</v>
       </c>
-      <c r="Y3" t="s">
+      <c r="AB3" t="s">
         <v>403</v>
       </c>
-      <c r="Z3" t="s">
+      <c r="AC3" t="s">
         <v>614</v>
       </c>
-      <c r="AA3" t="s">
+      <c r="AD3" t="s">
+        <v>627</v>
+      </c>
+      <c r="AE3" t="s">
         <v>95</v>
       </c>
-      <c r="AB3" t="s">
+      <c r="AF3" t="s">
         <v>168</v>
       </c>
-      <c r="AC3" t="s">
+      <c r="AG3" t="s">
         <v>173</v>
       </c>
-      <c r="AD3" t="s">
-        <v>708</v>
-      </c>
-      <c r="AE3" t="s">
+      <c r="AH3" t="s">
+        <v>800</v>
+      </c>
+      <c r="AI3" t="s">
         <v>711</v>
       </c>
-      <c r="AF3" t="s">
-        <v>359</v>
-      </c>
-      <c r="AG3" t="s">
+      <c r="AJ3" t="s">
+        <v>801</v>
+      </c>
+      <c r="AK3" t="s">
         <v>180</v>
       </c>
-      <c r="AH3" t="s">
+      <c r="AL3" t="s">
         <v>224</v>
       </c>
     </row>
@@ -19035,84 +19626,96 @@
         <v>15</v>
       </c>
       <c r="G4" t="s">
+        <v>723</v>
+      </c>
+      <c r="H4" t="s">
         <v>71</v>
       </c>
-      <c r="H4" t="s">
+      <c r="I4" t="s">
         <v>382</v>
       </c>
-      <c r="I4" t="s">
+      <c r="J4" t="s">
         <v>446</v>
       </c>
-      <c r="J4" t="s">
+      <c r="K4" t="s">
         <v>478</v>
       </c>
-      <c r="K4" t="s">
+      <c r="L4" t="s">
         <v>346</v>
       </c>
-      <c r="L4" t="s">
-        <v>583</v>
-      </c>
       <c r="M4" t="s">
+        <v>337</v>
+      </c>
+      <c r="N4" t="s">
+        <v>383</v>
+      </c>
+      <c r="O4" t="s">
         <v>331</v>
       </c>
-      <c r="N4" t="s">
+      <c r="P4" t="s">
         <v>25</v>
       </c>
-      <c r="O4" t="s">
+      <c r="Q4" t="s">
         <v>508</v>
       </c>
-      <c r="P4" t="s">
+      <c r="R4" t="s">
         <v>485</v>
       </c>
-      <c r="Q4" t="s">
+      <c r="S4" t="s">
         <v>412</v>
       </c>
-      <c r="R4" t="s">
+      <c r="T4" t="s">
+        <v>745</v>
+      </c>
+      <c r="U4" t="s">
         <v>26</v>
       </c>
-      <c r="S4" t="s">
+      <c r="V4" t="s">
         <v>237</v>
       </c>
-      <c r="T4" t="s">
+      <c r="W4" t="s">
         <v>213</v>
       </c>
-      <c r="U4" t="s">
+      <c r="X4" t="s">
         <v>395</v>
       </c>
-      <c r="W4" t="s">
+      <c r="Z4" t="s">
         <v>417</v>
       </c>
-      <c r="X4" t="s">
+      <c r="AA4" t="s">
         <v>353</v>
       </c>
-      <c r="Y4" t="s">
+      <c r="AB4" t="s">
         <v>404</v>
       </c>
-      <c r="Z4" t="s">
+      <c r="AC4" t="s">
         <v>615</v>
       </c>
-      <c r="AA4" t="s">
+      <c r="AD4" t="s">
+        <v>628</v>
+      </c>
+      <c r="AE4" t="s">
         <v>584</v>
       </c>
-      <c r="AB4" t="s">
+      <c r="AF4" t="s">
         <v>169</v>
       </c>
-      <c r="AC4" t="s">
+      <c r="AG4" t="s">
         <v>174</v>
       </c>
-      <c r="AD4" t="s">
-        <v>709</v>
-      </c>
-      <c r="AE4" t="s">
+      <c r="AH4" t="s">
+        <v>707</v>
+      </c>
+      <c r="AI4" t="s">
         <v>712</v>
       </c>
-      <c r="AF4" t="s">
-        <v>180</v>
-      </c>
-      <c r="AG4" t="s">
+      <c r="AJ4" t="s">
+        <v>359</v>
+      </c>
+      <c r="AK4" t="s">
         <v>419</v>
       </c>
-      <c r="AH4" t="s">
+      <c r="AL4" t="s">
         <v>225</v>
       </c>
     </row>
@@ -19130,69 +19733,84 @@
         <v>454</v>
       </c>
       <c r="G5" t="s">
+        <v>724</v>
+      </c>
+      <c r="H5" t="s">
         <v>428</v>
       </c>
-      <c r="H5" t="s">
+      <c r="I5" t="s">
         <v>571</v>
       </c>
-      <c r="I5" t="s">
+      <c r="J5" t="s">
         <v>455</v>
       </c>
-      <c r="J5" t="s">
+      <c r="K5" t="s">
         <v>479</v>
       </c>
-      <c r="K5" t="s">
+      <c r="L5" t="s">
         <v>347</v>
       </c>
-      <c r="L5" t="s">
-        <v>234</v>
+      <c r="M5" t="s">
+        <v>583</v>
       </c>
       <c r="N5" t="s">
+        <v>731</v>
+      </c>
+      <c r="P5" t="s">
         <v>85</v>
       </c>
-      <c r="O5" t="s">
+      <c r="Q5" t="s">
         <v>509</v>
       </c>
-      <c r="Q5" t="s">
+      <c r="S5" t="s">
         <v>677</v>
       </c>
-      <c r="R5" t="s">
+      <c r="T5" t="s">
+        <v>616</v>
+      </c>
+      <c r="U5" t="s">
         <v>29</v>
       </c>
-      <c r="S5" t="s">
+      <c r="V5" t="s">
         <v>238</v>
       </c>
-      <c r="T5" t="s">
+      <c r="W5" t="s">
         <v>214</v>
       </c>
-      <c r="U5" t="s">
+      <c r="X5" t="s">
         <v>396</v>
       </c>
-      <c r="W5" t="s">
+      <c r="Z5" t="s">
         <v>418</v>
       </c>
-      <c r="X5" t="s">
+      <c r="AA5" t="s">
         <v>354</v>
       </c>
-      <c r="AA5" t="s">
+      <c r="AD5" t="s">
+        <v>629</v>
+      </c>
+      <c r="AE5" t="s">
         <v>577</v>
       </c>
-      <c r="AB5" t="s">
+      <c r="AF5" t="s">
         <v>170</v>
       </c>
-      <c r="AC5" t="s">
+      <c r="AG5" t="s">
         <v>596</v>
       </c>
-      <c r="AE5" t="s">
+      <c r="AH5" t="s">
+        <v>708</v>
+      </c>
+      <c r="AI5" t="s">
         <v>713</v>
       </c>
-      <c r="AF5" t="s">
-        <v>181</v>
-      </c>
-      <c r="AG5" t="s">
+      <c r="AJ5" t="s">
+        <v>180</v>
+      </c>
+      <c r="AK5" t="s">
         <v>420</v>
       </c>
-      <c r="AH5" t="s">
+      <c r="AL5" t="s">
         <v>226</v>
       </c>
     </row>
@@ -19210,69 +19828,84 @@
         <v>27</v>
       </c>
       <c r="G6" t="s">
+        <v>725</v>
+      </c>
+      <c r="H6" t="s">
         <v>477</v>
       </c>
-      <c r="H6" t="s">
+      <c r="I6" t="s">
         <v>332</v>
       </c>
-      <c r="I6" t="s">
+      <c r="J6" t="s">
         <v>443</v>
       </c>
-      <c r="J6" t="s">
+      <c r="K6" t="s">
         <v>521</v>
       </c>
-      <c r="K6" t="s">
+      <c r="L6" t="s">
         <v>608</v>
       </c>
-      <c r="L6" t="s">
-        <v>457</v>
+      <c r="M6" t="s">
+        <v>234</v>
       </c>
       <c r="N6" t="s">
+        <v>732</v>
+      </c>
+      <c r="P6" t="s">
         <v>28</v>
       </c>
-      <c r="O6" t="s">
+      <c r="Q6" t="s">
         <v>510</v>
       </c>
-      <c r="R6" t="s">
+      <c r="T6" t="s">
+        <v>590</v>
+      </c>
+      <c r="U6" t="s">
         <v>30</v>
       </c>
-      <c r="S6" t="s">
+      <c r="V6" t="s">
         <v>239</v>
       </c>
-      <c r="T6" t="s">
+      <c r="W6" t="s">
         <v>215</v>
       </c>
-      <c r="U6" t="s">
+      <c r="X6" t="s">
         <v>397</v>
       </c>
-      <c r="X6" t="s">
+      <c r="AA6" t="s">
         <v>356</v>
       </c>
-      <c r="AA6" t="s">
+      <c r="AD6" t="s">
+        <v>630</v>
+      </c>
+      <c r="AE6" t="s">
         <v>96</v>
       </c>
-      <c r="AB6" t="s">
+      <c r="AF6" t="s">
         <v>440</v>
       </c>
-      <c r="AC6" t="s">
+      <c r="AG6" t="s">
         <v>175</v>
       </c>
-      <c r="AE6" t="s">
+      <c r="AH6" t="s">
+        <v>709</v>
+      </c>
+      <c r="AI6" t="s">
         <v>714</v>
       </c>
-      <c r="AF6" t="s">
-        <v>182</v>
-      </c>
-      <c r="AG6" t="s">
+      <c r="AJ6" t="s">
+        <v>181</v>
+      </c>
+      <c r="AK6" t="s">
         <v>421</v>
       </c>
-      <c r="AH6" t="s">
+      <c r="AL6" t="s">
         <v>227</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>49</v>
+        <v>718</v>
       </c>
       <c r="B7" t="s">
         <v>372</v>
@@ -19280,67 +19913,79 @@
       <c r="F7" t="s">
         <v>220</v>
       </c>
-      <c r="H7" t="s">
+      <c r="G7" t="s">
+        <v>726</v>
+      </c>
+      <c r="I7" t="s">
         <v>383</v>
       </c>
-      <c r="I7" t="s">
+      <c r="J7" t="s">
         <v>442</v>
       </c>
-      <c r="J7" t="s">
+      <c r="K7" t="s">
         <v>582</v>
       </c>
-      <c r="K7" t="s">
+      <c r="L7" t="s">
         <v>344</v>
       </c>
-      <c r="L7" t="s">
-        <v>671</v>
+      <c r="M7" t="s">
+        <v>457</v>
       </c>
       <c r="N7" t="s">
+        <v>212</v>
+      </c>
+      <c r="P7" t="s">
         <v>311</v>
       </c>
-      <c r="O7" t="s">
+      <c r="Q7" t="s">
         <v>511</v>
       </c>
-      <c r="R7" t="s">
+      <c r="T7" t="s">
+        <v>101</v>
+      </c>
+      <c r="U7" t="s">
         <v>32</v>
       </c>
-      <c r="S7" t="s">
+      <c r="V7" t="s">
         <v>240</v>
       </c>
-      <c r="T7" t="s">
+      <c r="W7" t="s">
         <v>216</v>
       </c>
-      <c r="U7" t="s">
+      <c r="X7" t="s">
         <v>398</v>
       </c>
-      <c r="X7" t="s">
+      <c r="AA7" t="s">
         <v>355</v>
       </c>
-      <c r="AA7" t="s">
+      <c r="AD7" t="s">
+        <v>631</v>
+      </c>
+      <c r="AE7" t="s">
         <v>97</v>
       </c>
-      <c r="AB7" t="s">
+      <c r="AF7" t="s">
         <v>441</v>
       </c>
-      <c r="AC7" t="s">
+      <c r="AG7" t="s">
         <v>176</v>
       </c>
-      <c r="AE7" t="s">
+      <c r="AI7" t="s">
         <v>715</v>
       </c>
-      <c r="AF7" t="s">
-        <v>183</v>
-      </c>
-      <c r="AG7" t="s">
+      <c r="AJ7" t="s">
+        <v>802</v>
+      </c>
+      <c r="AK7" t="s">
         <v>422</v>
       </c>
-      <c r="AH7" t="s">
+      <c r="AL7" t="s">
         <v>524</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>21</v>
+        <v>49</v>
       </c>
       <c r="B8" t="s">
         <v>373</v>
@@ -19348,64 +19993,73 @@
       <c r="F8" t="s">
         <v>314</v>
       </c>
-      <c r="H8" t="s">
+      <c r="I8" t="s">
         <v>361</v>
       </c>
-      <c r="I8" t="s">
+      <c r="J8" t="s">
         <v>703</v>
       </c>
-      <c r="K8" t="s">
+      <c r="L8" t="s">
         <v>530</v>
       </c>
-      <c r="L8" t="s">
-        <v>70</v>
+      <c r="M8" t="s">
+        <v>671</v>
       </c>
       <c r="N8" t="s">
+        <v>733</v>
+      </c>
+      <c r="P8" t="s">
         <v>33</v>
       </c>
-      <c r="O8" t="s">
+      <c r="Q8" t="s">
         <v>512</v>
       </c>
-      <c r="R8" t="s">
+      <c r="T8" t="s">
+        <v>746</v>
+      </c>
+      <c r="U8" t="s">
         <v>89</v>
       </c>
-      <c r="S8" t="s">
+      <c r="V8" t="s">
         <v>241</v>
       </c>
-      <c r="T8" t="s">
+      <c r="W8" t="s">
         <v>386</v>
       </c>
-      <c r="U8" t="s">
+      <c r="X8" t="s">
         <v>399</v>
       </c>
-      <c r="X8" t="s">
+      <c r="AA8" t="s">
         <v>357</v>
       </c>
-      <c r="AA8" t="s">
+      <c r="AD8" t="s">
+        <v>632</v>
+      </c>
+      <c r="AE8" t="s">
         <v>98</v>
       </c>
-      <c r="AB8" t="s">
+      <c r="AF8" t="s">
         <v>171</v>
       </c>
-      <c r="AC8" t="s">
+      <c r="AG8" t="s">
         <v>177</v>
       </c>
-      <c r="AE8" t="s">
+      <c r="AI8" t="s">
         <v>716</v>
       </c>
-      <c r="AF8" t="s">
-        <v>184</v>
-      </c>
-      <c r="AG8" t="s">
+      <c r="AJ8" t="s">
+        <v>182</v>
+      </c>
+      <c r="AK8" t="s">
         <v>423</v>
       </c>
-      <c r="AH8" t="s">
+      <c r="AL8" t="s">
         <v>525</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
         <v>374</v>
@@ -19413,1541 +20067,1870 @@
       <c r="F9" t="s">
         <v>31</v>
       </c>
-      <c r="H9" t="s">
+      <c r="I9" t="s">
         <v>362</v>
       </c>
-      <c r="I9" t="s">
+      <c r="J9" t="s">
         <v>324</v>
       </c>
-      <c r="L9" t="s">
-        <v>16</v>
+      <c r="M9" t="s">
+        <v>70</v>
       </c>
       <c r="N9" t="s">
+        <v>734</v>
+      </c>
+      <c r="P9" t="s">
         <v>34</v>
       </c>
-      <c r="O9" t="s">
+      <c r="Q9" t="s">
         <v>513</v>
       </c>
-      <c r="R9" t="s">
+      <c r="T9" t="s">
+        <v>73</v>
+      </c>
+      <c r="U9" t="s">
         <v>90</v>
       </c>
-      <c r="S9" t="s">
+      <c r="V9" t="s">
         <v>242</v>
       </c>
-      <c r="T9" t="s">
+      <c r="W9" t="s">
         <v>413</v>
       </c>
-      <c r="U9" t="s">
+      <c r="X9" t="s">
         <v>400</v>
       </c>
-      <c r="X9" t="s">
+      <c r="AA9" t="s">
         <v>358</v>
       </c>
-      <c r="AA9" t="s">
+      <c r="AD9" t="s">
+        <v>633</v>
+      </c>
+      <c r="AE9" t="s">
         <v>205</v>
       </c>
-      <c r="AC9" t="s">
+      <c r="AG9" t="s">
         <v>178</v>
       </c>
-      <c r="AE9" t="s">
+      <c r="AI9" t="s">
         <v>717</v>
       </c>
-      <c r="AF9" t="s">
-        <v>185</v>
-      </c>
-      <c r="AH9" t="s">
+      <c r="AJ9" t="s">
+        <v>183</v>
+      </c>
+      <c r="AL9" t="s">
         <v>526</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F10" t="s">
         <v>311</v>
       </c>
-      <c r="H10" t="s">
+      <c r="I10" t="s">
         <v>302</v>
       </c>
-      <c r="I10" t="s">
+      <c r="J10" t="s">
         <v>325</v>
       </c>
-      <c r="L10" t="s">
-        <v>480</v>
+      <c r="M10" t="s">
+        <v>16</v>
       </c>
       <c r="N10" t="s">
+        <v>735</v>
+      </c>
+      <c r="P10" t="s">
         <v>35</v>
       </c>
-      <c r="O10" t="s">
+      <c r="Q10" t="s">
         <v>514</v>
       </c>
-      <c r="R10" t="s">
+      <c r="T10" t="s">
+        <v>747</v>
+      </c>
+      <c r="U10" t="s">
         <v>432</v>
       </c>
-      <c r="S10" t="s">
+      <c r="V10" t="s">
         <v>243</v>
       </c>
-      <c r="U10" t="s">
+      <c r="X10" t="s">
         <v>401</v>
       </c>
-      <c r="AA10" t="s">
+      <c r="AD10" t="s">
+        <v>634</v>
+      </c>
+      <c r="AE10" t="s">
         <v>253</v>
       </c>
-      <c r="AC10" t="s">
+      <c r="AG10" t="s">
         <v>597</v>
       </c>
-      <c r="AF10" t="s">
-        <v>186</v>
-      </c>
-      <c r="AH10" t="s">
+      <c r="AJ10" t="s">
+        <v>184</v>
+      </c>
+      <c r="AL10" t="s">
         <v>228</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>343</v>
+        <v>23</v>
       </c>
       <c r="F11" t="s">
         <v>669</v>
       </c>
-      <c r="H11" t="s">
+      <c r="I11" t="s">
         <v>348</v>
       </c>
-      <c r="I11" t="s">
+      <c r="J11" t="s">
         <v>598</v>
       </c>
-      <c r="L11" t="s">
-        <v>78</v>
+      <c r="M11" t="s">
+        <v>480</v>
       </c>
       <c r="N11" t="s">
+        <v>736</v>
+      </c>
+      <c r="P11" t="s">
         <v>466</v>
       </c>
-      <c r="O11" t="s">
+      <c r="Q11" t="s">
         <v>515</v>
       </c>
-      <c r="R11" t="s">
+      <c r="T11" t="s">
+        <v>488</v>
+      </c>
+      <c r="U11" t="s">
         <v>91</v>
       </c>
-      <c r="S11" t="s">
+      <c r="V11" t="s">
         <v>625</v>
       </c>
-      <c r="AA11" t="s">
+      <c r="AD11" t="s">
+        <v>635</v>
+      </c>
+      <c r="AE11" t="s">
         <v>254</v>
       </c>
-      <c r="AF11" t="s">
-        <v>255</v>
-      </c>
-      <c r="AH11" t="s">
+      <c r="AJ11" t="s">
+        <v>185</v>
+      </c>
+      <c r="AL11" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>14</v>
+        <v>343</v>
       </c>
       <c r="F12" t="s">
         <v>576</v>
       </c>
-      <c r="H12" t="s">
+      <c r="I12" t="s">
         <v>270</v>
       </c>
-      <c r="I12" t="s">
+      <c r="J12" t="s">
         <v>599</v>
       </c>
-      <c r="L12" t="s">
-        <v>37</v>
+      <c r="M12" t="s">
+        <v>78</v>
       </c>
       <c r="N12" t="s">
+        <v>737</v>
+      </c>
+      <c r="P12" t="s">
         <v>532</v>
       </c>
-      <c r="O12" t="s">
+      <c r="Q12" t="s">
         <v>610</v>
       </c>
-      <c r="R12" t="s">
+      <c r="T12" t="s">
+        <v>748</v>
+      </c>
+      <c r="U12" t="s">
         <v>40</v>
       </c>
-      <c r="S12" t="s">
+      <c r="V12" t="s">
         <v>244</v>
       </c>
-      <c r="AA12" t="s">
+      <c r="AD12" t="s">
+        <v>636</v>
+      </c>
+      <c r="AE12" t="s">
         <v>99</v>
       </c>
-      <c r="AF12" t="s">
-        <v>187</v>
-      </c>
-      <c r="AH12" t="s">
+      <c r="AJ12" t="s">
+        <v>186</v>
+      </c>
+      <c r="AL12" t="s">
         <v>230</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>329</v>
+        <v>14</v>
       </c>
       <c r="F13" t="s">
         <v>315</v>
       </c>
-      <c r="H13" t="s">
+      <c r="I13" t="s">
         <v>259</v>
       </c>
-      <c r="I13" t="s">
+      <c r="J13" t="s">
         <v>447</v>
       </c>
-      <c r="L13" t="s">
-        <v>481</v>
+      <c r="M13" t="s">
+        <v>37</v>
       </c>
       <c r="N13" t="s">
+        <v>738</v>
+      </c>
+      <c r="P13" t="s">
         <v>431</v>
       </c>
-      <c r="O13" t="s">
+      <c r="Q13" t="s">
         <v>516</v>
       </c>
-      <c r="R13" t="s">
+      <c r="T13" t="s">
+        <v>749</v>
+      </c>
+      <c r="U13" t="s">
         <v>92</v>
       </c>
-      <c r="S13" t="s">
+      <c r="V13" t="s">
         <v>678</v>
       </c>
-      <c r="AA13" t="s">
+      <c r="AD13" t="s">
+        <v>637</v>
+      </c>
+      <c r="AE13" t="s">
         <v>322</v>
       </c>
-      <c r="AF13" t="s">
-        <v>188</v>
-      </c>
-      <c r="AH13" t="s">
+      <c r="AJ13" t="s">
+        <v>255</v>
+      </c>
+      <c r="AL13" t="s">
         <v>469</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>24</v>
+        <v>719</v>
       </c>
       <c r="F14" t="s">
         <v>337</v>
       </c>
-      <c r="H14" t="s">
+      <c r="I14" t="s">
         <v>312</v>
       </c>
-      <c r="I14" t="s">
+      <c r="J14" t="s">
         <v>318</v>
       </c>
-      <c r="L14" t="s">
-        <v>385</v>
+      <c r="M14" t="s">
+        <v>481</v>
       </c>
       <c r="N14" t="s">
+        <v>739</v>
+      </c>
+      <c r="P14" t="s">
         <v>467</v>
       </c>
-      <c r="R14" t="s">
+      <c r="T14" t="s">
+        <v>750</v>
+      </c>
+      <c r="U14" t="s">
         <v>93</v>
       </c>
-      <c r="S14" t="s">
+      <c r="V14" t="s">
         <v>245</v>
       </c>
-      <c r="AA14" t="s">
+      <c r="AD14" t="s">
+        <v>638</v>
+      </c>
+      <c r="AE14" t="s">
         <v>100</v>
       </c>
-      <c r="AF14" t="s">
-        <v>189</v>
-      </c>
-      <c r="AH14" t="s">
+      <c r="AJ14" t="s">
+        <v>803</v>
+      </c>
+      <c r="AL14" t="s">
         <v>495</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>502</v>
+        <v>329</v>
       </c>
       <c r="F15" t="s">
         <v>36</v>
       </c>
-      <c r="H15" t="s">
+      <c r="I15" t="s">
         <v>260</v>
       </c>
-      <c r="I15" t="s">
+      <c r="J15" t="s">
         <v>319</v>
       </c>
-      <c r="L15" t="s">
-        <v>17</v>
+      <c r="M15" t="s">
+        <v>385</v>
       </c>
       <c r="N15" t="s">
-        <v>38</v>
-      </c>
-      <c r="R15" t="s">
+        <v>740</v>
+      </c>
+      <c r="P15" t="s">
+        <v>742</v>
+      </c>
+      <c r="T15" t="s">
+        <v>751</v>
+      </c>
+      <c r="U15" t="s">
         <v>486</v>
       </c>
-      <c r="S15" t="s">
+      <c r="V15" t="s">
         <v>589</v>
       </c>
-      <c r="AA15" t="s">
+      <c r="AD15" t="s">
+        <v>639</v>
+      </c>
+      <c r="AE15" t="s">
         <v>616</v>
       </c>
-      <c r="AF15" t="s">
-        <v>190</v>
-      </c>
-      <c r="AH15" t="s">
+      <c r="AJ15" t="s">
+        <v>187</v>
+      </c>
+      <c r="AL15" t="s">
         <v>496</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>472</v>
+        <v>24</v>
       </c>
       <c r="F16" t="s">
         <v>57</v>
       </c>
-      <c r="H16" t="s">
+      <c r="I16" t="s">
         <v>261</v>
       </c>
-      <c r="I16" t="s">
+      <c r="J16" t="s">
         <v>320</v>
       </c>
-      <c r="L16" t="s">
-        <v>41</v>
+      <c r="M16" t="s">
+        <v>17</v>
       </c>
       <c r="N16" t="s">
-        <v>536</v>
-      </c>
-      <c r="R16" t="s">
+        <v>741</v>
+      </c>
+      <c r="P16" t="s">
+        <v>38</v>
+      </c>
+      <c r="T16" t="s">
+        <v>752</v>
+      </c>
+      <c r="U16" t="s">
         <v>487</v>
       </c>
-      <c r="S16" t="s">
+      <c r="V16" t="s">
         <v>250</v>
       </c>
-      <c r="AA16" t="s">
+      <c r="AD16" t="s">
+        <v>640</v>
+      </c>
+      <c r="AE16" t="s">
         <v>590</v>
       </c>
-      <c r="AF16" t="s">
-        <v>191</v>
-      </c>
-      <c r="AH16" t="s">
+      <c r="AJ16" t="s">
+        <v>188</v>
+      </c>
+      <c r="AL16" t="s">
         <v>497</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>192</v>
+        <v>502</v>
       </c>
       <c r="F17" t="s">
         <v>380</v>
       </c>
-      <c r="H17" t="s">
+      <c r="I17" t="s">
         <v>313</v>
       </c>
-      <c r="I17" t="s">
+      <c r="J17" t="s">
         <v>321</v>
       </c>
-      <c r="L17" t="s">
-        <v>482</v>
-      </c>
-      <c r="N17" t="s">
-        <v>39</v>
-      </c>
-      <c r="S17" t="s">
+      <c r="M17" t="s">
+        <v>41</v>
+      </c>
+      <c r="P17" t="s">
+        <v>536</v>
+      </c>
+      <c r="T17" t="s">
+        <v>75</v>
+      </c>
+      <c r="V17" t="s">
         <v>246</v>
       </c>
-      <c r="AA17" t="s">
-        <v>101</v>
-      </c>
-      <c r="AF17" t="s">
-        <v>462</v>
-      </c>
-      <c r="AH17" t="s">
+      <c r="AD17" t="s">
+        <v>641</v>
+      </c>
+      <c r="AE17" t="s">
+        <v>788</v>
+      </c>
+      <c r="AJ17" t="s">
+        <v>189</v>
+      </c>
+      <c r="AL17" t="s">
         <v>498</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>50</v>
+        <v>472</v>
       </c>
       <c r="F18" t="s">
         <v>381</v>
       </c>
-      <c r="H18" t="s">
+      <c r="I18" t="s">
         <v>87</v>
       </c>
-      <c r="I18" t="s">
+      <c r="J18" t="s">
         <v>704</v>
       </c>
-      <c r="L18" t="s">
-        <v>79</v>
-      </c>
-      <c r="N18" t="s">
-        <v>42</v>
-      </c>
-      <c r="S18" t="s">
+      <c r="M18" t="s">
+        <v>482</v>
+      </c>
+      <c r="P18" t="s">
+        <v>39</v>
+      </c>
+      <c r="T18" t="s">
+        <v>753</v>
+      </c>
+      <c r="V18" t="s">
         <v>247</v>
       </c>
-      <c r="AA18" t="s">
+      <c r="AD18" t="s">
+        <v>642</v>
+      </c>
+      <c r="AE18" t="s">
         <v>73</v>
       </c>
-      <c r="AH18" t="s">
+      <c r="AJ18" t="s">
+        <v>190</v>
+      </c>
+      <c r="AL18" t="s">
         <v>470</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>235</v>
+        <v>192</v>
       </c>
       <c r="F19" t="s">
         <v>683</v>
       </c>
-      <c r="H19" t="s">
+      <c r="I19" t="s">
         <v>88</v>
       </c>
-      <c r="L19" t="s">
-        <v>80</v>
-      </c>
-      <c r="S19" t="s">
+      <c r="M19" t="s">
+        <v>79</v>
+      </c>
+      <c r="P19" t="s">
+        <v>42</v>
+      </c>
+      <c r="T19" t="s">
+        <v>754</v>
+      </c>
+      <c r="V19" t="s">
         <v>679</v>
       </c>
-      <c r="AA19" t="s">
-        <v>488</v>
-      </c>
-      <c r="AH19" t="s">
+      <c r="AD19" t="s">
+        <v>643</v>
+      </c>
+      <c r="AE19" t="s">
+        <v>789</v>
+      </c>
+      <c r="AJ19" t="s">
+        <v>191</v>
+      </c>
+      <c r="AL19" t="s">
         <v>499</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>51</v>
+        <v>720</v>
       </c>
       <c r="F20" t="s">
         <v>684</v>
       </c>
-      <c r="H20" t="s">
+      <c r="I20" t="s">
         <v>292</v>
       </c>
-      <c r="L20" t="s">
-        <v>458</v>
-      </c>
-      <c r="S20" t="s">
+      <c r="M20" t="s">
+        <v>80</v>
+      </c>
+      <c r="T20" t="s">
+        <v>755</v>
+      </c>
+      <c r="V20" t="s">
         <v>248</v>
       </c>
-      <c r="AA20" t="s">
-        <v>102</v>
-      </c>
-      <c r="AH20" t="s">
+      <c r="AD20" t="s">
+        <v>644</v>
+      </c>
+      <c r="AE20" t="s">
+        <v>488</v>
+      </c>
+      <c r="AJ20" t="s">
+        <v>462</v>
+      </c>
+      <c r="AL20" t="s">
         <v>500</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>391</v>
+        <v>50</v>
       </c>
       <c r="F21" t="s">
         <v>410</v>
       </c>
-      <c r="H21" t="s">
+      <c r="I21" t="s">
         <v>293</v>
       </c>
-      <c r="L21" t="s">
-        <v>81</v>
-      </c>
-      <c r="S21" t="s">
+      <c r="M21" t="s">
+        <v>458</v>
+      </c>
+      <c r="T21" t="s">
+        <v>756</v>
+      </c>
+      <c r="V21" t="s">
         <v>680</v>
       </c>
-      <c r="AA21" t="s">
-        <v>103</v>
-      </c>
-      <c r="AH21" t="s">
+      <c r="AD21" t="s">
+        <v>645</v>
+      </c>
+      <c r="AE21" t="s">
+        <v>790</v>
+      </c>
+      <c r="AL21" t="s">
         <v>501</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>407</v>
+        <v>235</v>
       </c>
       <c r="F22" t="s">
         <v>619</v>
       </c>
-      <c r="H22" t="s">
+      <c r="I22" t="s">
         <v>294</v>
       </c>
-      <c r="L22" t="s">
-        <v>82</v>
-      </c>
-      <c r="AA22" t="s">
-        <v>104</v>
-      </c>
-      <c r="AH22" t="s">
+      <c r="M22" t="s">
+        <v>81</v>
+      </c>
+      <c r="T22" t="s">
+        <v>757</v>
+      </c>
+      <c r="AD22" t="s">
+        <v>602</v>
+      </c>
+      <c r="AE22" t="s">
+        <v>102</v>
+      </c>
+      <c r="AL22" t="s">
         <v>231</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>408</v>
+        <v>51</v>
       </c>
       <c r="F23" t="s">
         <v>620</v>
       </c>
-      <c r="H23" t="s">
+      <c r="I23" t="s">
         <v>295</v>
       </c>
-      <c r="L23" t="s">
-        <v>581</v>
-      </c>
-      <c r="AA23" t="s">
-        <v>105</v>
-      </c>
-      <c r="AH23" t="s">
+      <c r="M23" t="s">
+        <v>82</v>
+      </c>
+      <c r="T23" t="s">
+        <v>758</v>
+      </c>
+      <c r="AD23" t="s">
+        <v>782</v>
+      </c>
+      <c r="AE23" t="s">
+        <v>103</v>
+      </c>
+      <c r="AL23" t="s">
         <v>527</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>352</v>
+        <v>391</v>
       </c>
       <c r="F24" t="s">
         <v>621</v>
       </c>
-      <c r="H24" t="s">
+      <c r="I24" t="s">
         <v>286</v>
       </c>
-      <c r="L24" t="s">
-        <v>465</v>
-      </c>
-      <c r="AA24" t="s">
-        <v>489</v>
-      </c>
-      <c r="AH24" t="s">
+      <c r="M24" t="s">
+        <v>581</v>
+      </c>
+      <c r="T24" t="s">
+        <v>759</v>
+      </c>
+      <c r="AD24" t="s">
+        <v>646</v>
+      </c>
+      <c r="AE24" t="s">
+        <v>104</v>
+      </c>
+      <c r="AL24" t="s">
         <v>528</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>392</v>
+        <v>407</v>
       </c>
       <c r="F25" t="s">
         <v>58</v>
       </c>
-      <c r="H25" t="s">
+      <c r="I25" t="s">
         <v>275</v>
       </c>
-      <c r="L25" t="s">
-        <v>43</v>
-      </c>
-      <c r="AA25" t="s">
-        <v>106</v>
-      </c>
-      <c r="AH25" t="s">
+      <c r="M25" t="s">
+        <v>465</v>
+      </c>
+      <c r="T25" t="s">
+        <v>760</v>
+      </c>
+      <c r="AD25" t="s">
+        <v>647</v>
+      </c>
+      <c r="AE25" t="s">
+        <v>105</v>
+      </c>
+      <c r="AL25" t="s">
         <v>529</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>609</v>
+        <v>408</v>
       </c>
       <c r="F26" t="s">
         <v>59</v>
       </c>
-      <c r="H26" t="s">
+      <c r="I26" t="s">
         <v>685</v>
       </c>
-      <c r="L26" t="s">
-        <v>387</v>
-      </c>
-      <c r="AA26" t="s">
-        <v>705</v>
-      </c>
-      <c r="AH26" t="s">
+      <c r="M26" t="s">
+        <v>43</v>
+      </c>
+      <c r="T26" t="s">
+        <v>761</v>
+      </c>
+      <c r="AD26" t="s">
+        <v>648</v>
+      </c>
+      <c r="AE26" t="s">
+        <v>489</v>
+      </c>
+      <c r="AL26" t="s">
         <v>232</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>52</v>
+        <v>352</v>
       </c>
       <c r="F27" t="s">
         <v>252</v>
       </c>
-      <c r="H27" t="s">
+      <c r="I27" t="s">
         <v>686</v>
       </c>
-      <c r="L27" t="s">
-        <v>624</v>
-      </c>
-      <c r="AA27" t="s">
-        <v>567</v>
-      </c>
-      <c r="AH27" t="s">
+      <c r="M27" t="s">
+        <v>387</v>
+      </c>
+      <c r="T27" t="s">
+        <v>762</v>
+      </c>
+      <c r="AD27" t="s">
+        <v>603</v>
+      </c>
+      <c r="AE27" t="s">
+        <v>106</v>
+      </c>
+      <c r="AL27" t="s">
         <v>233</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>53</v>
+        <v>392</v>
       </c>
       <c r="F28" t="s">
         <v>622</v>
       </c>
-      <c r="H28" t="s">
+      <c r="I28" t="s">
         <v>74</v>
       </c>
-      <c r="L28" t="s">
-        <v>519</v>
-      </c>
-      <c r="AA28" t="s">
-        <v>107</v>
+      <c r="M28" t="s">
+        <v>624</v>
+      </c>
+      <c r="T28" t="s">
+        <v>763</v>
+      </c>
+      <c r="AD28" t="s">
+        <v>649</v>
+      </c>
+      <c r="AE28" t="s">
+        <v>705</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>54</v>
+        <v>609</v>
       </c>
       <c r="F29" t="s">
         <v>533</v>
       </c>
-      <c r="H29" t="s">
+      <c r="I29" t="s">
         <v>278</v>
       </c>
-      <c r="L29" t="s">
-        <v>83</v>
-      </c>
-      <c r="AA29" t="s">
-        <v>108</v>
+      <c r="M29" t="s">
+        <v>519</v>
+      </c>
+      <c r="T29" t="s">
+        <v>764</v>
+      </c>
+      <c r="AD29" t="s">
+        <v>650</v>
+      </c>
+      <c r="AE29" t="s">
+        <v>567</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>681</v>
+        <v>600</v>
       </c>
       <c r="F30" t="s">
         <v>60</v>
       </c>
-      <c r="H30" t="s">
+      <c r="I30" t="s">
         <v>262</v>
       </c>
-      <c r="L30" t="s">
-        <v>429</v>
-      </c>
-      <c r="AA30" t="s">
-        <v>109</v>
+      <c r="M30" t="s">
+        <v>83</v>
+      </c>
+      <c r="T30" t="s">
+        <v>765</v>
+      </c>
+      <c r="AD30" t="s">
+        <v>651</v>
+      </c>
+      <c r="AE30" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>682</v>
+        <v>52</v>
       </c>
       <c r="F31" t="s">
         <v>317</v>
       </c>
-      <c r="H31" t="s">
+      <c r="I31" t="s">
         <v>279</v>
       </c>
-      <c r="L31" t="s">
-        <v>44</v>
-      </c>
-      <c r="AA31" t="s">
-        <v>110</v>
+      <c r="M31" t="s">
+        <v>429</v>
+      </c>
+      <c r="T31" t="s">
+        <v>766</v>
+      </c>
+      <c r="AD31" t="s">
+        <v>652</v>
+      </c>
+      <c r="AE31" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F32" t="s">
         <v>61</v>
       </c>
-      <c r="H32" t="s">
+      <c r="I32" t="s">
         <v>280</v>
       </c>
-      <c r="L32" t="s">
-        <v>45</v>
-      </c>
-      <c r="AA32" t="s">
-        <v>323</v>
+      <c r="M32" t="s">
+        <v>44</v>
+      </c>
+      <c r="T32" t="s">
+        <v>767</v>
+      </c>
+      <c r="AD32" t="s">
+        <v>653</v>
+      </c>
+      <c r="AE32" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>409</v>
+        <v>54</v>
       </c>
       <c r="F33" t="s">
         <v>444</v>
       </c>
-      <c r="H33" t="s">
+      <c r="I33" t="s">
         <v>212</v>
       </c>
-      <c r="AA33" t="s">
-        <v>111</v>
+      <c r="M33" t="s">
+        <v>45</v>
+      </c>
+      <c r="T33" t="s">
+        <v>768</v>
+      </c>
+      <c r="AD33" t="s">
+        <v>654</v>
+      </c>
+      <c r="AE33" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>223</v>
+        <v>681</v>
       </c>
       <c r="F34" t="s">
         <v>221</v>
       </c>
-      <c r="H34" t="s">
+      <c r="I34" t="s">
         <v>271</v>
       </c>
-      <c r="AA34" t="s">
-        <v>112</v>
+      <c r="T34" t="s">
+        <v>196</v>
+      </c>
+      <c r="AD34" t="s">
+        <v>655</v>
+      </c>
+      <c r="AE34" t="s">
+        <v>323</v>
       </c>
     </row>
     <row r="35">
+      <c r="A35" t="s">
+        <v>682</v>
+      </c>
       <c r="F35" t="s">
         <v>222</v>
       </c>
-      <c r="H35" t="s">
+      <c r="I35" t="s">
         <v>281</v>
       </c>
-      <c r="AA35" t="s">
-        <v>113</v>
+      <c r="T35" t="s">
+        <v>769</v>
+      </c>
+      <c r="AD35" t="s">
+        <v>656</v>
+      </c>
+      <c r="AE35" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="36">
+      <c r="A36" t="s">
+        <v>55</v>
+      </c>
       <c r="F36" t="s">
         <v>463</v>
       </c>
-      <c r="H36" t="s">
+      <c r="I36" t="s">
         <v>504</v>
       </c>
-      <c r="AA36" t="s">
-        <v>114</v>
+      <c r="T36" t="s">
+        <v>200</v>
+      </c>
+      <c r="AD36" t="s">
+        <v>657</v>
+      </c>
+      <c r="AE36" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="37">
+      <c r="A37" t="s">
+        <v>409</v>
+      </c>
       <c r="F37" t="s">
         <v>464</v>
       </c>
-      <c r="H37" t="s">
+      <c r="I37" t="s">
         <v>256</v>
       </c>
-      <c r="AA37" t="s">
-        <v>568</v>
+      <c r="T37" t="s">
+        <v>201</v>
+      </c>
+      <c r="AD37" t="s">
+        <v>658</v>
+      </c>
+      <c r="AE37" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="38">
+      <c r="A38" t="s">
+        <v>223</v>
+      </c>
       <c r="F38" t="s">
         <v>411</v>
       </c>
-      <c r="H38" t="s">
+      <c r="I38" t="s">
         <v>326</v>
       </c>
-      <c r="AA38" t="s">
-        <v>115</v>
+      <c r="T38" t="s">
+        <v>579</v>
+      </c>
+      <c r="AD38" t="s">
+        <v>783</v>
+      </c>
+      <c r="AE38" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="39">
       <c r="F39" t="s">
         <v>62</v>
       </c>
-      <c r="H39" t="s">
+      <c r="I39" t="s">
         <v>303</v>
       </c>
-      <c r="AA39" t="s">
-        <v>116</v>
+      <c r="T39" t="s">
+        <v>770</v>
+      </c>
+      <c r="AD39" t="s">
+        <v>659</v>
+      </c>
+      <c r="AE39" t="s">
+        <v>791</v>
       </c>
     </row>
     <row r="40">
       <c r="F40" t="s">
         <v>63</v>
       </c>
-      <c r="H40" t="s">
+      <c r="I40" t="s">
         <v>257</v>
       </c>
-      <c r="AA40" t="s">
-        <v>206</v>
+      <c r="T40" t="s">
+        <v>771</v>
+      </c>
+      <c r="AD40" t="s">
+        <v>660</v>
+      </c>
+      <c r="AE40" t="s">
+        <v>792</v>
       </c>
     </row>
     <row r="41">
       <c r="F41" t="s">
         <v>64</v>
       </c>
-      <c r="H41" t="s">
+      <c r="I41" t="s">
         <v>304</v>
       </c>
-      <c r="AA41" t="s">
-        <v>117</v>
+      <c r="T41" t="s">
+        <v>772</v>
+      </c>
+      <c r="AD41" t="s">
+        <v>784</v>
+      </c>
+      <c r="AE41" t="s">
+        <v>568</v>
       </c>
     </row>
     <row r="42">
       <c r="F42" t="s">
         <v>65</v>
       </c>
-      <c r="H42" t="s">
+      <c r="I42" t="s">
         <v>263</v>
       </c>
-      <c r="AA42" t="s">
-        <v>334</v>
+      <c r="T42" t="s">
+        <v>773</v>
+      </c>
+      <c r="AD42" t="s">
+        <v>785</v>
+      </c>
+      <c r="AE42" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="43">
       <c r="F43" t="s">
         <v>66</v>
       </c>
-      <c r="H43" t="s">
+      <c r="I43" t="s">
         <v>687</v>
       </c>
-      <c r="AA43" t="s">
-        <v>433</v>
+      <c r="T43" t="s">
+        <v>774</v>
+      </c>
+      <c r="AD43" t="s">
+        <v>786</v>
+      </c>
+      <c r="AE43" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="44">
       <c r="F44" t="s">
         <v>67</v>
       </c>
-      <c r="H44" t="s">
+      <c r="I44" t="s">
         <v>76</v>
       </c>
-      <c r="AA44" t="s">
-        <v>578</v>
+      <c r="T44" t="s">
+        <v>775</v>
+      </c>
+      <c r="AD44" t="s">
+        <v>787</v>
+      </c>
+      <c r="AE44" t="s">
+        <v>206</v>
       </c>
     </row>
     <row r="45">
       <c r="F45" t="s">
         <v>68</v>
       </c>
-      <c r="H45" t="s">
+      <c r="I45" t="s">
         <v>208</v>
       </c>
-      <c r="AA45" t="s">
-        <v>388</v>
+      <c r="T45" t="s">
+        <v>776</v>
+      </c>
+      <c r="AE45" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="46">
       <c r="F46" t="s">
         <v>69</v>
       </c>
-      <c r="H46" t="s">
+      <c r="I46" t="s">
         <v>534</v>
       </c>
-      <c r="AA46" t="s">
-        <v>118</v>
+      <c r="T46" t="s">
+        <v>777</v>
+      </c>
+      <c r="AE46" t="s">
+        <v>334</v>
       </c>
     </row>
     <row r="47">
       <c r="F47" t="s">
         <v>623</v>
       </c>
-      <c r="H47" t="s">
+      <c r="I47" t="s">
         <v>285</v>
       </c>
-      <c r="AA47" t="s">
+      <c r="T47" t="s">
+        <v>778</v>
+      </c>
+      <c r="AE47" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="I48" t="s">
+        <v>296</v>
+      </c>
+      <c r="T48" t="s">
+        <v>779</v>
+      </c>
+      <c r="AE48" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="I49" t="s">
+        <v>297</v>
+      </c>
+      <c r="T49" t="s">
+        <v>780</v>
+      </c>
+      <c r="AE49" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="I50" t="s">
+        <v>339</v>
+      </c>
+      <c r="T50" t="s">
+        <v>664</v>
+      </c>
+      <c r="AE50" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="I51" t="s">
+        <v>338</v>
+      </c>
+      <c r="T51" t="s">
+        <v>781</v>
+      </c>
+      <c r="AE51" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="48">
-      <c r="H48" t="s">
-        <v>296</v>
-      </c>
-      <c r="AA48" t="s">
+    <row r="52">
+      <c r="I52" t="s">
+        <v>207</v>
+      </c>
+      <c r="AE52" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="49">
-      <c r="H49" t="s">
-        <v>297</v>
-      </c>
-      <c r="AA49" t="s">
+    <row r="53">
+      <c r="I53" t="s">
+        <v>316</v>
+      </c>
+      <c r="AE53" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="50">
-      <c r="H50" t="s">
-        <v>339</v>
-      </c>
-      <c r="AA50" t="s">
+    <row r="54">
+      <c r="I54" t="s">
+        <v>688</v>
+      </c>
+      <c r="AE54" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="51">
-      <c r="H51" t="s">
-        <v>338</v>
-      </c>
-      <c r="AA51" t="s">
+    <row r="55">
+      <c r="I55" t="s">
+        <v>689</v>
+      </c>
+      <c r="AE55" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="52">
-      <c r="H52" t="s">
-        <v>207</v>
-      </c>
-      <c r="AA52" t="s">
+    <row r="56">
+      <c r="I56" t="s">
+        <v>690</v>
+      </c>
+      <c r="AE56" t="s">
         <v>617</v>
       </c>
     </row>
-    <row r="53">
-      <c r="H53" t="s">
-        <v>316</v>
-      </c>
-      <c r="AA53" t="s">
+    <row r="57">
+      <c r="I57" t="s">
+        <v>691</v>
+      </c>
+      <c r="AE57" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="54">
-      <c r="H54" t="s">
-        <v>688</v>
-      </c>
-      <c r="AA54" t="s">
+    <row r="58">
+      <c r="I58" t="s">
+        <v>335</v>
+      </c>
+      <c r="AE58" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="55">
-      <c r="H55" t="s">
-        <v>689</v>
-      </c>
-      <c r="AA55" t="s">
+    <row r="59">
+      <c r="I59" t="s">
+        <v>363</v>
+      </c>
+      <c r="AE59" t="s">
         <v>531</v>
       </c>
     </row>
-    <row r="56">
-      <c r="H56" t="s">
-        <v>690</v>
-      </c>
-      <c r="AA56" t="s">
+    <row r="60">
+      <c r="I60" t="s">
+        <v>298</v>
+      </c>
+      <c r="AE60" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="57">
-      <c r="H57" t="s">
-        <v>691</v>
-      </c>
-      <c r="AA57" t="s">
+    <row r="61">
+      <c r="I61" t="s">
+        <v>727</v>
+      </c>
+      <c r="AE61" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="58">
-      <c r="H58" t="s">
-        <v>335</v>
-      </c>
-      <c r="AA58" t="s">
+    <row r="62">
+      <c r="I62" t="s">
+        <v>728</v>
+      </c>
+      <c r="AE62" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="59">
-      <c r="H59" t="s">
-        <v>363</v>
-      </c>
-      <c r="AA59" t="s">
+    <row r="63">
+      <c r="I63" t="s">
+        <v>327</v>
+      </c>
+      <c r="AE63" t="s">
+        <v>793</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="I64" t="s">
+        <v>264</v>
+      </c>
+      <c r="AE64" t="s">
         <v>490</v>
       </c>
     </row>
-    <row r="60">
-      <c r="H60" t="s">
-        <v>298</v>
-      </c>
-      <c r="AA60" t="s">
+    <row r="65">
+      <c r="I65" t="s">
+        <v>288</v>
+      </c>
+      <c r="AE65" t="s">
         <v>459</v>
       </c>
     </row>
-    <row r="61">
-      <c r="H61" t="s">
-        <v>327</v>
-      </c>
-      <c r="AA61" t="s">
+    <row r="66">
+      <c r="I66" t="s">
+        <v>289</v>
+      </c>
+      <c r="AE66" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="62">
-      <c r="H62" t="s">
-        <v>264</v>
-      </c>
-      <c r="AA62" t="s">
+    <row r="67">
+      <c r="I67" t="s">
+        <v>535</v>
+      </c>
+      <c r="AE67" t="s">
         <v>342</v>
       </c>
     </row>
-    <row r="63">
-      <c r="H63" t="s">
-        <v>288</v>
-      </c>
-      <c r="AA63" t="s">
+    <row r="68">
+      <c r="I68" t="s">
+        <v>290</v>
+      </c>
+      <c r="AE68" t="s">
         <v>460</v>
       </c>
     </row>
-    <row r="64">
-      <c r="H64" t="s">
-        <v>289</v>
-      </c>
-      <c r="AA64" t="s">
+    <row r="69">
+      <c r="I69" t="s">
+        <v>692</v>
+      </c>
+      <c r="AE69" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="65">
-      <c r="H65" t="s">
-        <v>535</v>
-      </c>
-      <c r="AA65" t="s">
+    <row r="70">
+      <c r="I70" t="s">
+        <v>693</v>
+      </c>
+      <c r="AE70" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="66">
-      <c r="H66" t="s">
-        <v>290</v>
-      </c>
-      <c r="AA66" t="s">
+    <row r="71">
+      <c r="I71" t="s">
+        <v>694</v>
+      </c>
+      <c r="AE71" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="67">
-      <c r="H67" t="s">
-        <v>692</v>
-      </c>
-      <c r="AA67" t="s">
+    <row r="72">
+      <c r="I72" t="s">
+        <v>308</v>
+      </c>
+      <c r="AE72" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="68">
-      <c r="H68" t="s">
-        <v>693</v>
-      </c>
-      <c r="AA68" t="s">
+    <row r="73">
+      <c r="I73" t="s">
+        <v>695</v>
+      </c>
+      <c r="AE73" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="69">
-      <c r="H69" t="s">
-        <v>694</v>
-      </c>
-      <c r="AA69" t="s">
+    <row r="74">
+      <c r="I74" t="s">
+        <v>696</v>
+      </c>
+      <c r="AE74" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="70">
-      <c r="H70" t="s">
-        <v>308</v>
-      </c>
-      <c r="AA70" t="s">
+    <row r="75">
+      <c r="I75" t="s">
+        <v>333</v>
+      </c>
+      <c r="AE75" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="71">
-      <c r="H71" t="s">
-        <v>695</v>
-      </c>
-      <c r="AA71" t="s">
+    <row r="76">
+      <c r="I76" t="s">
+        <v>305</v>
+      </c>
+      <c r="AE76" t="s">
         <v>435</v>
       </c>
     </row>
-    <row r="72">
-      <c r="H72" t="s">
-        <v>696</v>
-      </c>
-      <c r="AA72" t="s">
+    <row r="77">
+      <c r="I77" t="s">
+        <v>306</v>
+      </c>
+      <c r="AE77" t="s">
         <v>468</v>
       </c>
     </row>
-    <row r="73">
-      <c r="H73" t="s">
-        <v>333</v>
-      </c>
-      <c r="AA73" t="s">
+    <row r="78">
+      <c r="I78" t="s">
+        <v>364</v>
+      </c>
+      <c r="AE78" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="74">
-      <c r="H74" t="s">
-        <v>305</v>
-      </c>
-      <c r="AA74" t="s">
+    <row r="79">
+      <c r="I79" t="s">
+        <v>365</v>
+      </c>
+      <c r="AE79" t="s">
         <v>384</v>
       </c>
     </row>
-    <row r="75">
-      <c r="H75" t="s">
-        <v>306</v>
-      </c>
-      <c r="AA75" t="s">
+    <row r="80">
+      <c r="I80" t="s">
+        <v>341</v>
+      </c>
+      <c r="AE80" t="s">
         <v>436</v>
       </c>
     </row>
-    <row r="76">
-      <c r="H76" t="s">
-        <v>364</v>
-      </c>
-      <c r="AA76" t="s">
+    <row r="81">
+      <c r="I81" t="s">
+        <v>309</v>
+      </c>
+      <c r="AE81" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="77">
-      <c r="H77" t="s">
-        <v>365</v>
-      </c>
-      <c r="AA77" t="s">
+    <row r="82">
+      <c r="I82" t="s">
+        <v>265</v>
+      </c>
+      <c r="AE82" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="78">
-      <c r="H78" t="s">
-        <v>341</v>
-      </c>
-      <c r="AA78" t="s">
+    <row r="83">
+      <c r="I83" t="s">
+        <v>520</v>
+      </c>
+      <c r="AE83" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="79">
-      <c r="H79" t="s">
-        <v>309</v>
-      </c>
-      <c r="AA79" t="s">
+    <row r="84">
+      <c r="I84" t="s">
+        <v>310</v>
+      </c>
+      <c r="AE84" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="80">
-      <c r="H80" t="s">
-        <v>265</v>
-      </c>
-      <c r="AA80" t="s">
+    <row r="85">
+      <c r="I85" t="s">
+        <v>405</v>
+      </c>
+      <c r="AE85" t="s">
         <v>661</v>
       </c>
     </row>
-    <row r="81">
-      <c r="H81" t="s">
-        <v>520</v>
-      </c>
-      <c r="AA81" t="s">
+    <row r="86">
+      <c r="I86" t="s">
+        <v>697</v>
+      </c>
+      <c r="AE86" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="82">
-      <c r="H82" t="s">
-        <v>310</v>
-      </c>
-      <c r="AA82" t="s">
+    <row r="87">
+      <c r="I87" t="s">
+        <v>698</v>
+      </c>
+      <c r="AE87" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="83">
-      <c r="H83" t="s">
-        <v>405</v>
-      </c>
-      <c r="AA83" t="s">
+    <row r="88">
+      <c r="I88" t="s">
+        <v>258</v>
+      </c>
+      <c r="AE88" t="s">
         <v>448</v>
       </c>
     </row>
-    <row r="84">
-      <c r="H84" t="s">
-        <v>697</v>
-      </c>
-      <c r="AA84" t="s">
+    <row r="89">
+      <c r="I89" t="s">
+        <v>505</v>
+      </c>
+      <c r="AE89" t="s">
         <v>461</v>
       </c>
     </row>
-    <row r="85">
-      <c r="H85" t="s">
-        <v>698</v>
-      </c>
-      <c r="AA85" t="s">
+    <row r="90">
+      <c r="I90" t="s">
+        <v>340</v>
+      </c>
+      <c r="AE90" t="s">
         <v>706</v>
       </c>
     </row>
-    <row r="86">
-      <c r="H86" t="s">
-        <v>258</v>
-      </c>
-      <c r="AA86" t="s">
+    <row r="91">
+      <c r="I91" t="s">
+        <v>276</v>
+      </c>
+      <c r="AE91" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="87">
-      <c r="H87" t="s">
-        <v>505</v>
-      </c>
-      <c r="AA87" t="s">
+    <row r="92">
+      <c r="I92" t="s">
+        <v>699</v>
+      </c>
+      <c r="AE92" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="88">
-      <c r="H88" t="s">
-        <v>340</v>
-      </c>
-      <c r="AA88" t="s">
+    <row r="93">
+      <c r="I93" t="s">
+        <v>700</v>
+      </c>
+      <c r="AE93" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="89">
-      <c r="H89" t="s">
-        <v>276</v>
-      </c>
-      <c r="AA89" t="s">
+    <row r="94">
+      <c r="I94" t="s">
+        <v>287</v>
+      </c>
+      <c r="AE94" t="s">
         <v>491</v>
       </c>
     </row>
-    <row r="90">
-      <c r="H90" t="s">
-        <v>699</v>
-      </c>
-      <c r="AA90" t="s">
+    <row r="95">
+      <c r="I95" t="s">
+        <v>424</v>
+      </c>
+      <c r="AE95" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="91">
-      <c r="H91" t="s">
-        <v>700</v>
-      </c>
-      <c r="AA91" t="s">
+    <row r="96">
+      <c r="I96" t="s">
+        <v>328</v>
+      </c>
+      <c r="AE96" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="92">
-      <c r="H92" t="s">
-        <v>287</v>
-      </c>
-      <c r="AA92" t="s">
+    <row r="97">
+      <c r="I97" t="s">
+        <v>266</v>
+      </c>
+      <c r="AE97" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="93">
-      <c r="H93" t="s">
-        <v>424</v>
-      </c>
-      <c r="AA93" t="s">
+    <row r="98">
+      <c r="I98" t="s">
+        <v>277</v>
+      </c>
+      <c r="AE98" t="s">
         <v>492</v>
       </c>
     </row>
-    <row r="94">
-      <c r="H94" t="s">
-        <v>328</v>
-      </c>
-      <c r="AA94" t="s">
+    <row r="99">
+      <c r="I99" t="s">
+        <v>283</v>
+      </c>
+      <c r="AE99" t="s">
         <v>587</v>
       </c>
     </row>
-    <row r="95">
-      <c r="H95" t="s">
-        <v>266</v>
-      </c>
-      <c r="AA95" t="s">
+    <row r="100">
+      <c r="I100" t="s">
+        <v>272</v>
+      </c>
+      <c r="AE100" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="96">
-      <c r="H96" t="s">
-        <v>277</v>
-      </c>
-      <c r="AA96" t="s">
+    <row r="101">
+      <c r="I101" t="s">
+        <v>523</v>
+      </c>
+      <c r="AE101" t="s">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="I102" t="s">
+        <v>267</v>
+      </c>
+      <c r="AE102" t="s">
         <v>449</v>
       </c>
     </row>
-    <row r="97">
-      <c r="H97" t="s">
-        <v>283</v>
-      </c>
-      <c r="AA97" t="s">
+    <row r="103">
+      <c r="I103" t="s">
+        <v>284</v>
+      </c>
+      <c r="AE103" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="98">
-      <c r="H98" t="s">
-        <v>272</v>
-      </c>
-      <c r="AA98" t="s">
+    <row r="104">
+      <c r="I104" t="s">
+        <v>701</v>
+      </c>
+      <c r="AE104" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="99">
-      <c r="H99" t="s">
-        <v>523</v>
-      </c>
-      <c r="AA99" t="s">
+    <row r="105">
+      <c r="I105" t="s">
+        <v>702</v>
+      </c>
+      <c r="AE105" t="s">
         <v>572</v>
       </c>
     </row>
-    <row r="100">
-      <c r="H100" t="s">
-        <v>267</v>
-      </c>
-      <c r="AA100" t="s">
+    <row r="106">
+      <c r="I106" t="s">
+        <v>268</v>
+      </c>
+      <c r="AE106" t="s">
         <v>573</v>
       </c>
     </row>
-    <row r="101">
-      <c r="H101" t="s">
-        <v>284</v>
-      </c>
-      <c r="AA101" t="s">
+    <row r="107">
+      <c r="I107" t="s">
+        <v>269</v>
+      </c>
+      <c r="AE107" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="102">
-      <c r="H102" t="s">
-        <v>701</v>
-      </c>
-      <c r="AA102" t="s">
+    <row r="108">
+      <c r="I108" t="s">
+        <v>301</v>
+      </c>
+      <c r="AE108" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="103">
-      <c r="H103" t="s">
-        <v>702</v>
-      </c>
-      <c r="AA103" t="s">
+    <row r="109">
+      <c r="I109" t="s">
+        <v>307</v>
+      </c>
+      <c r="AE109" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="104">
-      <c r="H104" t="s">
-        <v>268</v>
-      </c>
-      <c r="AA104" t="s">
+    <row r="110">
+      <c r="I110" t="s">
+        <v>291</v>
+      </c>
+      <c r="AE110" t="s">
         <v>437</v>
       </c>
     </row>
-    <row r="105">
-      <c r="H105" t="s">
-        <v>269</v>
-      </c>
-      <c r="AA105" t="s">
+    <row r="111">
+      <c r="I111" t="s">
+        <v>336</v>
+      </c>
+      <c r="AE111" t="s">
         <v>585</v>
       </c>
     </row>
-    <row r="106">
-      <c r="H106" t="s">
-        <v>301</v>
-      </c>
-      <c r="AA106" t="s">
+    <row r="112">
+      <c r="I112" t="s">
+        <v>273</v>
+      </c>
+      <c r="AE112" t="s">
         <v>586</v>
       </c>
     </row>
-    <row r="107">
-      <c r="H107" t="s">
-        <v>307</v>
-      </c>
-      <c r="AA107" t="s">
+    <row r="113">
+      <c r="I113" t="s">
+        <v>274</v>
+      </c>
+      <c r="AE113" t="s">
         <v>438</v>
       </c>
     </row>
-    <row r="108">
-      <c r="H108" t="s">
-        <v>291</v>
-      </c>
-      <c r="AA108" t="s">
+    <row r="114">
+      <c r="AE114" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="109">
-      <c r="H109" t="s">
-        <v>336</v>
-      </c>
-      <c r="AA109" t="s">
+    <row r="115">
+      <c r="AE115" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="110">
-      <c r="H110" t="s">
-        <v>273</v>
-      </c>
-      <c r="AA110" t="s">
+    <row r="116">
+      <c r="AE116" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="111">
-      <c r="H111" t="s">
-        <v>274</v>
-      </c>
-      <c r="AA111" t="s">
+    <row r="117">
+      <c r="AE117" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="112">
-      <c r="AA112" t="s">
+    <row r="118">
+      <c r="AE118" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="113">
-      <c r="AA113" t="s">
+    <row r="119">
+      <c r="AE119" t="s">
         <v>591</v>
       </c>
     </row>
-    <row r="114">
-      <c r="AA114" t="s">
+    <row r="120">
+      <c r="AE120" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="115">
-      <c r="AA115" t="s">
+    <row r="121">
+      <c r="AE121" t="s">
         <v>493</v>
       </c>
     </row>
-    <row r="116">
-      <c r="AA116" t="s">
+    <row r="122">
+      <c r="AE122" t="s">
         <v>662</v>
       </c>
     </row>
-    <row r="117">
-      <c r="AA117" t="s">
+    <row r="123">
+      <c r="AE123" t="s">
         <v>663</v>
       </c>
     </row>
-    <row r="118">
-      <c r="AA118" t="s">
-        <v>517</v>
-      </c>
-    </row>
-    <row r="119">
-      <c r="AA119" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="120">
-      <c r="AA120" t="s">
+    <row r="124">
+      <c r="AE124" t="s">
         <v>518</v>
       </c>
     </row>
-    <row r="121">
-      <c r="AA121" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="122">
-      <c r="AA122" t="s">
+    <row r="125">
+      <c r="AE125" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="123">
-      <c r="AA123" t="s">
+    <row r="126">
+      <c r="AE126" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="124">
-      <c r="AA124" t="s">
+    <row r="127">
+      <c r="AE127" t="s">
         <v>592</v>
       </c>
     </row>
-    <row r="125">
-      <c r="AA125" t="s">
+    <row r="128">
+      <c r="AE128" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="AE129" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="126">
-      <c r="AA126" t="s">
+    <row r="130">
+      <c r="AE130" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="127">
-      <c r="AA127" t="s">
+    <row r="131">
+      <c r="AE131" t="s">
         <v>593</v>
       </c>
     </row>
-    <row r="128">
-      <c r="AA128" t="s">
+    <row r="132">
+      <c r="AE132" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="129">
-      <c r="AA129" t="s">
+    <row r="133">
+      <c r="AE133" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="130">
-      <c r="AA130" t="s">
+    <row r="134">
+      <c r="AE134" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="131">
-      <c r="AA131" t="s">
+    <row r="135">
+      <c r="AE135" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="132">
-      <c r="AA132" t="s">
+    <row r="136">
+      <c r="AE136" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="133">
-      <c r="AA133" t="s">
+    <row r="137">
+      <c r="AE137" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="134">
-      <c r="AA134" t="s">
+    <row r="138">
+      <c r="AE138" t="s">
         <v>594</v>
       </c>
     </row>
-    <row r="135">
-      <c r="AA135" t="s">
+    <row r="139">
+      <c r="AE139" t="s">
+        <v>796</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="AE140" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="136">
-      <c r="AA136" t="s">
+    <row r="141">
+      <c r="AE141" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="137">
-      <c r="AA137" t="s">
+    <row r="142">
+      <c r="AE142" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="138">
-      <c r="AA138" t="s">
+    <row r="143">
+      <c r="AE143" t="s">
         <v>618</v>
       </c>
     </row>
-    <row r="139">
-      <c r="AA139" t="s">
+    <row r="144">
+      <c r="AE144" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="140">
-      <c r="AA140" t="s">
+    <row r="145">
+      <c r="AE145" t="s">
         <v>569</v>
       </c>
     </row>
-    <row r="141">
-      <c r="AA141" t="s">
+    <row r="146">
+      <c r="AE146" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="142">
-      <c r="AA142" t="s">
+    <row r="147">
+      <c r="AE147" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="143">
-      <c r="AA143" t="s">
+    <row r="148">
+      <c r="AE148" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="144">
-      <c r="AA144" t="s">
+    <row r="149">
+      <c r="AE149" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="145">
-      <c r="AA145" t="s">
+    <row r="150">
+      <c r="AE150" t="s">
         <v>664</v>
       </c>
     </row>
-    <row r="146">
-      <c r="AA146" t="s">
+    <row r="151">
+      <c r="AE151" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="AE152" t="s">
         <v>595</v>
       </c>
     </row>
-    <row r="147">
-      <c r="AA147" t="s">
+    <row r="153">
+      <c r="AE153" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="148">
-      <c r="AA148" t="s">
+    <row r="154">
+      <c r="AE154" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="149">
-      <c r="AA149" t="s">
+    <row r="155">
+      <c r="AE155" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="150">
-      <c r="AA150" t="s">
+    <row r="156">
+      <c r="AE156" t="s">
         <v>665</v>
       </c>
     </row>
-    <row r="151">
-      <c r="AA151" t="s">
+    <row r="157">
+      <c r="AE157" t="s">
         <v>666</v>
       </c>
     </row>
-    <row r="152">
-      <c r="AA152" t="s">
+    <row r="158">
+      <c r="AE158" t="s">
         <v>667</v>
       </c>
     </row>
-    <row r="153">
-      <c r="AA153" t="s">
+    <row r="159">
+      <c r="AE159" t="s">
         <v>668</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="AE160" t="s">
+        <v>798</v>
       </c>
     </row>
   </sheetData>
